--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteuR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FF9C1-C6B8-45D1-92B3-38FA0C901471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B38AB-C2E7-4E49-8F46-588DF842CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" tabRatio="942" activeTab="10" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="942" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -29,14 +29,6 @@
     <sheet name="HPOP_Chart" sheetId="6" r:id="rId14"/>
     <sheet name="HPOP_Inter" sheetId="5" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">HEP_summary!$A$1:$C$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">HPOP_summary!$A$1:$D$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">UHC_summary!$A$1:$D$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="471">
   <si>
     <t>Magnitude +</t>
   </si>
@@ -3500,6 +3492,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3644,9 +3639,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4333,7 +4325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A163F0F1-AB48-4117-91E7-A58DC04BF958}" type="CELLRANGE">
+                    <a:fld id="{695CA04D-A59B-4040-9FAA-9E514EDDEDBF}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4394,7 +4386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5EA9445-52FF-4555-8B04-DF3E8D84F7F2}" type="CELLRANGE">
+                    <a:fld id="{9703A0F3-8940-46D8-A47B-B21EE8736BA1}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4455,7 +4447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10117B8D-C6E7-4864-93CD-773DC0FDC8B2}" type="CELLRANGE">
+                    <a:fld id="{F2DFD7B7-EC14-48E4-BC9B-9411B31CD9F0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4489,7 +4481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20D75D12-FF9B-44D8-B22C-E423AFAA25AB}" type="CELLRANGE">
+                    <a:fld id="{153F5C4A-48A0-46F2-B84F-58F7B29BB803}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4508,7 +4500,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4550,7 +4541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2154E94F-065A-4C46-8F55-0F944BA89D51}" type="CELLRANGE">
+                    <a:fld id="{6BF412FE-E13E-4DE7-A059-FB8FE07603D7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4584,7 +4575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1D2E703-C162-4AEB-9C6F-17281CC7966C}" type="CELLRANGE">
+                    <a:fld id="{656BC4CD-494B-497B-AFC8-612AC607BB4E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4618,7 +4609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02BBFAE2-8BDD-4662-B28D-1ED011BFF498}" type="CELLRANGE">
+                    <a:fld id="{B175A792-335C-4032-BC96-25B9F31AE2DB}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4652,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52E92A29-C288-4533-BB94-A2DB691CEDD3}" type="CELLRANGE">
+                    <a:fld id="{94DF599B-7C8B-4D50-9221-1873FD11807A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4686,7 +4677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC08C465-582D-41DD-B81A-89167ECC39BD}" type="CELLRANGE">
+                    <a:fld id="{B567D36E-9AA4-4C16-A829-FC5A7AB849E7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4720,7 +4711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E870895-0FB8-41B5-B991-915C263EDE09}" type="CELLRANGE">
+                    <a:fld id="{5DEBA03B-A675-4057-A27C-782FA7D7451F}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4754,7 +4745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D500A0AB-ED4C-40BC-B3FC-2F03F53A2F5F}" type="CELLRANGE">
+                    <a:fld id="{1BE7FB43-7A7F-41DB-BBD2-5EEE3950C192}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4773,7 +4764,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6516,7 +6506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76F15903-526B-46E7-A2BF-95D56BAC3A24}" type="CELLRANGE">
+                    <a:fld id="{66DAD0D0-10FF-49B6-A11F-A8CA0295FBAF}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6577,7 +6567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50317BF9-A812-44E6-B919-D87897FAAA6D}" type="CELLRANGE">
+                    <a:fld id="{D71076F6-FA24-4BBC-80BC-19BF96002FF4}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6638,7 +6628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E0E7F46-B202-433D-ADB5-08CEBED893B1}" type="CELLRANGE">
+                    <a:fld id="{A14A0C96-7EF3-4010-8950-DF578CFCBB21}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6672,7 +6662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22E61868-B728-4CCA-A067-B1E60ED18759}" type="CELLRANGE">
+                    <a:fld id="{FD49D6B9-8F7C-43D9-91D6-1FDD02414C92}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6733,7 +6723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{422D1941-E4B3-4E27-9D7B-767F586CECC3}" type="CELLRANGE">
+                    <a:fld id="{55DA4FB0-4080-440C-82C7-38EBB8101E1E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6767,7 +6757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C6C78A3-DD5D-4A1D-B604-A057F2EF701D}" type="CELLRANGE">
+                    <a:fld id="{B1E3E3C1-EE8A-41B7-8B1A-4E662CBB1E20}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6801,7 +6791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66674A9F-F1B3-4CED-BB9E-48DEFB60A1E1}" type="CELLRANGE">
+                    <a:fld id="{70202BED-F21D-48A7-8DF6-EA90B09CB18C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6835,7 +6825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05100990-BB64-49EA-BFD2-2B351447DF56}" type="CELLRANGE">
+                    <a:fld id="{ECC75A69-40A2-42AF-9BEC-8C5EF6390BE8}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6869,7 +6859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD6BB55D-EFBA-469C-A9E2-84C5D92F5C6E}" type="CELLRANGE">
+                    <a:fld id="{8815E306-05A7-4923-AEAB-FF0B3CDDDA94}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6903,7 +6893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCC1312A-C070-4CB8-B51C-BE29EE1B9A67}" type="CELLRANGE">
+                    <a:fld id="{210446CD-9B68-4839-88F8-286C62CEE355}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6937,7 +6927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8114CA48-C457-452F-B175-C49DC8634550}" type="CELLRANGE">
+                    <a:fld id="{B635EA97-B718-4BFE-B012-14BDD02811EF}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6971,7 +6961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC5F8702-A553-435E-84BF-875861564212}" type="CELLRANGE">
+                    <a:fld id="{E6858B06-F945-4BEB-BDBB-4963833554BE}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7005,7 +6995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F984FD68-9EA1-41CB-A308-51D403B85F45}" type="CELLRANGE">
+                    <a:fld id="{F71BD4EE-688B-4834-A335-28C9C79F2C8D}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7589,1011 +7579,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Intro"/>
-      <sheetName val="Indicator List"/>
-      <sheetName val="UHC_summary"/>
-      <sheetName val="UHC_Time Series"/>
-      <sheetName val="UHC_Chart"/>
-      <sheetName val="UHC_Inter"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
-          <cell r="I1"/>
-          <cell r="J1"/>
-          <cell r="L1"/>
-          <cell r="M1"/>
-        </row>
-        <row r="2">
-          <cell r="B2"/>
-          <cell r="C2"/>
-          <cell r="D2"/>
-          <cell r="E2"/>
-          <cell r="I2"/>
-          <cell r="J2"/>
-          <cell r="L2"/>
-          <cell r="M2"/>
-        </row>
-        <row r="3">
-          <cell r="B3"/>
-          <cell r="C3"/>
-          <cell r="D3"/>
-          <cell r="E3"/>
-          <cell r="I3"/>
-          <cell r="J3"/>
-          <cell r="L3"/>
-          <cell r="M3"/>
-        </row>
-        <row r="4">
-          <cell r="B4"/>
-          <cell r="C4"/>
-          <cell r="D4"/>
-          <cell r="E4"/>
-          <cell r="I4"/>
-          <cell r="J4"/>
-          <cell r="L4"/>
-          <cell r="M4"/>
-        </row>
-        <row r="5">
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-          <cell r="E5"/>
-          <cell r="I5"/>
-          <cell r="J5"/>
-          <cell r="L5"/>
-          <cell r="M5"/>
-        </row>
-        <row r="6">
-          <cell r="B6"/>
-          <cell r="C6"/>
-          <cell r="D6"/>
-          <cell r="E6"/>
-          <cell r="I6"/>
-          <cell r="J6"/>
-          <cell r="L6"/>
-          <cell r="M6"/>
-        </row>
-        <row r="7">
-          <cell r="B7"/>
-          <cell r="C7"/>
-          <cell r="D7"/>
-          <cell r="E7"/>
-          <cell r="I7"/>
-          <cell r="J7"/>
-          <cell r="L7"/>
-          <cell r="M7"/>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="C8"/>
-          <cell r="D8"/>
-          <cell r="E8"/>
-          <cell r="I8"/>
-          <cell r="J8"/>
-          <cell r="L8"/>
-          <cell r="M8"/>
-        </row>
-        <row r="9">
-          <cell r="B9"/>
-          <cell r="C9" t="str">
-            <v>Latest Reported/Estimated Data Available</v>
-          </cell>
-          <cell r="D9"/>
-          <cell r="E9"/>
-          <cell r="I9" t="str">
-            <v>2018 Baseline, and 2023 Projection</v>
-          </cell>
-          <cell r="J9"/>
-          <cell r="L9"/>
-          <cell r="M9"/>
-        </row>
-        <row r="10">
-          <cell r="B10"/>
-          <cell r="C10" t="str">
-            <v>Raw Value</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Transformed Value</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Year</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Raw Value</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v/>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Transformed Value</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Tracer Indicator</v>
-          </cell>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
-          <cell r="I11" t="str">
-            <v>2018</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>2023</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>2018</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
-          <cell r="I12"/>
-          <cell r="J12"/>
-          <cell r="L12"/>
-          <cell r="M12"/>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Demand satisfied with modern methods (married women or in-union) 1</v>
-          </cell>
-          <cell r="C13">
-            <v>57.99</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v/>
-          </cell>
-          <cell r="E13">
-            <v>2020</v>
-          </cell>
-          <cell r="I13">
-            <v>56.35</v>
-          </cell>
-          <cell r="J13">
-            <v>60.55</v>
-          </cell>
-          <cell r="L13"/>
-          <cell r="M13"/>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Antenatal care coverage (+4 visits) 2</v>
-          </cell>
-          <cell r="C14"/>
-          <cell r="D14" t="str">
-            <v/>
-          </cell>
-          <cell r="E14"/>
-          <cell r="I14">
-            <v>98.58</v>
-          </cell>
-          <cell r="J14">
-            <v>98.46</v>
-          </cell>
-          <cell r="L14"/>
-          <cell r="M14"/>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>DPT3 Immunization coverage</v>
-          </cell>
-          <cell r="C15">
-            <v>98</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v/>
-          </cell>
-          <cell r="E15">
-            <v>2019</v>
-          </cell>
-          <cell r="I15">
-            <v>98</v>
-          </cell>
-          <cell r="J15">
-            <v>98.54</v>
-          </cell>
-          <cell r="L15"/>
-          <cell r="M15"/>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Care seeking for suspected pneumonia</v>
-          </cell>
-          <cell r="C16"/>
-          <cell r="D16" t="str">
-            <v/>
-          </cell>
-          <cell r="E16"/>
-          <cell r="I16">
-            <v>89.91</v>
-          </cell>
-          <cell r="J16">
-            <v>90.82</v>
-          </cell>
-          <cell r="L16"/>
-          <cell r="M16"/>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Average RMNCH</v>
-          </cell>
-          <cell r="C17"/>
-          <cell r="D17"/>
-          <cell r="E17"/>
-          <cell r="I17"/>
-          <cell r="J17"/>
-          <cell r="L17"/>
-          <cell r="M17"/>
-        </row>
-        <row r="18">
-          <cell r="B18"/>
-          <cell r="C18"/>
-          <cell r="D18"/>
-          <cell r="E18"/>
-          <cell r="I18"/>
-          <cell r="J18"/>
-          <cell r="L18"/>
-          <cell r="M18"/>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>TB treatment coverage</v>
-          </cell>
-          <cell r="C19">
-            <v>86.96</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v/>
-          </cell>
-          <cell r="E19">
-            <v>2019</v>
-          </cell>
-          <cell r="I19">
-            <v>86.96</v>
-          </cell>
-          <cell r="J19">
-            <v>86.96</v>
-          </cell>
-          <cell r="L19"/>
-          <cell r="M19"/>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>HIV ART coverage</v>
-          </cell>
-          <cell r="C20">
-            <v>84.01</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v/>
-          </cell>
-          <cell r="E20">
-            <v>2019</v>
-          </cell>
-          <cell r="I20">
-            <v>83.01</v>
-          </cell>
-          <cell r="J20">
-            <v>90.99</v>
-          </cell>
-          <cell r="L20"/>
-          <cell r="M20"/>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>ITN use 4</v>
-          </cell>
-          <cell r="C21"/>
-          <cell r="D21" t="str">
-            <v/>
-          </cell>
-          <cell r="E21"/>
-          <cell r="I21"/>
-          <cell r="J21"/>
-          <cell r="L21"/>
-          <cell r="M21"/>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Use of basic sanitation</v>
-          </cell>
-          <cell r="C22">
-            <v>99.89</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v/>
-          </cell>
-          <cell r="E22">
-            <v>2017</v>
-          </cell>
-          <cell r="I22">
-            <v>99.9</v>
-          </cell>
-          <cell r="J22">
-            <v>99.9</v>
-          </cell>
-          <cell r="L22"/>
-          <cell r="M22"/>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Average Infectious diseases</v>
-          </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
-          <cell r="E23"/>
-          <cell r="I23"/>
-          <cell r="J23"/>
-          <cell r="L23"/>
-          <cell r="M23"/>
-        </row>
-        <row r="24">
-          <cell r="B24"/>
-          <cell r="C24"/>
-          <cell r="D24"/>
-          <cell r="E24"/>
-          <cell r="I24"/>
-          <cell r="J24"/>
-          <cell r="L24"/>
-          <cell r="M24"/>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Prevalence of raised blood pressure*</v>
-          </cell>
-          <cell r="C25">
-            <v>17.55</v>
-          </cell>
-          <cell r="D25"/>
-          <cell r="E25">
-            <v>2015</v>
-          </cell>
-          <cell r="I25">
-            <v>16.68</v>
-          </cell>
-          <cell r="J25">
-            <v>15.29</v>
-          </cell>
-          <cell r="L25"/>
-          <cell r="M25"/>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Mean fasting blood glucose (mmol/l)*</v>
-          </cell>
-          <cell r="C26">
-            <v>5.2</v>
-          </cell>
-          <cell r="D26"/>
-          <cell r="E26">
-            <v>2014</v>
-          </cell>
-          <cell r="I26">
-            <v>5.12</v>
-          </cell>
-          <cell r="J26">
-            <v>5.03</v>
-          </cell>
-          <cell r="L26"/>
-          <cell r="M26"/>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Tobacco use prevalence* 3</v>
-          </cell>
-          <cell r="C27">
-            <v>21.9</v>
-          </cell>
-          <cell r="D27"/>
-          <cell r="E27">
-            <v>2018</v>
-          </cell>
-          <cell r="I27">
-            <v>21.9</v>
-          </cell>
-          <cell r="J27">
-            <v>19.5</v>
-          </cell>
-          <cell r="L27"/>
-          <cell r="M27"/>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Average NCDs</v>
-          </cell>
-          <cell r="C28"/>
-          <cell r="D28"/>
-          <cell r="E28"/>
-          <cell r="I28"/>
-          <cell r="J28"/>
-          <cell r="L28"/>
-          <cell r="M28"/>
-        </row>
-        <row r="29">
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
-          <cell r="I29"/>
-          <cell r="J29"/>
-          <cell r="L29"/>
-          <cell r="M29"/>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>Hospital beds density*</v>
-          </cell>
-          <cell r="C30">
-            <v>129.04</v>
-          </cell>
-          <cell r="D30"/>
-          <cell r="E30">
-            <v>2018</v>
-          </cell>
-          <cell r="I30">
-            <v>129.04</v>
-          </cell>
-          <cell r="J30">
-            <v>130.5</v>
-          </cell>
-          <cell r="L30"/>
-          <cell r="M30"/>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>Health worker density*</v>
-          </cell>
-          <cell r="C31">
-            <v>151.77000000000001</v>
-          </cell>
-          <cell r="D31"/>
-          <cell r="E31">
-            <v>2018</v>
-          </cell>
-          <cell r="I31">
-            <v>151.77000000000001</v>
-          </cell>
-          <cell r="J31">
-            <v>172.69</v>
-          </cell>
-          <cell r="L31"/>
-          <cell r="M31"/>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>Density of doctors</v>
-          </cell>
-          <cell r="C32">
-            <v>24.8</v>
-          </cell>
-          <cell r="D32"/>
-          <cell r="E32">
-            <v>2018</v>
-          </cell>
-          <cell r="I32">
-            <v>24.8</v>
-          </cell>
-          <cell r="J32">
-            <v>27.38</v>
-          </cell>
-          <cell r="L32"/>
-          <cell r="M32"/>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Density of nurses/midwives</v>
-          </cell>
-          <cell r="C33">
-            <v>126.98</v>
-          </cell>
-          <cell r="D33"/>
-          <cell r="E33">
-            <v>2018</v>
-          </cell>
-          <cell r="I33">
-            <v>126.98</v>
-          </cell>
-          <cell r="J33">
-            <v>145.31</v>
-          </cell>
-          <cell r="L33"/>
-          <cell r="M33"/>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>IHR core capacity index*</v>
-          </cell>
-          <cell r="C34">
-            <v>95</v>
-          </cell>
-          <cell r="D34"/>
-          <cell r="E34">
-            <v>2020</v>
-          </cell>
-          <cell r="I34">
-            <v>95</v>
-          </cell>
-          <cell r="J34">
-            <v>94.99</v>
-          </cell>
-          <cell r="L34"/>
-          <cell r="M34"/>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>Average Service capacity and access</v>
-          </cell>
-          <cell r="C35"/>
-          <cell r="D35"/>
-          <cell r="E35"/>
-          <cell r="I35"/>
-          <cell r="J35"/>
-          <cell r="L35"/>
-          <cell r="M35"/>
-        </row>
-        <row r="36">
-          <cell r="B36"/>
-          <cell r="C36"/>
-          <cell r="D36"/>
-          <cell r="E36"/>
-          <cell r="I36"/>
-          <cell r="J36"/>
-          <cell r="L36"/>
-          <cell r="M36"/>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>SDG 3.8.2 Proportion of population with household expenditures on health &gt;10% of total household expenditure or income **</v>
-          </cell>
-          <cell r="C37">
-            <v>4.3600000000000003</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v/>
-          </cell>
-          <cell r="E37">
-            <v>2015</v>
-          </cell>
-          <cell r="I37">
-            <v>4.2300000000000004</v>
-          </cell>
-          <cell r="J37">
-            <v>4.0599999999999996</v>
-          </cell>
-          <cell r="L37"/>
-          <cell r="M37"/>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>UHC single measure</v>
-          </cell>
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="I38"/>
-          <cell r="J38"/>
-          <cell r="L38">
-            <v>61.09664039777099</v>
-          </cell>
-          <cell r="M38">
-            <v>63.310803650646406</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>Change in UHC single measure over 2018-2023</v>
-          </cell>
-          <cell r="C39"/>
-          <cell r="D39"/>
-          <cell r="E39"/>
-          <cell r="I39"/>
-          <cell r="J39"/>
-          <cell r="L39"/>
-          <cell r="M39"/>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>UN Population 2023 (thousand)</v>
-          </cell>
-          <cell r="C40"/>
-          <cell r="D40"/>
-          <cell r="E40"/>
-          <cell r="I40"/>
-          <cell r="J40"/>
-          <cell r="L40"/>
-          <cell r="M40"/>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>Country contribution to UHC billion target (population - thousand)</v>
-          </cell>
-          <cell r="C41"/>
-          <cell r="D41"/>
-          <cell r="E41"/>
-          <cell r="I41"/>
-          <cell r="J41"/>
-          <cell r="L41"/>
-          <cell r="M41"/>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>% of country population newly covered by universal healthcare</v>
-          </cell>
-          <cell r="C42"/>
-          <cell r="D42"/>
-          <cell r="E42"/>
-          <cell r="I42"/>
-          <cell r="J42"/>
-          <cell r="L42"/>
-          <cell r="M42"/>
-        </row>
-        <row r="43">
-          <cell r="B43"/>
-          <cell r="C43"/>
-          <cell r="D43"/>
-          <cell r="E43"/>
-          <cell r="I43"/>
-          <cell r="J43"/>
-          <cell r="L43"/>
-          <cell r="M43"/>
-        </row>
-        <row r="44">
-          <cell r="B44"/>
-          <cell r="C44"/>
-          <cell r="D44"/>
-          <cell r="E44"/>
-          <cell r="I44"/>
-          <cell r="J44"/>
-          <cell r="L44"/>
-          <cell r="M44"/>
-        </row>
-        <row r="45">
-          <cell r="B45"/>
-          <cell r="C45"/>
-          <cell r="D45"/>
-          <cell r="E45"/>
-          <cell r="I45"/>
-          <cell r="J45"/>
-          <cell r="L45"/>
-          <cell r="M45"/>
-        </row>
-        <row r="46">
-          <cell r="B46"/>
-          <cell r="C46"/>
-          <cell r="D46"/>
-          <cell r="E46"/>
-          <cell r="I46"/>
-          <cell r="J46"/>
-          <cell r="L46"/>
-          <cell r="M46"/>
-        </row>
-        <row r="47">
-          <cell r="B47"/>
-          <cell r="C47"/>
-          <cell r="D47"/>
-          <cell r="E47"/>
-          <cell r="I47"/>
-          <cell r="J47"/>
-          <cell r="L47"/>
-          <cell r="M47"/>
-        </row>
-        <row r="48">
-          <cell r="B48"/>
-          <cell r="C48"/>
-          <cell r="D48"/>
-          <cell r="E48"/>
-          <cell r="I48"/>
-          <cell r="J48"/>
-          <cell r="L48"/>
-          <cell r="M48"/>
-        </row>
-        <row r="49">
-          <cell r="B49"/>
-          <cell r="C49"/>
-          <cell r="D49"/>
-          <cell r="E49"/>
-          <cell r="I49"/>
-          <cell r="J49"/>
-          <cell r="L49"/>
-          <cell r="M49"/>
-        </row>
-        <row r="50">
-          <cell r="B50"/>
-          <cell r="C50"/>
-          <cell r="D50"/>
-          <cell r="E50"/>
-          <cell r="I50"/>
-          <cell r="J50"/>
-          <cell r="L50"/>
-          <cell r="M50"/>
-        </row>
-        <row r="51">
-          <cell r="B51"/>
-          <cell r="C51"/>
-          <cell r="D51"/>
-          <cell r="E51"/>
-          <cell r="I51"/>
-          <cell r="J51"/>
-          <cell r="L51"/>
-          <cell r="M51"/>
-        </row>
-        <row r="52">
-          <cell r="B52"/>
-          <cell r="C52"/>
-          <cell r="D52"/>
-          <cell r="E52"/>
-          <cell r="I52"/>
-          <cell r="J52"/>
-          <cell r="L52"/>
-          <cell r="M52"/>
-        </row>
-        <row r="53">
-          <cell r="B53"/>
-          <cell r="C53"/>
-          <cell r="D53"/>
-          <cell r="E53"/>
-          <cell r="I53"/>
-          <cell r="J53"/>
-          <cell r="L53"/>
-          <cell r="M53"/>
-        </row>
-        <row r="54">
-          <cell r="B54"/>
-          <cell r="C54"/>
-          <cell r="D54"/>
-          <cell r="E54"/>
-          <cell r="I54"/>
-          <cell r="J54"/>
-          <cell r="L54"/>
-          <cell r="M54"/>
-        </row>
-        <row r="55">
-          <cell r="B55"/>
-          <cell r="C55"/>
-          <cell r="D55"/>
-          <cell r="E55"/>
-          <cell r="I55"/>
-          <cell r="J55"/>
-          <cell r="L55"/>
-          <cell r="M55"/>
-        </row>
-        <row r="56">
-          <cell r="B56"/>
-          <cell r="C56"/>
-          <cell r="D56"/>
-          <cell r="E56"/>
-          <cell r="I56"/>
-          <cell r="J56"/>
-          <cell r="L56"/>
-          <cell r="M56"/>
-        </row>
-        <row r="57">
-          <cell r="B57"/>
-          <cell r="C57"/>
-          <cell r="D57"/>
-          <cell r="E57"/>
-          <cell r="I57"/>
-          <cell r="J57"/>
-          <cell r="L57"/>
-          <cell r="M57"/>
-        </row>
-        <row r="58">
-          <cell r="B58"/>
-          <cell r="C58"/>
-          <cell r="D58"/>
-          <cell r="E58"/>
-          <cell r="I58"/>
-          <cell r="J58"/>
-          <cell r="L58"/>
-          <cell r="M58"/>
-        </row>
-        <row r="59">
-          <cell r="B59"/>
-          <cell r="C59"/>
-          <cell r="D59"/>
-          <cell r="E59"/>
-          <cell r="I59"/>
-          <cell r="J59"/>
-          <cell r="L59"/>
-          <cell r="M59"/>
-        </row>
-        <row r="60">
-          <cell r="B60"/>
-          <cell r="C60"/>
-          <cell r="D60"/>
-          <cell r="E60"/>
-          <cell r="I60"/>
-          <cell r="J60"/>
-          <cell r="L60"/>
-          <cell r="M60"/>
-        </row>
-        <row r="61">
-          <cell r="B61"/>
-          <cell r="C61"/>
-          <cell r="D61"/>
-          <cell r="E61"/>
-          <cell r="I61"/>
-          <cell r="J61"/>
-          <cell r="L61"/>
-          <cell r="M61"/>
-        </row>
-        <row r="62">
-          <cell r="B62"/>
-          <cell r="C62"/>
-          <cell r="D62"/>
-          <cell r="E62"/>
-          <cell r="I62"/>
-          <cell r="J62"/>
-          <cell r="L62"/>
-          <cell r="M62"/>
-        </row>
-        <row r="63">
-          <cell r="B63"/>
-          <cell r="C63"/>
-          <cell r="D63"/>
-          <cell r="E63"/>
-          <cell r="I63"/>
-          <cell r="J63"/>
-          <cell r="L63"/>
-          <cell r="M63"/>
-        </row>
-        <row r="64">
-          <cell r="B64"/>
-          <cell r="C64"/>
-          <cell r="D64"/>
-          <cell r="E64"/>
-          <cell r="I64"/>
-          <cell r="J64"/>
-          <cell r="L64"/>
-          <cell r="M64"/>
-        </row>
-        <row r="65">
-          <cell r="B65"/>
-          <cell r="C65"/>
-          <cell r="D65"/>
-          <cell r="E65"/>
-          <cell r="I65"/>
-          <cell r="J65"/>
-          <cell r="L65"/>
-          <cell r="M65"/>
-        </row>
-        <row r="66">
-          <cell r="B66"/>
-          <cell r="C66"/>
-          <cell r="D66"/>
-          <cell r="E66"/>
-          <cell r="I66"/>
-          <cell r="J66"/>
-          <cell r="L66"/>
-          <cell r="M66"/>
-        </row>
-        <row r="67">
-          <cell r="B67"/>
-          <cell r="C67"/>
-          <cell r="D67"/>
-          <cell r="E67"/>
-          <cell r="I67"/>
-          <cell r="J67"/>
-          <cell r="L67"/>
-          <cell r="M67"/>
-        </row>
-        <row r="68">
-          <cell r="B68"/>
-          <cell r="C68"/>
-          <cell r="D68"/>
-          <cell r="E68"/>
-          <cell r="I68"/>
-          <cell r="J68"/>
-          <cell r="L68"/>
-          <cell r="M68"/>
-        </row>
-        <row r="69">
-          <cell r="B69"/>
-          <cell r="C69"/>
-          <cell r="D69"/>
-          <cell r="E69"/>
-          <cell r="I69"/>
-          <cell r="J69"/>
-          <cell r="L69"/>
-          <cell r="M69"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Demand satisfied with modern methods (married women or in-union) 1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Antenatal care coverage (+4 visits) 2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>DPT3 Immunization coverage</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Care seeking for suspected pneumonia</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>TB treatment coverage</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>HIV ART coverage 4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Use of basic sanitation</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Prevalence of raised blood pressure*</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Mean fasting blood glucose (mmol/l)*</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Tobacco use prevalence* 3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Hospital beds density*</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Health worker density*</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>IHR core capacity index*</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8896,678 +7881,678 @@
   </sheetPr>
   <dimension ref="B1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:M34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="13" customWidth="1"/>
-    <col min="2" max="12" width="9.21875" style="13"/>
-    <col min="13" max="13" width="25.109375" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9.21875" style="13"/>
+    <col min="1" max="1" width="1.81640625" style="13" customWidth="1"/>
+    <col min="2" max="12" width="9.1796875" style="13"/>
+    <col min="13" max="13" width="25.08984375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:15" ht="36" customHeight="1">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="324" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="325" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="325"/>
+      <c r="I3" s="325"/>
+      <c r="J3" s="325"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="321" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
+      <c r="M4" s="321"/>
       <c r="N4" s="201"/>
       <c r="O4" s="201"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1">
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="318" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="318"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1">
-      <c r="B6" s="322" t="s">
+      <c r="B6" s="323" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="322"/>
-      <c r="D6" s="322"/>
-      <c r="E6" s="322"/>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="322"/>
-      <c r="M6" s="322"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
       <c r="N6" s="202"/>
       <c r="O6" s="202"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1">
-      <c r="B7" s="322" t="s">
+      <c r="B7" s="323" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="322"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
-      <c r="J7" s="322"/>
-      <c r="K7" s="322"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="322"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="323"/>
+      <c r="I7" s="323"/>
+      <c r="J7" s="323"/>
+      <c r="K7" s="323"/>
+      <c r="L7" s="323"/>
+      <c r="M7" s="323"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
     </row>
     <row r="8" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="323" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="322"/>
-      <c r="D8" s="322"/>
-      <c r="E8" s="322"/>
-      <c r="F8" s="322"/>
-      <c r="G8" s="322"/>
-      <c r="H8" s="322"/>
-      <c r="I8" s="322"/>
-      <c r="J8" s="322"/>
-      <c r="K8" s="322"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="322"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="323"/>
+      <c r="L8" s="323"/>
+      <c r="M8" s="323"/>
       <c r="N8" s="202"/>
       <c r="O8" s="202"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1">
-      <c r="B9" s="317" t="s">
+      <c r="B9" s="318" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="317"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="317"/>
-      <c r="H9" s="317"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="317"/>
-      <c r="K9" s="317"/>
-      <c r="L9" s="317"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="318"/>
+      <c r="F9" s="318"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="318"/>
+      <c r="I9" s="318"/>
+      <c r="J9" s="318"/>
+      <c r="K9" s="318"/>
+      <c r="L9" s="318"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B10" s="317" t="s">
+      <c r="B10" s="318" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="317"/>
-      <c r="D10" s="317"/>
-      <c r="E10" s="317"/>
-      <c r="F10" s="317"/>
-      <c r="G10" s="317"/>
-      <c r="H10" s="317"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="317"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="317"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="318"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1">
-      <c r="B11" s="320" t="s">
+      <c r="B11" s="321" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
+      <c r="C11" s="321"/>
+      <c r="D11" s="321"/>
+      <c r="E11" s="321"/>
+      <c r="F11" s="321"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="321"/>
+      <c r="J11" s="321"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="321"/>
+      <c r="M11" s="321"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="318" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="317"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="317"/>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="318"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
+      <c r="M12" s="318"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="322" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="322"/>
-      <c r="M13" s="322"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="323"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="323"/>
+      <c r="J13" s="323"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="322" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="322"/>
-      <c r="D14" s="322"/>
-      <c r="E14" s="322"/>
-      <c r="F14" s="322"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="322"/>
-      <c r="I14" s="322"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="322"/>
-      <c r="L14" s="322"/>
-      <c r="M14" s="322"/>
+      <c r="C14" s="323"/>
+      <c r="D14" s="323"/>
+      <c r="E14" s="323"/>
+      <c r="F14" s="323"/>
+      <c r="G14" s="323"/>
+      <c r="H14" s="323"/>
+      <c r="I14" s="323"/>
+      <c r="J14" s="323"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
+      <c r="M14" s="323"/>
     </row>
     <row r="15" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B15" s="321" t="s">
+      <c r="B15" s="322" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="322"/>
-      <c r="D15" s="322"/>
-      <c r="E15" s="322"/>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
-      <c r="M15" s="322"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="323"/>
+      <c r="E15" s="323"/>
+      <c r="F15" s="323"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="323"/>
+      <c r="J15" s="323"/>
+      <c r="K15" s="323"/>
+      <c r="L15" s="323"/>
+      <c r="M15" s="323"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="317" t="s">
+      <c r="B16" s="318" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="317"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="317"/>
-      <c r="F16" s="317"/>
-      <c r="G16" s="317"/>
-      <c r="H16" s="317"/>
-      <c r="I16" s="317"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="317"/>
-      <c r="L16" s="317"/>
-      <c r="M16" s="317"/>
-    </row>
-    <row r="17" spans="2:13" ht="18">
-      <c r="B17" s="320" t="s">
+      <c r="C16" s="318"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="318"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="318"/>
+      <c r="H16" s="318"/>
+      <c r="I16" s="318"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
+      <c r="M16" s="318"/>
+    </row>
+    <row r="17" spans="2:13" ht="18.5">
+      <c r="B17" s="321" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="320"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="320"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320"/>
-      <c r="J17" s="320"/>
-      <c r="K17" s="320"/>
-      <c r="L17" s="320"/>
-      <c r="M17" s="320"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="321"/>
+      <c r="J17" s="321"/>
+      <c r="K17" s="321"/>
+      <c r="L17" s="321"/>
+      <c r="M17" s="321"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="317" t="s">
+      <c r="B18" s="318" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="317"/>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="317"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="317"/>
-      <c r="L18" s="317"/>
-      <c r="M18" s="317"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="318"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="318"/>
+      <c r="I18" s="318"/>
+      <c r="J18" s="318"/>
+      <c r="K18" s="318"/>
+      <c r="L18" s="318"/>
+      <c r="M18" s="318"/>
     </row>
     <row r="19" spans="2:13" ht="14.4" customHeight="1">
       <c r="B19" s="258"/>
-      <c r="C19" s="316" t="s">
+      <c r="C19" s="317" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="316"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="316"/>
-      <c r="I19" s="316"/>
-      <c r="J19" s="316"/>
-      <c r="K19" s="316"/>
-      <c r="L19" s="316"/>
-      <c r="M19" s="316"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="317"/>
+      <c r="G19" s="317"/>
+      <c r="H19" s="317"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="317"/>
+      <c r="M19" s="317"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="258"/>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="317" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
-      <c r="J20" s="316"/>
-      <c r="K20" s="316"/>
-      <c r="L20" s="316"/>
-      <c r="M20" s="316"/>
+      <c r="D20" s="317"/>
+      <c r="E20" s="317"/>
+      <c r="F20" s="317"/>
+      <c r="G20" s="317"/>
+      <c r="H20" s="317"/>
+      <c r="I20" s="317"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="317"/>
+      <c r="L20" s="317"/>
+      <c r="M20" s="317"/>
     </row>
     <row r="21" spans="2:13" ht="14.4" customHeight="1">
       <c r="B21" s="258"/>
-      <c r="C21" s="316" t="s">
+      <c r="C21" s="317" t="s">
         <v>462</v>
       </c>
-      <c r="D21" s="316"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="316"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="316"/>
-      <c r="I21" s="316"/>
-      <c r="J21" s="316"/>
-      <c r="K21" s="316"/>
-      <c r="L21" s="316"/>
-      <c r="M21" s="316"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
+      <c r="K21" s="317"/>
+      <c r="L21" s="317"/>
+      <c r="M21" s="317"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="258"/>
-      <c r="C22" s="316" t="s">
+      <c r="C22" s="317" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="316"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="316"/>
-      <c r="I22" s="316"/>
-      <c r="J22" s="316"/>
-      <c r="K22" s="316"/>
-      <c r="L22" s="316"/>
-      <c r="M22" s="316"/>
+      <c r="D22" s="317"/>
+      <c r="E22" s="317"/>
+      <c r="F22" s="317"/>
+      <c r="G22" s="317"/>
+      <c r="H22" s="317"/>
+      <c r="I22" s="317"/>
+      <c r="J22" s="317"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="317"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" customHeight="1">
       <c r="B23" s="258"/>
       <c r="C23" s="258"/>
-      <c r="D23" s="316" t="s">
+      <c r="D23" s="317" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="316"/>
-      <c r="I23" s="316"/>
-      <c r="J23" s="316"/>
-      <c r="K23" s="316"/>
-      <c r="L23" s="316"/>
-      <c r="M23" s="316"/>
+      <c r="E23" s="317"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="317"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="317"/>
+      <c r="M23" s="317"/>
     </row>
     <row r="24" spans="2:13" ht="14.4" customHeight="1">
       <c r="B24" s="258"/>
       <c r="C24" s="258"/>
-      <c r="D24" s="316" t="s">
+      <c r="D24" s="317" t="s">
         <v>455</v>
       </c>
-      <c r="E24" s="316"/>
-      <c r="F24" s="316"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="316"/>
-      <c r="I24" s="316"/>
-      <c r="J24" s="316"/>
-      <c r="K24" s="316"/>
-      <c r="L24" s="316"/>
-      <c r="M24" s="316"/>
+      <c r="E24" s="317"/>
+      <c r="F24" s="317"/>
+      <c r="G24" s="317"/>
+      <c r="H24" s="317"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="317"/>
+      <c r="K24" s="317"/>
+      <c r="L24" s="317"/>
+      <c r="M24" s="317"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="255"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="317" t="s">
+      <c r="D25" s="318" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="317"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="317"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="318"/>
+      <c r="K25" s="318"/>
+      <c r="L25" s="318"/>
+      <c r="M25" s="318"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="255"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="316" t="s">
+      <c r="D26" s="317" t="s">
         <v>457</v>
       </c>
-      <c r="E26" s="316"/>
-      <c r="F26" s="316"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="316"/>
-      <c r="I26" s="316"/>
-      <c r="J26" s="316"/>
-      <c r="K26" s="316"/>
-      <c r="L26" s="316"/>
-      <c r="M26" s="316"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="317"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
+      <c r="M26" s="317"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1">
-      <c r="B27" s="321" t="s">
+      <c r="B27" s="322" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="322"/>
-      <c r="D27" s="322"/>
-      <c r="E27" s="322"/>
-      <c r="F27" s="322"/>
-      <c r="G27" s="322"/>
-      <c r="H27" s="322"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="322"/>
-      <c r="L27" s="322"/>
-      <c r="M27" s="322"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="323"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="323"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="323"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
-      <c r="B28" s="321" t="s">
+      <c r="B28" s="322" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="322"/>
-      <c r="D28" s="322"/>
-      <c r="E28" s="322"/>
-      <c r="F28" s="322"/>
-      <c r="G28" s="322"/>
-      <c r="H28" s="322"/>
-      <c r="I28" s="322"/>
-      <c r="J28" s="322"/>
-      <c r="K28" s="322"/>
-      <c r="L28" s="322"/>
-      <c r="M28" s="322"/>
+      <c r="C28" s="323"/>
+      <c r="D28" s="323"/>
+      <c r="E28" s="323"/>
+      <c r="F28" s="323"/>
+      <c r="G28" s="323"/>
+      <c r="H28" s="323"/>
+      <c r="I28" s="323"/>
+      <c r="J28" s="323"/>
+      <c r="K28" s="323"/>
+      <c r="L28" s="323"/>
+      <c r="M28" s="323"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="199"/>
     </row>
-    <row r="30" spans="2:13" ht="18">
-      <c r="B30" s="320" t="s">
+    <row r="30" spans="2:13" ht="18.5">
+      <c r="B30" s="321" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="320"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="320"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="320"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="321"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="321"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="321"/>
+      <c r="K30" s="321"/>
+      <c r="L30" s="321"/>
+      <c r="M30" s="321"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1">
-      <c r="B31" s="317" t="s">
+      <c r="B31" s="318" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="317"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="317"/>
-      <c r="F31" s="317"/>
-      <c r="G31" s="317"/>
-      <c r="H31" s="317"/>
-      <c r="I31" s="317"/>
-      <c r="J31" s="317"/>
-      <c r="K31" s="317"/>
-      <c r="L31" s="317"/>
-      <c r="M31" s="317"/>
+      <c r="C31" s="318"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="318"/>
+      <c r="F31" s="318"/>
+      <c r="G31" s="318"/>
+      <c r="H31" s="318"/>
+      <c r="I31" s="318"/>
+      <c r="J31" s="318"/>
+      <c r="K31" s="318"/>
+      <c r="L31" s="318"/>
+      <c r="M31" s="318"/>
     </row>
     <row r="32" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B32" s="317" t="s">
+      <c r="B32" s="318" t="s">
         <v>346</v>
       </c>
-      <c r="C32" s="317"/>
-      <c r="D32" s="317"/>
-      <c r="E32" s="317"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="317"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="317"/>
-      <c r="K32" s="317"/>
-      <c r="L32" s="317"/>
-      <c r="M32" s="317"/>
+      <c r="C32" s="318"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="318"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
+      <c r="L32" s="318"/>
+      <c r="M32" s="318"/>
     </row>
     <row r="33" spans="2:13" ht="28.5" customHeight="1">
-      <c r="B33" s="317" t="s">
+      <c r="B33" s="318" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="317"/>
-      <c r="D33" s="317"/>
-      <c r="E33" s="317"/>
-      <c r="F33" s="317"/>
-      <c r="G33" s="317"/>
-      <c r="H33" s="317"/>
-      <c r="I33" s="317"/>
-      <c r="J33" s="317"/>
-      <c r="K33" s="317"/>
-      <c r="L33" s="317"/>
-      <c r="M33" s="317"/>
+      <c r="C33" s="318"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="318"/>
+      <c r="F33" s="318"/>
+      <c r="G33" s="318"/>
+      <c r="H33" s="318"/>
+      <c r="I33" s="318"/>
+      <c r="J33" s="318"/>
+      <c r="K33" s="318"/>
+      <c r="L33" s="318"/>
+      <c r="M33" s="318"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="317" t="s">
+      <c r="B34" s="318" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="317"/>
-      <c r="D34" s="317"/>
-      <c r="E34" s="317"/>
-      <c r="F34" s="317"/>
-      <c r="G34" s="317"/>
-      <c r="H34" s="317"/>
-      <c r="I34" s="317"/>
-      <c r="J34" s="317"/>
-      <c r="K34" s="317"/>
-      <c r="L34" s="317"/>
-      <c r="M34" s="317"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
+      <c r="L34" s="318"/>
+      <c r="M34" s="318"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="317" t="s">
+      <c r="B35" s="318" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="317"/>
-      <c r="D35" s="317"/>
-      <c r="E35" s="317"/>
-      <c r="F35" s="317"/>
-      <c r="G35" s="317"/>
-      <c r="H35" s="317"/>
-      <c r="I35" s="317"/>
-      <c r="J35" s="317"/>
-      <c r="K35" s="317"/>
-      <c r="L35" s="317"/>
-      <c r="M35" s="317"/>
-    </row>
-    <row r="36" spans="2:13" ht="18">
-      <c r="B36" s="320" t="s">
+      <c r="C35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="318"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="318"/>
+      <c r="H35" s="318"/>
+      <c r="I35" s="318"/>
+      <c r="J35" s="318"/>
+      <c r="K35" s="318"/>
+      <c r="L35" s="318"/>
+      <c r="M35" s="318"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.5">
+      <c r="B36" s="321" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="320"/>
-      <c r="D36" s="320"/>
-      <c r="E36" s="320"/>
-      <c r="F36" s="320"/>
-      <c r="G36" s="320"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="320"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="320"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="321"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="321"/>
+      <c r="I36" s="321"/>
+      <c r="J36" s="321"/>
+      <c r="K36" s="321"/>
+      <c r="L36" s="321"/>
+      <c r="M36" s="321"/>
     </row>
     <row r="37" spans="2:13" ht="30.75" customHeight="1">
-      <c r="B37" s="317" t="s">
+      <c r="B37" s="318" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="317"/>
-      <c r="D37" s="317"/>
-      <c r="E37" s="317"/>
-      <c r="F37" s="317"/>
-      <c r="G37" s="317"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="317"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
-      <c r="M37" s="317"/>
+      <c r="C37" s="318"/>
+      <c r="D37" s="318"/>
+      <c r="E37" s="318"/>
+      <c r="F37" s="318"/>
+      <c r="G37" s="318"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="318"/>
+      <c r="J37" s="318"/>
+      <c r="K37" s="318"/>
+      <c r="L37" s="318"/>
+      <c r="M37" s="318"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="317" t="s">
+      <c r="B38" s="318" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="317"/>
-      <c r="D38" s="317"/>
-      <c r="E38" s="317"/>
-      <c r="F38" s="317"/>
-      <c r="G38" s="317"/>
-      <c r="H38" s="317"/>
-      <c r="I38" s="317"/>
-      <c r="J38" s="317"/>
-      <c r="K38" s="317"/>
-      <c r="L38" s="317"/>
-      <c r="M38" s="317"/>
+      <c r="C38" s="318"/>
+      <c r="D38" s="318"/>
+      <c r="E38" s="318"/>
+      <c r="F38" s="318"/>
+      <c r="G38" s="318"/>
+      <c r="H38" s="318"/>
+      <c r="I38" s="318"/>
+      <c r="J38" s="318"/>
+      <c r="K38" s="318"/>
+      <c r="L38" s="318"/>
+      <c r="M38" s="318"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="199"/>
     </row>
-    <row r="40" spans="2:13" ht="18">
-      <c r="B40" s="320" t="s">
+    <row r="40" spans="2:13" ht="18.5">
+      <c r="B40" s="321" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="320"/>
-      <c r="D40" s="320"/>
-      <c r="E40" s="320"/>
-      <c r="F40" s="320"/>
-      <c r="G40" s="320"/>
-      <c r="H40" s="320"/>
-      <c r="I40" s="320"/>
-      <c r="J40" s="320"/>
-      <c r="K40" s="320"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="321"/>
+      <c r="E40" s="321"/>
+      <c r="F40" s="321"/>
+      <c r="G40" s="321"/>
+      <c r="H40" s="321"/>
+      <c r="I40" s="321"/>
+      <c r="J40" s="321"/>
+      <c r="K40" s="321"/>
+      <c r="L40" s="321"/>
+      <c r="M40" s="321"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="319" t="s">
+      <c r="B41" s="320" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="319"/>
-      <c r="D41" s="319"/>
-      <c r="E41" s="319"/>
-      <c r="F41" s="319"/>
-      <c r="G41" s="319"/>
-      <c r="H41" s="319"/>
-      <c r="I41" s="319"/>
-      <c r="J41" s="319"/>
-      <c r="K41" s="319"/>
-      <c r="L41" s="319"/>
-      <c r="M41" s="319"/>
+      <c r="C41" s="320"/>
+      <c r="D41" s="320"/>
+      <c r="E41" s="320"/>
+      <c r="F41" s="320"/>
+      <c r="G41" s="320"/>
+      <c r="H41" s="320"/>
+      <c r="I41" s="320"/>
+      <c r="J41" s="320"/>
+      <c r="K41" s="320"/>
+      <c r="L41" s="320"/>
+      <c r="M41" s="320"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="320" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="319"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
-      <c r="F42" s="319"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="319"/>
-      <c r="J42" s="319"/>
-      <c r="K42" s="319"/>
-      <c r="L42" s="319"/>
-      <c r="M42" s="319"/>
+      <c r="C42" s="320"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="320"/>
+      <c r="F42" s="320"/>
+      <c r="G42" s="320"/>
+      <c r="H42" s="320"/>
+      <c r="I42" s="320"/>
+      <c r="J42" s="320"/>
+      <c r="K42" s="320"/>
+      <c r="L42" s="320"/>
+      <c r="M42" s="320"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="319" t="s">
+      <c r="B43" s="320" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="319"/>
-      <c r="D43" s="319"/>
-      <c r="E43" s="319"/>
-      <c r="F43" s="319"/>
-      <c r="G43" s="319"/>
-      <c r="H43" s="319"/>
-      <c r="I43" s="319"/>
-      <c r="J43" s="319"/>
-      <c r="K43" s="319"/>
-      <c r="L43" s="319"/>
-      <c r="M43" s="319"/>
+      <c r="C43" s="320"/>
+      <c r="D43" s="320"/>
+      <c r="E43" s="320"/>
+      <c r="F43" s="320"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="320"/>
+      <c r="I43" s="320"/>
+      <c r="J43" s="320"/>
+      <c r="K43" s="320"/>
+      <c r="L43" s="320"/>
+      <c r="M43" s="320"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="249" t="s">
@@ -9585,53 +8570,53 @@
       <c r="L44" s="247"/>
       <c r="M44" s="247"/>
     </row>
-    <row r="45" spans="2:13" ht="18">
-      <c r="B45" s="320" t="s">
+    <row r="45" spans="2:13" ht="18.5">
+      <c r="B45" s="321" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="320"/>
-      <c r="D45" s="320"/>
-      <c r="E45" s="320"/>
-      <c r="F45" s="320"/>
-      <c r="G45" s="320"/>
-      <c r="H45" s="320"/>
-      <c r="I45" s="320"/>
-      <c r="J45" s="320"/>
-      <c r="K45" s="320"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
+      <c r="C45" s="321"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="321"/>
+      <c r="F45" s="321"/>
+      <c r="G45" s="321"/>
+      <c r="H45" s="321"/>
+      <c r="I45" s="321"/>
+      <c r="J45" s="321"/>
+      <c r="K45" s="321"/>
+      <c r="L45" s="321"/>
+      <c r="M45" s="321"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="317" t="s">
+      <c r="B46" s="318" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="317"/>
-      <c r="D46" s="317"/>
-      <c r="E46" s="317"/>
-      <c r="F46" s="317"/>
-      <c r="G46" s="317"/>
-      <c r="H46" s="317"/>
-      <c r="I46" s="317"/>
-      <c r="J46" s="317"/>
-      <c r="K46" s="317"/>
-      <c r="L46" s="317"/>
-      <c r="M46" s="317"/>
+      <c r="C46" s="318"/>
+      <c r="D46" s="318"/>
+      <c r="E46" s="318"/>
+      <c r="F46" s="318"/>
+      <c r="G46" s="318"/>
+      <c r="H46" s="318"/>
+      <c r="I46" s="318"/>
+      <c r="J46" s="318"/>
+      <c r="K46" s="318"/>
+      <c r="L46" s="318"/>
+      <c r="M46" s="318"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="318" t="s">
+      <c r="B47" s="319" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="318"/>
-      <c r="D47" s="318"/>
-      <c r="E47" s="318"/>
-      <c r="F47" s="318"/>
-      <c r="G47" s="318"/>
-      <c r="H47" s="318"/>
-      <c r="I47" s="318"/>
-      <c r="J47" s="318"/>
-      <c r="K47" s="318"/>
-      <c r="L47" s="318"/>
-      <c r="M47" s="318"/>
+      <c r="C47" s="319"/>
+      <c r="D47" s="319"/>
+      <c r="E47" s="319"/>
+      <c r="F47" s="319"/>
+      <c r="G47" s="319"/>
+      <c r="H47" s="319"/>
+      <c r="I47" s="319"/>
+      <c r="J47" s="319"/>
+      <c r="K47" s="319"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="319"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -9703,9 +8688,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
@@ -10100,15 +9085,15 @@
   </sheetPr>
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="0.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1">
@@ -10142,18 +9127,18 @@
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="348" t="s">
+      <c r="C4" s="349" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="350"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
-      <c r="H4" s="350"/>
-      <c r="I4" s="350"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="351"/>
+      <c r="I4" s="351"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -10170,8 +9155,8 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="13"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
+      <c r="B5" s="350"/>
+      <c r="C5" s="350"/>
       <c r="D5" s="172" t="s">
         <v>88</v>
       </c>
@@ -10205,10 +9190,10 @@
       <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="B6" s="366" t="s">
+      <c r="B6" s="316" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="366" t="s">
+      <c r="C6" s="316" t="s">
         <v>205</v>
       </c>
       <c r="D6" s="176">
@@ -13473,29 +12458,29 @@
       <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1"/>
-    <col min="8" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="0.77734375" style="17" customWidth="1"/>
-    <col min="11" max="12" width="6.77734375" customWidth="1"/>
-    <col min="13" max="13" width="0.77734375" customWidth="1"/>
-    <col min="14" max="15" width="6.77734375" customWidth="1"/>
-    <col min="16" max="16" width="0.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.77734375" customWidth="1"/>
-    <col min="20" max="21" width="29.77734375" customWidth="1"/>
-    <col min="22" max="22" width="0.77734375" style="17" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" customWidth="1"/>
-    <col min="24" max="26" width="13.21875" customWidth="1"/>
-    <col min="27" max="32" width="11.44140625" style="13"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="8" max="9" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="0.81640625" style="17" customWidth="1"/>
+    <col min="11" max="12" width="6.81640625" customWidth="1"/>
+    <col min="13" max="13" width="0.81640625" customWidth="1"/>
+    <col min="14" max="15" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="0.81640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.81640625" customWidth="1"/>
+    <col min="20" max="21" width="29.81640625" customWidth="1"/>
+    <col min="22" max="22" width="0.81640625" style="17" customWidth="1"/>
+    <col min="23" max="23" width="15.36328125" customWidth="1"/>
+    <col min="24" max="26" width="13.1796875" customWidth="1"/>
+    <col min="27" max="32" width="11.453125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -13524,7 +12509,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:32" ht="23.4">
+    <row r="2" spans="1:32" ht="23.5">
       <c r="A2" s="154" t="s">
         <v>336</v>
       </c>
@@ -13737,121 +12722,121 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1">
-      <c r="A9" s="351" t="s">
+      <c r="A9" s="352" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="351"/>
-      <c r="C9" s="358" t="s">
+      <c r="B9" s="352"/>
+      <c r="C9" s="359" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="358"/>
-      <c r="E9" s="358"/>
-      <c r="F9" s="358"/>
-      <c r="G9" s="358"/>
-      <c r="H9" s="358"/>
-      <c r="I9" s="358"/>
+      <c r="D9" s="359"/>
+      <c r="E9" s="359"/>
+      <c r="F9" s="359"/>
+      <c r="G9" s="359"/>
+      <c r="H9" s="359"/>
+      <c r="I9" s="359"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="359" t="s">
+      <c r="K9" s="360" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="359"/>
-      <c r="M9" s="359"/>
-      <c r="N9" s="359"/>
-      <c r="O9" s="359"/>
-      <c r="P9" s="359"/>
-      <c r="Q9" s="359"/>
-      <c r="R9" s="359"/>
-      <c r="S9" s="359"/>
-      <c r="T9" s="359"/>
-      <c r="U9" s="359"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="360"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="360"/>
+      <c r="Q9" s="360"/>
+      <c r="R9" s="360"/>
+      <c r="S9" s="360"/>
+      <c r="T9" s="360"/>
+      <c r="U9" s="360"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="355" t="s">
+      <c r="W9" s="356" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="356"/>
-      <c r="Y9" s="356"/>
-      <c r="Z9" s="357"/>
+      <c r="X9" s="357"/>
+      <c r="Y9" s="357"/>
+      <c r="Z9" s="358"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="352" t="s">
+      <c r="A10" s="353" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="352" t="s">
+      <c r="B10" s="353" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="352" t="s">
+      <c r="C10" s="353" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="352" t="s">
+      <c r="D10" s="353" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="352" t="s">
+      <c r="E10" s="353" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="352" t="s">
+      <c r="F10" s="353" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="352" t="s">
+      <c r="G10" s="353" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="360" t="s">
+      <c r="H10" s="361" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="360" t="s">
+      <c r="I10" s="361" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="361" t="s">
+      <c r="K10" s="362" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="361" t="s">
+      <c r="L10" s="362" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="361" t="s">
+      <c r="N10" s="362" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="361" t="s">
+      <c r="O10" s="362" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="78"/>
-      <c r="Q10" s="361" t="s">
+      <c r="Q10" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="361" t="s">
+      <c r="R10" s="362" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="78"/>
-      <c r="T10" s="361" t="s">
+      <c r="T10" s="362" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="361" t="s">
+      <c r="U10" s="362" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="354" t="s">
+      <c r="W10" s="355" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="354" t="s">
+      <c r="X10" s="355" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="354" t="s">
+      <c r="Y10" s="355" t="s">
         <v>116</v>
       </c>
-      <c r="Z10" s="352" t="s">
+      <c r="Z10" s="353" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1">
-      <c r="A11" s="353"/>
-      <c r="B11" s="353"/>
-      <c r="C11" s="353"/>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
+      <c r="A11" s="354"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="354"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="354"/>
       <c r="J11" s="30"/>
       <c r="K11" s="287">
         <v>2018</v>
@@ -13881,12 +12866,12 @@
         <v>2023</v>
       </c>
       <c r="V11" s="30"/>
-      <c r="W11" s="353"/>
-      <c r="X11" s="353"/>
-      <c r="Y11" s="353"/>
-      <c r="Z11" s="353"/>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+      <c r="W11" s="354"/>
+      <c r="X11" s="354"/>
+      <c r="Y11" s="354"/>
+      <c r="Z11" s="354"/>
+    </row>
+    <row r="12" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="288" t="s">
         <v>44</v>
       </c>
@@ -13962,7 +12947,7 @@
       <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
     </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="13" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="174" t="s">
         <v>47</v>
       </c>
@@ -14000,7 +12985,7 @@
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
     </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="14" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="174" t="s">
         <v>49</v>
       </c>
@@ -14076,7 +13061,7 @@
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
     </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="15" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="174" t="s">
         <v>123</v>
       </c>
@@ -14118,7 +13103,7 @@
       <c r="AE15" s="33"/>
       <c r="AF15" s="33"/>
     </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="16" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="174" t="s">
         <v>51</v>
       </c>
@@ -14194,7 +13179,7 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
     </row>
-    <row r="17" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="17" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="174" t="s">
         <v>53</v>
       </c>
@@ -14254,7 +13239,7 @@
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
     </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="18" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="174" t="s">
         <v>55</v>
       </c>
@@ -14292,7 +13277,7 @@
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="19" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="174" t="s">
         <v>57</v>
       </c>
@@ -14368,7 +13353,7 @@
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
     </row>
-    <row r="20" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="20" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="174" t="s">
         <v>59</v>
       </c>
@@ -14444,7 +13429,7 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
     </row>
-    <row r="21" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="174" t="s">
         <v>61</v>
       </c>
@@ -14520,7 +13505,7 @@
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
     </row>
-    <row r="22" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="22" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="174" t="s">
         <v>63</v>
       </c>
@@ -14596,7 +13581,7 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
     </row>
-    <row r="23" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="174" t="s">
         <v>65</v>
       </c>
@@ -14672,7 +13657,7 @@
       <c r="AE23" s="33"/>
       <c r="AF23" s="33"/>
     </row>
-    <row r="24" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="24" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="174" t="s">
         <v>67</v>
       </c>
@@ -14748,7 +13733,7 @@
       <c r="AE24" s="33"/>
       <c r="AF24" s="33"/>
     </row>
-    <row r="25" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="25" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="174" t="s">
         <v>69</v>
       </c>
@@ -14824,7 +13809,7 @@
       <c r="AE25" s="33"/>
       <c r="AF25" s="33"/>
     </row>
-    <row r="26" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="174" t="s">
         <v>71</v>
       </c>
@@ -14900,7 +13885,7 @@
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
     </row>
-    <row r="27" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="27" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="174" t="s">
         <v>73</v>
       </c>
@@ -14976,7 +13961,7 @@
       <c r="AE27" s="33"/>
       <c r="AF27" s="33"/>
     </row>
-    <row r="28" spans="1:32" s="3" customFormat="1" ht="22.05" customHeight="1">
+    <row r="28" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="175" t="s">
         <v>51</v>
       </c>
@@ -15682,7 +14667,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15697,10 +14682,10 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="0.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="13" customFormat="1">
@@ -15788,35 +14773,35 @@
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="363" t="s">
+      <c r="B4" s="364" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="362" t="s">
+      <c r="C4" s="363" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362"/>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362"/>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="362"/>
-      <c r="V4" s="362"/>
-      <c r="W4" s="362"/>
-      <c r="X4" s="362"/>
-      <c r="Y4" s="362"/>
-      <c r="Z4" s="362"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="363"/>
+      <c r="R4" s="363"/>
+      <c r="S4" s="363"/>
+      <c r="T4" s="363"/>
+      <c r="U4" s="363"/>
+      <c r="V4" s="363"/>
+      <c r="W4" s="363"/>
+      <c r="X4" s="363"/>
+      <c r="Y4" s="363"/>
+      <c r="Z4" s="363"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
@@ -15833,7 +14818,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="13"/>
-      <c r="B5" s="364"/>
+      <c r="B5" s="365"/>
       <c r="C5" s="240" t="s">
         <v>127</v>
       </c>
@@ -16972,28 +15957,28 @@
       <c r="Z22" s="241"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="B23" s="365"/>
-      <c r="C23" s="365"/>
-      <c r="D23" s="365"/>
-      <c r="E23" s="365"/>
-      <c r="F23" s="365"/>
-      <c r="G23" s="365"/>
-      <c r="H23" s="365"/>
-      <c r="I23" s="365"/>
-      <c r="J23" s="365"/>
-      <c r="K23" s="365"/>
-      <c r="L23" s="365"/>
-      <c r="M23" s="365"/>
-      <c r="N23" s="365"/>
-      <c r="O23" s="365"/>
-      <c r="P23" s="365"/>
-      <c r="Q23" s="365"/>
-      <c r="R23" s="365"/>
-      <c r="S23" s="365"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="365"/>
-      <c r="V23" s="365"/>
-      <c r="W23" s="365"/>
+      <c r="B23" s="366"/>
+      <c r="C23" s="366"/>
+      <c r="D23" s="366"/>
+      <c r="E23" s="366"/>
+      <c r="F23" s="366"/>
+      <c r="G23" s="366"/>
+      <c r="H23" s="366"/>
+      <c r="I23" s="366"/>
+      <c r="J23" s="366"/>
+      <c r="K23" s="366"/>
+      <c r="L23" s="366"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="366"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="366"/>
+      <c r="U23" s="366"/>
+      <c r="V23" s="366"/>
+      <c r="W23" s="366"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17017,7 +16002,7 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
@@ -17142,9 +16127,9 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -17873,18 +16858,18 @@
   <dimension ref="A2:G64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1"/>
+    <col min="1" max="1" width="0.81640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1">
@@ -18993,30 +17978,30 @@
   </sheetPr>
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="0.77734375" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="0.77734375" customWidth="1"/>
-    <col min="12" max="13" width="6.21875" customWidth="1"/>
-    <col min="14" max="14" width="0.77734375" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="0.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.1796875" customWidth="1"/>
+    <col min="11" max="11" width="0.81640625" customWidth="1"/>
+    <col min="12" max="13" width="6.1796875" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" customWidth="1"/>
+    <col min="15" max="15" width="7.6328125" customWidth="1"/>
+    <col min="16" max="16" width="0.81640625" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" customWidth="1"/>
-    <col min="19" max="19" width="0.77734375" customWidth="1"/>
-    <col min="20" max="21" width="26.77734375" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.54296875" customWidth="1"/>
+    <col min="19" max="19" width="0.81640625" customWidth="1"/>
+    <col min="20" max="21" width="26.81640625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="9" customHeight="1">
@@ -19153,7 +18138,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="18.5">
       <c r="A5" s="125" t="s">
         <v>333</v>
       </c>
@@ -19193,7 +18178,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="18.5">
       <c r="A6" s="125" t="s">
         <v>444</v>
       </c>
@@ -19233,7 +18218,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="18.5">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -19303,32 +18288,32 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="18">
+    <row r="9" spans="1:31" ht="18.5">
       <c r="A9" s="76"/>
       <c r="B9" s="266"/>
-      <c r="C9" s="330" t="s">
+      <c r="C9" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="330" t="s">
+      <c r="I9" s="331" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="330"/>
-      <c r="K9" s="330"/>
-      <c r="L9" s="330"/>
-      <c r="M9" s="330"/>
-      <c r="N9" s="330"/>
-      <c r="O9" s="330"/>
-      <c r="P9" s="330"/>
-      <c r="Q9" s="330"/>
-      <c r="R9" s="330"/>
-      <c r="S9" s="330"/>
-      <c r="T9" s="330"/>
-      <c r="U9" s="330"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="331"/>
+      <c r="M9" s="331"/>
+      <c r="N9" s="331"/>
+      <c r="O9" s="331"/>
+      <c r="P9" s="331"/>
+      <c r="Q9" s="331"/>
+      <c r="R9" s="331"/>
+      <c r="S9" s="331"/>
+      <c r="T9" s="331"/>
+      <c r="U9" s="331"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -19340,48 +18325,48 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" ht="14.55" customHeight="1">
+    <row r="10" spans="1:31" ht="14.5" customHeight="1">
       <c r="A10" s="77"/>
       <c r="B10" s="77"/>
-      <c r="C10" s="331" t="s">
+      <c r="C10" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="331" t="s">
+      <c r="D10" s="332" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="325" t="s">
+      <c r="E10" s="326" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="325" t="s">
+      <c r="F10" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="325" t="s">
+      <c r="G10" s="326" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="325" t="s">
+      <c r="I10" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="325"/>
+      <c r="J10" s="326"/>
       <c r="K10" s="257"/>
-      <c r="L10" s="325" t="s">
+      <c r="L10" s="326" t="s">
         <v>228</v>
       </c>
-      <c r="M10" s="325"/>
+      <c r="M10" s="326"/>
       <c r="N10" s="257"/>
-      <c r="O10" s="334" t="s">
+      <c r="O10" s="335" t="s">
         <v>453</v>
       </c>
       <c r="P10" s="257"/>
-      <c r="Q10" s="325" t="s">
+      <c r="Q10" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="325"/>
+      <c r="R10" s="326"/>
       <c r="S10" s="257"/>
-      <c r="T10" s="325" t="s">
+      <c r="T10" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="325"/>
+      <c r="U10" s="326"/>
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
       <c r="X10" s="45"/>
@@ -19400,11 +18385,11 @@
       <c r="B11" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="333"/>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="333"/>
+      <c r="E11" s="334"/>
+      <c r="F11" s="334"/>
+      <c r="G11" s="334"/>
       <c r="H11" s="29"/>
       <c r="I11" s="99">
         <v>2018</v>
@@ -19420,7 +18405,7 @@
         <v>2023</v>
       </c>
       <c r="N11" s="100"/>
-      <c r="O11" s="335"/>
+      <c r="O11" s="336"/>
       <c r="P11" s="100"/>
       <c r="Q11" s="99">
         <v>2018</v>
@@ -20446,7 +19431,7 @@
       <c r="AE30" s="13"/>
     </row>
     <row r="31" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A31" s="327" t="s">
+      <c r="A31" s="328" t="s">
         <v>199</v>
       </c>
       <c r="B31" s="82" t="s">
@@ -20507,7 +19492,7 @@
       <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A32" s="328"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="82" t="s">
         <v>201</v>
       </c>
@@ -20565,7 +19550,7 @@
       <c r="AE32" s="13"/>
     </row>
     <row r="33" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A33" s="329"/>
+      <c r="A33" s="330"/>
       <c r="B33" s="82" t="s">
         <v>204</v>
       </c>
@@ -20764,7 +19749,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="37.049999999999997" customHeight="1">
+    <row r="37" spans="1:31" ht="37" customHeight="1">
       <c r="A37" s="299" t="s">
         <v>210</v>
       </c>
@@ -21254,29 +20239,29 @@
       <c r="AE49" s="13"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1">
-      <c r="A50" s="326" t="s">
+      <c r="A50" s="327" t="s">
         <v>263</v>
       </c>
-      <c r="B50" s="326"/>
-      <c r="C50" s="326"/>
-      <c r="D50" s="326"/>
-      <c r="E50" s="326"/>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="326"/>
-      <c r="M50" s="326"/>
-      <c r="N50" s="326"/>
-      <c r="O50" s="326"/>
-      <c r="P50" s="326"/>
-      <c r="Q50" s="326"/>
-      <c r="R50" s="326"/>
-      <c r="S50" s="326"/>
-      <c r="T50" s="326"/>
-      <c r="U50" s="326"/>
+      <c r="B50" s="327"/>
+      <c r="C50" s="327"/>
+      <c r="D50" s="327"/>
+      <c r="E50" s="327"/>
+      <c r="F50" s="327"/>
+      <c r="G50" s="327"/>
+      <c r="H50" s="327"/>
+      <c r="I50" s="327"/>
+      <c r="J50" s="327"/>
+      <c r="K50" s="327"/>
+      <c r="L50" s="327"/>
+      <c r="M50" s="327"/>
+      <c r="N50" s="327"/>
+      <c r="O50" s="327"/>
+      <c r="P50" s="327"/>
+      <c r="Q50" s="327"/>
+      <c r="R50" s="327"/>
+      <c r="S50" s="327"/>
+      <c r="T50" s="327"/>
+      <c r="U50" s="327"/>
       <c r="V50" s="68"/>
       <c r="W50" s="13"/>
       <c r="X50" s="13"/>
@@ -21289,27 +20274,27 @@
       <c r="AE50" s="13"/>
     </row>
     <row r="51" spans="1:31" ht="15" customHeight="1">
-      <c r="A51" s="326"/>
-      <c r="B51" s="326"/>
-      <c r="C51" s="326"/>
-      <c r="D51" s="326"/>
-      <c r="E51" s="326"/>
-      <c r="F51" s="326"/>
-      <c r="G51" s="326"/>
-      <c r="H51" s="326"/>
-      <c r="I51" s="326"/>
-      <c r="J51" s="326"/>
-      <c r="K51" s="326"/>
-      <c r="L51" s="326"/>
-      <c r="M51" s="326"/>
-      <c r="N51" s="326"/>
-      <c r="O51" s="326"/>
-      <c r="P51" s="326"/>
-      <c r="Q51" s="326"/>
-      <c r="R51" s="326"/>
-      <c r="S51" s="326"/>
-      <c r="T51" s="326"/>
-      <c r="U51" s="326"/>
+      <c r="A51" s="327"/>
+      <c r="B51" s="327"/>
+      <c r="C51" s="327"/>
+      <c r="D51" s="327"/>
+      <c r="E51" s="327"/>
+      <c r="F51" s="327"/>
+      <c r="G51" s="327"/>
+      <c r="H51" s="327"/>
+      <c r="I51" s="327"/>
+      <c r="J51" s="327"/>
+      <c r="K51" s="327"/>
+      <c r="L51" s="327"/>
+      <c r="M51" s="327"/>
+      <c r="N51" s="327"/>
+      <c r="O51" s="327"/>
+      <c r="P51" s="327"/>
+      <c r="Q51" s="327"/>
+      <c r="R51" s="327"/>
+      <c r="S51" s="327"/>
+      <c r="T51" s="327"/>
+      <c r="U51" s="327"/>
       <c r="V51" s="68"/>
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
@@ -21322,27 +20307,27 @@
       <c r="AE51" s="13"/>
     </row>
     <row r="52" spans="1:31" ht="15" customHeight="1">
-      <c r="A52" s="326"/>
-      <c r="B52" s="326"/>
-      <c r="C52" s="326"/>
-      <c r="D52" s="326"/>
-      <c r="E52" s="326"/>
-      <c r="F52" s="326"/>
-      <c r="G52" s="326"/>
-      <c r="H52" s="326"/>
-      <c r="I52" s="326"/>
-      <c r="J52" s="326"/>
-      <c r="K52" s="326"/>
-      <c r="L52" s="326"/>
-      <c r="M52" s="326"/>
-      <c r="N52" s="326"/>
-      <c r="O52" s="326"/>
-      <c r="P52" s="326"/>
-      <c r="Q52" s="326"/>
-      <c r="R52" s="326"/>
-      <c r="S52" s="326"/>
-      <c r="T52" s="326"/>
-      <c r="U52" s="326"/>
+      <c r="A52" s="327"/>
+      <c r="B52" s="327"/>
+      <c r="C52" s="327"/>
+      <c r="D52" s="327"/>
+      <c r="E52" s="327"/>
+      <c r="F52" s="327"/>
+      <c r="G52" s="327"/>
+      <c r="H52" s="327"/>
+      <c r="I52" s="327"/>
+      <c r="J52" s="327"/>
+      <c r="K52" s="327"/>
+      <c r="L52" s="327"/>
+      <c r="M52" s="327"/>
+      <c r="N52" s="327"/>
+      <c r="O52" s="327"/>
+      <c r="P52" s="327"/>
+      <c r="Q52" s="327"/>
+      <c r="R52" s="327"/>
+      <c r="S52" s="327"/>
+      <c r="T52" s="327"/>
+      <c r="U52" s="327"/>
       <c r="V52" s="68"/>
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
@@ -21987,7 +20972,7 @@
     <hyperlink ref="A63" r:id="rId1" xr:uid="{3D365E1F-648B-4044-B158-7612880E9167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" horizontalDpi="4294967293" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -22100,13 +21085,13 @@
   <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="C4" sqref="C4:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="0.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="13" customFormat="1">
@@ -22194,35 +21179,35 @@
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="337" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="339" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="338"/>
-      <c r="L4" s="338"/>
-      <c r="M4" s="338"/>
-      <c r="N4" s="338"/>
-      <c r="O4" s="338"/>
-      <c r="P4" s="338"/>
-      <c r="Q4" s="338"/>
-      <c r="R4" s="338"/>
-      <c r="S4" s="338"/>
-      <c r="T4" s="338"/>
-      <c r="U4" s="338"/>
-      <c r="V4" s="338"/>
-      <c r="W4" s="338"/>
-      <c r="X4" s="338"/>
-      <c r="Y4" s="338"/>
-      <c r="Z4" s="338"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="339"/>
+      <c r="H4" s="339"/>
+      <c r="I4" s="339"/>
+      <c r="J4" s="339"/>
+      <c r="K4" s="339"/>
+      <c r="L4" s="339"/>
+      <c r="M4" s="339"/>
+      <c r="N4" s="339"/>
+      <c r="O4" s="339"/>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="339"/>
+      <c r="S4" s="339"/>
+      <c r="T4" s="339"/>
+      <c r="U4" s="339"/>
+      <c r="V4" s="339"/>
+      <c r="W4" s="339"/>
+      <c r="X4" s="339"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
       <c r="AC4" s="13"/>
@@ -22239,7 +21224,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="13"/>
-      <c r="B5" s="337"/>
+      <c r="B5" s="338"/>
       <c r="C5" s="75" t="s">
         <v>127</v>
       </c>
@@ -23194,7 +22179,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="21.6">
+    <row r="20" spans="2:26" ht="22">
       <c r="B20" s="22" t="s">
         <v>257</v>
       </c>
@@ -23532,30 +22517,30 @@
       </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="B25" s="339" t="s">
+      <c r="B25" s="340" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="339"/>
-      <c r="D25" s="339"/>
-      <c r="E25" s="339"/>
-      <c r="F25" s="339"/>
-      <c r="G25" s="339"/>
-      <c r="H25" s="339"/>
-      <c r="I25" s="339"/>
-      <c r="J25" s="339"/>
-      <c r="K25" s="339"/>
-      <c r="L25" s="339"/>
-      <c r="M25" s="339"/>
-      <c r="N25" s="339"/>
-      <c r="O25" s="339"/>
-      <c r="P25" s="339"/>
-      <c r="Q25" s="339"/>
-      <c r="R25" s="339"/>
-      <c r="S25" s="339"/>
-      <c r="T25" s="339"/>
-      <c r="U25" s="339"/>
-      <c r="V25" s="339"/>
-      <c r="W25" s="339"/>
+      <c r="C25" s="340"/>
+      <c r="D25" s="340"/>
+      <c r="E25" s="340"/>
+      <c r="F25" s="340"/>
+      <c r="G25" s="340"/>
+      <c r="H25" s="340"/>
+      <c r="I25" s="340"/>
+      <c r="J25" s="340"/>
+      <c r="K25" s="340"/>
+      <c r="L25" s="340"/>
+      <c r="M25" s="340"/>
+      <c r="N25" s="340"/>
+      <c r="O25" s="340"/>
+      <c r="P25" s="340"/>
+      <c r="Q25" s="340"/>
+      <c r="R25" s="340"/>
+      <c r="S25" s="340"/>
+      <c r="T25" s="340"/>
+      <c r="U25" s="340"/>
+      <c r="V25" s="340"/>
+      <c r="W25" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23579,10 +22564,10 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="17" max="17" width="7.5546875" customWidth="1"/>
-    <col min="18" max="25" width="9.21875" style="13"/>
+    <col min="17" max="17" width="7.54296875" customWidth="1"/>
+    <col min="18" max="25" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -23698,9 +22683,9 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -23739,11 +22724,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>56.35</v>
       </c>
       <c r="D3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>60.55</v>
       </c>
       <c r="E3" s="50">
@@ -23763,16 +22746,13 @@
         <v>#N/A</v>
       </c>
       <c r="I3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>57.99</v>
       </c>
       <c r="J3" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2020</v>
       </c>
-      <c r="K3" t="str">
-        <f>INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))</f>
-        <v/>
+      <c r="K3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -23783,11 +22763,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.58</v>
       </c>
       <c r="D4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.46</v>
       </c>
       <c r="E4" s="50" t="e">
@@ -23807,12 +22785,10 @@
         <v>0.12000000000000455</v>
       </c>
       <c r="I4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="J4" s="198" t="s">
+        <v>82</v>
       </c>
       <c r="L4" s="21"/>
     </row>
@@ -23824,11 +22800,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98</v>
       </c>
       <c r="D5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.54</v>
       </c>
       <c r="E5" s="50">
@@ -23848,11 +22822,9 @@
         <v>#N/A</v>
       </c>
       <c r="I5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98</v>
       </c>
       <c r="J5" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2019</v>
       </c>
     </row>
@@ -23864,11 +22836,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>89.91</v>
       </c>
       <c r="D6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>90.82</v>
       </c>
       <c r="E6" s="50">
@@ -23888,12 +22858,10 @@
         <v>#N/A</v>
       </c>
       <c r="I6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="J6" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -23904,11 +22872,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="D7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="E7" s="50" t="e">
@@ -23928,11 +22894,9 @@
         <v>#N/A</v>
       </c>
       <c r="I7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="J7" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2019</v>
       </c>
     </row>
@@ -23943,13 +22907,11 @@
       <c r="B8" s="49">
         <v>6</v>
       </c>
-      <c r="C8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="C8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="50" t="e">
         <f t="shared" si="0"/>
@@ -23967,13 +22929,11 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="J8" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="I8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -23984,11 +22944,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.9</v>
       </c>
       <c r="D9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.9</v>
       </c>
       <c r="E9" s="50" t="e">
@@ -24008,11 +22966,9 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.89</v>
       </c>
       <c r="J9" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2017</v>
       </c>
     </row>
@@ -24024,11 +22980,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>16.68</v>
       </c>
       <c r="D10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>15.29</v>
       </c>
       <c r="E10" s="50" t="e">
@@ -24048,11 +23002,9 @@
         <v>1.3900000000000006</v>
       </c>
       <c r="I10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>17.55</v>
       </c>
       <c r="J10" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2015</v>
       </c>
     </row>
@@ -24064,11 +23016,9 @@
         <v>9</v>
       </c>
       <c r="C11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.12</v>
       </c>
       <c r="D11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.03</v>
       </c>
       <c r="E11" s="50" t="e">
@@ -24088,11 +23038,9 @@
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="I11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.2</v>
       </c>
       <c r="J11" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2014</v>
       </c>
     </row>
@@ -24104,11 +23052,9 @@
         <v>10</v>
       </c>
       <c r="C12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>21.9</v>
       </c>
       <c r="D12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>19.5</v>
       </c>
       <c r="E12" s="50" t="e">
@@ -24128,11 +23074,9 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="I12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>21.9</v>
       </c>
       <c r="J12" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -24144,11 +23088,9 @@
         <v>11</v>
       </c>
       <c r="C13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>129.04</v>
       </c>
       <c r="D13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>130.5</v>
       </c>
       <c r="E13" s="50">
@@ -24168,11 +23110,9 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>129.04</v>
       </c>
       <c r="J13" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -24184,11 +23124,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>151.77000000000001</v>
       </c>
       <c r="D14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>172.69</v>
       </c>
       <c r="E14" s="50">
@@ -24208,11 +23146,9 @@
         <v>#N/A</v>
       </c>
       <c r="I14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>151.77000000000001</v>
       </c>
       <c r="J14" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -24224,11 +23160,9 @@
         <v>13</v>
       </c>
       <c r="C15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>95</v>
       </c>
       <c r="D15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>94.99</v>
       </c>
       <c r="E15" s="50" t="e">
@@ -24248,11 +23182,9 @@
         <v>1.0000000000005116E-2</v>
       </c>
       <c r="I15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>95</v>
       </c>
       <c r="J15" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2020</v>
       </c>
     </row>
@@ -24261,13 +23193,11 @@
       <c r="B16" s="49">
         <v>14</v>
       </c>
-      <c r="C16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="C16" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="50" t="e">
         <f t="shared" si="0"/>
@@ -24285,13 +23215,11 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="I16" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -24398,35 +23326,35 @@
   <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
       <selection pane="topRight" activeCell="B26" sqref="B26"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="8" width="0.77734375" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="0.77734375" customWidth="1"/>
-    <col min="12" max="13" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" customWidth="1"/>
+    <col min="8" max="8" width="0.81640625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.1796875" customWidth="1"/>
+    <col min="11" max="11" width="0.81640625" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.81640625" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="0.77734375" customWidth="1"/>
-    <col min="18" max="18" width="26.77734375" customWidth="1"/>
-    <col min="19" max="19" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.77734375" style="13" customWidth="1"/>
-    <col min="21" max="21" width="48.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.44140625" style="13"/>
+    <col min="16" max="16" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="0.81640625" customWidth="1"/>
+    <col min="18" max="18" width="26.81640625" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.81640625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="48.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.453125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="9" customHeight="1">
@@ -24566,11 +23494,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="344" t="s">
+      <c r="H5" s="345" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
+      <c r="I5" s="346"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -24606,11 +23534,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="344" t="s">
+      <c r="H6" s="345" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -24646,11 +23574,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="344" t="s">
+      <c r="H7" s="345" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="345"/>
-      <c r="J7" s="345"/>
+      <c r="I7" s="346"/>
+      <c r="J7" s="346"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -24707,31 +23635,31 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1">
-      <c r="A9" s="347" t="s">
+      <c r="A9" s="348" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="347"/>
-      <c r="C9" s="343" t="s">
+      <c r="B9" s="348"/>
+      <c r="C9" s="344" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="343"/>
-      <c r="E9" s="343"/>
-      <c r="F9" s="343"/>
-      <c r="G9" s="343"/>
+      <c r="D9" s="344"/>
+      <c r="E9" s="344"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
       <c r="H9" s="156"/>
-      <c r="I9" s="346" t="s">
+      <c r="I9" s="347" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="346"/>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="346"/>
-      <c r="Q9" s="346"/>
-      <c r="R9" s="346"/>
-      <c r="S9" s="346"/>
+      <c r="J9" s="347"/>
+      <c r="K9" s="347"/>
+      <c r="L9" s="347"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
@@ -24746,47 +23674,47 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="341" t="s">
+      <c r="A10" s="342" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="341" t="s">
+      <c r="B10" s="342" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="342" t="s">
+      <c r="C10" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="341" t="s">
+      <c r="D10" s="342" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="342" t="s">
+      <c r="E10" s="343" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="342" t="s">
+      <c r="F10" s="343" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="341" t="s">
+      <c r="G10" s="342" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="340" t="s">
+      <c r="I10" s="341" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="340"/>
+      <c r="J10" s="341"/>
       <c r="K10" s="132"/>
-      <c r="L10" s="340" t="s">
+      <c r="L10" s="341" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="340"/>
+      <c r="M10" s="341"/>
       <c r="N10" s="132"/>
-      <c r="O10" s="340" t="s">
+      <c r="O10" s="341" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="340"/>
+      <c r="P10" s="341"/>
       <c r="Q10" s="132"/>
-      <c r="R10" s="340" t="s">
+      <c r="R10" s="341" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="340"/>
+      <c r="S10" s="341"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -24796,13 +23724,13 @@
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="341"/>
-      <c r="B11" s="341"/>
-      <c r="C11" s="342"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="342"/>
-      <c r="G11" s="341"/>
+      <c r="A11" s="342"/>
+      <c r="B11" s="342"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="342"/>
       <c r="H11" s="127"/>
       <c r="I11" s="131">
         <v>2018</v>
@@ -24936,7 +23864,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="30.6">
+    <row r="14" spans="1:31" ht="31.5">
       <c r="A14" s="140" t="s">
         <v>302</v>
       </c>
@@ -24997,7 +23925,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="30.6">
+    <row r="15" spans="1:31" ht="31.5">
       <c r="A15" s="140" t="s">
         <v>304</v>
       </c>
@@ -25302,7 +24230,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="20.399999999999999">
+    <row r="20" spans="1:31" ht="21">
       <c r="A20" s="140" t="s">
         <v>309</v>
       </c>
@@ -25363,7 +24291,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="20.399999999999999">
+    <row r="21" spans="1:31" ht="21">
       <c r="A21" s="140" t="s">
         <v>310</v>
       </c>
@@ -26227,7 +25155,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="40.049999999999997" customHeight="1">
+    <row r="39" spans="1:31" ht="40" customHeight="1">
       <c r="A39" s="116" t="s">
         <v>281</v>
       </c>
@@ -26260,7 +25188,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" ht="20.399999999999999">
+    <row r="40" spans="1:31">
       <c r="A40" s="140" t="s">
         <v>282</v>
       </c>
@@ -26313,7 +25241,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" ht="20.399999999999999">
+    <row r="41" spans="1:31">
       <c r="A41" s="140" t="s">
         <v>285</v>
       </c>
@@ -26366,7 +25294,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" ht="20.399999999999999">
+    <row r="42" spans="1:31">
       <c r="A42" s="140" t="s">
         <v>286</v>
       </c>
@@ -26995,7 +25923,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27010,7 +25938,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27028,11 +25956,11 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -27050,7 +25978,7 @@
       <c r="L1" s="224"/>
     </row>
     <row r="21" spans="2:20" ht="33.75" customHeight="1"/>
-    <row r="22" spans="2:20" ht="50.4">
+    <row r="22" spans="2:20" ht="50.5">
       <c r="B22" s="5"/>
       <c r="D22" s="197" t="str">
         <f>HEP_Inter!A3</f>
@@ -27095,6 +26023,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -27305,22 +26248,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27337,29 +26290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteuR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23BA88B-A81E-4C03-8162-29006B3F7CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894AC6C-DCAE-4F02-A5BC-EA82A31E349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="942" activeTab="14" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <sheet name="HPOP_Chart" sheetId="6" r:id="rId16"/>
     <sheet name="HPOP_Inter" sheetId="5" state="hidden" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">HEP_summary!$A$1:$C$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">HPOP_summary!$A$1:$D$28</definedName>
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="474">
   <si>
     <t>Magnitude +</t>
   </si>
@@ -3518,33 +3515,33 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3588,18 +3585,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="54" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3610,6 +3595,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3619,15 +3616,18 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3648,9 +3648,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4348,7 +4345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D46FBF52-8A26-487C-98CF-D5A88341DD45}" type="CELLRANGE">
+                    <a:fld id="{7CD41B26-5B89-4B26-99D3-F32FE9793116}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4409,7 +4406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2685782D-E226-4D2B-B7ED-6AF2D77D4CD3}" type="CELLRANGE">
+                    <a:fld id="{7D43EB9A-16A2-48BF-8EC2-0F70E6FB58C7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4470,7 +4467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E77EA9C8-8F42-4B18-B879-681D2F9EDE1D}" type="CELLRANGE">
+                    <a:fld id="{CE3BD3F8-12FB-47BB-A931-F733C043F3E0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4564,7 +4561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18FCB81D-10F2-4EFE-A608-E6EEE6F4D650}" type="CELLRANGE">
+                    <a:fld id="{7543386A-08E4-4D81-80A8-39FA76087125}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4598,7 +4595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05CAAF9D-8042-432A-B972-E684D432F0D2}" type="CELLRANGE">
+                    <a:fld id="{93C81047-E3FD-4455-BD45-902E2B3E9327}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4632,7 +4629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{543A6EE3-56BE-423D-8DA4-B3BE2B5C1BE5}" type="CELLRANGE">
+                    <a:fld id="{EC6238FC-B931-4ACB-AA62-ED8192F4E785}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4666,7 +4663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8A4983A-C6AF-4966-ACFF-DEE80D3253AA}" type="CELLRANGE">
+                    <a:fld id="{DFED8290-2DAE-4821-9B5F-2D03B0E6F570}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4700,7 +4697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{543A6DE8-BD56-40B2-96AA-9364EC6D46CB}" type="CELLRANGE">
+                    <a:fld id="{95601DEF-067D-42C6-A835-36B5BD26AA14}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4734,7 +4731,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A039E77-CCD1-4CC0-9277-A6075434D9B3}" type="CELLRANGE">
+                    <a:fld id="{78348F83-33A8-4FF5-9693-D8FFEA3623DB}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6529,7 +6526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DB60B51-E936-4B87-B9CA-A4CDAB68776C}" type="CELLRANGE">
+                    <a:fld id="{80C1B1F2-7BC9-4293-B67C-1818915E95D7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6590,7 +6587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{888A7EEF-CF81-462A-95A8-618C8E84F726}" type="CELLRANGE">
+                    <a:fld id="{9963BF99-9784-4F90-AB7C-2A394907BB7C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6651,7 +6648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFF4B3AA-CD23-435D-998D-B32AF333204C}" type="CELLRANGE">
+                    <a:fld id="{1756A048-20D2-4183-9949-778D453F15A7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6685,7 +6682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15285AF3-2EF2-44D6-9C30-1934F1CF07C9}" type="CELLRANGE">
+                    <a:fld id="{E23CD415-24F0-4F9F-B4A5-964A4F0D6249}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6746,7 +6743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0117289B-D39B-48C6-B2DE-505882F25FAD}" type="CELLRANGE">
+                    <a:fld id="{CBCB9C1D-BCCC-42C5-A7F2-E727E5635F33}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6780,7 +6777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FDC3543-2791-4ECC-8B80-3D39F63DA944}" type="CELLRANGE">
+                    <a:fld id="{711CFD37-F0D6-46F0-B442-845144571E32}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6814,7 +6811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59E3B28C-3B47-4968-9AA0-EFE3B177C0B3}" type="CELLRANGE">
+                    <a:fld id="{D1EAE4CD-D115-445E-9B64-62F670B4050E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6848,7 +6845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52A0D1A2-EB75-4ECF-9BE7-FB1398249193}" type="CELLRANGE">
+                    <a:fld id="{6ED1C1CE-637B-4BDF-941E-B518B9A2ACDB}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6882,7 +6879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95E0333F-62EB-4C49-B7B2-1FA183BEDFA6}" type="CELLRANGE">
+                    <a:fld id="{ADF89E48-1440-4D39-A2B4-9133CA501404}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6916,7 +6913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CA3B187-CF4D-4752-BEFA-287F764AE8E4}" type="CELLRANGE">
+                    <a:fld id="{EC73FE3D-365C-43A8-AACA-87BE0F09E51B}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6950,7 +6947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8C6516A-5B52-45BA-8669-96ED841CC4B8}" type="CELLRANGE">
+                    <a:fld id="{33CCE893-3630-4D53-9263-367AAB67DEA2}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6984,7 +6981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5C2971E-C331-4B02-9A80-9229C8CCA8A7}" type="CELLRANGE">
+                    <a:fld id="{F02702FB-4AC4-4E37-975C-16235C32BBE7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7018,7 +7015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00584802-52D9-43A1-BAF6-3889C067DC36}" type="CELLRANGE">
+                    <a:fld id="{6CEB851D-1C6C-4DBD-A7B5-1A0DEFCCC43A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7602,1011 +7599,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Intro"/>
-      <sheetName val="Indicator List"/>
-      <sheetName val="UHC_summary"/>
-      <sheetName val="UHC_Time Series"/>
-      <sheetName val="UHC_Chart"/>
-      <sheetName val="UHC_Inter"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
-          <cell r="I1"/>
-          <cell r="J1"/>
-          <cell r="L1"/>
-          <cell r="M1"/>
-        </row>
-        <row r="2">
-          <cell r="B2"/>
-          <cell r="C2"/>
-          <cell r="D2"/>
-          <cell r="E2"/>
-          <cell r="I2"/>
-          <cell r="J2"/>
-          <cell r="L2"/>
-          <cell r="M2"/>
-        </row>
-        <row r="3">
-          <cell r="B3"/>
-          <cell r="C3"/>
-          <cell r="D3"/>
-          <cell r="E3"/>
-          <cell r="I3"/>
-          <cell r="J3"/>
-          <cell r="L3"/>
-          <cell r="M3"/>
-        </row>
-        <row r="4">
-          <cell r="B4"/>
-          <cell r="C4"/>
-          <cell r="D4"/>
-          <cell r="E4"/>
-          <cell r="I4"/>
-          <cell r="J4"/>
-          <cell r="L4"/>
-          <cell r="M4"/>
-        </row>
-        <row r="5">
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-          <cell r="E5"/>
-          <cell r="I5"/>
-          <cell r="J5"/>
-          <cell r="L5"/>
-          <cell r="M5"/>
-        </row>
-        <row r="6">
-          <cell r="B6"/>
-          <cell r="C6"/>
-          <cell r="D6"/>
-          <cell r="E6"/>
-          <cell r="I6"/>
-          <cell r="J6"/>
-          <cell r="L6"/>
-          <cell r="M6"/>
-        </row>
-        <row r="7">
-          <cell r="B7"/>
-          <cell r="C7"/>
-          <cell r="D7"/>
-          <cell r="E7"/>
-          <cell r="I7"/>
-          <cell r="J7"/>
-          <cell r="L7"/>
-          <cell r="M7"/>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="C8"/>
-          <cell r="D8"/>
-          <cell r="E8"/>
-          <cell r="I8"/>
-          <cell r="J8"/>
-          <cell r="L8"/>
-          <cell r="M8"/>
-        </row>
-        <row r="9">
-          <cell r="B9"/>
-          <cell r="C9" t="str">
-            <v>Latest Reported/Estimated Data Available</v>
-          </cell>
-          <cell r="D9"/>
-          <cell r="E9"/>
-          <cell r="I9" t="str">
-            <v>2018 Baseline, and 2023 Projection</v>
-          </cell>
-          <cell r="J9"/>
-          <cell r="L9"/>
-          <cell r="M9"/>
-        </row>
-        <row r="10">
-          <cell r="B10"/>
-          <cell r="C10" t="str">
-            <v>Raw Value</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>Transformed Value</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Year</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Raw Value</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v/>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Transformed Value</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Tracer Indicator</v>
-          </cell>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
-          <cell r="I11" t="str">
-            <v>2018</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>2023</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>2018</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
-          <cell r="I12"/>
-          <cell r="J12"/>
-          <cell r="L12"/>
-          <cell r="M12"/>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Demand satisfied with modern methods (married women or in-union) 1</v>
-          </cell>
-          <cell r="C13">
-            <v>57.99</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v/>
-          </cell>
-          <cell r="E13">
-            <v>2020</v>
-          </cell>
-          <cell r="I13">
-            <v>56.35</v>
-          </cell>
-          <cell r="J13">
-            <v>60.55</v>
-          </cell>
-          <cell r="L13"/>
-          <cell r="M13"/>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Antenatal care coverage (+4 visits) 2</v>
-          </cell>
-          <cell r="C14"/>
-          <cell r="D14" t="str">
-            <v/>
-          </cell>
-          <cell r="E14"/>
-          <cell r="I14">
-            <v>98.58</v>
-          </cell>
-          <cell r="J14">
-            <v>98.46</v>
-          </cell>
-          <cell r="L14"/>
-          <cell r="M14"/>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>DPT3 Immunization coverage</v>
-          </cell>
-          <cell r="C15">
-            <v>98</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v/>
-          </cell>
-          <cell r="E15">
-            <v>2019</v>
-          </cell>
-          <cell r="I15">
-            <v>98</v>
-          </cell>
-          <cell r="J15">
-            <v>98.54</v>
-          </cell>
-          <cell r="L15"/>
-          <cell r="M15"/>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Care seeking for suspected pneumonia</v>
-          </cell>
-          <cell r="C16"/>
-          <cell r="D16" t="str">
-            <v/>
-          </cell>
-          <cell r="E16"/>
-          <cell r="I16">
-            <v>89.91</v>
-          </cell>
-          <cell r="J16">
-            <v>90.82</v>
-          </cell>
-          <cell r="L16"/>
-          <cell r="M16"/>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Average RMNCH</v>
-          </cell>
-          <cell r="C17"/>
-          <cell r="D17"/>
-          <cell r="E17"/>
-          <cell r="I17"/>
-          <cell r="J17"/>
-          <cell r="L17"/>
-          <cell r="M17"/>
-        </row>
-        <row r="18">
-          <cell r="B18"/>
-          <cell r="C18"/>
-          <cell r="D18"/>
-          <cell r="E18"/>
-          <cell r="I18"/>
-          <cell r="J18"/>
-          <cell r="L18"/>
-          <cell r="M18"/>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>TB treatment coverage</v>
-          </cell>
-          <cell r="C19">
-            <v>86.96</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v/>
-          </cell>
-          <cell r="E19">
-            <v>2019</v>
-          </cell>
-          <cell r="I19">
-            <v>86.96</v>
-          </cell>
-          <cell r="J19">
-            <v>86.96</v>
-          </cell>
-          <cell r="L19"/>
-          <cell r="M19"/>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>HIV ART coverage</v>
-          </cell>
-          <cell r="C20">
-            <v>84.01</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v/>
-          </cell>
-          <cell r="E20">
-            <v>2019</v>
-          </cell>
-          <cell r="I20">
-            <v>83.01</v>
-          </cell>
-          <cell r="J20">
-            <v>90.99</v>
-          </cell>
-          <cell r="L20"/>
-          <cell r="M20"/>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>ITN use 4</v>
-          </cell>
-          <cell r="C21"/>
-          <cell r="D21" t="str">
-            <v/>
-          </cell>
-          <cell r="E21"/>
-          <cell r="I21"/>
-          <cell r="J21"/>
-          <cell r="L21"/>
-          <cell r="M21"/>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Use of basic sanitation</v>
-          </cell>
-          <cell r="C22">
-            <v>99.89</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v/>
-          </cell>
-          <cell r="E22">
-            <v>2017</v>
-          </cell>
-          <cell r="I22">
-            <v>99.9</v>
-          </cell>
-          <cell r="J22">
-            <v>99.9</v>
-          </cell>
-          <cell r="L22"/>
-          <cell r="M22"/>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Average Infectious diseases</v>
-          </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
-          <cell r="E23"/>
-          <cell r="I23"/>
-          <cell r="J23"/>
-          <cell r="L23"/>
-          <cell r="M23"/>
-        </row>
-        <row r="24">
-          <cell r="B24"/>
-          <cell r="C24"/>
-          <cell r="D24"/>
-          <cell r="E24"/>
-          <cell r="I24"/>
-          <cell r="J24"/>
-          <cell r="L24"/>
-          <cell r="M24"/>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Prevalence of raised blood pressure*</v>
-          </cell>
-          <cell r="C25">
-            <v>17.55</v>
-          </cell>
-          <cell r="D25"/>
-          <cell r="E25">
-            <v>2015</v>
-          </cell>
-          <cell r="I25">
-            <v>16.68</v>
-          </cell>
-          <cell r="J25">
-            <v>15.29</v>
-          </cell>
-          <cell r="L25"/>
-          <cell r="M25"/>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Mean fasting blood glucose (mmol/l)*</v>
-          </cell>
-          <cell r="C26">
-            <v>5.2</v>
-          </cell>
-          <cell r="D26"/>
-          <cell r="E26">
-            <v>2014</v>
-          </cell>
-          <cell r="I26">
-            <v>5.12</v>
-          </cell>
-          <cell r="J26">
-            <v>5.03</v>
-          </cell>
-          <cell r="L26"/>
-          <cell r="M26"/>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>Tobacco use prevalence* 3</v>
-          </cell>
-          <cell r="C27">
-            <v>21.9</v>
-          </cell>
-          <cell r="D27"/>
-          <cell r="E27">
-            <v>2018</v>
-          </cell>
-          <cell r="I27">
-            <v>21.9</v>
-          </cell>
-          <cell r="J27">
-            <v>19.5</v>
-          </cell>
-          <cell r="L27"/>
-          <cell r="M27"/>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Average NCDs</v>
-          </cell>
-          <cell r="C28"/>
-          <cell r="D28"/>
-          <cell r="E28"/>
-          <cell r="I28"/>
-          <cell r="J28"/>
-          <cell r="L28"/>
-          <cell r="M28"/>
-        </row>
-        <row r="29">
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
-          <cell r="I29"/>
-          <cell r="J29"/>
-          <cell r="L29"/>
-          <cell r="M29"/>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>Hospital beds density*</v>
-          </cell>
-          <cell r="C30">
-            <v>129.04</v>
-          </cell>
-          <cell r="D30"/>
-          <cell r="E30">
-            <v>2018</v>
-          </cell>
-          <cell r="I30">
-            <v>129.04</v>
-          </cell>
-          <cell r="J30">
-            <v>130.5</v>
-          </cell>
-          <cell r="L30"/>
-          <cell r="M30"/>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>Health worker density*</v>
-          </cell>
-          <cell r="C31">
-            <v>151.77000000000001</v>
-          </cell>
-          <cell r="D31"/>
-          <cell r="E31">
-            <v>2018</v>
-          </cell>
-          <cell r="I31">
-            <v>151.77000000000001</v>
-          </cell>
-          <cell r="J31">
-            <v>172.69</v>
-          </cell>
-          <cell r="L31"/>
-          <cell r="M31"/>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>Density of doctors</v>
-          </cell>
-          <cell r="C32">
-            <v>24.8</v>
-          </cell>
-          <cell r="D32"/>
-          <cell r="E32">
-            <v>2018</v>
-          </cell>
-          <cell r="I32">
-            <v>24.8</v>
-          </cell>
-          <cell r="J32">
-            <v>27.38</v>
-          </cell>
-          <cell r="L32"/>
-          <cell r="M32"/>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>Density of nurses/midwives</v>
-          </cell>
-          <cell r="C33">
-            <v>126.98</v>
-          </cell>
-          <cell r="D33"/>
-          <cell r="E33">
-            <v>2018</v>
-          </cell>
-          <cell r="I33">
-            <v>126.98</v>
-          </cell>
-          <cell r="J33">
-            <v>145.31</v>
-          </cell>
-          <cell r="L33"/>
-          <cell r="M33"/>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>IHR core capacity index*</v>
-          </cell>
-          <cell r="C34">
-            <v>95</v>
-          </cell>
-          <cell r="D34"/>
-          <cell r="E34">
-            <v>2020</v>
-          </cell>
-          <cell r="I34">
-            <v>95</v>
-          </cell>
-          <cell r="J34">
-            <v>94.99</v>
-          </cell>
-          <cell r="L34"/>
-          <cell r="M34"/>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>Average Service capacity and access</v>
-          </cell>
-          <cell r="C35"/>
-          <cell r="D35"/>
-          <cell r="E35"/>
-          <cell r="I35"/>
-          <cell r="J35"/>
-          <cell r="L35"/>
-          <cell r="M35"/>
-        </row>
-        <row r="36">
-          <cell r="B36"/>
-          <cell r="C36"/>
-          <cell r="D36"/>
-          <cell r="E36"/>
-          <cell r="I36"/>
-          <cell r="J36"/>
-          <cell r="L36"/>
-          <cell r="M36"/>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>SDG 3.8.2 Proportion of population with household expenditures on health &gt;10% of total household expenditure or income **</v>
-          </cell>
-          <cell r="C37">
-            <v>4.3600000000000003</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v/>
-          </cell>
-          <cell r="E37">
-            <v>2015</v>
-          </cell>
-          <cell r="I37">
-            <v>4.2300000000000004</v>
-          </cell>
-          <cell r="J37">
-            <v>4.0599999999999996</v>
-          </cell>
-          <cell r="L37"/>
-          <cell r="M37"/>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>UHC single measure</v>
-          </cell>
-          <cell r="C38"/>
-          <cell r="D38"/>
-          <cell r="E38"/>
-          <cell r="I38"/>
-          <cell r="J38"/>
-          <cell r="L38">
-            <v>61.09664039777099</v>
-          </cell>
-          <cell r="M38">
-            <v>63.310803650646406</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>Change in UHC single measure over 2018-2023</v>
-          </cell>
-          <cell r="C39"/>
-          <cell r="D39"/>
-          <cell r="E39"/>
-          <cell r="I39"/>
-          <cell r="J39"/>
-          <cell r="L39"/>
-          <cell r="M39"/>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>UN Population 2023 (thousand)</v>
-          </cell>
-          <cell r="C40"/>
-          <cell r="D40"/>
-          <cell r="E40"/>
-          <cell r="I40"/>
-          <cell r="J40"/>
-          <cell r="L40"/>
-          <cell r="M40"/>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>Country contribution to UHC billion target (population - thousand)</v>
-          </cell>
-          <cell r="C41"/>
-          <cell r="D41"/>
-          <cell r="E41"/>
-          <cell r="I41"/>
-          <cell r="J41"/>
-          <cell r="L41"/>
-          <cell r="M41"/>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>% of country population newly covered by universal healthcare</v>
-          </cell>
-          <cell r="C42"/>
-          <cell r="D42"/>
-          <cell r="E42"/>
-          <cell r="I42"/>
-          <cell r="J42"/>
-          <cell r="L42"/>
-          <cell r="M42"/>
-        </row>
-        <row r="43">
-          <cell r="B43"/>
-          <cell r="C43"/>
-          <cell r="D43"/>
-          <cell r="E43"/>
-          <cell r="I43"/>
-          <cell r="J43"/>
-          <cell r="L43"/>
-          <cell r="M43"/>
-        </row>
-        <row r="44">
-          <cell r="B44"/>
-          <cell r="C44"/>
-          <cell r="D44"/>
-          <cell r="E44"/>
-          <cell r="I44"/>
-          <cell r="J44"/>
-          <cell r="L44"/>
-          <cell r="M44"/>
-        </row>
-        <row r="45">
-          <cell r="B45"/>
-          <cell r="C45"/>
-          <cell r="D45"/>
-          <cell r="E45"/>
-          <cell r="I45"/>
-          <cell r="J45"/>
-          <cell r="L45"/>
-          <cell r="M45"/>
-        </row>
-        <row r="46">
-          <cell r="B46"/>
-          <cell r="C46"/>
-          <cell r="D46"/>
-          <cell r="E46"/>
-          <cell r="I46"/>
-          <cell r="J46"/>
-          <cell r="L46"/>
-          <cell r="M46"/>
-        </row>
-        <row r="47">
-          <cell r="B47"/>
-          <cell r="C47"/>
-          <cell r="D47"/>
-          <cell r="E47"/>
-          <cell r="I47"/>
-          <cell r="J47"/>
-          <cell r="L47"/>
-          <cell r="M47"/>
-        </row>
-        <row r="48">
-          <cell r="B48"/>
-          <cell r="C48"/>
-          <cell r="D48"/>
-          <cell r="E48"/>
-          <cell r="I48"/>
-          <cell r="J48"/>
-          <cell r="L48"/>
-          <cell r="M48"/>
-        </row>
-        <row r="49">
-          <cell r="B49"/>
-          <cell r="C49"/>
-          <cell r="D49"/>
-          <cell r="E49"/>
-          <cell r="I49"/>
-          <cell r="J49"/>
-          <cell r="L49"/>
-          <cell r="M49"/>
-        </row>
-        <row r="50">
-          <cell r="B50"/>
-          <cell r="C50"/>
-          <cell r="D50"/>
-          <cell r="E50"/>
-          <cell r="I50"/>
-          <cell r="J50"/>
-          <cell r="L50"/>
-          <cell r="M50"/>
-        </row>
-        <row r="51">
-          <cell r="B51"/>
-          <cell r="C51"/>
-          <cell r="D51"/>
-          <cell r="E51"/>
-          <cell r="I51"/>
-          <cell r="J51"/>
-          <cell r="L51"/>
-          <cell r="M51"/>
-        </row>
-        <row r="52">
-          <cell r="B52"/>
-          <cell r="C52"/>
-          <cell r="D52"/>
-          <cell r="E52"/>
-          <cell r="I52"/>
-          <cell r="J52"/>
-          <cell r="L52"/>
-          <cell r="M52"/>
-        </row>
-        <row r="53">
-          <cell r="B53"/>
-          <cell r="C53"/>
-          <cell r="D53"/>
-          <cell r="E53"/>
-          <cell r="I53"/>
-          <cell r="J53"/>
-          <cell r="L53"/>
-          <cell r="M53"/>
-        </row>
-        <row r="54">
-          <cell r="B54"/>
-          <cell r="C54"/>
-          <cell r="D54"/>
-          <cell r="E54"/>
-          <cell r="I54"/>
-          <cell r="J54"/>
-          <cell r="L54"/>
-          <cell r="M54"/>
-        </row>
-        <row r="55">
-          <cell r="B55"/>
-          <cell r="C55"/>
-          <cell r="D55"/>
-          <cell r="E55"/>
-          <cell r="I55"/>
-          <cell r="J55"/>
-          <cell r="L55"/>
-          <cell r="M55"/>
-        </row>
-        <row r="56">
-          <cell r="B56"/>
-          <cell r="C56"/>
-          <cell r="D56"/>
-          <cell r="E56"/>
-          <cell r="I56"/>
-          <cell r="J56"/>
-          <cell r="L56"/>
-          <cell r="M56"/>
-        </row>
-        <row r="57">
-          <cell r="B57"/>
-          <cell r="C57"/>
-          <cell r="D57"/>
-          <cell r="E57"/>
-          <cell r="I57"/>
-          <cell r="J57"/>
-          <cell r="L57"/>
-          <cell r="M57"/>
-        </row>
-        <row r="58">
-          <cell r="B58"/>
-          <cell r="C58"/>
-          <cell r="D58"/>
-          <cell r="E58"/>
-          <cell r="I58"/>
-          <cell r="J58"/>
-          <cell r="L58"/>
-          <cell r="M58"/>
-        </row>
-        <row r="59">
-          <cell r="B59"/>
-          <cell r="C59"/>
-          <cell r="D59"/>
-          <cell r="E59"/>
-          <cell r="I59"/>
-          <cell r="J59"/>
-          <cell r="L59"/>
-          <cell r="M59"/>
-        </row>
-        <row r="60">
-          <cell r="B60"/>
-          <cell r="C60"/>
-          <cell r="D60"/>
-          <cell r="E60"/>
-          <cell r="I60"/>
-          <cell r="J60"/>
-          <cell r="L60"/>
-          <cell r="M60"/>
-        </row>
-        <row r="61">
-          <cell r="B61"/>
-          <cell r="C61"/>
-          <cell r="D61"/>
-          <cell r="E61"/>
-          <cell r="I61"/>
-          <cell r="J61"/>
-          <cell r="L61"/>
-          <cell r="M61"/>
-        </row>
-        <row r="62">
-          <cell r="B62"/>
-          <cell r="C62"/>
-          <cell r="D62"/>
-          <cell r="E62"/>
-          <cell r="I62"/>
-          <cell r="J62"/>
-          <cell r="L62"/>
-          <cell r="M62"/>
-        </row>
-        <row r="63">
-          <cell r="B63"/>
-          <cell r="C63"/>
-          <cell r="D63"/>
-          <cell r="E63"/>
-          <cell r="I63"/>
-          <cell r="J63"/>
-          <cell r="L63"/>
-          <cell r="M63"/>
-        </row>
-        <row r="64">
-          <cell r="B64"/>
-          <cell r="C64"/>
-          <cell r="D64"/>
-          <cell r="E64"/>
-          <cell r="I64"/>
-          <cell r="J64"/>
-          <cell r="L64"/>
-          <cell r="M64"/>
-        </row>
-        <row r="65">
-          <cell r="B65"/>
-          <cell r="C65"/>
-          <cell r="D65"/>
-          <cell r="E65"/>
-          <cell r="I65"/>
-          <cell r="J65"/>
-          <cell r="L65"/>
-          <cell r="M65"/>
-        </row>
-        <row r="66">
-          <cell r="B66"/>
-          <cell r="C66"/>
-          <cell r="D66"/>
-          <cell r="E66"/>
-          <cell r="I66"/>
-          <cell r="J66"/>
-          <cell r="L66"/>
-          <cell r="M66"/>
-        </row>
-        <row r="67">
-          <cell r="B67"/>
-          <cell r="C67"/>
-          <cell r="D67"/>
-          <cell r="E67"/>
-          <cell r="I67"/>
-          <cell r="J67"/>
-          <cell r="L67"/>
-          <cell r="M67"/>
-        </row>
-        <row r="68">
-          <cell r="B68"/>
-          <cell r="C68"/>
-          <cell r="D68"/>
-          <cell r="E68"/>
-          <cell r="I68"/>
-          <cell r="J68"/>
-          <cell r="L68"/>
-          <cell r="M68"/>
-        </row>
-        <row r="69">
-          <cell r="B69"/>
-          <cell r="C69"/>
-          <cell r="D69"/>
-          <cell r="E69"/>
-          <cell r="I69"/>
-          <cell r="J69"/>
-          <cell r="L69"/>
-          <cell r="M69"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Demand satisfied with modern methods (married women or in-union) 1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Antenatal care coverage (+4 visits) 2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>DPT3 Immunization coverage</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Care seeking for suspected pneumonia</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>TB treatment coverage</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>HIV ART coverage 4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Use of basic sanitation</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Prevalence of raised blood pressure*</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Mean fasting blood glucose (mmol/l)*</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Tobacco use prevalence* 3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Hospital beds density*</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Health worker density*</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>IHR core capacity index*</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16"/>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8923,664 +7915,664 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="326" t="s">
+      <c r="B2" s="323" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="324" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="320" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="323"/>
-      <c r="L4" s="323"/>
-      <c r="M4" s="323"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
       <c r="N4" s="201"/>
       <c r="O4" s="201"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="321" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="325" t="s">
+      <c r="B6" s="319" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="325"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
       <c r="N6" s="202"/>
       <c r="O6" s="202"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="319" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="325"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="319"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
     </row>
     <row r="8" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="325" t="s">
+      <c r="B8" s="319" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="325"/>
-      <c r="I8" s="325"/>
-      <c r="J8" s="325"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="325"/>
-      <c r="M8" s="325"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
+      <c r="L8" s="319"/>
+      <c r="M8" s="319"/>
       <c r="N8" s="202"/>
       <c r="O8" s="202"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="320" t="s">
+      <c r="B9" s="321" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="320"/>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="320"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="320"/>
-      <c r="L9" s="320"/>
+      <c r="C9" s="321"/>
+      <c r="D9" s="321"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="321"/>
+      <c r="G9" s="321"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="321"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="320" t="s">
+      <c r="B10" s="321" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="323" t="s">
+      <c r="B11" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="320"/>
+      <c r="H11" s="320"/>
+      <c r="I11" s="320"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="320"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="320" t="s">
+      <c r="B12" s="321" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="320"/>
-      <c r="J12" s="320"/>
-      <c r="K12" s="320"/>
-      <c r="L12" s="320"/>
-      <c r="M12" s="320"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="324" t="s">
+      <c r="B13" s="322" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="325"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="325"/>
-      <c r="I13" s="325"/>
-      <c r="J13" s="325"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="325"/>
-      <c r="M13" s="325"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="324" t="s">
+      <c r="B14" s="322" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="325"/>
-      <c r="J14" s="325"/>
-      <c r="K14" s="325"/>
-      <c r="L14" s="325"/>
-      <c r="M14" s="325"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="319"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
+      <c r="M14" s="319"/>
     </row>
     <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="322" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="325"/>
-      <c r="D15" s="325"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="325"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="325"/>
-      <c r="K15" s="325"/>
-      <c r="L15" s="325"/>
-      <c r="M15" s="325"/>
+      <c r="C15" s="319"/>
+      <c r="D15" s="319"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="319"/>
+      <c r="J15" s="319"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="319"/>
+      <c r="M15" s="319"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="320" t="s">
+      <c r="B16" s="321" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="320"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="320"/>
-      <c r="H16" s="320"/>
-      <c r="I16" s="320"/>
-      <c r="J16" s="320"/>
-      <c r="K16" s="320"/>
-      <c r="L16" s="320"/>
-      <c r="M16" s="320"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="321"/>
+      <c r="E16" s="321"/>
+      <c r="F16" s="321"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="321"/>
+      <c r="I16" s="321"/>
+      <c r="J16" s="321"/>
+      <c r="K16" s="321"/>
+      <c r="L16" s="321"/>
+      <c r="M16" s="321"/>
     </row>
     <row r="17" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="320" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="323"/>
-      <c r="D17" s="323"/>
-      <c r="E17" s="323"/>
-      <c r="F17" s="323"/>
-      <c r="G17" s="323"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323"/>
-      <c r="J17" s="323"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="323"/>
-      <c r="M17" s="323"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="320" t="s">
+      <c r="B18" s="321" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="320"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="320"/>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="321"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="321"/>
+      <c r="I18" s="321"/>
+      <c r="J18" s="321"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="321"/>
+      <c r="M18" s="321"/>
     </row>
     <row r="19" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="258"/>
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="325" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319"/>
+      <c r="D19" s="325"/>
+      <c r="E19" s="325"/>
+      <c r="F19" s="325"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="258"/>
-      <c r="C20" s="319" t="s">
+      <c r="C20" s="325" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="319"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="319"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="319"/>
-      <c r="L20" s="319"/>
-      <c r="M20" s="319"/>
+      <c r="D20" s="325"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="325"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
     </row>
     <row r="21" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="258"/>
-      <c r="C21" s="319" t="s">
+      <c r="C21" s="325" t="s">
         <v>462</v>
       </c>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="319"/>
-      <c r="L21" s="319"/>
-      <c r="M21" s="319"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="325"/>
+      <c r="F21" s="325"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
+      <c r="J21" s="325"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="258"/>
-      <c r="C22" s="319" t="s">
+      <c r="C22" s="325" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="319"/>
-      <c r="E22" s="319"/>
-      <c r="F22" s="319"/>
-      <c r="G22" s="319"/>
-      <c r="H22" s="319"/>
-      <c r="I22" s="319"/>
-      <c r="J22" s="319"/>
-      <c r="K22" s="319"/>
-      <c r="L22" s="319"/>
-      <c r="M22" s="319"/>
+      <c r="D22" s="325"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="325"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="325"/>
+      <c r="M22" s="325"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="258"/>
       <c r="C23" s="258"/>
-      <c r="D23" s="319" t="s">
+      <c r="D23" s="325" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="319"/>
-      <c r="L23" s="319"/>
-      <c r="M23" s="319"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="325"/>
+      <c r="L23" s="325"/>
+      <c r="M23" s="325"/>
     </row>
     <row r="24" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="258"/>
       <c r="C24" s="258"/>
-      <c r="D24" s="319" t="s">
+      <c r="D24" s="325" t="s">
         <v>455</v>
       </c>
-      <c r="E24" s="319"/>
-      <c r="F24" s="319"/>
-      <c r="G24" s="319"/>
-      <c r="H24" s="319"/>
-      <c r="I24" s="319"/>
-      <c r="J24" s="319"/>
-      <c r="K24" s="319"/>
-      <c r="L24" s="319"/>
-      <c r="M24" s="319"/>
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="325"/>
+      <c r="M24" s="325"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="255"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="320" t="s">
+      <c r="D25" s="321" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="320"/>
-      <c r="F25" s="320"/>
-      <c r="G25" s="320"/>
-      <c r="H25" s="320"/>
-      <c r="I25" s="320"/>
-      <c r="J25" s="320"/>
-      <c r="K25" s="320"/>
-      <c r="L25" s="320"/>
-      <c r="M25" s="320"/>
+      <c r="E25" s="321"/>
+      <c r="F25" s="321"/>
+      <c r="G25" s="321"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="321"/>
+      <c r="J25" s="321"/>
+      <c r="K25" s="321"/>
+      <c r="L25" s="321"/>
+      <c r="M25" s="321"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="255"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="319" t="s">
+      <c r="D26" s="325" t="s">
         <v>457</v>
       </c>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="319"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="319"/>
-      <c r="M26" s="319"/>
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="325"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="324" t="s">
+      <c r="B27" s="322" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="319"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="319"/>
+      <c r="K27" s="319"/>
+      <c r="L27" s="319"/>
+      <c r="M27" s="319"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="324" t="s">
+      <c r="B28" s="322" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="325"/>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
+      <c r="C28" s="319"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
+      <c r="K28" s="319"/>
+      <c r="L28" s="319"/>
+      <c r="M28" s="319"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="199"/>
     </row>
     <row r="30" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="323" t="s">
+      <c r="B30" s="320" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="323"/>
-      <c r="F30" s="323"/>
-      <c r="G30" s="323"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="323"/>
-      <c r="L30" s="323"/>
-      <c r="M30" s="323"/>
+      <c r="C30" s="320"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="320"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="320"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="320"/>
+      <c r="L30" s="320"/>
+      <c r="M30" s="320"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="320" t="s">
+      <c r="B31" s="321" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="320"/>
-      <c r="D31" s="320"/>
-      <c r="E31" s="320"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="320"/>
-      <c r="K31" s="320"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="321"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="321"/>
+      <c r="G31" s="321"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="321"/>
+      <c r="J31" s="321"/>
+      <c r="K31" s="321"/>
+      <c r="L31" s="321"/>
+      <c r="M31" s="321"/>
     </row>
     <row r="32" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="320" t="s">
+      <c r="B32" s="321" t="s">
         <v>346</v>
       </c>
-      <c r="C32" s="320"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="320"/>
-      <c r="F32" s="320"/>
-      <c r="G32" s="320"/>
-      <c r="H32" s="320"/>
-      <c r="I32" s="320"/>
-      <c r="J32" s="320"/>
-      <c r="K32" s="320"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
+      <c r="C32" s="321"/>
+      <c r="D32" s="321"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="321"/>
+      <c r="G32" s="321"/>
+      <c r="H32" s="321"/>
+      <c r="I32" s="321"/>
+      <c r="J32" s="321"/>
+      <c r="K32" s="321"/>
+      <c r="L32" s="321"/>
+      <c r="M32" s="321"/>
     </row>
     <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="320" t="s">
+      <c r="B33" s="321" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="320"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="320"/>
-      <c r="F33" s="320"/>
-      <c r="G33" s="320"/>
-      <c r="H33" s="320"/>
-      <c r="I33" s="320"/>
-      <c r="J33" s="320"/>
-      <c r="K33" s="320"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="321"/>
+      <c r="E33" s="321"/>
+      <c r="F33" s="321"/>
+      <c r="G33" s="321"/>
+      <c r="H33" s="321"/>
+      <c r="I33" s="321"/>
+      <c r="J33" s="321"/>
+      <c r="K33" s="321"/>
+      <c r="L33" s="321"/>
+      <c r="M33" s="321"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="320" t="s">
+      <c r="B34" s="321" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="320"/>
-      <c r="I34" s="320"/>
-      <c r="J34" s="320"/>
-      <c r="K34" s="320"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="321"/>
+      <c r="E34" s="321"/>
+      <c r="F34" s="321"/>
+      <c r="G34" s="321"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="321"/>
+      <c r="J34" s="321"/>
+      <c r="K34" s="321"/>
+      <c r="L34" s="321"/>
+      <c r="M34" s="321"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="320" t="s">
+      <c r="B35" s="321" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="320"/>
-      <c r="D35" s="320"/>
-      <c r="E35" s="320"/>
-      <c r="F35" s="320"/>
-      <c r="G35" s="320"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="320"/>
-      <c r="K35" s="320"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="321"/>
+      <c r="I35" s="321"/>
+      <c r="J35" s="321"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321"/>
+      <c r="M35" s="321"/>
     </row>
     <row r="36" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="323" t="s">
+      <c r="B36" s="320" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="323"/>
-      <c r="D36" s="323"/>
-      <c r="E36" s="323"/>
-      <c r="F36" s="323"/>
-      <c r="G36" s="323"/>
-      <c r="H36" s="323"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="323"/>
-      <c r="K36" s="323"/>
-      <c r="L36" s="323"/>
-      <c r="M36" s="323"/>
+      <c r="C36" s="320"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="320"/>
+      <c r="G36" s="320"/>
+      <c r="H36" s="320"/>
+      <c r="I36" s="320"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="320"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="320"/>
     </row>
     <row r="37" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="320" t="s">
+      <c r="B37" s="321" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="320"/>
-      <c r="D37" s="320"/>
-      <c r="E37" s="320"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320"/>
+      <c r="C37" s="321"/>
+      <c r="D37" s="321"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="321"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="321"/>
+      <c r="I37" s="321"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="321"/>
+      <c r="L37" s="321"/>
+      <c r="M37" s="321"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="320" t="s">
+      <c r="B38" s="321" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="320"/>
-      <c r="D38" s="320"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="320"/>
-      <c r="G38" s="320"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
+      <c r="J38" s="321"/>
+      <c r="K38" s="321"/>
+      <c r="L38" s="321"/>
+      <c r="M38" s="321"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="199"/>
     </row>
     <row r="40" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="323" t="s">
+      <c r="B40" s="320" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="323"/>
-      <c r="D40" s="323"/>
-      <c r="E40" s="323"/>
-      <c r="F40" s="323"/>
-      <c r="G40" s="323"/>
-      <c r="H40" s="323"/>
-      <c r="I40" s="323"/>
-      <c r="J40" s="323"/>
-      <c r="K40" s="323"/>
-      <c r="L40" s="323"/>
-      <c r="M40" s="323"/>
+      <c r="C40" s="320"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="320"/>
+      <c r="G40" s="320"/>
+      <c r="H40" s="320"/>
+      <c r="I40" s="320"/>
+      <c r="J40" s="320"/>
+      <c r="K40" s="320"/>
+      <c r="L40" s="320"/>
+      <c r="M40" s="320"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="322" t="s">
+      <c r="B41" s="327" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="322"/>
-      <c r="D41" s="322"/>
-      <c r="E41" s="322"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="322"/>
-      <c r="H41" s="322"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="322"/>
-      <c r="K41" s="322"/>
-      <c r="L41" s="322"/>
-      <c r="M41" s="322"/>
+      <c r="C41" s="327"/>
+      <c r="D41" s="327"/>
+      <c r="E41" s="327"/>
+      <c r="F41" s="327"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="327"/>
+      <c r="I41" s="327"/>
+      <c r="J41" s="327"/>
+      <c r="K41" s="327"/>
+      <c r="L41" s="327"/>
+      <c r="M41" s="327"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="322" t="s">
+      <c r="B42" s="327" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="322"/>
-      <c r="D42" s="322"/>
-      <c r="E42" s="322"/>
-      <c r="F42" s="322"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="322"/>
-      <c r="I42" s="322"/>
-      <c r="J42" s="322"/>
-      <c r="K42" s="322"/>
-      <c r="L42" s="322"/>
-      <c r="M42" s="322"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="327"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="327"/>
+      <c r="I42" s="327"/>
+      <c r="J42" s="327"/>
+      <c r="K42" s="327"/>
+      <c r="L42" s="327"/>
+      <c r="M42" s="327"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B43" s="322" t="s">
+      <c r="B43" s="327" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="322"/>
-      <c r="D43" s="322"/>
-      <c r="E43" s="322"/>
-      <c r="F43" s="322"/>
-      <c r="G43" s="322"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="322"/>
-      <c r="K43" s="322"/>
-      <c r="L43" s="322"/>
-      <c r="M43" s="322"/>
+      <c r="C43" s="327"/>
+      <c r="D43" s="327"/>
+      <c r="E43" s="327"/>
+      <c r="F43" s="327"/>
+      <c r="G43" s="327"/>
+      <c r="H43" s="327"/>
+      <c r="I43" s="327"/>
+      <c r="J43" s="327"/>
+      <c r="K43" s="327"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="327"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="249" t="s">
@@ -9599,82 +8591,55 @@
       <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="323" t="s">
+      <c r="B45" s="320" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="323"/>
-      <c r="D45" s="323"/>
-      <c r="E45" s="323"/>
-      <c r="F45" s="323"/>
-      <c r="G45" s="323"/>
-      <c r="H45" s="323"/>
-      <c r="I45" s="323"/>
-      <c r="J45" s="323"/>
-      <c r="K45" s="323"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="323"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="320"/>
+      <c r="K45" s="320"/>
+      <c r="L45" s="320"/>
+      <c r="M45" s="320"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B46" s="320" t="s">
+      <c r="B46" s="321" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="320"/>
-      <c r="D46" s="320"/>
-      <c r="E46" s="320"/>
-      <c r="F46" s="320"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="320"/>
-      <c r="I46" s="320"/>
-      <c r="J46" s="320"/>
-      <c r="K46" s="320"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
+      <c r="C46" s="321"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="321"/>
+      <c r="F46" s="321"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="321"/>
+      <c r="I46" s="321"/>
+      <c r="J46" s="321"/>
+      <c r="K46" s="321"/>
+      <c r="L46" s="321"/>
+      <c r="M46" s="321"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B47" s="321" t="s">
+      <c r="B47" s="326" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="321"/>
-      <c r="D47" s="321"/>
-      <c r="E47" s="321"/>
-      <c r="F47" s="321"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="321"/>
-      <c r="K47" s="321"/>
-      <c r="L47" s="321"/>
-      <c r="M47" s="321"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D25:M25"/>
@@ -9691,6 +8656,33 @@
     <mergeCell ref="B41:M41"/>
     <mergeCell ref="B31:M31"/>
     <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
@@ -13829,40 +12821,40 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="354"/>
-      <c r="C9" s="361" t="s">
+      <c r="B9" s="357"/>
+      <c r="C9" s="362" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="361"/>
-      <c r="H9" s="361"/>
-      <c r="I9" s="361"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="362"/>
+      <c r="I9" s="362"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="362" t="s">
+      <c r="K9" s="363" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="362"/>
-      <c r="M9" s="362"/>
-      <c r="N9" s="362"/>
-      <c r="O9" s="362"/>
-      <c r="P9" s="362"/>
-      <c r="Q9" s="362"/>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
+      <c r="L9" s="363"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="363"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="363"/>
+      <c r="S9" s="363"/>
+      <c r="T9" s="363"/>
+      <c r="U9" s="363"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="358" t="s">
+      <c r="W9" s="359" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="359"/>
-      <c r="Y9" s="359"/>
-      <c r="Z9" s="360"/>
+      <c r="X9" s="360"/>
+      <c r="Y9" s="360"/>
+      <c r="Z9" s="361"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="355" t="s">
@@ -13886,48 +12878,48 @@
       <c r="G10" s="355" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="363" t="s">
+      <c r="H10" s="364" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="363" t="s">
+      <c r="I10" s="364" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="364" t="s">
+      <c r="K10" s="354" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="364" t="s">
+      <c r="L10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="364" t="s">
+      <c r="N10" s="354" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="364" t="s">
+      <c r="O10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="78"/>
-      <c r="Q10" s="364" t="s">
+      <c r="Q10" s="354" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="364" t="s">
+      <c r="R10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="78"/>
-      <c r="T10" s="364" t="s">
+      <c r="T10" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="364" t="s">
+      <c r="U10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="357" t="s">
+      <c r="W10" s="358" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="357" t="s">
+      <c r="X10" s="358" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="357" t="s">
+      <c r="Y10" s="358" t="s">
         <v>116</v>
       </c>
       <c r="Z10" s="355" t="s">
@@ -15741,11 +14733,6 @@
     <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -15762,6 +14749,11 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -17106,7 +16098,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -28052,11 +27044,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>56.35</v>
       </c>
       <c r="D3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>60.55</v>
       </c>
       <c r="E3" s="50">
@@ -28076,16 +27066,13 @@
         <v>#N/A</v>
       </c>
       <c r="I3" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>57.99</v>
       </c>
       <c r="J3" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2020</v>
       </c>
-      <c r="K3" t="str">
-        <f>INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A3,[1]UHC_summary!$B$1:$B$101,0))</f>
-        <v/>
+      <c r="K3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -28096,11 +27083,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.58</v>
       </c>
       <c r="D4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.46</v>
       </c>
       <c r="E4" s="50" t="e">
@@ -28120,12 +27105,10 @@
         <v>0.12000000000000455</v>
       </c>
       <c r="I4" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A4,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="J4" s="198" t="s">
+        <v>82</v>
       </c>
       <c r="L4" s="21"/>
     </row>
@@ -28137,11 +27120,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98</v>
       </c>
       <c r="D5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98.54</v>
       </c>
       <c r="E5" s="50">
@@ -28161,11 +27142,9 @@
         <v>#N/A</v>
       </c>
       <c r="I5" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>98</v>
       </c>
       <c r="J5" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A5,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2019</v>
       </c>
     </row>
@@ -28177,11 +27156,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>89.91</v>
       </c>
       <c r="D6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>90.82</v>
       </c>
       <c r="E6" s="50">
@@ -28201,12 +27178,10 @@
         <v>#N/A</v>
       </c>
       <c r="I6" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A6,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="J6" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -28217,11 +27192,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="D7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="E7" s="50" t="e">
@@ -28241,11 +27214,9 @@
         <v>#N/A</v>
       </c>
       <c r="I7" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>86.96</v>
       </c>
       <c r="J7" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A7,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2019</v>
       </c>
     </row>
@@ -28256,13 +27227,11 @@
       <c r="B8" s="49">
         <v>6</v>
       </c>
-      <c r="C8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="C8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="50" t="e">
         <f t="shared" si="0"/>
@@ -28280,13 +27249,11 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="J8" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A8,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="I8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -28297,11 +27264,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.9</v>
       </c>
       <c r="D9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.9</v>
       </c>
       <c r="E9" s="50" t="e">
@@ -28321,11 +27286,9 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>99.89</v>
       </c>
       <c r="J9" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A9,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2017</v>
       </c>
     </row>
@@ -28337,11 +27300,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>16.68</v>
       </c>
       <c r="D10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>15.29</v>
       </c>
       <c r="E10" s="50" t="e">
@@ -28361,11 +27322,9 @@
         <v>1.3900000000000006</v>
       </c>
       <c r="I10" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>17.55</v>
       </c>
       <c r="J10" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A10,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2015</v>
       </c>
     </row>
@@ -28377,11 +27336,9 @@
         <v>9</v>
       </c>
       <c r="C11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.12</v>
       </c>
       <c r="D11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.03</v>
       </c>
       <c r="E11" s="50" t="e">
@@ -28401,11 +27358,9 @@
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="I11" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>5.2</v>
       </c>
       <c r="J11" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A11,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2014</v>
       </c>
     </row>
@@ -28417,11 +27372,9 @@
         <v>10</v>
       </c>
       <c r="C12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>21.9</v>
       </c>
       <c r="D12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>19.5</v>
       </c>
       <c r="E12" s="50" t="e">
@@ -28441,11 +27394,9 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="I12" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>21.9</v>
       </c>
       <c r="J12" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A12,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -28457,11 +27408,9 @@
         <v>11</v>
       </c>
       <c r="C13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>129.04</v>
       </c>
       <c r="D13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>130.5</v>
       </c>
       <c r="E13" s="50">
@@ -28481,11 +27430,9 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>129.04</v>
       </c>
       <c r="J13" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A13,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -28497,11 +27444,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>151.77000000000001</v>
       </c>
       <c r="D14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>172.69</v>
       </c>
       <c r="E14" s="50">
@@ -28521,11 +27466,9 @@
         <v>#N/A</v>
       </c>
       <c r="I14" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>151.77000000000001</v>
       </c>
       <c r="J14" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A14,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2018</v>
       </c>
     </row>
@@ -28537,11 +27480,9 @@
         <v>13</v>
       </c>
       <c r="C15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>95</v>
       </c>
       <c r="D15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>94.99</v>
       </c>
       <c r="E15" s="50" t="e">
@@ -28561,11 +27502,9 @@
         <v>1.0000000000005116E-2</v>
       </c>
       <c r="I15" s="50">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>95</v>
       </c>
       <c r="J15" s="198">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A15,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
         <v>2020</v>
       </c>
     </row>
@@ -28574,13 +27513,11 @@
       <c r="B16" s="49">
         <v>14</v>
       </c>
-      <c r="C16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!I$1:I$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!L$1:L$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,INDEX([1]UHC_summary!J$1:J$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!M$1:M$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="C16" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="50" t="e">
         <f t="shared" si="0"/>
@@ -28598,13 +27535,11 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="50" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))="",INDEX([1]UHC_summary!C$1:C$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0)), INDEX([1]UHC_summary!D$1:D$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="198" t="str">
-        <f>_xlfn.IFNA(IF(INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))=0,"",INDEX([1]UHC_summary!E$1:E$101,MATCH([1]UHC_Inter!$A16,[1]UHC_summary!$B$1:$B$101,0))),"")</f>
-        <v/>
+      <c r="I16" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -28879,11 +27814,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="347" t="s">
+      <c r="H5" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="348"/>
-      <c r="J5" s="348"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -28919,11 +27854,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="347" t="s">
+      <c r="H6" s="343" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="348"/>
-      <c r="J6" s="348"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="344"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -28959,11 +27894,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="347" t="s">
+      <c r="H7" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="348"/>
-      <c r="J7" s="348"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -29020,31 +27955,31 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="346" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="350"/>
-      <c r="C9" s="346" t="s">
+      <c r="B9" s="346"/>
+      <c r="C9" s="348" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="346"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="346"/>
-      <c r="G9" s="346"/>
+      <c r="D9" s="348"/>
+      <c r="E9" s="348"/>
+      <c r="F9" s="348"/>
+      <c r="G9" s="348"/>
       <c r="H9" s="156"/>
-      <c r="I9" s="349" t="s">
+      <c r="I9" s="345" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="349"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="349"/>
-      <c r="M9" s="349"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="349"/>
-      <c r="P9" s="349"/>
-      <c r="Q9" s="349"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="349"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="345"/>
+      <c r="R9" s="345"/>
+      <c r="S9" s="345"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
@@ -29059,47 +27994,47 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="347" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="345" t="s">
+      <c r="C10" s="350" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="344" t="s">
+      <c r="D10" s="347" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="345" t="s">
+      <c r="E10" s="350" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="345" t="s">
+      <c r="F10" s="350" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="344" t="s">
+      <c r="G10" s="347" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="343" t="s">
+      <c r="I10" s="349" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="343"/>
+      <c r="J10" s="349"/>
       <c r="K10" s="132"/>
-      <c r="L10" s="343" t="s">
+      <c r="L10" s="349" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="343"/>
+      <c r="M10" s="349"/>
       <c r="N10" s="132"/>
-      <c r="O10" s="343" t="s">
+      <c r="O10" s="349" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="343"/>
+      <c r="P10" s="349"/>
       <c r="Q10" s="132"/>
-      <c r="R10" s="343" t="s">
+      <c r="R10" s="349" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="343"/>
+      <c r="S10" s="349"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -29109,13 +28044,13 @@
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="344"/>
-      <c r="B11" s="344"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="344"/>
+      <c r="A11" s="347"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="347"/>
       <c r="H11" s="127"/>
       <c r="I11" s="131">
         <v>2018</v>
@@ -31272,16 +30207,6 @@
     <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -31289,6 +30214,16 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -31331,21 +30266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -31556,32 +30476,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31598,4 +30508,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D894AC6C-DCAE-4F02-A5BC-EA82A31E349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42BCDE-F09D-4D07-B740-0678455A5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="942" activeTab="14" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="942" activeTab="9" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -31,11 +31,6 @@
     <sheet name="HPOP_Chart" sheetId="6" r:id="rId16"/>
     <sheet name="HPOP_Inter" sheetId="5" state="hidden" r:id="rId17"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">HEP_summary!$A$1:$C$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">HPOP_summary!$A$1:$D$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">UHC_summary!$A$1:$D$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3515,33 +3510,33 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3585,6 +3580,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="54" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3595,18 +3602,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3616,38 +3611,38 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4345,7 +4340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CD41B26-5B89-4B26-99D3-F32FE9793116}" type="CELLRANGE">
+                    <a:fld id="{3AC83D7F-981F-466D-98F6-83EEA20B9187}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4406,7 +4401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D43EB9A-16A2-48BF-8EC2-0F70E6FB58C7}" type="CELLRANGE">
+                    <a:fld id="{25AAFC2A-4901-4950-8084-F929FBD275E5}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4467,7 +4462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE3BD3F8-12FB-47BB-A931-F733C043F3E0}" type="CELLRANGE">
+                    <a:fld id="{61A24C0A-034E-44B3-BCEE-12E1DAE270BC}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4561,7 +4556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7543386A-08E4-4D81-80A8-39FA76087125}" type="CELLRANGE">
+                    <a:fld id="{8B05C793-46A3-41A6-A602-83A0F74A5F41}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4595,7 +4590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93C81047-E3FD-4455-BD45-902E2B3E9327}" type="CELLRANGE">
+                    <a:fld id="{08725E2D-E2ED-4A71-94FD-AD0ED8C2C612}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4629,7 +4624,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC6238FC-B931-4ACB-AA62-ED8192F4E785}" type="CELLRANGE">
+                    <a:fld id="{DAD362E5-671C-43EE-9B18-E8C07E16EB4F}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4663,7 +4658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFED8290-2DAE-4821-9B5F-2D03B0E6F570}" type="CELLRANGE">
+                    <a:fld id="{84747548-2A3D-4886-878D-8EA6BC120A45}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4697,7 +4692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95601DEF-067D-42C6-A835-36B5BD26AA14}" type="CELLRANGE">
+                    <a:fld id="{147DCD00-4C69-470B-942D-0120532A3A45}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4731,7 +4726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78348F83-33A8-4FF5-9693-D8FFEA3623DB}" type="CELLRANGE">
+                    <a:fld id="{467FC473-F0A4-4245-938B-D0445DC22EB7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6526,7 +6521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80C1B1F2-7BC9-4293-B67C-1818915E95D7}" type="CELLRANGE">
+                    <a:fld id="{581296CC-8A4F-459C-BDA4-3DA900375A27}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6587,7 +6582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9963BF99-9784-4F90-AB7C-2A394907BB7C}" type="CELLRANGE">
+                    <a:fld id="{8968AA64-C1EC-4B2E-8622-BD9083129AF6}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6648,7 +6643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1756A048-20D2-4183-9949-778D453F15A7}" type="CELLRANGE">
+                    <a:fld id="{F334D934-EC6F-4B36-9DBC-3C53F5435AC0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6682,7 +6677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E23CD415-24F0-4F9F-B4A5-964A4F0D6249}" type="CELLRANGE">
+                    <a:fld id="{625BFFCA-F1A7-408F-B502-E4B047DFFE37}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6743,7 +6738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBCB9C1D-BCCC-42C5-A7F2-E727E5635F33}" type="CELLRANGE">
+                    <a:fld id="{A78D15AF-608D-4C19-8CD2-843F395854B5}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6777,7 +6772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{711CFD37-F0D6-46F0-B442-845144571E32}" type="CELLRANGE">
+                    <a:fld id="{E22DC3DE-CCBF-493A-86DC-898FE7A51416}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6811,7 +6806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1EAE4CD-D115-445E-9B64-62F670B4050E}" type="CELLRANGE">
+                    <a:fld id="{086ACC98-DFB6-41A9-BB37-AC6B41BC6CE9}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6845,7 +6840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ED1C1CE-637B-4BDF-941E-B518B9A2ACDB}" type="CELLRANGE">
+                    <a:fld id="{81E6BE68-99DB-4C17-8DDF-609E7D8FF708}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6879,7 +6874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADF89E48-1440-4D39-A2B4-9133CA501404}" type="CELLRANGE">
+                    <a:fld id="{BF0F91D0-9095-4956-A58B-350BCB9C0FD0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6913,7 +6908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC73FE3D-365C-43A8-AACA-87BE0F09E51B}" type="CELLRANGE">
+                    <a:fld id="{60EA28E9-96C2-4929-B2A7-74312C7BD9BD}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6947,7 +6942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33CCE893-3630-4D53-9263-367AAB67DEA2}" type="CELLRANGE">
+                    <a:fld id="{85963D58-32FF-4D17-AF91-0BBDAB6BEC54}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6981,7 +6976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F02702FB-4AC4-4E37-975C-16235C32BBE7}" type="CELLRANGE">
+                    <a:fld id="{10F0B6A4-D86B-4733-A78D-0E4AEC6A6641}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7015,7 +7010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CEB851D-1C6C-4DBD-A7B5-1A0DEFCCC43A}" type="CELLRANGE">
+                    <a:fld id="{9AEB8C3D-16BD-4D12-A0F1-A95C3AB661CB}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7915,664 +7910,664 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="326" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="327" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="323" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
       <c r="N4" s="201"/>
       <c r="O4" s="201"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="321" t="s">
+      <c r="B5" s="320" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="319" t="s">
+      <c r="B6" s="325" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="325"/>
+      <c r="K6" s="325"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="325"/>
       <c r="N6" s="202"/>
       <c r="O6" s="202"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="319" t="s">
+      <c r="B7" s="325" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="319"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="319"/>
-      <c r="K7" s="319"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="319"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
     </row>
     <row r="8" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="325" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="319"/>
-      <c r="L8" s="319"/>
-      <c r="M8" s="319"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="325"/>
       <c r="N8" s="202"/>
       <c r="O8" s="202"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="321" t="s">
+      <c r="B9" s="320" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="321"/>
-      <c r="D9" s="321"/>
-      <c r="E9" s="321"/>
-      <c r="F9" s="321"/>
-      <c r="G9" s="321"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="321"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
+      <c r="C9" s="320"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="320"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="321" t="s">
+      <c r="B10" s="320" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="321"/>
-      <c r="D10" s="321"/>
-      <c r="E10" s="321"/>
-      <c r="F10" s="321"/>
-      <c r="G10" s="321"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
+      <c r="C10" s="320"/>
+      <c r="D10" s="320"/>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="320"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="320" t="s">
+      <c r="B11" s="323" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="321" t="s">
+      <c r="B12" s="320" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="321"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="322" t="s">
+      <c r="B13" s="324" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="325"/>
+      <c r="I13" s="325"/>
+      <c r="J13" s="325"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="322" t="s">
+      <c r="B14" s="324" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="319"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="319"/>
-      <c r="L14" s="319"/>
-      <c r="M14" s="319"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="325"/>
     </row>
     <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="322" t="s">
+      <c r="B15" s="324" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="319"/>
-      <c r="J15" s="319"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="321" t="s">
+      <c r="B16" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="321"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="321"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="321"/>
-      <c r="I16" s="321"/>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
+      <c r="C16" s="320"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="320"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
+      <c r="M16" s="320"/>
     </row>
     <row r="17" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="320" t="s">
+      <c r="B17" s="323" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="320"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="320"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320"/>
-      <c r="J17" s="320"/>
-      <c r="K17" s="320"/>
-      <c r="L17" s="320"/>
-      <c r="M17" s="320"/>
+      <c r="C17" s="323"/>
+      <c r="D17" s="323"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="323"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="323"/>
+      <c r="J17" s="323"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="321" t="s">
+      <c r="B18" s="320" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="321"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="321"/>
-      <c r="I18" s="321"/>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="321"/>
-      <c r="M18" s="321"/>
+      <c r="C18" s="320"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="320"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="320"/>
+      <c r="J18" s="320"/>
+      <c r="K18" s="320"/>
+      <c r="L18" s="320"/>
+      <c r="M18" s="320"/>
     </row>
     <row r="19" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="258"/>
-      <c r="C19" s="325" t="s">
+      <c r="C19" s="319" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="325"/>
-      <c r="E19" s="325"/>
-      <c r="F19" s="325"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="319"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="258"/>
-      <c r="C20" s="325" t="s">
+      <c r="C20" s="319" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="325"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="319"/>
+      <c r="K20" s="319"/>
+      <c r="L20" s="319"/>
+      <c r="M20" s="319"/>
     </row>
     <row r="21" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="258"/>
-      <c r="C21" s="325" t="s">
+      <c r="C21" s="319" t="s">
         <v>462</v>
       </c>
-      <c r="D21" s="325"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="325"/>
-      <c r="G21" s="325"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
-      <c r="J21" s="325"/>
-      <c r="K21" s="325"/>
-      <c r="L21" s="325"/>
-      <c r="M21" s="325"/>
+      <c r="D21" s="319"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="319"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
+      <c r="K21" s="319"/>
+      <c r="L21" s="319"/>
+      <c r="M21" s="319"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="258"/>
-      <c r="C22" s="325" t="s">
+      <c r="C22" s="319" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="319"/>
+      <c r="I22" s="319"/>
+      <c r="J22" s="319"/>
+      <c r="K22" s="319"/>
+      <c r="L22" s="319"/>
+      <c r="M22" s="319"/>
     </row>
     <row r="23" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="258"/>
       <c r="C23" s="258"/>
-      <c r="D23" s="325" t="s">
+      <c r="D23" s="319" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="325"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="325"/>
-      <c r="M23" s="325"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="319"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="319"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="319"/>
+      <c r="K23" s="319"/>
+      <c r="L23" s="319"/>
+      <c r="M23" s="319"/>
     </row>
     <row r="24" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="258"/>
       <c r="C24" s="258"/>
-      <c r="D24" s="325" t="s">
+      <c r="D24" s="319" t="s">
         <v>455</v>
       </c>
-      <c r="E24" s="325"/>
-      <c r="F24" s="325"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="319"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="319"/>
+      <c r="K24" s="319"/>
+      <c r="L24" s="319"/>
+      <c r="M24" s="319"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="255"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="321" t="s">
+      <c r="D25" s="320" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="321"/>
-      <c r="F25" s="321"/>
-      <c r="G25" s="321"/>
-      <c r="H25" s="321"/>
-      <c r="I25" s="321"/>
-      <c r="J25" s="321"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="321"/>
+      <c r="E25" s="320"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="320"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="320"/>
+      <c r="M25" s="320"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="255"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="325" t="s">
+      <c r="D26" s="319" t="s">
         <v>457</v>
       </c>
-      <c r="E26" s="325"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="325"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="319"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="319"/>
+      <c r="M26" s="319"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="324" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-      <c r="L27" s="319"/>
-      <c r="M27" s="319"/>
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="324" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="319"/>
-      <c r="D28" s="319"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="319"/>
-      <c r="L28" s="319"/>
-      <c r="M28" s="319"/>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="325"/>
+      <c r="L28" s="325"/>
+      <c r="M28" s="325"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="199"/>
     </row>
     <row r="30" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="320" t="s">
+      <c r="B30" s="323" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="320"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="320"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="320"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
+      <c r="E30" s="323"/>
+      <c r="F30" s="323"/>
+      <c r="G30" s="323"/>
+      <c r="H30" s="323"/>
+      <c r="I30" s="323"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="323"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="321" t="s">
+      <c r="B31" s="320" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="321"/>
-      <c r="D31" s="321"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="321"/>
-      <c r="G31" s="321"/>
-      <c r="H31" s="321"/>
-      <c r="I31" s="321"/>
-      <c r="J31" s="321"/>
-      <c r="K31" s="321"/>
-      <c r="L31" s="321"/>
-      <c r="M31" s="321"/>
+      <c r="C31" s="320"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="320"/>
+      <c r="J31" s="320"/>
+      <c r="K31" s="320"/>
+      <c r="L31" s="320"/>
+      <c r="M31" s="320"/>
     </row>
     <row r="32" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="321" t="s">
+      <c r="B32" s="320" t="s">
         <v>346</v>
       </c>
-      <c r="C32" s="321"/>
-      <c r="D32" s="321"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="321"/>
-      <c r="G32" s="321"/>
-      <c r="H32" s="321"/>
-      <c r="I32" s="321"/>
-      <c r="J32" s="321"/>
-      <c r="K32" s="321"/>
-      <c r="L32" s="321"/>
-      <c r="M32" s="321"/>
+      <c r="C32" s="320"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="320"/>
+      <c r="F32" s="320"/>
+      <c r="G32" s="320"/>
+      <c r="H32" s="320"/>
+      <c r="I32" s="320"/>
+      <c r="J32" s="320"/>
+      <c r="K32" s="320"/>
+      <c r="L32" s="320"/>
+      <c r="M32" s="320"/>
     </row>
     <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="321" t="s">
+      <c r="B33" s="320" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="321"/>
-      <c r="D33" s="321"/>
-      <c r="E33" s="321"/>
-      <c r="F33" s="321"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="321"/>
-      <c r="J33" s="321"/>
-      <c r="K33" s="321"/>
-      <c r="L33" s="321"/>
-      <c r="M33" s="321"/>
+      <c r="C33" s="320"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="320"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="320"/>
+      <c r="H33" s="320"/>
+      <c r="I33" s="320"/>
+      <c r="J33" s="320"/>
+      <c r="K33" s="320"/>
+      <c r="L33" s="320"/>
+      <c r="M33" s="320"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="321" t="s">
+      <c r="B34" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="321"/>
-      <c r="D34" s="321"/>
-      <c r="E34" s="321"/>
-      <c r="F34" s="321"/>
-      <c r="G34" s="321"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="321"/>
-      <c r="J34" s="321"/>
-      <c r="K34" s="321"/>
-      <c r="L34" s="321"/>
-      <c r="M34" s="321"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="320"/>
+      <c r="I34" s="320"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="320"/>
+      <c r="L34" s="320"/>
+      <c r="M34" s="320"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="321" t="s">
+      <c r="B35" s="320" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="321"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="321"/>
-      <c r="F35" s="321"/>
-      <c r="G35" s="321"/>
-      <c r="H35" s="321"/>
-      <c r="I35" s="321"/>
-      <c r="J35" s="321"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321"/>
-      <c r="M35" s="321"/>
+      <c r="C35" s="320"/>
+      <c r="D35" s="320"/>
+      <c r="E35" s="320"/>
+      <c r="F35" s="320"/>
+      <c r="G35" s="320"/>
+      <c r="H35" s="320"/>
+      <c r="I35" s="320"/>
+      <c r="J35" s="320"/>
+      <c r="K35" s="320"/>
+      <c r="L35" s="320"/>
+      <c r="M35" s="320"/>
     </row>
     <row r="36" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="320" t="s">
+      <c r="B36" s="323" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="320"/>
-      <c r="D36" s="320"/>
-      <c r="E36" s="320"/>
-      <c r="F36" s="320"/>
-      <c r="G36" s="320"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="320"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="320"/>
+      <c r="C36" s="323"/>
+      <c r="D36" s="323"/>
+      <c r="E36" s="323"/>
+      <c r="F36" s="323"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="323"/>
+      <c r="I36" s="323"/>
+      <c r="J36" s="323"/>
+      <c r="K36" s="323"/>
+      <c r="L36" s="323"/>
+      <c r="M36" s="323"/>
     </row>
     <row r="37" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="321" t="s">
+      <c r="B37" s="320" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="321"/>
-      <c r="D37" s="321"/>
-      <c r="E37" s="321"/>
-      <c r="F37" s="321"/>
-      <c r="G37" s="321"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="321"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
+      <c r="C37" s="320"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="320"/>
+      <c r="L37" s="320"/>
+      <c r="M37" s="320"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="321" t="s">
+      <c r="B38" s="320" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="321"/>
-      <c r="K38" s="321"/>
-      <c r="L38" s="321"/>
-      <c r="M38" s="321"/>
+      <c r="C38" s="320"/>
+      <c r="D38" s="320"/>
+      <c r="E38" s="320"/>
+      <c r="F38" s="320"/>
+      <c r="G38" s="320"/>
+      <c r="H38" s="320"/>
+      <c r="I38" s="320"/>
+      <c r="J38" s="320"/>
+      <c r="K38" s="320"/>
+      <c r="L38" s="320"/>
+      <c r="M38" s="320"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="199"/>
     </row>
     <row r="40" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="320" t="s">
+      <c r="B40" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="320"/>
-      <c r="D40" s="320"/>
-      <c r="E40" s="320"/>
-      <c r="F40" s="320"/>
-      <c r="G40" s="320"/>
-      <c r="H40" s="320"/>
-      <c r="I40" s="320"/>
-      <c r="J40" s="320"/>
-      <c r="K40" s="320"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320"/>
+      <c r="C40" s="323"/>
+      <c r="D40" s="323"/>
+      <c r="E40" s="323"/>
+      <c r="F40" s="323"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="323"/>
+      <c r="I40" s="323"/>
+      <c r="J40" s="323"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="323"/>
+      <c r="M40" s="323"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="327" t="s">
+      <c r="B41" s="322" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="327"/>
-      <c r="D41" s="327"/>
-      <c r="E41" s="327"/>
-      <c r="F41" s="327"/>
-      <c r="G41" s="327"/>
-      <c r="H41" s="327"/>
-      <c r="I41" s="327"/>
-      <c r="J41" s="327"/>
-      <c r="K41" s="327"/>
-      <c r="L41" s="327"/>
-      <c r="M41" s="327"/>
+      <c r="C41" s="322"/>
+      <c r="D41" s="322"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="322"/>
+      <c r="G41" s="322"/>
+      <c r="H41" s="322"/>
+      <c r="I41" s="322"/>
+      <c r="J41" s="322"/>
+      <c r="K41" s="322"/>
+      <c r="L41" s="322"/>
+      <c r="M41" s="322"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="327" t="s">
+      <c r="B42" s="322" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="327"/>
-      <c r="D42" s="327"/>
-      <c r="E42" s="327"/>
-      <c r="F42" s="327"/>
-      <c r="G42" s="327"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="327"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="327"/>
-      <c r="L42" s="327"/>
-      <c r="M42" s="327"/>
+      <c r="C42" s="322"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="322"/>
+      <c r="G42" s="322"/>
+      <c r="H42" s="322"/>
+      <c r="I42" s="322"/>
+      <c r="J42" s="322"/>
+      <c r="K42" s="322"/>
+      <c r="L42" s="322"/>
+      <c r="M42" s="322"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B43" s="327" t="s">
+      <c r="B43" s="322" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="327"/>
-      <c r="E43" s="327"/>
-      <c r="F43" s="327"/>
-      <c r="G43" s="327"/>
-      <c r="H43" s="327"/>
-      <c r="I43" s="327"/>
-      <c r="J43" s="327"/>
-      <c r="K43" s="327"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="327"/>
+      <c r="C43" s="322"/>
+      <c r="D43" s="322"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="322"/>
+      <c r="H43" s="322"/>
+      <c r="I43" s="322"/>
+      <c r="J43" s="322"/>
+      <c r="K43" s="322"/>
+      <c r="L43" s="322"/>
+      <c r="M43" s="322"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="249" t="s">
@@ -8591,55 +8586,82 @@
       <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="320" t="s">
+      <c r="B45" s="323" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="320"/>
-      <c r="D45" s="320"/>
-      <c r="E45" s="320"/>
-      <c r="F45" s="320"/>
-      <c r="G45" s="320"/>
-      <c r="H45" s="320"/>
-      <c r="I45" s="320"/>
-      <c r="J45" s="320"/>
-      <c r="K45" s="320"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
+      <c r="C45" s="323"/>
+      <c r="D45" s="323"/>
+      <c r="E45" s="323"/>
+      <c r="F45" s="323"/>
+      <c r="G45" s="323"/>
+      <c r="H45" s="323"/>
+      <c r="I45" s="323"/>
+      <c r="J45" s="323"/>
+      <c r="K45" s="323"/>
+      <c r="L45" s="323"/>
+      <c r="M45" s="323"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B46" s="321" t="s">
+      <c r="B46" s="320" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="321"/>
-      <c r="D46" s="321"/>
-      <c r="E46" s="321"/>
-      <c r="F46" s="321"/>
-      <c r="G46" s="321"/>
-      <c r="H46" s="321"/>
-      <c r="I46" s="321"/>
-      <c r="J46" s="321"/>
-      <c r="K46" s="321"/>
-      <c r="L46" s="321"/>
-      <c r="M46" s="321"/>
+      <c r="C46" s="320"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="320"/>
+      <c r="F46" s="320"/>
+      <c r="G46" s="320"/>
+      <c r="H46" s="320"/>
+      <c r="I46" s="320"/>
+      <c r="J46" s="320"/>
+      <c r="K46" s="320"/>
+      <c r="L46" s="320"/>
+      <c r="M46" s="320"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B47" s="326" t="s">
+      <c r="B47" s="321" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="326"/>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326"/>
-      <c r="F47" s="326"/>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="326"/>
-      <c r="L47" s="326"/>
-      <c r="M47" s="326"/>
+      <c r="C47" s="321"/>
+      <c r="D47" s="321"/>
+      <c r="E47" s="321"/>
+      <c r="F47" s="321"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="321"/>
+      <c r="J47" s="321"/>
+      <c r="K47" s="321"/>
+      <c r="L47" s="321"/>
+      <c r="M47" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D25:M25"/>
@@ -8656,33 +8678,6 @@
     <mergeCell ref="B41:M41"/>
     <mergeCell ref="B31:M31"/>
     <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
@@ -8704,8 +8699,8 @@
   </sheetPr>
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12821,40 +12816,40 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="357"/>
-      <c r="C9" s="362" t="s">
+      <c r="B9" s="354"/>
+      <c r="C9" s="361" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="362"/>
-      <c r="E9" s="362"/>
-      <c r="F9" s="362"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="362"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="361"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="361"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="363" t="s">
+      <c r="K9" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="363"/>
-      <c r="R9" s="363"/>
-      <c r="S9" s="363"/>
-      <c r="T9" s="363"/>
-      <c r="U9" s="363"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="362"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+      <c r="T9" s="362"/>
+      <c r="U9" s="362"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="359" t="s">
+      <c r="W9" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="360"/>
-      <c r="Y9" s="360"/>
-      <c r="Z9" s="361"/>
+      <c r="X9" s="359"/>
+      <c r="Y9" s="359"/>
+      <c r="Z9" s="360"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="355" t="s">
@@ -12878,48 +12873,48 @@
       <c r="G10" s="355" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="364" t="s">
+      <c r="H10" s="363" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="364" t="s">
+      <c r="I10" s="363" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="354" t="s">
+      <c r="K10" s="364" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="354" t="s">
+      <c r="L10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="354" t="s">
+      <c r="N10" s="364" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="354" t="s">
+      <c r="O10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="78"/>
-      <c r="Q10" s="354" t="s">
+      <c r="Q10" s="364" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="354" t="s">
+      <c r="R10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="78"/>
-      <c r="T10" s="354" t="s">
+      <c r="T10" s="364" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="354" t="s">
+      <c r="U10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="358" t="s">
+      <c r="W10" s="357" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="358" t="s">
+      <c r="X10" s="357" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="358" t="s">
+      <c r="Y10" s="357" t="s">
         <v>116</v>
       </c>
       <c r="Z10" s="355" t="s">
@@ -14733,6 +14728,11 @@
     <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -14749,11 +14749,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -14766,7 +14761,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16097,8 +16092,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -22889,7 +22884,7 @@
     <hyperlink ref="A63" r:id="rId1" xr:uid="{3D365E1F-648B-4044-B158-7612880E9167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" horizontalDpi="4294967293" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -27814,11 +27809,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="343" t="s">
+      <c r="H5" s="347" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
+      <c r="I5" s="348"/>
+      <c r="J5" s="348"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -27854,11 +27849,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="343" t="s">
+      <c r="H6" s="347" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="344"/>
-      <c r="J6" s="344"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -27894,11 +27889,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="343" t="s">
+      <c r="H7" s="347" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="344"/>
-      <c r="J7" s="344"/>
+      <c r="I7" s="348"/>
+      <c r="J7" s="348"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -27955,31 +27950,31 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="346" t="s">
+      <c r="A9" s="350" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="346"/>
-      <c r="C9" s="348" t="s">
+      <c r="B9" s="350"/>
+      <c r="C9" s="346" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="348"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="346"/>
+      <c r="G9" s="346"/>
       <c r="H9" s="156"/>
-      <c r="I9" s="345" t="s">
+      <c r="I9" s="349" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
-      <c r="N9" s="345"/>
-      <c r="O9" s="345"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="345"/>
-      <c r="S9" s="345"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="349"/>
+      <c r="M9" s="349"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="349"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="349"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="349"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
@@ -27994,47 +27989,47 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="347" t="s">
+      <c r="A10" s="344" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="344" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="350" t="s">
+      <c r="C10" s="345" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="347" t="s">
+      <c r="D10" s="344" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="350" t="s">
+      <c r="E10" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="350" t="s">
+      <c r="F10" s="345" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="347" t="s">
+      <c r="G10" s="344" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="349" t="s">
+      <c r="I10" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="349"/>
+      <c r="J10" s="343"/>
       <c r="K10" s="132"/>
-      <c r="L10" s="349" t="s">
+      <c r="L10" s="343" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="349"/>
+      <c r="M10" s="343"/>
       <c r="N10" s="132"/>
-      <c r="O10" s="349" t="s">
+      <c r="O10" s="343" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="349"/>
+      <c r="P10" s="343"/>
       <c r="Q10" s="132"/>
-      <c r="R10" s="349" t="s">
+      <c r="R10" s="343" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="349"/>
+      <c r="S10" s="343"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -28044,13 +28039,13 @@
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="347"/>
-      <c r="B11" s="347"/>
-      <c r="C11" s="350"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="350"/>
-      <c r="G11" s="347"/>
+      <c r="A11" s="344"/>
+      <c r="B11" s="344"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="344"/>
       <c r="H11" s="127"/>
       <c r="I11" s="131">
         <v>2018</v>
@@ -30207,6 +30202,16 @@
     <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -30214,16 +30219,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -30243,7 +30238,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30266,6 +30261,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -30476,22 +30486,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30508,29 +30528,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42BCDE-F09D-4D07-B740-0678455A5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FBF66F-9A7F-43BD-B473-68EF66DB86CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="942" activeTab="9" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" activeTab="9" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -3510,33 +3510,33 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3580,18 +3580,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="54" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3602,6 +3590,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3611,15 +3611,18 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3640,9 +3643,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4340,7 +4340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AC83D7F-981F-466D-98F6-83EEA20B9187}" type="CELLRANGE">
+                    <a:fld id="{C2984068-9524-4BDE-8F46-8D58074759D6}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4401,7 +4401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25AAFC2A-4901-4950-8084-F929FBD275E5}" type="CELLRANGE">
+                    <a:fld id="{169ED32C-C8EC-420E-A9BC-832E4845DF9C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4462,7 +4462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61A24C0A-034E-44B3-BCEE-12E1DAE270BC}" type="CELLRANGE">
+                    <a:fld id="{914DF6BB-EB62-4A41-A3B1-ABD75ED71A09}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4556,7 +4556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B05C793-46A3-41A6-A602-83A0F74A5F41}" type="CELLRANGE">
+                    <a:fld id="{D827B105-86F1-43B4-BE67-1977A6F73C97}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4590,7 +4590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08725E2D-E2ED-4A71-94FD-AD0ED8C2C612}" type="CELLRANGE">
+                    <a:fld id="{6C94844C-8EE4-47D4-A647-06B4B2AE09A0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4624,7 +4624,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAD362E5-671C-43EE-9B18-E8C07E16EB4F}" type="CELLRANGE">
+                    <a:fld id="{E9D1F258-31EC-402B-BE09-BA022F21C3D2}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4658,7 +4658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84747548-2A3D-4886-878D-8EA6BC120A45}" type="CELLRANGE">
+                    <a:fld id="{85C9EEF2-21E5-47FF-8681-40830B135972}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4692,7 +4692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{147DCD00-4C69-470B-942D-0120532A3A45}" type="CELLRANGE">
+                    <a:fld id="{064FC16C-8794-493B-9722-ED754AC77FAA}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4726,7 +4726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{467FC473-F0A4-4245-938B-D0445DC22EB7}" type="CELLRANGE">
+                    <a:fld id="{C9EFD2FA-F499-4296-82C8-E2EA2E3EF652}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6521,7 +6521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{581296CC-8A4F-459C-BDA4-3DA900375A27}" type="CELLRANGE">
+                    <a:fld id="{53ADA6A0-D0D4-4B0D-9DB3-460854347DB6}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6582,7 +6582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8968AA64-C1EC-4B2E-8622-BD9083129AF6}" type="CELLRANGE">
+                    <a:fld id="{033DA06B-445A-4A42-85E7-0D6F09171EE1}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6643,7 +6643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F334D934-EC6F-4B36-9DBC-3C53F5435AC0}" type="CELLRANGE">
+                    <a:fld id="{D01310E3-445B-4EB4-AB0F-9F27481574F8}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6677,7 +6677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{625BFFCA-F1A7-408F-B502-E4B047DFFE37}" type="CELLRANGE">
+                    <a:fld id="{58DCFBB0-D50F-4BA6-BCC0-37D0AC7F48F4}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6738,7 +6738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A78D15AF-608D-4C19-8CD2-843F395854B5}" type="CELLRANGE">
+                    <a:fld id="{1F31438F-A58B-40D1-B1DD-E80874D44FD8}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6772,7 +6772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E22DC3DE-CCBF-493A-86DC-898FE7A51416}" type="CELLRANGE">
+                    <a:fld id="{6F619632-33BF-4BD1-B3FC-9C25BA338C2C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6806,7 +6806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{086ACC98-DFB6-41A9-BB37-AC6B41BC6CE9}" type="CELLRANGE">
+                    <a:fld id="{E4361641-F368-4544-B440-42992A821A7F}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6840,7 +6840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81E6BE68-99DB-4C17-8DDF-609E7D8FF708}" type="CELLRANGE">
+                    <a:fld id="{943209DB-41E3-4482-ACDB-9A22BC7B4944}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6874,7 +6874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF0F91D0-9095-4956-A58B-350BCB9C0FD0}" type="CELLRANGE">
+                    <a:fld id="{51D3E227-5C75-4928-92FC-3863E1A7F638}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6908,7 +6908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60EA28E9-96C2-4929-B2A7-74312C7BD9BD}" type="CELLRANGE">
+                    <a:fld id="{5FA518AD-C7AD-4782-9447-49C0BCACFA35}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6942,7 +6942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85963D58-32FF-4D17-AF91-0BBDAB6BEC54}" type="CELLRANGE">
+                    <a:fld id="{9F01F192-A8AC-478F-AE88-469B3CB12C52}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6976,7 +6976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10F0B6A4-D86B-4733-A78D-0E4AEC6A6641}" type="CELLRANGE">
+                    <a:fld id="{93E258C7-3C39-4B95-8F22-FCBEA35B40DE}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7010,7 +7010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AEB8C3D-16BD-4D12-A0F1-A95C3AB661CB}" type="CELLRANGE">
+                    <a:fld id="{9C5F8DE5-7171-42BB-B273-6CDE7689C0A5}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7900,676 +7900,676 @@
       <selection activeCell="B34" sqref="B34:M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" style="13" customWidth="1"/>
-    <col min="2" max="12" width="9.1796875" style="13"/>
-    <col min="13" max="13" width="25.08984375" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
+    <col min="2" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="25.140625" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="326" t="s">
+    <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="323" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="323"/>
+      <c r="L2" s="323"/>
+      <c r="M2" s="323"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="327" t="s">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="324" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
     </row>
-    <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="323" t="s">
+    <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="320" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="323"/>
-      <c r="L4" s="323"/>
-      <c r="M4" s="323"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
       <c r="N4" s="201"/>
       <c r="O4" s="201"/>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="320" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="321" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="325" t="s">
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="319" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="325"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="325"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
       <c r="N6" s="202"/>
       <c r="O6" s="202"/>
     </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="325" t="s">
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="319" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="325"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="319"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
     </row>
-    <row r="8" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="325" t="s">
+    <row r="8" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="319" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="325"/>
-      <c r="I8" s="325"/>
-      <c r="J8" s="325"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="325"/>
-      <c r="M8" s="325"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
+      <c r="L8" s="319"/>
+      <c r="M8" s="319"/>
       <c r="N8" s="202"/>
       <c r="O8" s="202"/>
     </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="320" t="s">
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="321" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="320"/>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="320"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="320"/>
-      <c r="L9" s="320"/>
-    </row>
-    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="320" t="s">
+      <c r="C9" s="321"/>
+      <c r="D9" s="321"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="321"/>
+      <c r="G9" s="321"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="321"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="321" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
-    </row>
-    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="323" t="s">
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+    </row>
+    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="320" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="320"/>
+      <c r="G11" s="320"/>
+      <c r="H11" s="320"/>
+      <c r="I11" s="320"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="320"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="320" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="321" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="320"/>
-      <c r="J12" s="320"/>
-      <c r="K12" s="320"/>
-      <c r="L12" s="320"/>
-      <c r="M12" s="320"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="324" t="s">
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="321"/>
+      <c r="G12" s="321"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="322" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="325"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="325"/>
-      <c r="I13" s="325"/>
-      <c r="J13" s="325"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="325"/>
-      <c r="M13" s="325"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="324" t="s">
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="319"/>
+      <c r="M13" s="319"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="322" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="325"/>
-      <c r="J14" s="325"/>
-      <c r="K14" s="325"/>
-      <c r="L14" s="325"/>
-      <c r="M14" s="325"/>
-    </row>
-    <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="324" t="s">
+      <c r="C14" s="319"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="319"/>
+      <c r="K14" s="319"/>
+      <c r="L14" s="319"/>
+      <c r="M14" s="319"/>
+    </row>
+    <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="322" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="325"/>
-      <c r="D15" s="325"/>
-      <c r="E15" s="325"/>
-      <c r="F15" s="325"/>
-      <c r="G15" s="325"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="325"/>
-      <c r="K15" s="325"/>
-      <c r="L15" s="325"/>
-      <c r="M15" s="325"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="320" t="s">
+      <c r="C15" s="319"/>
+      <c r="D15" s="319"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="319"/>
+      <c r="J15" s="319"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="319"/>
+      <c r="M15" s="319"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="321" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="320"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="320"/>
-      <c r="H16" s="320"/>
-      <c r="I16" s="320"/>
-      <c r="J16" s="320"/>
-      <c r="K16" s="320"/>
-      <c r="L16" s="320"/>
-      <c r="M16" s="320"/>
-    </row>
-    <row r="17" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="323" t="s">
+      <c r="C16" s="321"/>
+      <c r="D16" s="321"/>
+      <c r="E16" s="321"/>
+      <c r="F16" s="321"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="321"/>
+      <c r="I16" s="321"/>
+      <c r="J16" s="321"/>
+      <c r="K16" s="321"/>
+      <c r="L16" s="321"/>
+      <c r="M16" s="321"/>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="320" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="323"/>
-      <c r="D17" s="323"/>
-      <c r="E17" s="323"/>
-      <c r="F17" s="323"/>
-      <c r="G17" s="323"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323"/>
-      <c r="J17" s="323"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="323"/>
-      <c r="M17" s="323"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="320" t="s">
+      <c r="C17" s="320"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="320"/>
+      <c r="H17" s="320"/>
+      <c r="I17" s="320"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="321" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="320"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="320"/>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="321"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="321"/>
+      <c r="I18" s="321"/>
+      <c r="J18" s="321"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="321"/>
+      <c r="M18" s="321"/>
+    </row>
+    <row r="19" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="258"/>
-      <c r="C19" s="319" t="s">
+      <c r="C19" s="325" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D19" s="325"/>
+      <c r="E19" s="325"/>
+      <c r="F19" s="325"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="258"/>
-      <c r="C20" s="319" t="s">
+      <c r="C20" s="325" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="319"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="319"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="319"/>
-      <c r="L20" s="319"/>
-      <c r="M20" s="319"/>
-    </row>
-    <row r="21" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="325"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="325"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
+    </row>
+    <row r="21" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="258"/>
-      <c r="C21" s="319" t="s">
+      <c r="C21" s="325" t="s">
         <v>462</v>
       </c>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="319"/>
-      <c r="L21" s="319"/>
-      <c r="M21" s="319"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D21" s="325"/>
+      <c r="E21" s="325"/>
+      <c r="F21" s="325"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
+      <c r="J21" s="325"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="258"/>
-      <c r="C22" s="319" t="s">
+      <c r="C22" s="325" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="319"/>
-      <c r="E22" s="319"/>
-      <c r="F22" s="319"/>
-      <c r="G22" s="319"/>
-      <c r="H22" s="319"/>
-      <c r="I22" s="319"/>
-      <c r="J22" s="319"/>
-      <c r="K22" s="319"/>
-      <c r="L22" s="319"/>
-      <c r="M22" s="319"/>
-    </row>
-    <row r="23" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="325"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="325"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="325"/>
+      <c r="M22" s="325"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="258"/>
       <c r="C23" s="258"/>
-      <c r="D23" s="319" t="s">
+      <c r="D23" s="325" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="319"/>
-      <c r="L23" s="319"/>
-      <c r="M23" s="319"/>
-    </row>
-    <row r="24" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="325"/>
+      <c r="F23" s="325"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="325"/>
+      <c r="L23" s="325"/>
+      <c r="M23" s="325"/>
+    </row>
+    <row r="24" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="258"/>
       <c r="C24" s="258"/>
-      <c r="D24" s="319" t="s">
+      <c r="D24" s="325" t="s">
         <v>455</v>
       </c>
-      <c r="E24" s="319"/>
-      <c r="F24" s="319"/>
-      <c r="G24" s="319"/>
-      <c r="H24" s="319"/>
-      <c r="I24" s="319"/>
-      <c r="J24" s="319"/>
-      <c r="K24" s="319"/>
-      <c r="L24" s="319"/>
-      <c r="M24" s="319"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E24" s="325"/>
+      <c r="F24" s="325"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="325"/>
+      <c r="M24" s="325"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="255"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="320" t="s">
+      <c r="D25" s="321" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="320"/>
-      <c r="F25" s="320"/>
-      <c r="G25" s="320"/>
-      <c r="H25" s="320"/>
-      <c r="I25" s="320"/>
-      <c r="J25" s="320"/>
-      <c r="K25" s="320"/>
-      <c r="L25" s="320"/>
-      <c r="M25" s="320"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E25" s="321"/>
+      <c r="F25" s="321"/>
+      <c r="G25" s="321"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="321"/>
+      <c r="J25" s="321"/>
+      <c r="K25" s="321"/>
+      <c r="L25" s="321"/>
+      <c r="M25" s="321"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="255"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="319" t="s">
+      <c r="D26" s="325" t="s">
         <v>457</v>
       </c>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="319"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="319"/>
-      <c r="M26" s="319"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="324" t="s">
+      <c r="E26" s="325"/>
+      <c r="F26" s="325"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="325"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="322" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
-      <c r="M27" s="325"/>
-    </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="324" t="s">
+      <c r="C27" s="319"/>
+      <c r="D27" s="319"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="319"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="319"/>
+      <c r="K27" s="319"/>
+      <c r="L27" s="319"/>
+      <c r="M27" s="319"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="322" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="325"/>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="325"/>
-      <c r="M28" s="325"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C28" s="319"/>
+      <c r="D28" s="319"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
+      <c r="K28" s="319"/>
+      <c r="L28" s="319"/>
+      <c r="M28" s="319"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="199"/>
     </row>
-    <row r="30" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="323" t="s">
+    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="320" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="323"/>
-      <c r="F30" s="323"/>
-      <c r="G30" s="323"/>
-      <c r="H30" s="323"/>
-      <c r="I30" s="323"/>
-      <c r="J30" s="323"/>
-      <c r="K30" s="323"/>
-      <c r="L30" s="323"/>
-      <c r="M30" s="323"/>
-    </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="320" t="s">
+      <c r="C30" s="320"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="320"/>
+      <c r="F30" s="320"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="320"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="320"/>
+      <c r="L30" s="320"/>
+      <c r="M30" s="320"/>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="321" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="320"/>
-      <c r="D31" s="320"/>
-      <c r="E31" s="320"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="320"/>
-      <c r="K31" s="320"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
-    </row>
-    <row r="32" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="320" t="s">
+      <c r="C31" s="321"/>
+      <c r="D31" s="321"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="321"/>
+      <c r="G31" s="321"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="321"/>
+      <c r="J31" s="321"/>
+      <c r="K31" s="321"/>
+      <c r="L31" s="321"/>
+      <c r="M31" s="321"/>
+    </row>
+    <row r="32" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="321" t="s">
         <v>346</v>
       </c>
-      <c r="C32" s="320"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="320"/>
-      <c r="F32" s="320"/>
-      <c r="G32" s="320"/>
-      <c r="H32" s="320"/>
-      <c r="I32" s="320"/>
-      <c r="J32" s="320"/>
-      <c r="K32" s="320"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
-    </row>
-    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="320" t="s">
+      <c r="C32" s="321"/>
+      <c r="D32" s="321"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="321"/>
+      <c r="G32" s="321"/>
+      <c r="H32" s="321"/>
+      <c r="I32" s="321"/>
+      <c r="J32" s="321"/>
+      <c r="K32" s="321"/>
+      <c r="L32" s="321"/>
+      <c r="M32" s="321"/>
+    </row>
+    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="321" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="320"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="320"/>
-      <c r="F33" s="320"/>
-      <c r="G33" s="320"/>
-      <c r="H33" s="320"/>
-      <c r="I33" s="320"/>
-      <c r="J33" s="320"/>
-      <c r="K33" s="320"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="320" t="s">
+      <c r="C33" s="321"/>
+      <c r="D33" s="321"/>
+      <c r="E33" s="321"/>
+      <c r="F33" s="321"/>
+      <c r="G33" s="321"/>
+      <c r="H33" s="321"/>
+      <c r="I33" s="321"/>
+      <c r="J33" s="321"/>
+      <c r="K33" s="321"/>
+      <c r="L33" s="321"/>
+      <c r="M33" s="321"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="321" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="320"/>
-      <c r="I34" s="320"/>
-      <c r="J34" s="320"/>
-      <c r="K34" s="320"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="320" t="s">
+      <c r="C34" s="321"/>
+      <c r="D34" s="321"/>
+      <c r="E34" s="321"/>
+      <c r="F34" s="321"/>
+      <c r="G34" s="321"/>
+      <c r="H34" s="321"/>
+      <c r="I34" s="321"/>
+      <c r="J34" s="321"/>
+      <c r="K34" s="321"/>
+      <c r="L34" s="321"/>
+      <c r="M34" s="321"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="321" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="320"/>
-      <c r="D35" s="320"/>
-      <c r="E35" s="320"/>
-      <c r="F35" s="320"/>
-      <c r="G35" s="320"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="320"/>
-      <c r="K35" s="320"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
-    </row>
-    <row r="36" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="323" t="s">
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="321"/>
+      <c r="I35" s="321"/>
+      <c r="J35" s="321"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321"/>
+      <c r="M35" s="321"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="320" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="323"/>
-      <c r="D36" s="323"/>
-      <c r="E36" s="323"/>
-      <c r="F36" s="323"/>
-      <c r="G36" s="323"/>
-      <c r="H36" s="323"/>
-      <c r="I36" s="323"/>
-      <c r="J36" s="323"/>
-      <c r="K36" s="323"/>
-      <c r="L36" s="323"/>
-      <c r="M36" s="323"/>
-    </row>
-    <row r="37" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="320" t="s">
+      <c r="C36" s="320"/>
+      <c r="D36" s="320"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="320"/>
+      <c r="G36" s="320"/>
+      <c r="H36" s="320"/>
+      <c r="I36" s="320"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="320"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="320"/>
+    </row>
+    <row r="37" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="321" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="320"/>
-      <c r="D37" s="320"/>
-      <c r="E37" s="320"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B38" s="320" t="s">
+      <c r="C37" s="321"/>
+      <c r="D37" s="321"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="321"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="321"/>
+      <c r="I37" s="321"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="321"/>
+      <c r="L37" s="321"/>
+      <c r="M37" s="321"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="321" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="320"/>
-      <c r="D38" s="320"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="320"/>
-      <c r="G38" s="320"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C38" s="321"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
+      <c r="J38" s="321"/>
+      <c r="K38" s="321"/>
+      <c r="L38" s="321"/>
+      <c r="M38" s="321"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="199"/>
     </row>
-    <row r="40" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="323" t="s">
+    <row r="40" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="320" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="323"/>
-      <c r="D40" s="323"/>
-      <c r="E40" s="323"/>
-      <c r="F40" s="323"/>
-      <c r="G40" s="323"/>
-      <c r="H40" s="323"/>
-      <c r="I40" s="323"/>
-      <c r="J40" s="323"/>
-      <c r="K40" s="323"/>
-      <c r="L40" s="323"/>
-      <c r="M40" s="323"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="322" t="s">
+      <c r="C40" s="320"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="320"/>
+      <c r="G40" s="320"/>
+      <c r="H40" s="320"/>
+      <c r="I40" s="320"/>
+      <c r="J40" s="320"/>
+      <c r="K40" s="320"/>
+      <c r="L40" s="320"/>
+      <c r="M40" s="320"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="327" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="322"/>
-      <c r="D41" s="322"/>
-      <c r="E41" s="322"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="322"/>
-      <c r="H41" s="322"/>
-      <c r="I41" s="322"/>
-      <c r="J41" s="322"/>
-      <c r="K41" s="322"/>
-      <c r="L41" s="322"/>
-      <c r="M41" s="322"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B42" s="322" t="s">
+      <c r="C41" s="327"/>
+      <c r="D41" s="327"/>
+      <c r="E41" s="327"/>
+      <c r="F41" s="327"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="327"/>
+      <c r="I41" s="327"/>
+      <c r="J41" s="327"/>
+      <c r="K41" s="327"/>
+      <c r="L41" s="327"/>
+      <c r="M41" s="327"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="327" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="322"/>
-      <c r="D42" s="322"/>
-      <c r="E42" s="322"/>
-      <c r="F42" s="322"/>
-      <c r="G42" s="322"/>
-      <c r="H42" s="322"/>
-      <c r="I42" s="322"/>
-      <c r="J42" s="322"/>
-      <c r="K42" s="322"/>
-      <c r="L42" s="322"/>
-      <c r="M42" s="322"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B43" s="322" t="s">
+      <c r="C42" s="327"/>
+      <c r="D42" s="327"/>
+      <c r="E42" s="327"/>
+      <c r="F42" s="327"/>
+      <c r="G42" s="327"/>
+      <c r="H42" s="327"/>
+      <c r="I42" s="327"/>
+      <c r="J42" s="327"/>
+      <c r="K42" s="327"/>
+      <c r="L42" s="327"/>
+      <c r="M42" s="327"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="327" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="322"/>
-      <c r="D43" s="322"/>
-      <c r="E43" s="322"/>
-      <c r="F43" s="322"/>
-      <c r="G43" s="322"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="322"/>
-      <c r="K43" s="322"/>
-      <c r="L43" s="322"/>
-      <c r="M43" s="322"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C43" s="327"/>
+      <c r="D43" s="327"/>
+      <c r="E43" s="327"/>
+      <c r="F43" s="327"/>
+      <c r="G43" s="327"/>
+      <c r="H43" s="327"/>
+      <c r="I43" s="327"/>
+      <c r="J43" s="327"/>
+      <c r="K43" s="327"/>
+      <c r="L43" s="327"/>
+      <c r="M43" s="327"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="249" t="s">
         <v>448</v>
       </c>
@@ -8585,83 +8585,56 @@
       <c r="L44" s="247"/>
       <c r="M44" s="247"/>
     </row>
-    <row r="45" spans="2:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="323" t="s">
+    <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="320" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="323"/>
-      <c r="D45" s="323"/>
-      <c r="E45" s="323"/>
-      <c r="F45" s="323"/>
-      <c r="G45" s="323"/>
-      <c r="H45" s="323"/>
-      <c r="I45" s="323"/>
-      <c r="J45" s="323"/>
-      <c r="K45" s="323"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="323"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B46" s="320" t="s">
+      <c r="C45" s="320"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="320"/>
+      <c r="K45" s="320"/>
+      <c r="L45" s="320"/>
+      <c r="M45" s="320"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="321" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="320"/>
-      <c r="D46" s="320"/>
-      <c r="E46" s="320"/>
-      <c r="F46" s="320"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="320"/>
-      <c r="I46" s="320"/>
-      <c r="J46" s="320"/>
-      <c r="K46" s="320"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B47" s="321" t="s">
+      <c r="C46" s="321"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="321"/>
+      <c r="F46" s="321"/>
+      <c r="G46" s="321"/>
+      <c r="H46" s="321"/>
+      <c r="I46" s="321"/>
+      <c r="J46" s="321"/>
+      <c r="K46" s="321"/>
+      <c r="L46" s="321"/>
+      <c r="M46" s="321"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="326" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="321"/>
-      <c r="D47" s="321"/>
-      <c r="E47" s="321"/>
-      <c r="F47" s="321"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="321"/>
-      <c r="K47" s="321"/>
-      <c r="L47" s="321"/>
-      <c r="M47" s="321"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D25:M25"/>
@@ -8678,6 +8651,33 @@
     <mergeCell ref="B41:M41"/>
     <mergeCell ref="B31:M31"/>
     <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
@@ -8699,18 +8699,18 @@
   </sheetPr>
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -8719,7 +8719,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -8739,7 +8739,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="351" t="s">
         <v>466</v>
@@ -8769,7 +8769,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="352"/>
       <c r="C5" s="352"/>
@@ -8805,7 +8805,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="9" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -9063,7 +9063,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>21.785368249280001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>22.785368249280001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>23.785368249280001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
     </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -9527,7 +9527,7 @@
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
     </row>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
     </row>
-    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="317" t="s">
         <v>468</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="317" t="s">
         <v>469</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="317" t="s">
         <v>470</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>35.700299999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="317" t="s">
         <v>468</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>36.700299999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="317" t="s">
         <v>469</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>37.700299999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="317" t="s">
         <v>470</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>38.700299999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>32.862341000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="317" t="s">
         <v>468</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>33.862341000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="317" t="s">
         <v>469</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>34.862341000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="317" t="s">
         <v>470</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>36.862341000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>121.16656999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="317" t="s">
         <v>468</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>122.16656999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="317" t="s">
         <v>469</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>123.16656999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="317" t="s">
         <v>470</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>124.16656999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>87.212990000000005</v>
       </c>
     </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="317" t="s">
         <v>468</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>88.212990000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="317" t="s">
         <v>469</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>87.212990000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="317" t="s">
         <v>470</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>89.212990000000005</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="317" t="s">
         <v>468</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="317" t="s">
         <v>469</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="317" t="s">
         <v>470</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="317" t="s">
         <v>468</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="317" t="s">
         <v>469</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="317" t="s">
         <v>470</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="317" t="s">
         <v>468</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="317" t="s">
         <v>469</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="317" t="s">
         <v>470</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="317" t="s">
         <v>468</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="317" t="s">
         <v>469</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="317" t="s">
         <v>470</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="317" t="s">
         <v>468</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="317" t="s">
         <v>469</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="317" t="s">
         <v>470</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="317" t="s">
         <v>467</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="317" t="s">
         <v>468</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="317" t="s">
         <v>469</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="317" t="s">
         <v>470</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="317" t="s">
         <v>467</v>
       </c>
@@ -10973,7 +10973,7 @@
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
     </row>
-    <row r="79" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="317" t="s">
         <v>468</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="317" t="s">
         <v>469</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="317" t="s">
         <v>470</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="317" t="s">
         <v>467</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="317" t="s">
         <v>468</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="317" t="s">
         <v>469</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="317" t="s">
         <v>470</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="317" t="s">
         <v>467</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="317" t="s">
         <v>468</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="317" t="s">
         <v>469</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="317" t="s">
         <v>470</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="317" t="s">
         <v>467</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="317" t="s">
         <v>468</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="317" t="s">
         <v>469</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="317" t="s">
         <v>470</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="317" t="s">
         <v>467</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="317" t="s">
         <v>468</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="317" t="s">
         <v>469</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="317" t="s">
         <v>470</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="317" t="s">
         <v>467</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="317" t="s">
         <v>468</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="317" t="s">
         <v>469</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="317" t="s">
         <v>470</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="317" t="s">
         <v>467</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="317" t="s">
         <v>468</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="317" t="s">
         <v>469</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="317" t="s">
         <v>470</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="317" t="s">
         <v>467</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="317" t="s">
         <v>468</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="317" t="s">
         <v>469</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="317" t="s">
         <v>470</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="317" t="s">
         <v>467</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="22" t="s">
         <v>468</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="22" t="s">
         <v>469</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>470</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C115" s="173" t="s">
         <v>149</v>
       </c>
@@ -12072,14 +12072,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="224"/>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -12093,8 +12093,8 @@
       <c r="K1" s="224"/>
       <c r="L1" s="224"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:20" ht="50.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:20" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="D22" s="197" t="str">
         <f>HEP_Inter!A3</f>
@@ -12126,10 +12126,10 @@
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -12149,12 +12149,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -12179,7 +12179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="214" t="s">
         <v>287</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="214" t="s">
         <v>271</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="214" t="s">
         <v>272</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="214" t="s">
         <v>281</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="49"/>
       <c r="C7" s="50"/>
@@ -12335,7 +12335,7 @@
       <c r="H7" s="50"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="49"/>
       <c r="C8" s="50"/>
@@ -12346,7 +12346,7 @@
       <c r="H8" s="50"/>
       <c r="I8" s="52"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -12357,7 +12357,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
@@ -12368,7 +12368,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="52"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
@@ -12379,7 +12379,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="49"/>
       <c r="C12" s="50"/>
@@ -12390,7 +12390,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>
@@ -12401,7 +12401,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="49"/>
       <c r="C14" s="50"/>
@@ -12412,7 +12412,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
@@ -12423,7 +12423,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -12434,7 +12434,7 @@
       <c r="H16" s="50"/>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -12445,7 +12445,7 @@
       <c r="H17" s="50"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -12456,7 +12456,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -12467,7 +12467,7 @@
       <c r="H19" s="50"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -12478,7 +12478,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -12489,7 +12489,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -12500,7 +12500,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="52"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -12511,7 +12511,7 @@
       <c r="H23" s="50"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
@@ -12522,7 +12522,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -12552,32 +12552,32 @@
       <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" customWidth="1"/>
-    <col min="8" max="9" width="10.1796875" customWidth="1"/>
-    <col min="10" max="10" width="0.81640625" style="17" customWidth="1"/>
-    <col min="11" max="12" width="6.81640625" customWidth="1"/>
-    <col min="13" max="13" width="0.81640625" customWidth="1"/>
-    <col min="14" max="15" width="6.81640625" customWidth="1"/>
-    <col min="16" max="16" width="0.81640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.81640625" customWidth="1"/>
-    <col min="20" max="21" width="29.81640625" customWidth="1"/>
-    <col min="22" max="22" width="0.81640625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="15.36328125" customWidth="1"/>
-    <col min="24" max="26" width="13.1796875" customWidth="1"/>
-    <col min="27" max="32" width="11.453125" style="13"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" customWidth="1"/>
+    <col min="14" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="0.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" customWidth="1"/>
+    <col min="20" max="21" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="0.85546875" style="17" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="32" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -12603,7 +12603,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:32" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="154" t="s">
         <v>336</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12659,7 +12659,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:32" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="155" t="s">
         <v>76</v>
       </c>
@@ -12689,7 +12689,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="125" t="s">
         <v>151</v>
       </c>
@@ -12724,7 +12724,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
         <v>446</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -12789,7 +12789,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -12815,43 +12815,43 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="354" t="s">
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="354"/>
-      <c r="C9" s="361" t="s">
+      <c r="B9" s="357"/>
+      <c r="C9" s="362" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="361"/>
-      <c r="H9" s="361"/>
-      <c r="I9" s="361"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="362"/>
+      <c r="I9" s="362"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="362" t="s">
+      <c r="K9" s="363" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="362"/>
-      <c r="M9" s="362"/>
-      <c r="N9" s="362"/>
-      <c r="O9" s="362"/>
-      <c r="P9" s="362"/>
-      <c r="Q9" s="362"/>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
+      <c r="L9" s="363"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="363"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="363"/>
+      <c r="S9" s="363"/>
+      <c r="T9" s="363"/>
+      <c r="U9" s="363"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="358" t="s">
+      <c r="W9" s="359" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="359"/>
-      <c r="Y9" s="359"/>
-      <c r="Z9" s="360"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="X9" s="360"/>
+      <c r="Y9" s="360"/>
+      <c r="Z9" s="361"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="355" t="s">
         <v>122</v>
       </c>
@@ -12873,55 +12873,55 @@
       <c r="G10" s="355" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="363" t="s">
+      <c r="H10" s="364" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="363" t="s">
+      <c r="I10" s="364" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="364" t="s">
+      <c r="K10" s="354" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="364" t="s">
+      <c r="L10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="364" t="s">
+      <c r="N10" s="354" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="364" t="s">
+      <c r="O10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="78"/>
-      <c r="Q10" s="364" t="s">
+      <c r="Q10" s="354" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="364" t="s">
+      <c r="R10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="78"/>
-      <c r="T10" s="364" t="s">
+      <c r="T10" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="364" t="s">
+      <c r="U10" s="354" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="357" t="s">
+      <c r="W10" s="358" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="357" t="s">
+      <c r="X10" s="358" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="357" t="s">
+      <c r="Y10" s="358" t="s">
         <v>116</v>
       </c>
       <c r="Z10" s="355" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="356"/>
       <c r="B11" s="356"/>
       <c r="C11" s="356"/>
@@ -12965,7 +12965,7 @@
       <c r="Y11" s="356"/>
       <c r="Z11" s="356"/>
     </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="288" t="s">
         <v>44</v>
       </c>
@@ -13041,7 +13041,7 @@
       <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
     </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>47</v>
       </c>
@@ -13079,7 +13079,7 @@
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
     </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>49</v>
       </c>
@@ -13155,7 +13155,7 @@
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
     </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>123</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="AE15" s="33"/>
       <c r="AF15" s="33"/>
     </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>51</v>
       </c>
@@ -13273,7 +13273,7 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
     </row>
-    <row r="17" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="174" t="s">
         <v>53</v>
       </c>
@@ -13333,7 +13333,7 @@
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
     </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>55</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>57</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
     </row>
-    <row r="20" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
         <v>59</v>
       </c>
@@ -13523,7 +13523,7 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
     </row>
-    <row r="21" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
         <v>61</v>
       </c>
@@ -13599,7 +13599,7 @@
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
     </row>
-    <row r="22" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174" t="s">
         <v>63</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
     </row>
-    <row r="23" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="174" t="s">
         <v>65</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="AE23" s="33"/>
       <c r="AF23" s="33"/>
     </row>
-    <row r="24" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="174" t="s">
         <v>67</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="AE24" s="33"/>
       <c r="AF24" s="33"/>
     </row>
-    <row r="25" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
         <v>69</v>
       </c>
@@ -13903,7 +13903,7 @@
       <c r="AE25" s="33"/>
       <c r="AF25" s="33"/>
     </row>
-    <row r="26" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="174" t="s">
         <v>71</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
     </row>
-    <row r="27" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="174" t="s">
         <v>73</v>
       </c>
@@ -14055,7 +14055,7 @@
       <c r="AE27" s="33"/>
       <c r="AF27" s="33"/>
     </row>
-    <row r="28" spans="1:32" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="175" t="s">
         <v>51</v>
       </c>
@@ -14097,7 +14097,7 @@
       <c r="AE28" s="33"/>
       <c r="AF28" s="33"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -14123,7 +14123,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>119</v>
       </c>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="Z30" s="311"/>
     </row>
-    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>106</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>108</v>
       </c>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="AA32" s="31"/>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>110</v>
       </c>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="AA33" s="31"/>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>124</v>
       </c>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="AA34" s="55"/>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="AA35" s="55"/>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -14361,7 +14361,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -14387,7 +14387,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -14413,7 +14413,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -14439,7 +14439,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -14465,7 +14465,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -14491,7 +14491,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -14517,7 +14517,7 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -14543,7 +14543,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -14569,7 +14569,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -14595,7 +14595,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -14621,7 +14621,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
     </row>
-    <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -14647,7 +14647,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -14673,7 +14673,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -14699,40 +14699,35 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -14749,6 +14744,11 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -14776,13 +14776,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -14809,7 +14809,7 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -14865,7 +14865,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="366" t="s">
         <v>121</v>
@@ -14910,7 +14910,7 @@
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="367"/>
       <c r="C5" s="240" t="s">
@@ -14999,7 +14999,7 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
@@ -15105,7 +15105,7 @@
       <c r="Y7" s="242"/>
       <c r="Z7" s="242"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>94</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="Y9" s="243"/>
       <c r="Z9" s="243"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>33</v>
       </c>
@@ -15319,7 +15319,7 @@
       <c r="Y11" s="242"/>
       <c r="Z11" s="242"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="Y12" s="242"/>
       <c r="Z12" s="242"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>98</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>5</v>
       </c>
@@ -15656,7 +15656,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>6</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>11</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>15</v>
       </c>
@@ -16050,7 +16050,7 @@
       <c r="Y22" s="241"/>
       <c r="Z22" s="241"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="368"/>
       <c r="C23" s="368"/>
       <c r="D23" s="368"/>
@@ -16096,14 +16096,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -16112,7 +16112,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -16124,7 +16124,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -16133,7 +16133,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="366" t="s">
         <v>466</v>
@@ -16163,7 +16163,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="367"/>
       <c r="C5" s="367"/>
@@ -16199,7 +16199,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="9" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="13" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="H26" s="242"/>
       <c r="I26" s="242"/>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -16751,7 +16751,7 @@
       <c r="H27" s="242"/>
       <c r="I27" s="242"/>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -16767,7 +16767,7 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
     </row>
-    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -16783,7 +16783,7 @@
       <c r="H29" s="242"/>
       <c r="I29" s="242"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -16799,7 +16799,7 @@
       <c r="H30" s="242"/>
       <c r="I30" s="242"/>
     </row>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -16815,7 +16815,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
     </row>
-    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -16831,7 +16831,7 @@
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
     </row>
-    <row r="33" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="H33" s="242"/>
       <c r="I33" s="242"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>468</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>469</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>470</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
         <v>468</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
         <v>469</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>470</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
         <v>468</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>469</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
         <v>470</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
         <v>468</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
         <v>469</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
         <v>470</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
         <v>468</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
         <v>469</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
         <v>470</v>
       </c>
@@ -17367,7 +17367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
         <v>468</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
         <v>469</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
         <v>470</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
         <v>468</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="22" t="s">
         <v>469</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
         <v>470</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
         <v>468</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>469</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="65" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
         <v>470</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
         <v>468</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
         <v>469</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
         <v>470</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
         <v>468</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
         <v>469</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
         <v>470</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" s="316" t="s">
         <v>149</v>
       </c>
@@ -17914,12 +17914,12 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="244"/>
       <c r="B1" s="244"/>
       <c r="C1" s="244"/>
@@ -17941,8 +17941,8 @@
       <c r="S1" s="244"/>
       <c r="T1" s="244"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="str">
         <f>HPOP_Inter!A3</f>
@@ -18014,10 +18014,10 @@
       </c>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
@@ -18039,12 +18039,12 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -18072,7 +18072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>94</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>33</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>13</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>98</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>5</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>10</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>4</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>14</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>6</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>15</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -18773,18 +18773,18 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>371</v>
       </c>
@@ -18792,13 +18792,13 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="10"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="213" t="s">
         <v>372</v>
@@ -18819,7 +18819,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="221" t="s">
         <v>373</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="221" t="s">
         <v>373</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="221" t="s">
         <v>373</v>
       </c>
@@ -18877,7 +18877,7 @@
       </c>
       <c r="G7" s="223"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="221" t="s">
         <v>373</v>
       </c>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="G8" s="223"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="221" t="s">
         <v>373</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="221" t="s">
         <v>373</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="221" t="s">
         <v>373</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="221" t="s">
         <v>373</v>
       </c>
@@ -18973,7 +18973,7 @@
       </c>
       <c r="G12" s="223"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="221" t="s">
         <v>373</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="221" t="s">
         <v>373</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="221" t="s">
         <v>373</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="221" t="s">
         <v>373</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="221" t="s">
         <v>373</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="221" t="s">
         <v>373</v>
       </c>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="G18" s="250"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="221" t="s">
         <v>373</v>
       </c>
@@ -19109,7 +19109,7 @@
       </c>
       <c r="G19" s="250"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="221" t="s">
         <v>373</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="221" t="s">
         <v>373</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="218" t="s">
         <v>374</v>
       </c>
@@ -19165,7 +19165,7 @@
       <c r="F22" s="218"/>
       <c r="G22" s="220"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="218" t="s">
         <v>374</v>
       </c>
@@ -19181,7 +19181,7 @@
       <c r="F23" s="218"/>
       <c r="G23" s="220"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="218" t="s">
         <v>374</v>
       </c>
@@ -19197,7 +19197,7 @@
       <c r="F24" s="218"/>
       <c r="G24" s="220"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="218" t="s">
         <v>374</v>
       </c>
@@ -19213,7 +19213,7 @@
       <c r="F25" s="218"/>
       <c r="G25" s="220"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="218" t="s">
         <v>374</v>
       </c>
@@ -19229,7 +19229,7 @@
       <c r="F26" s="218"/>
       <c r="G26" s="220"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="218" t="s">
         <v>374</v>
       </c>
@@ -19245,7 +19245,7 @@
       <c r="F27" s="218"/>
       <c r="G27" s="220"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="218" t="s">
         <v>374</v>
       </c>
@@ -19261,7 +19261,7 @@
       <c r="F28" s="218"/>
       <c r="G28" s="220"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="218" t="s">
         <v>374</v>
       </c>
@@ -19277,7 +19277,7 @@
       <c r="F29" s="218"/>
       <c r="G29" s="220"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="218" t="s">
         <v>374</v>
       </c>
@@ -19293,7 +19293,7 @@
       <c r="F30" s="218"/>
       <c r="G30" s="220"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="218" t="s">
         <v>374</v>
       </c>
@@ -19309,7 +19309,7 @@
       <c r="F31" s="218"/>
       <c r="G31" s="220"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="218" t="s">
         <v>374</v>
       </c>
@@ -19325,7 +19325,7 @@
       <c r="F32" s="218"/>
       <c r="G32" s="220"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="218" t="s">
         <v>374</v>
       </c>
@@ -19341,7 +19341,7 @@
       <c r="F33" s="218"/>
       <c r="G33" s="220"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="218" t="s">
         <v>374</v>
       </c>
@@ -19357,7 +19357,7 @@
       <c r="F34" s="218"/>
       <c r="G34" s="220"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="218" t="s">
         <v>374</v>
       </c>
@@ -19373,7 +19373,7 @@
       <c r="F35" s="218"/>
       <c r="G35" s="220"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="219" t="s">
         <v>374</v>
       </c>
@@ -19389,7 +19389,7 @@
       <c r="F36" s="218"/>
       <c r="G36" s="220"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="218" t="s">
         <v>374</v>
       </c>
@@ -19405,7 +19405,7 @@
       <c r="F37" s="218"/>
       <c r="G37" s="220"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="218" t="s">
         <v>374</v>
       </c>
@@ -19421,7 +19421,7 @@
       <c r="F38" s="218"/>
       <c r="G38" s="220"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="218" t="s">
         <v>374</v>
       </c>
@@ -19437,7 +19437,7 @@
       <c r="F39" s="218"/>
       <c r="G39" s="220"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="218" t="s">
         <v>374</v>
       </c>
@@ -19453,7 +19453,7 @@
       <c r="F40" s="218"/>
       <c r="G40" s="220"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="218" t="s">
         <v>374</v>
       </c>
@@ -19469,7 +19469,7 @@
       <c r="F41" s="218"/>
       <c r="G41" s="220"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="218" t="s">
         <v>374</v>
       </c>
@@ -19485,7 +19485,7 @@
       <c r="F42" s="218"/>
       <c r="G42" s="220"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="218" t="s">
         <v>374</v>
       </c>
@@ -19501,7 +19501,7 @@
       <c r="F43" s="218"/>
       <c r="G43" s="220"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="219" t="s">
         <v>374</v>
       </c>
@@ -19517,7 +19517,7 @@
       <c r="F44" s="218"/>
       <c r="G44" s="220"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="218" t="s">
         <v>374</v>
       </c>
@@ -19533,7 +19533,7 @@
       <c r="F45" s="218"/>
       <c r="G45" s="220"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="218" t="s">
         <v>374</v>
       </c>
@@ -19549,7 +19549,7 @@
       <c r="F46" s="218"/>
       <c r="G46" s="220"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="218" t="s">
         <v>374</v>
       </c>
@@ -19565,7 +19565,7 @@
       <c r="F47" s="218"/>
       <c r="G47" s="220"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="215" t="s">
         <v>429</v>
       </c>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="G48" s="217"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="215" t="s">
         <v>429</v>
       </c>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="G49" s="217"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="215" t="s">
         <v>429</v>
       </c>
@@ -19619,7 +19619,7 @@
       </c>
       <c r="G50" s="217"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="215" t="s">
         <v>429</v>
       </c>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="G51" s="217"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="215" t="s">
         <v>429</v>
       </c>
@@ -19655,7 +19655,7 @@
       </c>
       <c r="G52" s="217"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="215" t="s">
         <v>429</v>
       </c>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="G53" s="217"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="215" t="s">
         <v>429</v>
       </c>
@@ -19691,7 +19691,7 @@
       </c>
       <c r="G54" s="217"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="215" t="s">
         <v>429</v>
       </c>
@@ -19709,7 +19709,7 @@
       </c>
       <c r="G55" s="217"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="215" t="s">
         <v>429</v>
       </c>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="G56" s="217"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="215" t="s">
         <v>429</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="215" t="s">
         <v>429</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="215" t="s">
         <v>429</v>
       </c>
@@ -19785,7 +19785,7 @@
       </c>
       <c r="G59" s="217"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="215" t="s">
         <v>429</v>
       </c>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="G60" s="217"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="215" t="s">
         <v>429</v>
       </c>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="G61" s="217"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="215" t="s">
         <v>429</v>
       </c>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="G62" s="217"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="215" t="s">
         <v>429</v>
       </c>
@@ -19857,7 +19857,7 @@
       </c>
       <c r="G63" s="217"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="215" t="s">
         <v>429</v>
       </c>
@@ -19895,28 +19895,28 @@
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="0.81640625" customWidth="1"/>
-    <col min="12" max="13" width="6.1796875" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" customWidth="1"/>
-    <col min="15" max="15" width="7.6328125" customWidth="1"/>
-    <col min="16" max="16" width="0.81640625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="12" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="0.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="0.85546875" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" customWidth="1"/>
-    <col min="19" max="19" width="0.81640625" customWidth="1"/>
-    <col min="20" max="21" width="26.81640625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" customWidth="1"/>
+    <col min="20" max="21" width="26.85546875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -19948,7 +19948,7 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
     </row>
-    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>334</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -20015,7 +20015,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>76</v>
       </c>
@@ -20050,7 +20050,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="125" t="s">
         <v>333</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="125" t="s">
         <v>444</v>
       </c>
@@ -20130,7 +20130,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -20167,7 +20167,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="65"/>
       <c r="C8" s="66"/>
@@ -20200,7 +20200,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="76"/>
       <c r="B9" s="266"/>
       <c r="C9" s="333" t="s">
@@ -20237,7 +20237,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77"/>
       <c r="B10" s="77"/>
       <c r="C10" s="334" t="s">
@@ -20290,7 +20290,7 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>155</v>
       </c>
@@ -20343,7 +20343,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="185" t="s">
         <v>157</v>
       </c>
@@ -20378,7 +20378,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>158</v>
       </c>
@@ -20438,7 +20438,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>161</v>
       </c>
@@ -20498,7 +20498,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>166</v>
       </c>
@@ -20558,7 +20558,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299" t="s">
         <v>169</v>
       </c>
@@ -20618,7 +20618,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="177"/>
       <c r="B17" s="207" t="s">
         <v>172</v>
@@ -20659,7 +20659,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="185" t="s">
         <v>173</v>
       </c>
@@ -20694,7 +20694,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>174</v>
       </c>
@@ -20754,7 +20754,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
         <v>177</v>
       </c>
@@ -20814,7 +20814,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>180</v>
       </c>
@@ -20854,7 +20854,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="299" t="s">
         <v>181</v>
       </c>
@@ -20914,7 +20914,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="177"/>
       <c r="B23" s="207" t="s">
         <v>184</v>
@@ -20955,7 +20955,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="185" t="s">
         <v>185</v>
       </c>
@@ -20990,7 +20990,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
         <v>186</v>
       </c>
@@ -21059,7 +21059,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>189</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="299" t="s">
         <v>191</v>
       </c>
@@ -21197,7 +21197,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="177"/>
       <c r="B28" s="207" t="s">
         <v>194</v>
@@ -21238,7 +21238,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="185" t="s">
         <v>195</v>
       </c>
@@ -21273,7 +21273,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="s">
         <v>196</v>
       </c>
@@ -21342,7 +21342,7 @@
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="330" t="s">
         <v>199</v>
       </c>
@@ -21403,7 +21403,7 @@
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="331"/>
       <c r="B32" s="82" t="s">
         <v>201</v>
@@ -21461,7 +21461,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="332"/>
       <c r="B33" s="82" t="s">
         <v>204</v>
@@ -21519,7 +21519,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="299" t="s">
         <v>205</v>
       </c>
@@ -21579,7 +21579,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="177"/>
       <c r="B35" s="207" t="s">
         <v>208</v>
@@ -21620,7 +21620,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="185" t="s">
         <v>463</v>
       </c>
@@ -21661,7 +21661,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="299" t="s">
         <v>210</v>
       </c>
@@ -21727,7 +21727,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="268"/>
       <c r="B38" s="268" t="s">
         <v>213</v>
@@ -21767,7 +21767,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="270"/>
       <c r="B39" s="271" t="s">
         <v>214</v>
@@ -21804,7 +21804,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="270"/>
       <c r="B40" s="270" t="s">
         <v>265</v>
@@ -21840,7 +21840,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="272"/>
       <c r="B41" s="272" t="s">
         <v>264</v>
@@ -21877,7 +21877,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="272"/>
       <c r="B42" s="272" t="s">
         <v>266</v>
@@ -21914,7 +21914,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="98"/>
       <c r="B43" s="98"/>
       <c r="C43" s="85"/>
@@ -21946,7 +21946,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="69" t="s">
         <v>215</v>
       </c>
@@ -21980,7 +21980,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70" t="s">
         <v>216</v>
       </c>
@@ -22014,7 +22014,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="70" t="s">
         <v>217</v>
       </c>
@@ -22048,7 +22048,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70" t="s">
         <v>218</v>
       </c>
@@ -22082,7 +22082,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70" t="s">
         <v>459</v>
       </c>
@@ -22116,7 +22116,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70" t="s">
         <v>464</v>
       </c>
@@ -22150,7 +22150,7 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="329" t="s">
         <v>263</v>
       </c>
@@ -22185,7 +22185,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="329"/>
       <c r="B51" s="329"/>
       <c r="C51" s="329"/>
@@ -22218,7 +22218,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="329"/>
       <c r="B52" s="329"/>
       <c r="C52" s="329"/>
@@ -22251,7 +22251,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="70"/>
       <c r="B53" s="71"/>
       <c r="C53" s="13"/>
@@ -22283,7 +22283,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="71" t="s">
         <v>219</v>
       </c>
@@ -22317,7 +22317,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="70" t="s">
         <v>220</v>
       </c>
@@ -22351,7 +22351,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70" t="s">
         <v>221</v>
       </c>
@@ -22385,7 +22385,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>222</v>
       </c>
@@ -22419,7 +22419,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70" t="s">
         <v>223</v>
       </c>
@@ -22453,7 +22453,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="70" t="s">
         <v>224</v>
       </c>
@@ -22487,7 +22487,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70" t="s">
         <v>225</v>
       </c>
@@ -22521,7 +22521,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="72"/>
       <c r="C61" s="13"/>
@@ -22553,7 +22553,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70" t="s">
         <v>226</v>
       </c>
@@ -22587,7 +22587,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="72" t="s">
         <v>227</v>
       </c>
@@ -22621,7 +22621,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -22653,7 +22653,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="73"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -22685,7 +22685,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -22717,7 +22717,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -22749,7 +22749,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -22781,7 +22781,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -22813,52 +22813,52 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="59"/>
       <c r="G70" s="74"/>
       <c r="R70" s="60"/>
     </row>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="59"/>
       <c r="G71" s="74"/>
       <c r="R71" s="60"/>
     </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="59"/>
       <c r="G72" s="74"/>
       <c r="R72" s="60"/>
     </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="59"/>
       <c r="G73" s="74"/>
       <c r="R73" s="60"/>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="59"/>
       <c r="G74" s="74"/>
       <c r="R74" s="60"/>
     </row>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="59"/>
       <c r="G75" s="74"/>
       <c r="R75" s="60"/>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="59"/>
       <c r="G76" s="74"/>
       <c r="R76" s="60"/>
     </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="59"/>
       <c r="G77" s="74"/>
       <c r="R77" s="60"/>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="59"/>
       <c r="G78" s="74"/>
       <c r="R78" s="60"/>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="59"/>
       <c r="G79" s="74"/>
       <c r="R79" s="60"/>
@@ -23000,13 +23000,13 @@
       <selection activeCell="B25" sqref="B25:W25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -23033,7 +23033,7 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
@@ -23062,7 +23062,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -23089,7 +23089,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="339" t="s">
         <v>121</v>
@@ -23134,7 +23134,7 @@
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="340"/>
       <c r="C5" s="75" t="s">
@@ -23223,7 +23223,7 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>158</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>161</v>
       </c>
@@ -23329,7 +23329,7 @@
       <c r="Y7" s="189"/>
       <c r="Z7" s="189"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>166</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>169</v>
       </c>
@@ -23435,7 +23435,7 @@
       <c r="Y9" s="190"/>
       <c r="Z9" s="190"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>174</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>177</v>
       </c>
@@ -23543,7 +23543,7 @@
       <c r="Y11" s="189"/>
       <c r="Z11" s="189"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>180</v>
       </c>
@@ -23572,7 +23572,7 @@
       <c r="Y12" s="189"/>
       <c r="Z12" s="189"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>181</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>186</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>189</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>191</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>196</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>199</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>254</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>257</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>205</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="191" t="s">
         <v>210</v>
       </c>
@@ -24274,7 +24274,7 @@
       <c r="Y22" s="192"/>
       <c r="Z22" s="192"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="193" t="s">
         <v>209</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="195" t="s">
         <v>213</v>
       </c>
@@ -24428,7 +24428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="342" t="s">
         <v>149</v>
       </c>
@@ -24476,14 +24476,14 @@
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -24492,7 +24492,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -24504,7 +24504,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -24513,7 +24513,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="339" t="s">
         <v>466</v>
@@ -24543,7 +24543,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="340"/>
       <c r="C5" s="340"/>
@@ -24579,7 +24579,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="9" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -24715,7 +24715,7 @@
       <c r="H10" s="189"/>
       <c r="I10" s="189"/>
     </row>
-    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -24837,7 +24837,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>21.785368249280001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>22.785368249280001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>23.785368249280001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -24947,7 +24947,7 @@
       <c r="H18" s="189"/>
       <c r="I18" s="189"/>
     </row>
-    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -25043,7 +25043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -25191,7 +25191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -25255,7 +25255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -25301,7 +25301,7 @@
       <c r="H30" s="189"/>
       <c r="I30" s="189"/>
     </row>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -25333,7 +25333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>468</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>13.339149567220399</v>
       </c>
     </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>469</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>14.339149567220399</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>470</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>15.339149567220399</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
         <v>468</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>5.4609675441624299</v>
       </c>
     </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
         <v>469</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>6.4609675441624299</v>
       </c>
     </row>
-    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
         <v>470</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>7.4609675441624299</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
         <v>468</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>99.803670013585304</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
         <v>469</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>100.8036700135853</v>
       </c>
     </row>
-    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
         <v>470</v>
       </c>
@@ -25763,7 +25763,7 @@
         <v>101.8036700135853</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
         <v>468</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>81.504821017838694</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
         <v>469</v>
       </c>
@@ -25853,7 +25853,7 @@
         <v>82.504821017838694</v>
       </c>
     </row>
-    <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
         <v>470</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>83.504821017838694</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -25911,7 +25911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
         <v>468</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
         <v>469</v>
       </c>
@@ -25975,7 +25975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
         <v>470</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
         <v>468</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>11.358288140000001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
         <v>469</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>12.358288140000001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
         <v>470</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>13.358288140000001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
         <v>468</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>7.8542512999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="22" t="s">
         <v>469</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>8.8542512999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
         <v>470</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>9.8542512999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
         <v>468</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
         <v>469</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="65" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
         <v>470</v>
       </c>
@@ -26373,7 +26373,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -26399,7 +26399,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
         <v>468</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
         <v>469</v>
       </c>
@@ -26463,7 +26463,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
         <v>470</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -26509,7 +26509,7 @@
       <c r="H70" s="189"/>
       <c r="I70" s="189"/>
     </row>
-    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
         <v>468</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
         <v>469</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
         <v>470</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="317" t="s">
         <v>467</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
         <v>468</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="22" t="s">
         <v>469</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
         <v>470</v>
       </c>
@@ -26727,7 +26727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="317" t="s">
         <v>467</v>
       </c>
@@ -26753,7 +26753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
         <v>468</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="22" t="s">
         <v>469</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="22" t="s">
         <v>470</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C83" s="316" t="s">
         <v>149</v>
       </c>
@@ -26879,13 +26879,13 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="7.54296875" customWidth="1"/>
-    <col min="18" max="25" width="9.1796875" style="13"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="25" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="245"/>
       <c r="B1" s="245"/>
       <c r="C1" s="245"/>
@@ -26911,8 +26911,8 @@
       <c r="W1" s="246"/>
       <c r="X1" s="246"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="197" t="str">
         <f>IF(UHC_Inter!$A3=0,"",UHC_Inter!$A3)</f>
@@ -26975,10 +26975,10 @@
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -26998,12 +26998,12 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -27031,7 +27031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>159</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="284" t="s">
         <v>162</v>
       </c>
@@ -27107,7 +27107,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="285" t="s">
         <v>167</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="285" t="s">
         <v>170</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>175</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="284" t="s">
         <v>178</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="285" t="s">
         <v>182</v>
       </c>
@@ -27287,7 +27287,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="286" t="s">
         <v>187</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="285" t="s">
         <v>190</v>
       </c>
@@ -27359,7 +27359,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="284" t="s">
         <v>192</v>
       </c>
@@ -27395,7 +27395,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="286" t="s">
         <v>197</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="285" t="s">
         <v>200</v>
       </c>
@@ -27467,7 +27467,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="284" t="s">
         <v>206</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="284"/>
       <c r="B16" s="49">
         <v>14</v>
@@ -27537,7 +27537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -27549,7 +27549,7 @@
       <c r="I17" s="51"/>
       <c r="J17" s="52"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -27561,7 +27561,7 @@
       <c r="I18" s="51"/>
       <c r="J18" s="52"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -27573,57 +27573,57 @@
       <c r="I19" s="51"/>
       <c r="J19" s="52"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="196"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="196"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="196"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="196"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="196"/>
       <c r="C27" s="93"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="196"/>
       <c r="C28" s="82"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="196"/>
       <c r="C29" s="82"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="196"/>
       <c r="C30" s="82"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="196"/>
       <c r="C31" s="79"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="196"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="196"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="196"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="196"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="196"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="196"/>
     </row>
   </sheetData>
@@ -27648,31 +27648,31 @@
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="0.81640625" customWidth="1"/>
-    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.85546875" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" customWidth="1"/>
-    <col min="17" max="17" width="0.81640625" customWidth="1"/>
-    <col min="18" max="18" width="26.81640625" customWidth="1"/>
-    <col min="19" max="19" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.81640625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="48.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.453125" style="13"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="0.85546875" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="48.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -27701,7 +27701,7 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
     </row>
-    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>335</v>
       </c>
@@ -27732,7 +27732,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -27761,7 +27761,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
         <v>76</v>
       </c>
@@ -27796,7 +27796,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="162" t="s">
         <v>293</v>
       </c>
@@ -27809,11 +27809,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="347" t="s">
+      <c r="H5" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="348"/>
-      <c r="J5" s="348"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -27836,7 +27836,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
         <v>445</v>
       </c>
@@ -27849,11 +27849,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="347" t="s">
+      <c r="H6" s="343" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="348"/>
-      <c r="J6" s="348"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="344"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -27876,7 +27876,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -27889,11 +27889,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="347" t="s">
+      <c r="H7" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="348"/>
-      <c r="J7" s="348"/>
+      <c r="I7" s="344"/>
+      <c r="J7" s="344"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -27916,7 +27916,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="267"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -27949,32 +27949,32 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="350" t="s">
+    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="346" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="350"/>
-      <c r="C9" s="346" t="s">
+      <c r="B9" s="346"/>
+      <c r="C9" s="348" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="346"/>
-      <c r="E9" s="346"/>
-      <c r="F9" s="346"/>
-      <c r="G9" s="346"/>
+      <c r="D9" s="348"/>
+      <c r="E9" s="348"/>
+      <c r="F9" s="348"/>
+      <c r="G9" s="348"/>
       <c r="H9" s="156"/>
-      <c r="I9" s="349" t="s">
+      <c r="I9" s="345" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="349"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="349"/>
-      <c r="M9" s="349"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="349"/>
-      <c r="P9" s="349"/>
-      <c r="Q9" s="349"/>
-      <c r="R9" s="349"/>
-      <c r="S9" s="349"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="345"/>
+      <c r="R9" s="345"/>
+      <c r="S9" s="345"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
@@ -27988,48 +27988,48 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="344" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="347" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="345" t="s">
+      <c r="C10" s="350" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="344" t="s">
+      <c r="D10" s="347" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="345" t="s">
+      <c r="E10" s="350" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="345" t="s">
+      <c r="F10" s="350" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="344" t="s">
+      <c r="G10" s="347" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="343" t="s">
+      <c r="I10" s="349" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="343"/>
+      <c r="J10" s="349"/>
       <c r="K10" s="132"/>
-      <c r="L10" s="343" t="s">
+      <c r="L10" s="349" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="343"/>
+      <c r="M10" s="349"/>
       <c r="N10" s="132"/>
-      <c r="O10" s="343" t="s">
+      <c r="O10" s="349" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="343"/>
+      <c r="P10" s="349"/>
       <c r="Q10" s="132"/>
-      <c r="R10" s="343" t="s">
+      <c r="R10" s="349" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="343"/>
+      <c r="S10" s="349"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -28038,14 +28038,14 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="344"/>
-      <c r="B11" s="344"/>
-      <c r="C11" s="345"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="344"/>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="347"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="347"/>
       <c r="H11" s="127"/>
       <c r="I11" s="131">
         <v>2018</v>
@@ -28085,7 +28085,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
         <v>271</v>
       </c>
@@ -28118,7 +28118,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="135" t="s">
         <v>300</v>
       </c>
@@ -28179,7 +28179,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="140" t="s">
         <v>302</v>
       </c>
@@ -28240,7 +28240,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="140" t="s">
         <v>304</v>
       </c>
@@ -28301,7 +28301,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="140" t="s">
         <v>305</v>
       </c>
@@ -28362,7 +28362,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="140" t="s">
         <v>306</v>
       </c>
@@ -28423,7 +28423,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140" t="s">
         <v>307</v>
       </c>
@@ -28484,7 +28484,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="140" t="s">
         <v>308</v>
       </c>
@@ -28545,7 +28545,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="140" t="s">
         <v>309</v>
       </c>
@@ -28606,7 +28606,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="140" t="s">
         <v>310</v>
       </c>
@@ -28667,7 +28667,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="140" t="s">
         <v>311</v>
       </c>
@@ -28728,7 +28728,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="140" t="s">
         <v>312</v>
       </c>
@@ -28789,7 +28789,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="140" t="s">
         <v>313</v>
       </c>
@@ -28850,7 +28850,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="140" t="s">
         <v>314</v>
       </c>
@@ -28911,7 +28911,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="120"/>
       <c r="B26" s="206" t="s">
         <v>292</v>
@@ -28962,7 +28962,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
         <v>272</v>
       </c>
@@ -28995,7 +28995,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="140" t="s">
         <v>273</v>
       </c>
@@ -29049,7 +29049,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="140" t="s">
         <v>276</v>
       </c>
@@ -29105,7 +29105,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="147" t="s">
         <v>295</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="AD30" s="151"/>
       <c r="AE30" s="151"/>
     </row>
-    <row r="31" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="147" t="s">
         <v>295</v>
       </c>
@@ -29191,7 +29191,7 @@
       <c r="AD31" s="151"/>
       <c r="AE31" s="151"/>
     </row>
-    <row r="32" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="147" t="s">
         <v>296</v>
       </c>
@@ -29234,7 +29234,7 @@
       <c r="AD32" s="151"/>
       <c r="AE32" s="151"/>
     </row>
-    <row r="33" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="147" t="s">
         <v>296</v>
       </c>
@@ -29277,7 +29277,7 @@
       <c r="AD33" s="151"/>
       <c r="AE33" s="151"/>
     </row>
-    <row r="34" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="147" t="s">
         <v>297</v>
       </c>
@@ -29320,7 +29320,7 @@
       <c r="AD34" s="151"/>
       <c r="AE34" s="151"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="140" t="s">
         <v>279</v>
       </c>
@@ -29355,7 +29355,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="140" t="s">
         <v>280</v>
       </c>
@@ -29390,7 +29390,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="140" t="s">
         <v>280</v>
       </c>
@@ -29425,7 +29425,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="120"/>
       <c r="B38" s="206" t="s">
         <v>294</v>
@@ -29470,7 +29470,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>281</v>
       </c>
@@ -29503,7 +29503,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="140" t="s">
         <v>282</v>
       </c>
@@ -29556,7 +29556,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="140" t="s">
         <v>285</v>
       </c>
@@ -29609,7 +29609,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="140" t="s">
         <v>286</v>
       </c>
@@ -29662,7 +29662,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="120"/>
       <c r="B43" s="206" t="s">
         <v>441</v>
@@ -29707,7 +29707,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="116"/>
       <c r="B44" s="208" t="s">
         <v>287</v>
@@ -29749,7 +29749,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="116"/>
       <c r="B45" s="208" t="s">
         <v>288</v>
@@ -29785,7 +29785,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
       <c r="B46" s="209" t="s">
         <v>265</v>
@@ -29821,7 +29821,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
       <c r="B47" s="208" t="s">
         <v>289</v>
@@ -29857,7 +29857,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="116"/>
       <c r="B48" s="208" t="s">
         <v>299</v>
@@ -29893,7 +29893,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="59"/>
       <c r="C49" s="113"/>
       <c r="D49" s="113"/>
@@ -29920,7 +29920,7 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
         <v>298</v>
       </c>
@@ -29950,7 +29950,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>290</v>
       </c>
@@ -29980,7 +29980,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="114" t="s">
         <v>291</v>
       </c>
@@ -29992,7 +29992,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
@@ -30001,7 +30001,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V54" s="68"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
@@ -30011,7 +30011,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V55" s="68"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -30021,7 +30021,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V56" s="68"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
@@ -30031,7 +30031,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
@@ -30040,7 +30040,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
@@ -30049,7 +30049,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
@@ -30058,7 +30058,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
@@ -30067,7 +30067,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
@@ -30076,7 +30076,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
@@ -30085,7 +30085,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
@@ -30094,7 +30094,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
@@ -30103,7 +30103,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -30112,7 +30112,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
@@ -30121,7 +30121,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V67" s="45"/>
       <c r="W67" s="45"/>
       <c r="X67" s="45"/>
@@ -30133,7 +30133,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
@@ -30142,7 +30142,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V69" s="45"/>
       <c r="W69" s="45"/>
       <c r="X69" s="45"/>
@@ -30154,7 +30154,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
@@ -30163,7 +30163,7 @@
       <c r="AD70" s="13"/>
       <c r="AE70" s="13"/>
     </row>
-    <row r="71" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
@@ -30172,7 +30172,7 @@
       <c r="AD71" s="13"/>
       <c r="AE71" s="13"/>
     </row>
-    <row r="72" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
@@ -30181,7 +30181,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
@@ -30190,28 +30190,18 @@
       <c r="AD73" s="13"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -30219,6 +30209,16 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -30253,7 +30253,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30261,21 +30261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -30486,32 +30471,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30528,4 +30503,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FBF66F-9A7F-43BD-B473-68EF66DB86CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958F9B1-6837-4C41-819E-D842348CA53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" activeTab="9" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" tabRatio="942" activeTab="14" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -1796,7 +1796,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3510,33 +3510,33 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3580,6 +3580,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="54" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3590,18 +3602,6 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3611,38 +3611,38 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4340,7 +4340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2984068-9524-4BDE-8F46-8D58074759D6}" type="CELLRANGE">
+                    <a:fld id="{7E442EB7-A895-4047-BCD1-03441605179C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4401,7 +4401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{169ED32C-C8EC-420E-A9BC-832E4845DF9C}" type="CELLRANGE">
+                    <a:fld id="{49552BB8-CCCE-442B-BD55-75DC635CACF6}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4462,7 +4462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{914DF6BB-EB62-4A41-A3B1-ABD75ED71A09}" type="CELLRANGE">
+                    <a:fld id="{86CE969C-F24F-449B-A1A6-AE449DE984E5}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4496,7 +4496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4371BC8A-6A2E-4FDF-9689-3E65751E2169}" type="CELLRANGE">
+                    <a:fld id="{49CBF917-C75E-4F18-B8BA-F5F195AAF88E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4515,6 +4515,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4556,7 +4557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D827B105-86F1-43B4-BE67-1977A6F73C97}" type="CELLRANGE">
+                    <a:fld id="{B67BF5FF-1E09-4682-A72C-48CE2F2E269C}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4590,7 +4591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C94844C-8EE4-47D4-A647-06B4B2AE09A0}" type="CELLRANGE">
+                    <a:fld id="{FF929B09-ADD1-4211-BEC4-4191A6832497}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4624,7 +4625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9D1F258-31EC-402B-BE09-BA022F21C3D2}" type="CELLRANGE">
+                    <a:fld id="{0F68272D-4E98-41F6-8F8A-A58218AF8CD3}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4658,7 +4659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85C9EEF2-21E5-47FF-8681-40830B135972}" type="CELLRANGE">
+                    <a:fld id="{D0DC2A2F-E9A0-4BCE-8EB3-18996A90A5E2}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4692,7 +4693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{064FC16C-8794-493B-9722-ED754AC77FAA}" type="CELLRANGE">
+                    <a:fld id="{CD69A8DD-34C6-4810-91DC-3182EC8A3150}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4726,7 +4727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9EFD2FA-F499-4296-82C8-E2EA2E3EF652}" type="CELLRANGE">
+                    <a:fld id="{211101A0-30B6-4F0D-8B0E-94EF6F6EA031}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4760,7 +4761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9C84C0F-4533-4592-A44A-8C2FBFB830AD}" type="CELLRANGE">
+                    <a:fld id="{AD75CF3C-456E-4DEC-89D4-D295B7F7C8FD}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4779,6 +4780,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6521,7 +6523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53ADA6A0-D0D4-4B0D-9DB3-460854347DB6}" type="CELLRANGE">
+                    <a:fld id="{824D270E-2964-4BA5-8435-00D5FB18D3C2}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6582,7 +6584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{033DA06B-445A-4A42-85E7-0D6F09171EE1}" type="CELLRANGE">
+                    <a:fld id="{D7EBF3FC-3953-4C7F-9382-34CD924C8B1B}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6643,7 +6645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D01310E3-445B-4EB4-AB0F-9F27481574F8}" type="CELLRANGE">
+                    <a:fld id="{26F3F75F-B1BE-40E1-86B7-113EB79EB484}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6677,7 +6679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58DCFBB0-D50F-4BA6-BCC0-37D0AC7F48F4}" type="CELLRANGE">
+                    <a:fld id="{5D34BAC8-7555-47F4-A24E-CFEFF4CD3522}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6738,7 +6740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F31438F-A58B-40D1-B1DD-E80874D44FD8}" type="CELLRANGE">
+                    <a:fld id="{7E9A4EFC-A05B-4CF0-9B23-632D66F6CD74}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6772,7 +6774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F619632-33BF-4BD1-B3FC-9C25BA338C2C}" type="CELLRANGE">
+                    <a:fld id="{9F28129A-527D-49B1-A7AD-E988F5F038B9}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6806,7 +6808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4361641-F368-4544-B440-42992A821A7F}" type="CELLRANGE">
+                    <a:fld id="{4E0699F7-15E6-474D-919E-CEDD689D35C4}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6840,7 +6842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{943209DB-41E3-4482-ACDB-9A22BC7B4944}" type="CELLRANGE">
+                    <a:fld id="{3A889EFD-5FFC-4017-B984-9C8493E8085A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6874,7 +6876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51D3E227-5C75-4928-92FC-3863E1A7F638}" type="CELLRANGE">
+                    <a:fld id="{77B359CE-4E0B-442B-8CE1-FA4B7816C9E0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6908,7 +6910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FA518AD-C7AD-4782-9447-49C0BCACFA35}" type="CELLRANGE">
+                    <a:fld id="{B2379570-DF14-426A-B767-593EFE1A43B0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6942,7 +6944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F01F192-A8AC-478F-AE88-469B3CB12C52}" type="CELLRANGE">
+                    <a:fld id="{7C6E5774-58E7-45B3-8539-65A64867F0EA}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6976,7 +6978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93E258C7-3C39-4B95-8F22-FCBEA35B40DE}" type="CELLRANGE">
+                    <a:fld id="{5D47C3DB-32C4-410E-B280-D2FB0F32040E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7010,7 +7012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C5F8DE5-7171-42BB-B273-6CDE7689C0A5}" type="CELLRANGE">
+                    <a:fld id="{B4EB748D-CDC9-46A9-A532-B64CA2C068B9}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7900,676 +7902,676 @@
       <selection activeCell="B34" sqref="B34:M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="25.140625" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="1.88671875" style="13" customWidth="1"/>
+    <col min="2" max="12" width="9.109375" style="13"/>
+    <col min="13" max="13" width="25.109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="323" t="s">
+    <row r="1" spans="2:15" ht="10.5" customHeight="1"/>
+    <row r="2" spans="2:15" ht="36" customHeight="1">
+      <c r="B2" s="326" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="324" t="s">
+    <row r="3" spans="2:15" ht="15" customHeight="1">
+      <c r="B3" s="327" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
       <c r="N3" s="200"/>
       <c r="O3" s="200"/>
     </row>
-    <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="320" t="s">
+    <row r="4" spans="2:15" ht="18.75" customHeight="1">
+      <c r="B4" s="323" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
       <c r="N4" s="201"/>
       <c r="O4" s="201"/>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="321" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1">
+      <c r="B5" s="320" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
       <c r="N5" s="200"/>
       <c r="O5" s="200"/>
     </row>
-    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="319" t="s">
+    <row r="6" spans="2:15" ht="15" customHeight="1">
+      <c r="B6" s="325" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
+      <c r="C6" s="325"/>
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="325"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="325"/>
+      <c r="K6" s="325"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="325"/>
       <c r="N6" s="202"/>
       <c r="O6" s="202"/>
     </row>
-    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="319" t="s">
+    <row r="7" spans="2:15" ht="15" customHeight="1">
+      <c r="B7" s="325" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="319"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="319"/>
-      <c r="K7" s="319"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="319"/>
+      <c r="C7" s="325"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
       <c r="N7" s="202"/>
       <c r="O7" s="202"/>
     </row>
-    <row r="8" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="319" t="s">
+    <row r="8" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B8" s="325" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="319"/>
-      <c r="L8" s="319"/>
-      <c r="M8" s="319"/>
+      <c r="C8" s="325"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="325"/>
       <c r="N8" s="202"/>
       <c r="O8" s="202"/>
     </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="321" t="s">
+    <row r="9" spans="2:15" ht="30" customHeight="1">
+      <c r="B9" s="320" t="s">
         <v>339</v>
       </c>
-      <c r="C9" s="321"/>
-      <c r="D9" s="321"/>
-      <c r="E9" s="321"/>
-      <c r="F9" s="321"/>
-      <c r="G9" s="321"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="321"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
-    </row>
-    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="321" t="s">
+      <c r="C9" s="320"/>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="320"/>
+      <c r="L9" s="320"/>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1">
+      <c r="B10" s="320" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="321"/>
-      <c r="D10" s="321"/>
-      <c r="E10" s="321"/>
-      <c r="F10" s="321"/>
-      <c r="G10" s="321"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
-    </row>
-    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="320" t="s">
+      <c r="C10" s="320"/>
+      <c r="D10" s="320"/>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="320"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="320"/>
+      <c r="L10" s="320"/>
+    </row>
+    <row r="11" spans="2:15" ht="21" customHeight="1">
+      <c r="B11" s="323" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="321" t="s">
+    <row r="12" spans="2:15">
+      <c r="B12" s="320" t="s">
         <v>342</v>
       </c>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="321"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="322" t="s">
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="320"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="320"/>
+      <c r="I12" s="320"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="324" t="s">
         <v>367</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="322" t="s">
+      <c r="C13" s="325"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="325"/>
+      <c r="I13" s="325"/>
+      <c r="J13" s="325"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="324" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="319"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="319"/>
-      <c r="L14" s="319"/>
-      <c r="M14" s="319"/>
-    </row>
-    <row r="15" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="322" t="s">
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="325"/>
+      <c r="M14" s="325"/>
+    </row>
+    <row r="15" spans="2:15" ht="17.25" customHeight="1">
+      <c r="B15" s="324" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="319"/>
-      <c r="J15" s="319"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="321" t="s">
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="325"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="C16" s="321"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="321"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="321"/>
-      <c r="I16" s="321"/>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
-    </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="320" t="s">
+      <c r="C16" s="320"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="320"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="320"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
+      <c r="M16" s="320"/>
+    </row>
+    <row r="17" spans="2:13" ht="18">
+      <c r="B17" s="323" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="320"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="320"/>
-      <c r="F17" s="320"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="320"/>
-      <c r="I17" s="320"/>
-      <c r="J17" s="320"/>
-      <c r="K17" s="320"/>
-      <c r="L17" s="320"/>
-      <c r="M17" s="320"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="321" t="s">
+      <c r="C17" s="323"/>
+      <c r="D17" s="323"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="323"/>
+      <c r="G17" s="323"/>
+      <c r="H17" s="323"/>
+      <c r="I17" s="323"/>
+      <c r="J17" s="323"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="320" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="321"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="321"/>
-      <c r="I18" s="321"/>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="321"/>
-      <c r="M18" s="321"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="320"/>
+      <c r="D18" s="320"/>
+      <c r="E18" s="320"/>
+      <c r="F18" s="320"/>
+      <c r="G18" s="320"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="320"/>
+      <c r="J18" s="320"/>
+      <c r="K18" s="320"/>
+      <c r="L18" s="320"/>
+      <c r="M18" s="320"/>
+    </row>
+    <row r="19" spans="2:13" ht="14.4" customHeight="1">
       <c r="B19" s="258"/>
-      <c r="C19" s="325" t="s">
+      <c r="C19" s="319" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="325"/>
-      <c r="E19" s="325"/>
-      <c r="F19" s="325"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="319"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="319"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="258"/>
-      <c r="C20" s="325" t="s">
+      <c r="C20" s="319" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="325"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
-    </row>
-    <row r="21" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="319"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="319"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="319"/>
+      <c r="K20" s="319"/>
+      <c r="L20" s="319"/>
+      <c r="M20" s="319"/>
+    </row>
+    <row r="21" spans="2:13" ht="14.4" customHeight="1">
       <c r="B21" s="258"/>
-      <c r="C21" s="325" t="s">
+      <c r="C21" s="319" t="s">
         <v>462</v>
       </c>
-      <c r="D21" s="325"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="325"/>
-      <c r="G21" s="325"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
-      <c r="J21" s="325"/>
-      <c r="K21" s="325"/>
-      <c r="L21" s="325"/>
-      <c r="M21" s="325"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="319"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="319"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="319"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
+      <c r="K21" s="319"/>
+      <c r="L21" s="319"/>
+      <c r="M21" s="319"/>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="258"/>
-      <c r="C22" s="325" t="s">
+      <c r="C22" s="319" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
-    </row>
-    <row r="23" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="319"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="319"/>
+      <c r="I22" s="319"/>
+      <c r="J22" s="319"/>
+      <c r="K22" s="319"/>
+      <c r="L22" s="319"/>
+      <c r="M22" s="319"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.4" customHeight="1">
       <c r="B23" s="258"/>
       <c r="C23" s="258"/>
-      <c r="D23" s="325" t="s">
+      <c r="D23" s="319" t="s">
         <v>454</v>
       </c>
-      <c r="E23" s="325"/>
-      <c r="F23" s="325"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="325"/>
-      <c r="M23" s="325"/>
-    </row>
-    <row r="24" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="319"/>
+      <c r="F23" s="319"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="319"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="319"/>
+      <c r="K23" s="319"/>
+      <c r="L23" s="319"/>
+      <c r="M23" s="319"/>
+    </row>
+    <row r="24" spans="2:13" ht="14.4" customHeight="1">
       <c r="B24" s="258"/>
       <c r="C24" s="258"/>
-      <c r="D24" s="325" t="s">
+      <c r="D24" s="319" t="s">
         <v>455</v>
       </c>
-      <c r="E24" s="325"/>
-      <c r="F24" s="325"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="319"/>
+      <c r="F24" s="319"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="319"/>
+      <c r="K24" s="319"/>
+      <c r="L24" s="319"/>
+      <c r="M24" s="319"/>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="255"/>
       <c r="C25" s="256"/>
-      <c r="D25" s="321" t="s">
+      <c r="D25" s="320" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="321"/>
-      <c r="F25" s="321"/>
-      <c r="G25" s="321"/>
-      <c r="H25" s="321"/>
-      <c r="I25" s="321"/>
-      <c r="J25" s="321"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="321"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="320"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="320"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="320"/>
+      <c r="M25" s="320"/>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="255"/>
       <c r="C26" s="256"/>
-      <c r="D26" s="325" t="s">
+      <c r="D26" s="319" t="s">
         <v>457</v>
       </c>
-      <c r="E26" s="325"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="325"/>
-      <c r="M26" s="325"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="322" t="s">
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="319"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="319"/>
+      <c r="M26" s="319"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1">
+      <c r="B27" s="324" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-      <c r="L27" s="319"/>
-      <c r="M27" s="319"/>
-    </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="322" t="s">
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1">
+      <c r="B28" s="324" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="319"/>
-      <c r="D28" s="319"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="319"/>
-      <c r="L28" s="319"/>
-      <c r="M28" s="319"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="325"/>
+      <c r="L28" s="325"/>
+      <c r="M28" s="325"/>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="199"/>
     </row>
-    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="320" t="s">
+    <row r="30" spans="2:13" ht="18">
+      <c r="B30" s="323" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="320"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="320"/>
-      <c r="F30" s="320"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="320"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="320"/>
-    </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="321" t="s">
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
+      <c r="E30" s="323"/>
+      <c r="F30" s="323"/>
+      <c r="G30" s="323"/>
+      <c r="H30" s="323"/>
+      <c r="I30" s="323"/>
+      <c r="J30" s="323"/>
+      <c r="K30" s="323"/>
+      <c r="L30" s="323"/>
+      <c r="M30" s="323"/>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1">
+      <c r="B31" s="320" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="321"/>
-      <c r="D31" s="321"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="321"/>
-      <c r="G31" s="321"/>
-      <c r="H31" s="321"/>
-      <c r="I31" s="321"/>
-      <c r="J31" s="321"/>
-      <c r="K31" s="321"/>
-      <c r="L31" s="321"/>
-      <c r="M31" s="321"/>
-    </row>
-    <row r="32" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="321" t="s">
+      <c r="C31" s="320"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="320"/>
+      <c r="J31" s="320"/>
+      <c r="K31" s="320"/>
+      <c r="L31" s="320"/>
+      <c r="M31" s="320"/>
+    </row>
+    <row r="32" spans="2:13" ht="31.5" customHeight="1">
+      <c r="B32" s="320" t="s">
         <v>346</v>
       </c>
-      <c r="C32" s="321"/>
-      <c r="D32" s="321"/>
-      <c r="E32" s="321"/>
-      <c r="F32" s="321"/>
-      <c r="G32" s="321"/>
-      <c r="H32" s="321"/>
-      <c r="I32" s="321"/>
-      <c r="J32" s="321"/>
-      <c r="K32" s="321"/>
-      <c r="L32" s="321"/>
-      <c r="M32" s="321"/>
-    </row>
-    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="321" t="s">
+      <c r="C32" s="320"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="320"/>
+      <c r="F32" s="320"/>
+      <c r="G32" s="320"/>
+      <c r="H32" s="320"/>
+      <c r="I32" s="320"/>
+      <c r="J32" s="320"/>
+      <c r="K32" s="320"/>
+      <c r="L32" s="320"/>
+      <c r="M32" s="320"/>
+    </row>
+    <row r="33" spans="2:13" ht="28.5" customHeight="1">
+      <c r="B33" s="320" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="321"/>
-      <c r="D33" s="321"/>
-      <c r="E33" s="321"/>
-      <c r="F33" s="321"/>
-      <c r="G33" s="321"/>
-      <c r="H33" s="321"/>
-      <c r="I33" s="321"/>
-      <c r="J33" s="321"/>
-      <c r="K33" s="321"/>
-      <c r="L33" s="321"/>
-      <c r="M33" s="321"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="321" t="s">
+      <c r="C33" s="320"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="320"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="320"/>
+      <c r="H33" s="320"/>
+      <c r="I33" s="320"/>
+      <c r="J33" s="320"/>
+      <c r="K33" s="320"/>
+      <c r="L33" s="320"/>
+      <c r="M33" s="320"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="320" t="s">
         <v>348</v>
       </c>
-      <c r="C34" s="321"/>
-      <c r="D34" s="321"/>
-      <c r="E34" s="321"/>
-      <c r="F34" s="321"/>
-      <c r="G34" s="321"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="321"/>
-      <c r="J34" s="321"/>
-      <c r="K34" s="321"/>
-      <c r="L34" s="321"/>
-      <c r="M34" s="321"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="321" t="s">
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="320"/>
+      <c r="I34" s="320"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="320"/>
+      <c r="L34" s="320"/>
+      <c r="M34" s="320"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="320" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="321"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="321"/>
-      <c r="F35" s="321"/>
-      <c r="G35" s="321"/>
-      <c r="H35" s="321"/>
-      <c r="I35" s="321"/>
-      <c r="J35" s="321"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321"/>
-      <c r="M35" s="321"/>
-    </row>
-    <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="320" t="s">
+      <c r="C35" s="320"/>
+      <c r="D35" s="320"/>
+      <c r="E35" s="320"/>
+      <c r="F35" s="320"/>
+      <c r="G35" s="320"/>
+      <c r="H35" s="320"/>
+      <c r="I35" s="320"/>
+      <c r="J35" s="320"/>
+      <c r="K35" s="320"/>
+      <c r="L35" s="320"/>
+      <c r="M35" s="320"/>
+    </row>
+    <row r="36" spans="2:13" ht="18">
+      <c r="B36" s="323" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="320"/>
-      <c r="D36" s="320"/>
-      <c r="E36" s="320"/>
-      <c r="F36" s="320"/>
-      <c r="G36" s="320"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="320"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="320"/>
-    </row>
-    <row r="37" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="321" t="s">
+      <c r="C36" s="323"/>
+      <c r="D36" s="323"/>
+      <c r="E36" s="323"/>
+      <c r="F36" s="323"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="323"/>
+      <c r="I36" s="323"/>
+      <c r="J36" s="323"/>
+      <c r="K36" s="323"/>
+      <c r="L36" s="323"/>
+      <c r="M36" s="323"/>
+    </row>
+    <row r="37" spans="2:13" ht="30.75" customHeight="1">
+      <c r="B37" s="320" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="321"/>
-      <c r="D37" s="321"/>
-      <c r="E37" s="321"/>
-      <c r="F37" s="321"/>
-      <c r="G37" s="321"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="321"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="321" t="s">
+      <c r="C37" s="320"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="320"/>
+      <c r="L37" s="320"/>
+      <c r="M37" s="320"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="320" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="321"/>
-      <c r="K38" s="321"/>
-      <c r="L38" s="321"/>
-      <c r="M38" s="321"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="320"/>
+      <c r="D38" s="320"/>
+      <c r="E38" s="320"/>
+      <c r="F38" s="320"/>
+      <c r="G38" s="320"/>
+      <c r="H38" s="320"/>
+      <c r="I38" s="320"/>
+      <c r="J38" s="320"/>
+      <c r="K38" s="320"/>
+      <c r="L38" s="320"/>
+      <c r="M38" s="320"/>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="199"/>
     </row>
-    <row r="40" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="320" t="s">
+    <row r="40" spans="2:13" ht="18">
+      <c r="B40" s="323" t="s">
         <v>353</v>
       </c>
-      <c r="C40" s="320"/>
-      <c r="D40" s="320"/>
-      <c r="E40" s="320"/>
-      <c r="F40" s="320"/>
-      <c r="G40" s="320"/>
-      <c r="H40" s="320"/>
-      <c r="I40" s="320"/>
-      <c r="J40" s="320"/>
-      <c r="K40" s="320"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="327" t="s">
+      <c r="C40" s="323"/>
+      <c r="D40" s="323"/>
+      <c r="E40" s="323"/>
+      <c r="F40" s="323"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="323"/>
+      <c r="I40" s="323"/>
+      <c r="J40" s="323"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="323"/>
+      <c r="M40" s="323"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="322" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="327"/>
-      <c r="D41" s="327"/>
-      <c r="E41" s="327"/>
-      <c r="F41" s="327"/>
-      <c r="G41" s="327"/>
-      <c r="H41" s="327"/>
-      <c r="I41" s="327"/>
-      <c r="J41" s="327"/>
-      <c r="K41" s="327"/>
-      <c r="L41" s="327"/>
-      <c r="M41" s="327"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="327" t="s">
+      <c r="C41" s="322"/>
+      <c r="D41" s="322"/>
+      <c r="E41" s="322"/>
+      <c r="F41" s="322"/>
+      <c r="G41" s="322"/>
+      <c r="H41" s="322"/>
+      <c r="I41" s="322"/>
+      <c r="J41" s="322"/>
+      <c r="K41" s="322"/>
+      <c r="L41" s="322"/>
+      <c r="M41" s="322"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="322" t="s">
         <v>355</v>
       </c>
-      <c r="C42" s="327"/>
-      <c r="D42" s="327"/>
-      <c r="E42" s="327"/>
-      <c r="F42" s="327"/>
-      <c r="G42" s="327"/>
-      <c r="H42" s="327"/>
-      <c r="I42" s="327"/>
-      <c r="J42" s="327"/>
-      <c r="K42" s="327"/>
-      <c r="L42" s="327"/>
-      <c r="M42" s="327"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="327" t="s">
+      <c r="C42" s="322"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="322"/>
+      <c r="G42" s="322"/>
+      <c r="H42" s="322"/>
+      <c r="I42" s="322"/>
+      <c r="J42" s="322"/>
+      <c r="K42" s="322"/>
+      <c r="L42" s="322"/>
+      <c r="M42" s="322"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="322" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="327"/>
-      <c r="E43" s="327"/>
-      <c r="F43" s="327"/>
-      <c r="G43" s="327"/>
-      <c r="H43" s="327"/>
-      <c r="I43" s="327"/>
-      <c r="J43" s="327"/>
-      <c r="K43" s="327"/>
-      <c r="L43" s="327"/>
-      <c r="M43" s="327"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="322"/>
+      <c r="D43" s="322"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="322"/>
+      <c r="H43" s="322"/>
+      <c r="I43" s="322"/>
+      <c r="J43" s="322"/>
+      <c r="K43" s="322"/>
+      <c r="L43" s="322"/>
+      <c r="M43" s="322"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="249" t="s">
         <v>448</v>
       </c>
@@ -8585,56 +8587,83 @@
       <c r="L44" s="247"/>
       <c r="M44" s="247"/>
     </row>
-    <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="320" t="s">
+    <row r="45" spans="2:13" ht="18">
+      <c r="B45" s="323" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="320"/>
-      <c r="D45" s="320"/>
-      <c r="E45" s="320"/>
-      <c r="F45" s="320"/>
-      <c r="G45" s="320"/>
-      <c r="H45" s="320"/>
-      <c r="I45" s="320"/>
-      <c r="J45" s="320"/>
-      <c r="K45" s="320"/>
-      <c r="L45" s="320"/>
-      <c r="M45" s="320"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="321" t="s">
+      <c r="C45" s="323"/>
+      <c r="D45" s="323"/>
+      <c r="E45" s="323"/>
+      <c r="F45" s="323"/>
+      <c r="G45" s="323"/>
+      <c r="H45" s="323"/>
+      <c r="I45" s="323"/>
+      <c r="J45" s="323"/>
+      <c r="K45" s="323"/>
+      <c r="L45" s="323"/>
+      <c r="M45" s="323"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="320" t="s">
         <v>461</v>
       </c>
-      <c r="C46" s="321"/>
-      <c r="D46" s="321"/>
-      <c r="E46" s="321"/>
-      <c r="F46" s="321"/>
-      <c r="G46" s="321"/>
-      <c r="H46" s="321"/>
-      <c r="I46" s="321"/>
-      <c r="J46" s="321"/>
-      <c r="K46" s="321"/>
-      <c r="L46" s="321"/>
-      <c r="M46" s="321"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="326" t="s">
+      <c r="C46" s="320"/>
+      <c r="D46" s="320"/>
+      <c r="E46" s="320"/>
+      <c r="F46" s="320"/>
+      <c r="G46" s="320"/>
+      <c r="H46" s="320"/>
+      <c r="I46" s="320"/>
+      <c r="J46" s="320"/>
+      <c r="K46" s="320"/>
+      <c r="L46" s="320"/>
+      <c r="M46" s="320"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="321" t="s">
         <v>447</v>
       </c>
-      <c r="C47" s="326"/>
-      <c r="D47" s="326"/>
-      <c r="E47" s="326"/>
-      <c r="F47" s="326"/>
-      <c r="G47" s="326"/>
-      <c r="H47" s="326"/>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="326"/>
-      <c r="L47" s="326"/>
-      <c r="M47" s="326"/>
+      <c r="C47" s="321"/>
+      <c r="D47" s="321"/>
+      <c r="E47" s="321"/>
+      <c r="F47" s="321"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="321"/>
+      <c r="J47" s="321"/>
+      <c r="K47" s="321"/>
+      <c r="L47" s="321"/>
+      <c r="M47" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D25:M25"/>
@@ -8651,33 +8680,6 @@
     <mergeCell ref="B41:M41"/>
     <mergeCell ref="B31:M31"/>
     <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
@@ -8699,18 +8701,18 @@
   </sheetPr>
   <dimension ref="A1:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="13" customFormat="1">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -8719,7 +8721,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -8730,7 +8732,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="13" customFormat="1">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -8739,7 +8741,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="351" t="s">
         <v>466</v>
@@ -8769,7 +8771,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="13"/>
       <c r="B5" s="352"/>
       <c r="C5" s="352"/>
@@ -8805,7 +8807,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -8895,7 +8897,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -8927,7 +8929,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -8953,7 +8955,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -9063,7 +9065,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -9185,7 +9187,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -9217,7 +9219,7 @@
         <v>21.785368249280001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -9249,7 +9251,7 @@
         <v>22.785368249280001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>23.785368249280001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -9295,7 +9297,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -9359,7 +9361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -9527,7 +9529,7 @@
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -9637,7 +9639,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="317" t="s">
         <v>468</v>
       </c>
@@ -9669,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="317" t="s">
         <v>469</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="317" t="s">
         <v>470</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -9759,7 +9761,7 @@
         <v>35.700299999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="317" t="s">
         <v>468</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>36.700299999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="317" t="s">
         <v>469</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>37.700299999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="317" t="s">
         <v>470</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>38.700299999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>32.862341000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="317" t="s">
         <v>468</v>
       </c>
@@ -9913,7 +9915,7 @@
         <v>33.862341000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="317" t="s">
         <v>469</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>34.862341000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="317" t="s">
         <v>470</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>36.862341000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>121.16656999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="317" t="s">
         <v>468</v>
       </c>
@@ -10035,7 +10037,7 @@
         <v>122.16656999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="317" t="s">
         <v>469</v>
       </c>
@@ -10067,7 +10069,7 @@
         <v>123.16656999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="317" t="s">
         <v>470</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>124.16656999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -10125,7 +10127,7 @@
         <v>87.212990000000005</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="317" t="s">
         <v>468</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>88.212990000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="317" t="s">
         <v>469</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>87.212990000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="317" t="s">
         <v>470</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>89.212990000000005</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="317" t="s">
         <v>468</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="317" t="s">
         <v>469</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="317" t="s">
         <v>470</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -10369,7 +10371,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="317" t="s">
         <v>468</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="317" t="s">
         <v>469</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="317" t="s">
         <v>470</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>34.742398430000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -10491,7 +10493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="317" t="s">
         <v>468</v>
       </c>
@@ -10523,7 +10525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="317" t="s">
         <v>469</v>
       </c>
@@ -10555,7 +10557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="317" t="s">
         <v>470</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="317" t="s">
         <v>468</v>
       </c>
@@ -10651,7 +10653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="317" t="s">
         <v>469</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="B69" s="317" t="s">
         <v>470</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="B71" s="317" t="s">
         <v>468</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9">
       <c r="B72" s="317" t="s">
         <v>469</v>
       </c>
@@ -10805,7 +10807,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9">
       <c r="B73" s="317" t="s">
         <v>470</v>
       </c>
@@ -10837,7 +10839,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9">
       <c r="B74" s="317" t="s">
         <v>467</v>
       </c>
@@ -10863,7 +10865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9">
       <c r="B75" s="317" t="s">
         <v>468</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9">
       <c r="B76" s="317" t="s">
         <v>469</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9">
       <c r="B77" s="317" t="s">
         <v>470</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9">
       <c r="B78" s="317" t="s">
         <v>467</v>
       </c>
@@ -10973,7 +10975,7 @@
       <c r="H78" s="56"/>
       <c r="I78" s="56"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9">
       <c r="B79" s="317" t="s">
         <v>468</v>
       </c>
@@ -11005,7 +11007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9">
       <c r="B80" s="317" t="s">
         <v>469</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9">
       <c r="B81" s="317" t="s">
         <v>470</v>
       </c>
@@ -11069,7 +11071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9">
       <c r="B82" s="317" t="s">
         <v>467</v>
       </c>
@@ -11095,7 +11097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9">
       <c r="B83" s="317" t="s">
         <v>468</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9">
       <c r="B84" s="317" t="s">
         <v>469</v>
       </c>
@@ -11159,7 +11161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9">
       <c r="B85" s="317" t="s">
         <v>470</v>
       </c>
@@ -11191,7 +11193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9">
       <c r="B86" s="317" t="s">
         <v>467</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9">
       <c r="B87" s="317" t="s">
         <v>468</v>
       </c>
@@ -11249,7 +11251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9">
       <c r="B88" s="317" t="s">
         <v>469</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9">
       <c r="B89" s="317" t="s">
         <v>470</v>
       </c>
@@ -11313,7 +11315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9">
       <c r="B90" s="317" t="s">
         <v>467</v>
       </c>
@@ -11339,7 +11341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9">
       <c r="B91" s="317" t="s">
         <v>468</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9">
       <c r="B92" s="317" t="s">
         <v>469</v>
       </c>
@@ -11403,7 +11405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9">
       <c r="B93" s="317" t="s">
         <v>470</v>
       </c>
@@ -11435,7 +11437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9">
       <c r="B94" s="317" t="s">
         <v>467</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9">
       <c r="B95" s="317" t="s">
         <v>468</v>
       </c>
@@ -11493,7 +11495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9">
       <c r="B96" s="317" t="s">
         <v>469</v>
       </c>
@@ -11525,7 +11527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9">
       <c r="B97" s="317" t="s">
         <v>470</v>
       </c>
@@ -11557,7 +11559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9">
       <c r="B98" s="317" t="s">
         <v>467</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9">
       <c r="B99" s="317" t="s">
         <v>468</v>
       </c>
@@ -11615,7 +11617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9">
       <c r="B100" s="317" t="s">
         <v>469</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9">
       <c r="B101" s="317" t="s">
         <v>470</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9">
       <c r="B102" s="317" t="s">
         <v>467</v>
       </c>
@@ -11705,7 +11707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9">
       <c r="B103" s="317" t="s">
         <v>468</v>
       </c>
@@ -11737,7 +11739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9">
       <c r="B104" s="317" t="s">
         <v>469</v>
       </c>
@@ -11769,7 +11771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9">
       <c r="B105" s="317" t="s">
         <v>470</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9">
       <c r="B106" s="317" t="s">
         <v>467</v>
       </c>
@@ -11827,7 +11829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9">
       <c r="B107" s="317" t="s">
         <v>468</v>
       </c>
@@ -11859,7 +11861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9">
       <c r="B108" s="317" t="s">
         <v>469</v>
       </c>
@@ -11891,7 +11893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9">
       <c r="B109" s="317" t="s">
         <v>470</v>
       </c>
@@ -11923,7 +11925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9">
       <c r="B110" s="317" t="s">
         <v>467</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9">
       <c r="B111" s="22" t="s">
         <v>468</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9">
       <c r="B112" s="22" t="s">
         <v>469</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9">
       <c r="B113" s="22" t="s">
         <v>470</v>
       </c>
@@ -12045,7 +12047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9">
       <c r="C115" s="173" t="s">
         <v>149</v>
       </c>
@@ -12072,14 +12074,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="224"/>
       <c r="B1" s="224"/>
       <c r="C1" s="224"/>
@@ -12093,8 +12095,8 @@
       <c r="K1" s="224"/>
       <c r="L1" s="224"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:20" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1"/>
+    <row r="22" spans="2:20" ht="41.4">
       <c r="B22" s="5"/>
       <c r="D22" s="197" t="str">
         <f>HEP_Inter!A3</f>
@@ -12126,10 +12128,10 @@
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -12149,12 +12151,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -12179,7 +12181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="214" t="s">
         <v>287</v>
       </c>
@@ -12215,7 +12217,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="214" t="s">
         <v>271</v>
       </c>
@@ -12252,7 +12254,7 @@
       </c>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="214" t="s">
         <v>272</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="214" t="s">
         <v>281</v>
       </c>
@@ -12324,7 +12326,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="22"/>
       <c r="B7" s="49"/>
       <c r="C7" s="50"/>
@@ -12335,7 +12337,7 @@
       <c r="H7" s="50"/>
       <c r="I7" s="52"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="22"/>
       <c r="B8" s="49"/>
       <c r="C8" s="50"/>
@@ -12346,7 +12348,7 @@
       <c r="H8" s="50"/>
       <c r="I8" s="52"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="22"/>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -12357,7 +12359,7 @@
       <c r="H9" s="50"/>
       <c r="I9" s="52"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="22"/>
       <c r="B10" s="49"/>
       <c r="C10" s="50"/>
@@ -12368,7 +12370,7 @@
       <c r="H10" s="50"/>
       <c r="I10" s="52"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="22"/>
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
@@ -12379,7 +12381,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="22"/>
       <c r="B12" s="49"/>
       <c r="C12" s="50"/>
@@ -12390,7 +12392,7 @@
       <c r="H12" s="50"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="22"/>
       <c r="B13" s="49"/>
       <c r="C13" s="50"/>
@@ -12401,7 +12403,7 @@
       <c r="H13" s="50"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="22"/>
       <c r="B14" s="49"/>
       <c r="C14" s="50"/>
@@ -12412,7 +12414,7 @@
       <c r="H14" s="50"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="22"/>
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
@@ -12423,7 +12425,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="22"/>
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
@@ -12434,7 +12436,7 @@
       <c r="H16" s="50"/>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="22"/>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -12445,7 +12447,7 @@
       <c r="H17" s="50"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="22"/>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -12456,7 +12458,7 @@
       <c r="H18" s="50"/>
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="22"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -12467,7 +12469,7 @@
       <c r="H19" s="50"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="22"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
@@ -12478,7 +12480,7 @@
       <c r="H20" s="50"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="22"/>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
@@ -12489,7 +12491,7 @@
       <c r="H21" s="50"/>
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="22"/>
       <c r="B22" s="49"/>
       <c r="C22" s="50"/>
@@ -12500,7 +12502,7 @@
       <c r="H22" s="50"/>
       <c r="I22" s="52"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="22"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
@@ -12511,7 +12513,7 @@
       <c r="H23" s="50"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="22"/>
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
@@ -12522,7 +12524,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="22"/>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
@@ -12552,32 +12554,32 @@
       <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="17" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="0.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" customWidth="1"/>
-    <col min="20" max="21" width="29.85546875" customWidth="1"/>
-    <col min="22" max="22" width="0.85546875" style="17" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
-    <col min="24" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="32" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="0.88671875" customWidth="1"/>
+    <col min="14" max="15" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.88671875" customWidth="1"/>
+    <col min="20" max="21" width="29.88671875" customWidth="1"/>
+    <col min="22" max="22" width="0.88671875" style="17" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" customWidth="1"/>
+    <col min="24" max="26" width="13.109375" customWidth="1"/>
+    <col min="27" max="32" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -12603,7 +12605,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" ht="23.4">
       <c r="A2" s="154" t="s">
         <v>336</v>
       </c>
@@ -12633,7 +12635,7 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -12659,7 +12661,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="21">
       <c r="A4" s="155" t="s">
         <v>76</v>
       </c>
@@ -12689,7 +12691,7 @@
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15" customHeight="1">
       <c r="A5" s="125" t="s">
         <v>151</v>
       </c>
@@ -12724,7 +12726,7 @@
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15" customHeight="1">
       <c r="A6" s="125" t="s">
         <v>446</v>
       </c>
@@ -12759,7 +12761,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15" customHeight="1">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -12789,7 +12791,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -12815,43 +12817,43 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="357" t="s">
+    <row r="9" spans="1:32" ht="15" customHeight="1">
+      <c r="A9" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="357"/>
-      <c r="C9" s="362" t="s">
+      <c r="B9" s="354"/>
+      <c r="C9" s="361" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="362"/>
-      <c r="E9" s="362"/>
-      <c r="F9" s="362"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="362"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="361"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="361"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="361"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="363" t="s">
+      <c r="K9" s="362" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="363"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="363"/>
-      <c r="R9" s="363"/>
-      <c r="S9" s="363"/>
-      <c r="T9" s="363"/>
-      <c r="U9" s="363"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
+      <c r="Q9" s="362"/>
+      <c r="R9" s="362"/>
+      <c r="S9" s="362"/>
+      <c r="T9" s="362"/>
+      <c r="U9" s="362"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="359" t="s">
+      <c r="W9" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="360"/>
-      <c r="Y9" s="360"/>
-      <c r="Z9" s="361"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X9" s="359"/>
+      <c r="Y9" s="359"/>
+      <c r="Z9" s="360"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="355" t="s">
         <v>122</v>
       </c>
@@ -12873,55 +12875,55 @@
       <c r="G10" s="355" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="364" t="s">
+      <c r="H10" s="363" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="364" t="s">
+      <c r="I10" s="363" t="s">
         <v>114</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="354" t="s">
+      <c r="K10" s="364" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="354" t="s">
+      <c r="L10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="354" t="s">
+      <c r="N10" s="364" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="354" t="s">
+      <c r="O10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="78"/>
-      <c r="Q10" s="354" t="s">
+      <c r="Q10" s="364" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="354" t="s">
+      <c r="R10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="78"/>
-      <c r="T10" s="354" t="s">
+      <c r="T10" s="364" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="354" t="s">
+      <c r="U10" s="364" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="358" t="s">
+      <c r="W10" s="357" t="s">
         <v>118</v>
       </c>
-      <c r="X10" s="358" t="s">
+      <c r="X10" s="357" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="358" t="s">
+      <c r="Y10" s="357" t="s">
         <v>116</v>
       </c>
       <c r="Z10" s="355" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="15" customHeight="1">
       <c r="A11" s="356"/>
       <c r="B11" s="356"/>
       <c r="C11" s="356"/>
@@ -12965,7 +12967,7 @@
       <c r="Y11" s="356"/>
       <c r="Z11" s="356"/>
     </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A12" s="288" t="s">
         <v>44</v>
       </c>
@@ -13041,7 +13043,7 @@
       <c r="AE12" s="33"/>
       <c r="AF12" s="33"/>
     </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A13" s="174" t="s">
         <v>47</v>
       </c>
@@ -13079,7 +13081,7 @@
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
     </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A14" s="174" t="s">
         <v>49</v>
       </c>
@@ -13155,7 +13157,7 @@
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
     </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A15" s="174" t="s">
         <v>123</v>
       </c>
@@ -13197,7 +13199,7 @@
       <c r="AE15" s="33"/>
       <c r="AF15" s="33"/>
     </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A16" s="174" t="s">
         <v>51</v>
       </c>
@@ -13273,7 +13275,7 @@
       <c r="AE16" s="33"/>
       <c r="AF16" s="33"/>
     </row>
-    <row r="17" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A17" s="174" t="s">
         <v>53</v>
       </c>
@@ -13333,7 +13335,7 @@
       <c r="AE17" s="33"/>
       <c r="AF17" s="33"/>
     </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A18" s="174" t="s">
         <v>55</v>
       </c>
@@ -13371,7 +13373,7 @@
       <c r="AE18" s="33"/>
       <c r="AF18" s="33"/>
     </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A19" s="174" t="s">
         <v>57</v>
       </c>
@@ -13447,7 +13449,7 @@
       <c r="AE19" s="33"/>
       <c r="AF19" s="33"/>
     </row>
-    <row r="20" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A20" s="174" t="s">
         <v>59</v>
       </c>
@@ -13523,7 +13525,7 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
     </row>
-    <row r="21" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A21" s="174" t="s">
         <v>61</v>
       </c>
@@ -13599,7 +13601,7 @@
       <c r="AE21" s="33"/>
       <c r="AF21" s="33"/>
     </row>
-    <row r="22" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A22" s="174" t="s">
         <v>63</v>
       </c>
@@ -13675,7 +13677,7 @@
       <c r="AE22" s="33"/>
       <c r="AF22" s="33"/>
     </row>
-    <row r="23" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A23" s="174" t="s">
         <v>65</v>
       </c>
@@ -13751,7 +13753,7 @@
       <c r="AE23" s="33"/>
       <c r="AF23" s="33"/>
     </row>
-    <row r="24" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A24" s="174" t="s">
         <v>67</v>
       </c>
@@ -13827,7 +13829,7 @@
       <c r="AE24" s="33"/>
       <c r="AF24" s="33"/>
     </row>
-    <row r="25" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A25" s="174" t="s">
         <v>69</v>
       </c>
@@ -13903,7 +13905,7 @@
       <c r="AE25" s="33"/>
       <c r="AF25" s="33"/>
     </row>
-    <row r="26" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A26" s="174" t="s">
         <v>71</v>
       </c>
@@ -13979,7 +13981,7 @@
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
     </row>
-    <row r="27" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A27" s="174" t="s">
         <v>73</v>
       </c>
@@ -14055,7 +14057,7 @@
       <c r="AE27" s="33"/>
       <c r="AF27" s="33"/>
     </row>
-    <row r="28" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="3" customFormat="1" ht="21.9" customHeight="1">
       <c r="A28" s="175" t="s">
         <v>51</v>
       </c>
@@ -14097,7 +14099,7 @@
       <c r="AE28" s="33"/>
       <c r="AF28" s="33"/>
     </row>
-    <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -14123,7 +14125,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="46" t="s">
         <v>119</v>
       </c>
@@ -14155,7 +14157,7 @@
       </c>
       <c r="Z30" s="311"/>
     </row>
-    <row r="31" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="45" t="s">
         <v>106</v>
       </c>
@@ -14191,7 +14193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>108</v>
       </c>
@@ -14228,7 +14230,7 @@
       </c>
       <c r="AA32" s="31"/>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15" customHeight="1">
       <c r="A33" s="45" t="s">
         <v>110</v>
       </c>
@@ -14265,7 +14267,7 @@
       </c>
       <c r="AA33" s="31"/>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15" customHeight="1">
       <c r="A34" s="45" t="s">
         <v>124</v>
       </c>
@@ -14302,7 +14304,7 @@
       </c>
       <c r="AA34" s="55"/>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -14335,7 +14337,7 @@
       </c>
       <c r="AA35" s="55"/>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -14361,7 +14363,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -14387,7 +14389,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -14413,7 +14415,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -14439,7 +14441,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -14465,7 +14467,7 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -14491,7 +14493,7 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="15" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -14517,7 +14519,7 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -14543,7 +14545,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="15" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -14569,7 +14571,7 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
     </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="15" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -14595,7 +14597,7 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
     </row>
-    <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -14621,7 +14623,7 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
     </row>
-    <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -14647,7 +14649,7 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -14673,7 +14675,7 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -14699,35 +14701,40 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:26" ht="15" customHeight="1"/>
+    <row r="51" spans="1:26" ht="15" customHeight="1"/>
+    <row r="52" spans="1:26" ht="15" customHeight="1"/>
+    <row r="53" spans="1:26" ht="15" customHeight="1"/>
+    <row r="54" spans="1:26" ht="15" customHeight="1"/>
+    <row r="55" spans="1:26" ht="15" customHeight="1"/>
+    <row r="56" spans="1:26" ht="15" customHeight="1"/>
+    <row r="57" spans="1:26" ht="15" customHeight="1"/>
+    <row r="58" spans="1:26" ht="15" customHeight="1"/>
+    <row r="59" spans="1:26" ht="15" customHeight="1"/>
+    <row r="60" spans="1:26" ht="15" customHeight="1"/>
+    <row r="61" spans="1:26" ht="15" customHeight="1"/>
+    <row r="62" spans="1:26" ht="15" customHeight="1"/>
+    <row r="63" spans="1:26" ht="15" customHeight="1"/>
+    <row r="64" spans="1:26" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -14744,11 +14751,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -14776,13 +14778,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="13" customFormat="1">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -14809,7 +14811,7 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
@@ -14838,7 +14840,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="13" customFormat="1">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -14865,7 +14867,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="366" t="s">
         <v>121</v>
@@ -14910,7 +14912,7 @@
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="13"/>
       <c r="B5" s="367"/>
       <c r="C5" s="240" t="s">
@@ -14999,7 +15001,7 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
@@ -15076,7 +15078,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
@@ -15105,7 +15107,7 @@
       <c r="Y7" s="242"/>
       <c r="Z7" s="242"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
@@ -15182,7 +15184,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="B9" s="23" t="s">
         <v>94</v>
       </c>
@@ -15211,7 +15213,7 @@
       <c r="Y9" s="243"/>
       <c r="Z9" s="243"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
@@ -15288,7 +15290,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="B11" s="23" t="s">
         <v>33</v>
       </c>
@@ -15319,7 +15321,7 @@
       <c r="Y11" s="242"/>
       <c r="Z11" s="242"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
@@ -15348,7 +15350,7 @@
       <c r="Y12" s="242"/>
       <c r="Z12" s="242"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -15425,7 +15427,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
@@ -15502,7 +15504,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="B15" s="23" t="s">
         <v>98</v>
       </c>
@@ -15579,7 +15581,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="B16" s="23" t="s">
         <v>5</v>
       </c>
@@ -15656,7 +15658,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
@@ -15867,7 +15869,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20" s="23" t="s">
         <v>6</v>
       </c>
@@ -15944,7 +15946,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="32" t="s">
         <v>11</v>
       </c>
@@ -16021,7 +16023,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" s="23" t="s">
         <v>15</v>
       </c>
@@ -16050,7 +16052,7 @@
       <c r="Y22" s="241"/>
       <c r="Z22" s="241"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="368"/>
       <c r="C23" s="368"/>
       <c r="D23" s="368"/>
@@ -16092,18 +16094,18 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="13" customFormat="1">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -16112,7 +16114,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -16124,7 +16126,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="13" customFormat="1">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -16133,7 +16135,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="366" t="s">
         <v>466</v>
@@ -16163,7 +16165,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="13"/>
       <c r="B5" s="367"/>
       <c r="C5" s="367"/>
@@ -16199,7 +16201,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -16225,7 +16227,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -16251,7 +16253,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -16277,7 +16279,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="9" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -16303,7 +16305,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -16329,7 +16331,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -16355,7 +16357,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="13" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -16407,7 +16409,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -16433,7 +16435,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -16459,7 +16461,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -16485,7 +16487,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -16511,7 +16513,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -16537,7 +16539,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -16563,7 +16565,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -16589,7 +16591,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -16615,7 +16617,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -16641,7 +16643,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -16667,7 +16669,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -16693,7 +16695,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -16719,7 +16721,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -16735,7 +16737,7 @@
       <c r="H26" s="242"/>
       <c r="I26" s="242"/>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -16751,7 +16753,7 @@
       <c r="H27" s="242"/>
       <c r="I27" s="242"/>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -16767,7 +16769,7 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
     </row>
-    <row r="29" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -16783,7 +16785,7 @@
       <c r="H29" s="242"/>
       <c r="I29" s="242"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -16799,7 +16801,7 @@
       <c r="H30" s="242"/>
       <c r="I30" s="242"/>
     </row>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -16815,7 +16817,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
     </row>
-    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -16831,7 +16833,7 @@
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
     </row>
-    <row r="33" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -16847,7 +16849,7 @@
       <c r="H33" s="242"/>
       <c r="I33" s="242"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="22" t="s">
         <v>468</v>
       </c>
@@ -16899,7 +16901,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="22" t="s">
         <v>469</v>
       </c>
@@ -16925,7 +16927,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="37" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="22" t="s">
         <v>470</v>
       </c>
@@ -16951,7 +16953,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -16977,7 +16979,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="22" t="s">
         <v>468</v>
       </c>
@@ -17003,7 +17005,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="22" t="s">
         <v>469</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="41" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="22" t="s">
         <v>470</v>
       </c>
@@ -17055,7 +17057,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -17081,7 +17083,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="22" t="s">
         <v>468</v>
       </c>
@@ -17107,7 +17109,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="22" t="s">
         <v>469</v>
       </c>
@@ -17133,7 +17135,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="45" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="22" t="s">
         <v>470</v>
       </c>
@@ -17159,7 +17161,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -17185,7 +17187,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="22" t="s">
         <v>468</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="22" t="s">
         <v>469</v>
       </c>
@@ -17237,7 +17239,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="22" t="s">
         <v>470</v>
       </c>
@@ -17263,7 +17265,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="22" t="s">
         <v>468</v>
       </c>
@@ -17315,7 +17317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="22" t="s">
         <v>469</v>
       </c>
@@ -17341,7 +17343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="22" t="s">
         <v>470</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -17393,7 +17395,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="22" t="s">
         <v>468</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="22" t="s">
         <v>469</v>
       </c>
@@ -17445,7 +17447,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="22" t="s">
         <v>470</v>
       </c>
@@ -17471,7 +17473,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -17497,7 +17499,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="22" t="s">
         <v>468</v>
       </c>
@@ -17523,7 +17525,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="22" t="s">
         <v>469</v>
       </c>
@@ -17549,7 +17551,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="22" t="s">
         <v>470</v>
       </c>
@@ -17575,7 +17577,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -17601,7 +17603,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="22" t="s">
         <v>468</v>
       </c>
@@ -17627,7 +17629,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="22" t="s">
         <v>469</v>
       </c>
@@ -17653,7 +17655,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="65" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="22" t="s">
         <v>470</v>
       </c>
@@ -17679,7 +17681,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -17705,7 +17707,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="22" t="s">
         <v>468</v>
       </c>
@@ -17731,7 +17733,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="22" t="s">
         <v>469</v>
       </c>
@@ -17757,7 +17759,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="B69" s="22" t="s">
         <v>470</v>
       </c>
@@ -17783,7 +17785,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -17809,7 +17811,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="B71" s="22" t="s">
         <v>468</v>
       </c>
@@ -17835,7 +17837,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9">
       <c r="B72" s="22" t="s">
         <v>469</v>
       </c>
@@ -17861,7 +17863,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9">
       <c r="B73" s="22" t="s">
         <v>470</v>
       </c>
@@ -17887,7 +17889,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9">
       <c r="C75" s="316" t="s">
         <v>149</v>
       </c>
@@ -17914,12 +17916,12 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="244"/>
       <c r="B1" s="244"/>
       <c r="C1" s="244"/>
@@ -17941,8 +17943,8 @@
       <c r="S1" s="244"/>
       <c r="T1" s="244"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1"/>
+    <row r="22" spans="2:20" ht="162" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="str">
         <f>HPOP_Inter!A3</f>
@@ -18014,10 +18016,10 @@
       </c>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
@@ -18039,12 +18041,12 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -18072,7 +18074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -18112,7 +18114,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="48" t="s">
         <v>9</v>
       </c>
@@ -18153,7 +18155,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
@@ -18193,7 +18195,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="48" t="s">
         <v>94</v>
       </c>
@@ -18233,7 +18235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
@@ -18273,7 +18275,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="48" t="s">
         <v>33</v>
       </c>
@@ -18313,7 +18315,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="48" t="s">
         <v>13</v>
       </c>
@@ -18353,7 +18355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
@@ -18393,7 +18395,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
@@ -18433,7 +18435,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="48" t="s">
         <v>98</v>
       </c>
@@ -18473,7 +18475,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="48" t="s">
         <v>5</v>
       </c>
@@ -18513,7 +18515,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="48" t="s">
         <v>10</v>
       </c>
@@ -18553,7 +18555,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="48" t="s">
         <v>4</v>
       </c>
@@ -18593,7 +18595,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="48" t="s">
         <v>14</v>
       </c>
@@ -18633,7 +18635,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="48" t="s">
         <v>6</v>
       </c>
@@ -18673,7 +18675,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
@@ -18713,7 +18715,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="48" t="s">
         <v>15</v>
       </c>
@@ -18753,7 +18755,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -18773,18 +18775,18 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="B2" s="12" t="s">
         <v>371</v>
       </c>
@@ -18792,13 +18794,13 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="7"/>
       <c r="C3" s="10"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="213" t="s">
         <v>372</v>
@@ -18819,7 +18821,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="221" t="s">
         <v>373</v>
       </c>
@@ -18839,7 +18841,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="B6" s="221" t="s">
         <v>373</v>
       </c>
@@ -18859,7 +18861,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="B7" s="221" t="s">
         <v>373</v>
       </c>
@@ -18877,7 +18879,7 @@
       </c>
       <c r="G7" s="223"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="B8" s="221" t="s">
         <v>373</v>
       </c>
@@ -18895,7 +18897,7 @@
       </c>
       <c r="G8" s="223"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="B9" s="221" t="s">
         <v>373</v>
       </c>
@@ -18915,7 +18917,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="B10" s="221" t="s">
         <v>373</v>
       </c>
@@ -18935,7 +18937,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" s="221" t="s">
         <v>373</v>
       </c>
@@ -18955,7 +18957,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12" s="221" t="s">
         <v>373</v>
       </c>
@@ -18973,7 +18975,7 @@
       </c>
       <c r="G12" s="223"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="221" t="s">
         <v>373</v>
       </c>
@@ -18993,7 +18995,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" s="221" t="s">
         <v>373</v>
       </c>
@@ -19013,7 +19015,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" s="221" t="s">
         <v>373</v>
       </c>
@@ -19033,7 +19035,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" s="221" t="s">
         <v>373</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="221" t="s">
         <v>373</v>
       </c>
@@ -19073,7 +19075,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="221" t="s">
         <v>373</v>
       </c>
@@ -19091,7 +19093,7 @@
       </c>
       <c r="G18" s="250"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="221" t="s">
         <v>373</v>
       </c>
@@ -19109,7 +19111,7 @@
       </c>
       <c r="G19" s="250"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" s="221" t="s">
         <v>373</v>
       </c>
@@ -19129,7 +19131,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" s="221" t="s">
         <v>373</v>
       </c>
@@ -19149,7 +19151,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" s="218" t="s">
         <v>374</v>
       </c>
@@ -19165,7 +19167,7 @@
       <c r="F22" s="218"/>
       <c r="G22" s="220"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="B23" s="218" t="s">
         <v>374</v>
       </c>
@@ -19181,7 +19183,7 @@
       <c r="F23" s="218"/>
       <c r="G23" s="220"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="B24" s="218" t="s">
         <v>374</v>
       </c>
@@ -19197,7 +19199,7 @@
       <c r="F24" s="218"/>
       <c r="G24" s="220"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="B25" s="218" t="s">
         <v>374</v>
       </c>
@@ -19213,7 +19215,7 @@
       <c r="F25" s="218"/>
       <c r="G25" s="220"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="B26" s="218" t="s">
         <v>374</v>
       </c>
@@ -19229,7 +19231,7 @@
       <c r="F26" s="218"/>
       <c r="G26" s="220"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="B27" s="218" t="s">
         <v>374</v>
       </c>
@@ -19245,7 +19247,7 @@
       <c r="F27" s="218"/>
       <c r="G27" s="220"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="B28" s="218" t="s">
         <v>374</v>
       </c>
@@ -19261,7 +19263,7 @@
       <c r="F28" s="218"/>
       <c r="G28" s="220"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="B29" s="218" t="s">
         <v>374</v>
       </c>
@@ -19277,7 +19279,7 @@
       <c r="F29" s="218"/>
       <c r="G29" s="220"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="B30" s="218" t="s">
         <v>374</v>
       </c>
@@ -19293,7 +19295,7 @@
       <c r="F30" s="218"/>
       <c r="G30" s="220"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="B31" s="218" t="s">
         <v>374</v>
       </c>
@@ -19309,7 +19311,7 @@
       <c r="F31" s="218"/>
       <c r="G31" s="220"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="B32" s="218" t="s">
         <v>374</v>
       </c>
@@ -19325,7 +19327,7 @@
       <c r="F32" s="218"/>
       <c r="G32" s="220"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="218" t="s">
         <v>374</v>
       </c>
@@ -19341,7 +19343,7 @@
       <c r="F33" s="218"/>
       <c r="G33" s="220"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="218" t="s">
         <v>374</v>
       </c>
@@ -19357,7 +19359,7 @@
       <c r="F34" s="218"/>
       <c r="G34" s="220"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7">
       <c r="B35" s="218" t="s">
         <v>374</v>
       </c>
@@ -19373,7 +19375,7 @@
       <c r="F35" s="218"/>
       <c r="G35" s="220"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7">
       <c r="B36" s="219" t="s">
         <v>374</v>
       </c>
@@ -19389,7 +19391,7 @@
       <c r="F36" s="218"/>
       <c r="G36" s="220"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7">
       <c r="B37" s="218" t="s">
         <v>374</v>
       </c>
@@ -19405,7 +19407,7 @@
       <c r="F37" s="218"/>
       <c r="G37" s="220"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7">
       <c r="B38" s="218" t="s">
         <v>374</v>
       </c>
@@ -19421,7 +19423,7 @@
       <c r="F38" s="218"/>
       <c r="G38" s="220"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7">
       <c r="B39" s="218" t="s">
         <v>374</v>
       </c>
@@ -19437,7 +19439,7 @@
       <c r="F39" s="218"/>
       <c r="G39" s="220"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7">
       <c r="B40" s="218" t="s">
         <v>374</v>
       </c>
@@ -19453,7 +19455,7 @@
       <c r="F40" s="218"/>
       <c r="G40" s="220"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7">
       <c r="B41" s="218" t="s">
         <v>374</v>
       </c>
@@ -19469,7 +19471,7 @@
       <c r="F41" s="218"/>
       <c r="G41" s="220"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7">
       <c r="B42" s="218" t="s">
         <v>374</v>
       </c>
@@ -19485,7 +19487,7 @@
       <c r="F42" s="218"/>
       <c r="G42" s="220"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7">
       <c r="B43" s="218" t="s">
         <v>374</v>
       </c>
@@ -19501,7 +19503,7 @@
       <c r="F43" s="218"/>
       <c r="G43" s="220"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7">
       <c r="B44" s="219" t="s">
         <v>374</v>
       </c>
@@ -19517,7 +19519,7 @@
       <c r="F44" s="218"/>
       <c r="G44" s="220"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7">
       <c r="B45" s="218" t="s">
         <v>374</v>
       </c>
@@ -19533,7 +19535,7 @@
       <c r="F45" s="218"/>
       <c r="G45" s="220"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7">
       <c r="B46" s="218" t="s">
         <v>374</v>
       </c>
@@ -19549,7 +19551,7 @@
       <c r="F46" s="218"/>
       <c r="G46" s="220"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7">
       <c r="B47" s="218" t="s">
         <v>374</v>
       </c>
@@ -19565,7 +19567,7 @@
       <c r="F47" s="218"/>
       <c r="G47" s="220"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7">
       <c r="B48" s="215" t="s">
         <v>429</v>
       </c>
@@ -19583,7 +19585,7 @@
       </c>
       <c r="G48" s="217"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="215" t="s">
         <v>429</v>
       </c>
@@ -19601,7 +19603,7 @@
       </c>
       <c r="G49" s="217"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="215" t="s">
         <v>429</v>
       </c>
@@ -19619,7 +19621,7 @@
       </c>
       <c r="G50" s="217"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="215" t="s">
         <v>429</v>
       </c>
@@ -19637,7 +19639,7 @@
       </c>
       <c r="G51" s="217"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="215" t="s">
         <v>429</v>
       </c>
@@ -19655,7 +19657,7 @@
       </c>
       <c r="G52" s="217"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="215" t="s">
         <v>429</v>
       </c>
@@ -19673,7 +19675,7 @@
       </c>
       <c r="G53" s="217"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="215" t="s">
         <v>429</v>
       </c>
@@ -19691,7 +19693,7 @@
       </c>
       <c r="G54" s="217"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="215" t="s">
         <v>429</v>
       </c>
@@ -19709,7 +19711,7 @@
       </c>
       <c r="G55" s="217"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="215" t="s">
         <v>429</v>
       </c>
@@ -19727,7 +19729,7 @@
       </c>
       <c r="G56" s="217"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="215" t="s">
         <v>429</v>
       </c>
@@ -19747,7 +19749,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="215" t="s">
         <v>429</v>
       </c>
@@ -19767,7 +19769,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="215" t="s">
         <v>429</v>
       </c>
@@ -19785,7 +19787,7 @@
       </c>
       <c r="G59" s="217"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="215" t="s">
         <v>429</v>
       </c>
@@ -19803,7 +19805,7 @@
       </c>
       <c r="G60" s="217"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="215" t="s">
         <v>429</v>
       </c>
@@ -19821,7 +19823,7 @@
       </c>
       <c r="G61" s="217"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="215" t="s">
         <v>429</v>
       </c>
@@ -19839,7 +19841,7 @@
       </c>
       <c r="G62" s="217"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="215" t="s">
         <v>429</v>
       </c>
@@ -19857,7 +19859,7 @@
       </c>
       <c r="G63" s="217"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="215" t="s">
         <v>429</v>
       </c>
@@ -19895,28 +19897,28 @@
       <selection pane="topRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="0.85546875" customWidth="1"/>
-    <col min="12" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" customWidth="1"/>
+    <col min="12" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="0.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" customWidth="1"/>
-    <col min="20" max="21" width="26.85546875" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" customWidth="1"/>
+    <col min="19" max="19" width="0.88671875" customWidth="1"/>
+    <col min="20" max="21" width="26.88671875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="9" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -19948,7 +19950,7 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
     </row>
-    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="23.25" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>334</v>
       </c>
@@ -19983,7 +19985,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -20015,7 +20017,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="21" customHeight="1">
       <c r="A4" s="62" t="s">
         <v>76</v>
       </c>
@@ -20050,7 +20052,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="18">
       <c r="A5" s="125" t="s">
         <v>333</v>
       </c>
@@ -20090,7 +20092,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="18">
       <c r="A6" s="125" t="s">
         <v>444</v>
       </c>
@@ -20130,7 +20132,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="18">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -20167,7 +20169,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="65"/>
       <c r="C8" s="66"/>
@@ -20200,7 +20202,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="18">
       <c r="A9" s="76"/>
       <c r="B9" s="266"/>
       <c r="C9" s="333" t="s">
@@ -20237,7 +20239,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="14.4" customHeight="1">
       <c r="A10" s="77"/>
       <c r="B10" s="77"/>
       <c r="C10" s="334" t="s">
@@ -20290,7 +20292,7 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="77" t="s">
         <v>155</v>
       </c>
@@ -20343,7 +20345,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15" customHeight="1">
       <c r="A12" s="185" t="s">
         <v>157</v>
       </c>
@@ -20378,7 +20380,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="25.5" customHeight="1">
       <c r="A13" s="67" t="s">
         <v>158</v>
       </c>
@@ -20438,7 +20440,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="25.5" customHeight="1">
       <c r="A14" s="79" t="s">
         <v>161</v>
       </c>
@@ -20498,7 +20500,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="25.5" customHeight="1">
       <c r="A15" s="82" t="s">
         <v>166</v>
       </c>
@@ -20558,7 +20560,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="25.5" customHeight="1">
       <c r="A16" s="299" t="s">
         <v>169</v>
       </c>
@@ -20618,7 +20620,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="15" customHeight="1">
       <c r="A17" s="177"/>
       <c r="B17" s="207" t="s">
         <v>172</v>
@@ -20659,7 +20661,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15" customHeight="1">
       <c r="A18" s="185" t="s">
         <v>173</v>
       </c>
@@ -20694,7 +20696,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="25.5" customHeight="1">
       <c r="A19" s="67" t="s">
         <v>174</v>
       </c>
@@ -20754,7 +20756,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="25.5" customHeight="1">
       <c r="A20" s="79" t="s">
         <v>177</v>
       </c>
@@ -20814,7 +20816,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="25.5" customHeight="1">
       <c r="A21" s="82" t="s">
         <v>180</v>
       </c>
@@ -20854,7 +20856,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="25.5" customHeight="1">
       <c r="A22" s="299" t="s">
         <v>181</v>
       </c>
@@ -20914,7 +20916,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="15" customHeight="1">
       <c r="A23" s="177"/>
       <c r="B23" s="207" t="s">
         <v>184</v>
@@ -20955,7 +20957,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15" customHeight="1">
       <c r="A24" s="185" t="s">
         <v>185</v>
       </c>
@@ -20990,7 +20992,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="25.5" customHeight="1">
       <c r="A25" s="93" t="s">
         <v>186</v>
       </c>
@@ -21059,7 +21061,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="25.5" customHeight="1">
       <c r="A26" s="82" t="s">
         <v>189</v>
       </c>
@@ -21128,7 +21130,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="25.5" customHeight="1">
       <c r="A27" s="299" t="s">
         <v>191</v>
       </c>
@@ -21197,7 +21199,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15" customHeight="1">
       <c r="A28" s="177"/>
       <c r="B28" s="207" t="s">
         <v>194</v>
@@ -21238,7 +21240,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15" customHeight="1">
       <c r="A29" s="185" t="s">
         <v>195</v>
       </c>
@@ -21273,7 +21275,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="25.5" customHeight="1">
       <c r="A30" s="93" t="s">
         <v>196</v>
       </c>
@@ -21342,7 +21344,7 @@
       <c r="AD30" s="13"/>
       <c r="AE30" s="13"/>
     </row>
-    <row r="31" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="25.5" customHeight="1">
       <c r="A31" s="330" t="s">
         <v>199</v>
       </c>
@@ -21403,7 +21405,7 @@
       <c r="AD31" s="13"/>
       <c r="AE31" s="13"/>
     </row>
-    <row r="32" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="25.5" customHeight="1">
       <c r="A32" s="331"/>
       <c r="B32" s="82" t="s">
         <v>201</v>
@@ -21461,7 +21463,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="13"/>
     </row>
-    <row r="33" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="25.5" customHeight="1">
       <c r="A33" s="332"/>
       <c r="B33" s="82" t="s">
         <v>204</v>
@@ -21519,7 +21521,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="13"/>
     </row>
-    <row r="34" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="25.5" customHeight="1">
       <c r="A34" s="299" t="s">
         <v>205</v>
       </c>
@@ -21579,7 +21581,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="15" customHeight="1">
       <c r="A35" s="177"/>
       <c r="B35" s="207" t="s">
         <v>208</v>
@@ -21620,7 +21622,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="15" customHeight="1">
       <c r="A36" s="185" t="s">
         <v>463</v>
       </c>
@@ -21661,7 +21663,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="36.9" customHeight="1">
       <c r="A37" s="299" t="s">
         <v>210</v>
       </c>
@@ -21727,7 +21729,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="15" customHeight="1">
       <c r="A38" s="268"/>
       <c r="B38" s="268" t="s">
         <v>213</v>
@@ -21767,7 +21769,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="15" customHeight="1">
       <c r="A39" s="270"/>
       <c r="B39" s="271" t="s">
         <v>214</v>
@@ -21804,7 +21806,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="15" customHeight="1">
       <c r="A40" s="270"/>
       <c r="B40" s="270" t="s">
         <v>265</v>
@@ -21840,7 +21842,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15" customHeight="1">
       <c r="A41" s="272"/>
       <c r="B41" s="272" t="s">
         <v>264</v>
@@ -21877,7 +21879,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15" customHeight="1">
       <c r="A42" s="272"/>
       <c r="B42" s="272" t="s">
         <v>266</v>
@@ -21914,7 +21916,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15" customHeight="1">
       <c r="A43" s="98"/>
       <c r="B43" s="98"/>
       <c r="C43" s="85"/>
@@ -21946,7 +21948,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="15" customHeight="1">
       <c r="A44" s="69" t="s">
         <v>215</v>
       </c>
@@ -21980,7 +21982,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" customHeight="1">
       <c r="A45" s="70" t="s">
         <v>216</v>
       </c>
@@ -22014,7 +22016,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" customHeight="1">
       <c r="A46" s="70" t="s">
         <v>217</v>
       </c>
@@ -22048,7 +22050,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15" customHeight="1">
       <c r="A47" s="70" t="s">
         <v>218</v>
       </c>
@@ -22082,7 +22084,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15" customHeight="1">
       <c r="A48" s="70" t="s">
         <v>459</v>
       </c>
@@ -22116,7 +22118,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" customHeight="1">
       <c r="A49" s="70" t="s">
         <v>464</v>
       </c>
@@ -22150,7 +22152,7 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" customHeight="1">
       <c r="A50" s="329" t="s">
         <v>263</v>
       </c>
@@ -22185,7 +22187,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15" customHeight="1">
       <c r="A51" s="329"/>
       <c r="B51" s="329"/>
       <c r="C51" s="329"/>
@@ -22218,7 +22220,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" customHeight="1">
       <c r="A52" s="329"/>
       <c r="B52" s="329"/>
       <c r="C52" s="329"/>
@@ -22251,7 +22253,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="15" customHeight="1">
       <c r="A53" s="70"/>
       <c r="B53" s="71"/>
       <c r="C53" s="13"/>
@@ -22283,7 +22285,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" customHeight="1">
       <c r="A54" s="71" t="s">
         <v>219</v>
       </c>
@@ -22317,7 +22319,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" customHeight="1">
       <c r="A55" s="70" t="s">
         <v>220</v>
       </c>
@@ -22351,7 +22353,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" customHeight="1">
       <c r="A56" s="70" t="s">
         <v>221</v>
       </c>
@@ -22385,7 +22387,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15" customHeight="1">
       <c r="A57" s="70" t="s">
         <v>222</v>
       </c>
@@ -22419,7 +22421,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15" customHeight="1">
       <c r="A58" s="70" t="s">
         <v>223</v>
       </c>
@@ -22453,7 +22455,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" customHeight="1">
       <c r="A59" s="70" t="s">
         <v>224</v>
       </c>
@@ -22487,7 +22489,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" customHeight="1">
       <c r="A60" s="70" t="s">
         <v>225</v>
       </c>
@@ -22521,7 +22523,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="72"/>
       <c r="C61" s="13"/>
@@ -22553,7 +22555,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" customHeight="1">
       <c r="A62" s="70" t="s">
         <v>226</v>
       </c>
@@ -22587,7 +22589,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15" customHeight="1">
       <c r="A63" s="72" t="s">
         <v>227</v>
       </c>
@@ -22621,7 +22623,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -22653,7 +22655,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="15" customHeight="1">
       <c r="A65" s="73"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -22685,7 +22687,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="15" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -22717,7 +22719,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="15" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -22749,7 +22751,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -22781,7 +22783,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="15" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -22813,52 +22815,52 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="15" customHeight="1">
       <c r="F70" s="59"/>
       <c r="G70" s="74"/>
       <c r="R70" s="60"/>
     </row>
-    <row r="71" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="15" customHeight="1">
       <c r="F71" s="59"/>
       <c r="G71" s="74"/>
       <c r="R71" s="60"/>
     </row>
-    <row r="72" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="15" customHeight="1">
       <c r="F72" s="59"/>
       <c r="G72" s="74"/>
       <c r="R72" s="60"/>
     </row>
-    <row r="73" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="15" customHeight="1">
       <c r="F73" s="59"/>
       <c r="G73" s="74"/>
       <c r="R73" s="60"/>
     </row>
-    <row r="74" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="15" customHeight="1">
       <c r="F74" s="59"/>
       <c r="G74" s="74"/>
       <c r="R74" s="60"/>
     </row>
-    <row r="75" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="15" customHeight="1">
       <c r="F75" s="59"/>
       <c r="G75" s="74"/>
       <c r="R75" s="60"/>
     </row>
-    <row r="76" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="15" customHeight="1">
       <c r="F76" s="59"/>
       <c r="G76" s="74"/>
       <c r="R76" s="60"/>
     </row>
-    <row r="77" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="15" customHeight="1">
       <c r="F77" s="59"/>
       <c r="G77" s="74"/>
       <c r="R77" s="60"/>
     </row>
-    <row r="78" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="15" customHeight="1">
       <c r="F78" s="59"/>
       <c r="G78" s="74"/>
       <c r="R78" s="60"/>
     </row>
-    <row r="79" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="15" customHeight="1">
       <c r="F79" s="59"/>
       <c r="G79" s="74"/>
       <c r="R79" s="60"/>
@@ -23000,13 +23002,13 @@
       <selection activeCell="B25" sqref="B25:W25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="13" customFormat="1">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -23033,7 +23035,7 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:39" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
@@ -23062,7 +23064,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="13" customFormat="1">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -23089,7 +23091,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="339" t="s">
         <v>121</v>
@@ -23134,7 +23136,7 @@
       <c r="AL4" s="13"/>
       <c r="AM4" s="13"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="13"/>
       <c r="B5" s="340"/>
       <c r="C5" s="75" t="s">
@@ -23223,7 +23225,7 @@
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="B6" s="22" t="s">
         <v>158</v>
       </c>
@@ -23300,7 +23302,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="B7" s="22" t="s">
         <v>161</v>
       </c>
@@ -23329,7 +23331,7 @@
       <c r="Y7" s="189"/>
       <c r="Z7" s="189"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="B8" s="22" t="s">
         <v>166</v>
       </c>
@@ -23406,7 +23408,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="B9" s="22" t="s">
         <v>169</v>
       </c>
@@ -23435,7 +23437,7 @@
       <c r="Y9" s="190"/>
       <c r="Z9" s="190"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="B10" s="22" t="s">
         <v>174</v>
       </c>
@@ -23512,7 +23514,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="B11" s="22" t="s">
         <v>177</v>
       </c>
@@ -23543,7 +23545,7 @@
       <c r="Y11" s="189"/>
       <c r="Z11" s="189"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="B12" s="22" t="s">
         <v>180</v>
       </c>
@@ -23572,7 +23574,7 @@
       <c r="Y12" s="189"/>
       <c r="Z12" s="189"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="B13" s="22" t="s">
         <v>181</v>
       </c>
@@ -23649,7 +23651,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="B14" s="22" t="s">
         <v>186</v>
       </c>
@@ -23726,7 +23728,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="B15" s="22" t="s">
         <v>189</v>
       </c>
@@ -23803,7 +23805,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="B16" s="22" t="s">
         <v>191</v>
       </c>
@@ -23880,7 +23882,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17" s="22" t="s">
         <v>196</v>
       </c>
@@ -23957,7 +23959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="B18" s="22" t="s">
         <v>199</v>
       </c>
@@ -24034,7 +24036,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19" s="22" t="s">
         <v>254</v>
       </c>
@@ -24091,7 +24093,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="21.6">
       <c r="B20" s="22" t="s">
         <v>257</v>
       </c>
@@ -24168,7 +24170,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="22" t="s">
         <v>205</v>
       </c>
@@ -24245,7 +24247,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="15" thickBot="1">
       <c r="B22" s="191" t="s">
         <v>210</v>
       </c>
@@ -24274,7 +24276,7 @@
       <c r="Y22" s="192"/>
       <c r="Z22" s="192"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="193" t="s">
         <v>209</v>
       </c>
@@ -24351,7 +24353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24" s="195" t="s">
         <v>213</v>
       </c>
@@ -24428,7 +24430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25" s="342" t="s">
         <v>149</v>
       </c>
@@ -24472,18 +24474,18 @@
   </sheetPr>
   <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="13" customFormat="1">
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -24492,7 +24494,7 @@
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
         <v>465</v>
       </c>
@@ -24504,7 +24506,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="13" customFormat="1">
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
@@ -24513,7 +24515,7 @@
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="339" t="s">
         <v>466</v>
@@ -24543,7 +24545,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="13"/>
       <c r="B5" s="340"/>
       <c r="C5" s="340"/>
@@ -24579,7 +24581,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="B6" s="317" t="s">
         <v>467</v>
       </c>
@@ -24605,7 +24607,7 @@
         <v>2.1505292610683502</v>
       </c>
     </row>
-    <row r="7" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="B7" s="22" t="s">
         <v>468</v>
       </c>
@@ -24637,7 +24639,7 @@
         <v>3.1505292610683502</v>
       </c>
     </row>
-    <row r="8" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="B8" s="22" t="s">
         <v>469</v>
       </c>
@@ -24669,7 +24671,7 @@
         <v>4.1505292610683497</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="B9" s="22" t="s">
         <v>470</v>
       </c>
@@ -24701,7 +24703,7 @@
         <v>5.1505292610683497</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="B10" s="317" t="s">
         <v>467</v>
       </c>
@@ -24715,7 +24717,7 @@
       <c r="H10" s="189"/>
       <c r="I10" s="189"/>
     </row>
-    <row r="11" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="B11" s="22" t="s">
         <v>468</v>
       </c>
@@ -24747,7 +24749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="B12" s="22" t="s">
         <v>469</v>
       </c>
@@ -24779,7 +24781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="B13" s="22" t="s">
         <v>470</v>
       </c>
@@ -24811,7 +24813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="B14" s="317" t="s">
         <v>467</v>
       </c>
@@ -24837,7 +24839,7 @@
         <v>20.785368249280001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="B15" s="22" t="s">
         <v>468</v>
       </c>
@@ -24869,7 +24871,7 @@
         <v>21.785368249280001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="B16" s="22" t="s">
         <v>469</v>
       </c>
@@ -24901,7 +24903,7 @@
         <v>22.785368249280001</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="22" t="s">
         <v>470</v>
       </c>
@@ -24933,7 +24935,7 @@
         <v>23.785368249280001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="317" t="s">
         <v>467</v>
       </c>
@@ -24947,7 +24949,7 @@
       <c r="H18" s="189"/>
       <c r="I18" s="189"/>
     </row>
-    <row r="19" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="22" t="s">
         <v>468</v>
       </c>
@@ -24979,7 +24981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="22" t="s">
         <v>469</v>
       </c>
@@ -25011,7 +25013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="22" t="s">
         <v>470</v>
       </c>
@@ -25043,7 +25045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="317" t="s">
         <v>467</v>
       </c>
@@ -25069,7 +25071,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="22" t="s">
         <v>468</v>
       </c>
@@ -25101,7 +25103,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="22" t="s">
         <v>469</v>
       </c>
@@ -25133,7 +25135,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="22" t="s">
         <v>470</v>
       </c>
@@ -25165,7 +25167,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="317" t="s">
         <v>467</v>
       </c>
@@ -25191,7 +25193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="22" t="s">
         <v>468</v>
       </c>
@@ -25223,7 +25225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="22" t="s">
         <v>469</v>
       </c>
@@ -25255,7 +25257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="22" t="s">
         <v>470</v>
       </c>
@@ -25287,7 +25289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="317" t="s">
         <v>467</v>
       </c>
@@ -25301,7 +25303,7 @@
       <c r="H30" s="189"/>
       <c r="I30" s="189"/>
     </row>
-    <row r="31" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="22" t="s">
         <v>468</v>
       </c>
@@ -25333,7 +25335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="22" t="s">
         <v>469</v>
       </c>
@@ -25365,7 +25367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="22" t="s">
         <v>470</v>
       </c>
@@ -25397,7 +25399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="317" t="s">
         <v>467</v>
       </c>
@@ -25423,7 +25425,7 @@
         <v>12.339149567220399</v>
       </c>
     </row>
-    <row r="35" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="22" t="s">
         <v>468</v>
       </c>
@@ -25455,7 +25457,7 @@
         <v>13.339149567220399</v>
       </c>
     </row>
-    <row r="36" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="22" t="s">
         <v>469</v>
       </c>
@@ -25487,7 +25489,7 @@
         <v>14.339149567220399</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="22" t="s">
         <v>470</v>
       </c>
@@ -25519,7 +25521,7 @@
         <v>15.339149567220399</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="317" t="s">
         <v>467</v>
       </c>
@@ -25545,7 +25547,7 @@
         <v>4.4609675441624299</v>
       </c>
     </row>
-    <row r="39" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="22" t="s">
         <v>468</v>
       </c>
@@ -25577,7 +25579,7 @@
         <v>5.4609675441624299</v>
       </c>
     </row>
-    <row r="40" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="22" t="s">
         <v>469</v>
       </c>
@@ -25609,7 +25611,7 @@
         <v>6.4609675441624299</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="22" t="s">
         <v>470</v>
       </c>
@@ -25641,7 +25643,7 @@
         <v>7.4609675441624299</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="317" t="s">
         <v>467</v>
       </c>
@@ -25667,7 +25669,7 @@
         <v>98.803670013585304</v>
       </c>
     </row>
-    <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="22" t="s">
         <v>468</v>
       </c>
@@ -25699,7 +25701,7 @@
         <v>99.803670013585304</v>
       </c>
     </row>
-    <row r="44" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="22" t="s">
         <v>469</v>
       </c>
@@ -25731,7 +25733,7 @@
         <v>100.8036700135853</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="22" t="s">
         <v>470</v>
       </c>
@@ -25763,7 +25765,7 @@
         <v>101.8036700135853</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="317" t="s">
         <v>467</v>
       </c>
@@ -25789,7 +25791,7 @@
         <v>80.504821017838694</v>
       </c>
     </row>
-    <row r="47" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="22" t="s">
         <v>468</v>
       </c>
@@ -25821,7 +25823,7 @@
         <v>81.504821017838694</v>
       </c>
     </row>
-    <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="22" t="s">
         <v>469</v>
       </c>
@@ -25853,7 +25855,7 @@
         <v>82.504821017838694</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="22" t="s">
         <v>470</v>
       </c>
@@ -25885,7 +25887,7 @@
         <v>83.504821017838694</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="317" t="s">
         <v>467</v>
       </c>
@@ -25911,7 +25913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="22" t="s">
         <v>468</v>
       </c>
@@ -25943,7 +25945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="22" t="s">
         <v>469</v>
       </c>
@@ -25975,7 +25977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="22" t="s">
         <v>470</v>
       </c>
@@ -26007,7 +26009,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="317" t="s">
         <v>467</v>
       </c>
@@ -26033,7 +26035,7 @@
         <v>10.358288140000001</v>
       </c>
     </row>
-    <row r="55" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="22" t="s">
         <v>468</v>
       </c>
@@ -26065,7 +26067,7 @@
         <v>11.358288140000001</v>
       </c>
     </row>
-    <row r="56" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="22" t="s">
         <v>469</v>
       </c>
@@ -26097,7 +26099,7 @@
         <v>12.358288140000001</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="22" t="s">
         <v>470</v>
       </c>
@@ -26129,7 +26131,7 @@
         <v>13.358288140000001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="317" t="s">
         <v>467</v>
       </c>
@@ -26155,7 +26157,7 @@
         <v>6.8542512999999996</v>
       </c>
     </row>
-    <row r="59" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="22" t="s">
         <v>468</v>
       </c>
@@ -26187,7 +26189,7 @@
         <v>7.8542512999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="22" t="s">
         <v>469</v>
       </c>
@@ -26219,7 +26221,7 @@
         <v>8.8542512999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="22" t="s">
         <v>470</v>
       </c>
@@ -26251,7 +26253,7 @@
         <v>9.8542512999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="317" t="s">
         <v>467</v>
       </c>
@@ -26277,7 +26279,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="22" t="s">
         <v>468</v>
       </c>
@@ -26309,7 +26311,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="22" t="s">
         <v>469</v>
       </c>
@@ -26341,7 +26343,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="22" t="s">
         <v>470</v>
       </c>
@@ -26373,7 +26375,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="317" t="s">
         <v>467</v>
       </c>
@@ -26399,7 +26401,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="22" t="s">
         <v>468</v>
       </c>
@@ -26431,7 +26433,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="22" t="s">
         <v>469</v>
       </c>
@@ -26463,7 +26465,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="B69" s="22" t="s">
         <v>470</v>
       </c>
@@ -26495,7 +26497,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9">
       <c r="B70" s="317" t="s">
         <v>467</v>
       </c>
@@ -26509,7 +26511,7 @@
       <c r="H70" s="189"/>
       <c r="I70" s="189"/>
     </row>
-    <row r="71" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="B71" s="22" t="s">
         <v>468</v>
       </c>
@@ -26541,7 +26543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9">
       <c r="B72" s="22" t="s">
         <v>469</v>
       </c>
@@ -26573,7 +26575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9">
       <c r="B73" s="22" t="s">
         <v>470</v>
       </c>
@@ -26605,7 +26607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9">
       <c r="B74" s="317" t="s">
         <v>467</v>
       </c>
@@ -26631,7 +26633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9">
       <c r="B75" s="22" t="s">
         <v>468</v>
       </c>
@@ -26663,7 +26665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9">
       <c r="B76" s="22" t="s">
         <v>469</v>
       </c>
@@ -26695,7 +26697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9">
       <c r="B77" s="22" t="s">
         <v>470</v>
       </c>
@@ -26727,7 +26729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9">
       <c r="B78" s="317" t="s">
         <v>467</v>
       </c>
@@ -26753,7 +26755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9">
       <c r="B79" s="22" t="s">
         <v>468</v>
       </c>
@@ -26785,7 +26787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9">
       <c r="B80" s="22" t="s">
         <v>469</v>
       </c>
@@ -26817,7 +26819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="23.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9">
       <c r="B81" s="22" t="s">
         <v>470</v>
       </c>
@@ -26849,7 +26851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9">
       <c r="C83" s="316" t="s">
         <v>149</v>
       </c>
@@ -26879,13 +26881,13 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="25" width="9.140625" style="13"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="25" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="245"/>
       <c r="B1" s="245"/>
       <c r="C1" s="245"/>
@@ -26911,8 +26913,8 @@
       <c r="W1" s="246"/>
       <c r="X1" s="246"/>
     </row>
-    <row r="21" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:20" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="33.75" customHeight="1"/>
+    <row r="22" spans="2:20" ht="162" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="197" t="str">
         <f>IF(UHC_Inter!$A3=0,"",UHC_Inter!$A3)</f>
@@ -26975,10 +26977,10 @@
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="1"/>
     </row>
   </sheetData>
@@ -26998,12 +27000,12 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45">
@@ -27031,7 +27033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="45" t="s">
         <v>159</v>
       </c>
@@ -27070,7 +27072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="284" t="s">
         <v>162</v>
       </c>
@@ -27107,7 +27109,7 @@
       </c>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="285" t="s">
         <v>167</v>
       </c>
@@ -27143,7 +27145,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="285" t="s">
         <v>170</v>
       </c>
@@ -27179,7 +27181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="45" t="s">
         <v>175</v>
       </c>
@@ -27215,7 +27217,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="284" t="s">
         <v>178</v>
       </c>
@@ -27251,7 +27253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="285" t="s">
         <v>182</v>
       </c>
@@ -27287,7 +27289,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="286" t="s">
         <v>187</v>
       </c>
@@ -27323,7 +27325,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="285" t="s">
         <v>190</v>
       </c>
@@ -27359,7 +27361,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="284" t="s">
         <v>192</v>
       </c>
@@ -27395,7 +27397,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="286" t="s">
         <v>197</v>
       </c>
@@ -27431,7 +27433,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="285" t="s">
         <v>200</v>
       </c>
@@ -27467,7 +27469,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="284" t="s">
         <v>206</v>
       </c>
@@ -27503,7 +27505,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="284"/>
       <c r="B16" s="49">
         <v>14</v>
@@ -27537,7 +27539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="22"/>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -27549,7 +27551,7 @@
       <c r="I17" s="51"/>
       <c r="J17" s="52"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="22"/>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -27561,7 +27563,7 @@
       <c r="I18" s="51"/>
       <c r="J18" s="52"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="22"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
@@ -27573,57 +27575,57 @@
       <c r="I19" s="51"/>
       <c r="J19" s="52"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="B20" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="196"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="196"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="196"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="196"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="196"/>
       <c r="C27" s="93"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="196"/>
       <c r="C28" s="82"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="196"/>
       <c r="C29" s="82"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="196"/>
       <c r="C30" s="82"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="196"/>
       <c r="C31" s="79"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="196"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="196"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="196"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="196"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="196"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="196"/>
     </row>
   </sheetData>
@@ -27648,31 +27650,31 @@
       <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="17" customWidth="1"/>
-    <col min="9" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="0.85546875" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="0.88671875" style="17" customWidth="1"/>
+    <col min="9" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" customWidth="1"/>
+    <col min="12" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.88671875" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="0.85546875" customWidth="1"/>
-    <col min="18" max="18" width="26.85546875" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="48.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" style="13"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="0.88671875" customWidth="1"/>
+    <col min="18" max="18" width="26.88671875" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="48.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="9" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -27701,7 +27703,7 @@
       <c r="AD1" s="13"/>
       <c r="AE1" s="13"/>
     </row>
-    <row r="2" spans="1:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="23.25" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>335</v>
       </c>
@@ -27732,7 +27734,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -27761,7 +27763,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="21" customHeight="1">
       <c r="A4" s="62" t="s">
         <v>76</v>
       </c>
@@ -27796,7 +27798,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="162" t="s">
         <v>293</v>
       </c>
@@ -27809,11 +27811,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="343" t="s">
+      <c r="H5" s="347" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
+      <c r="I5" s="348"/>
+      <c r="J5" s="348"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -27836,7 +27838,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="162" t="s">
         <v>445</v>
       </c>
@@ -27849,11 +27851,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="343" t="s">
+      <c r="H6" s="347" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="344"/>
-      <c r="J6" s="344"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -27876,7 +27878,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="13"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="267" t="s">
         <v>449</v>
       </c>
@@ -27889,11 +27891,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="343" t="s">
+      <c r="H7" s="347" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="344"/>
-      <c r="J7" s="344"/>
+      <c r="I7" s="348"/>
+      <c r="J7" s="348"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
@@ -27916,7 +27918,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="267"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -27949,32 +27951,32 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="346" t="s">
+    <row r="9" spans="1:31" ht="15" customHeight="1">
+      <c r="A9" s="350" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="346"/>
-      <c r="C9" s="348" t="s">
+      <c r="B9" s="350"/>
+      <c r="C9" s="346" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="348"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
+      <c r="D9" s="346"/>
+      <c r="E9" s="346"/>
+      <c r="F9" s="346"/>
+      <c r="G9" s="346"/>
       <c r="H9" s="156"/>
-      <c r="I9" s="345" t="s">
+      <c r="I9" s="349" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="345"/>
-      <c r="N9" s="345"/>
-      <c r="O9" s="345"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="345"/>
-      <c r="R9" s="345"/>
-      <c r="S9" s="345"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="349"/>
+      <c r="M9" s="349"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="349"/>
+      <c r="P9" s="349"/>
+      <c r="Q9" s="349"/>
+      <c r="R9" s="349"/>
+      <c r="S9" s="349"/>
       <c r="T9" s="115"/>
       <c r="U9" s="115"/>
       <c r="V9" s="115"/>
@@ -27988,48 +27990,48 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="347" t="s">
+    <row r="10" spans="1:31">
+      <c r="A10" s="344" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="344" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="350" t="s">
+      <c r="C10" s="345" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="347" t="s">
+      <c r="D10" s="344" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="350" t="s">
+      <c r="E10" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="350" t="s">
+      <c r="F10" s="345" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="347" t="s">
+      <c r="G10" s="344" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="127"/>
-      <c r="I10" s="349" t="s">
+      <c r="I10" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="J10" s="349"/>
+      <c r="J10" s="343"/>
       <c r="K10" s="132"/>
-      <c r="L10" s="349" t="s">
+      <c r="L10" s="343" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="349"/>
+      <c r="M10" s="343"/>
       <c r="N10" s="132"/>
-      <c r="O10" s="349" t="s">
+      <c r="O10" s="343" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="349"/>
+      <c r="P10" s="343"/>
       <c r="Q10" s="132"/>
-      <c r="R10" s="349" t="s">
+      <c r="R10" s="343" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="349"/>
+      <c r="S10" s="343"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -28038,14 +28040,14 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="347"/>
-      <c r="B11" s="347"/>
-      <c r="C11" s="350"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="350"/>
-      <c r="G11" s="347"/>
+    <row r="11" spans="1:31">
+      <c r="A11" s="344"/>
+      <c r="B11" s="344"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="344"/>
       <c r="H11" s="127"/>
       <c r="I11" s="131">
         <v>2018</v>
@@ -28085,7 +28087,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="116" t="s">
         <v>271</v>
       </c>
@@ -28118,7 +28120,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15" customHeight="1">
       <c r="A13" s="135" t="s">
         <v>300</v>
       </c>
@@ -28179,7 +28181,7 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
     </row>
-    <row r="14" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="30.6">
       <c r="A14" s="140" t="s">
         <v>302</v>
       </c>
@@ -28240,7 +28242,7 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
     </row>
-    <row r="15" spans="1:31" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="30.6">
       <c r="A15" s="140" t="s">
         <v>304</v>
       </c>
@@ -28301,7 +28303,7 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="140" t="s">
         <v>305</v>
       </c>
@@ -28362,7 +28364,7 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="140" t="s">
         <v>306</v>
       </c>
@@ -28423,7 +28425,7 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="13"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15" customHeight="1">
       <c r="A18" s="140" t="s">
         <v>307</v>
       </c>
@@ -28484,7 +28486,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="13"/>
     </row>
-    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="15" customHeight="1">
       <c r="A19" s="140" t="s">
         <v>308</v>
       </c>
@@ -28545,7 +28547,7 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="13"/>
     </row>
-    <row r="20" spans="1:31" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="20.399999999999999">
       <c r="A20" s="140" t="s">
         <v>309</v>
       </c>
@@ -28606,7 +28608,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="20.399999999999999">
       <c r="A21" s="140" t="s">
         <v>310</v>
       </c>
@@ -28667,7 +28669,7 @@
       <c r="AD21" s="13"/>
       <c r="AE21" s="13"/>
     </row>
-    <row r="22" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="140" t="s">
         <v>311</v>
       </c>
@@ -28728,7 +28730,7 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="140" t="s">
         <v>312</v>
       </c>
@@ -28789,7 +28791,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15" customHeight="1">
       <c r="A24" s="140" t="s">
         <v>313</v>
       </c>
@@ -28850,7 +28852,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
     </row>
-    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="15" customHeight="1">
       <c r="A25" s="140" t="s">
         <v>314</v>
       </c>
@@ -28911,7 +28913,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="120"/>
       <c r="B26" s="206" t="s">
         <v>292</v>
@@ -28962,7 +28964,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="116" t="s">
         <v>272</v>
       </c>
@@ -28995,7 +28997,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="13"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="140" t="s">
         <v>273</v>
       </c>
@@ -29049,7 +29051,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="140" t="s">
         <v>276</v>
       </c>
@@ -29105,7 +29107,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
     </row>
-    <row r="30" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="153" customFormat="1">
       <c r="A30" s="147" t="s">
         <v>295</v>
       </c>
@@ -29148,7 +29150,7 @@
       <c r="AD30" s="151"/>
       <c r="AE30" s="151"/>
     </row>
-    <row r="31" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="153" customFormat="1">
       <c r="A31" s="147" t="s">
         <v>295</v>
       </c>
@@ -29191,7 +29193,7 @@
       <c r="AD31" s="151"/>
       <c r="AE31" s="151"/>
     </row>
-    <row r="32" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="153" customFormat="1">
       <c r="A32" s="147" t="s">
         <v>296</v>
       </c>
@@ -29234,7 +29236,7 @@
       <c r="AD32" s="151"/>
       <c r="AE32" s="151"/>
     </row>
-    <row r="33" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="153" customFormat="1">
       <c r="A33" s="147" t="s">
         <v>296</v>
       </c>
@@ -29277,7 +29279,7 @@
       <c r="AD33" s="151"/>
       <c r="AE33" s="151"/>
     </row>
-    <row r="34" spans="1:31" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="153" customFormat="1">
       <c r="A34" s="147" t="s">
         <v>297</v>
       </c>
@@ -29320,7 +29322,7 @@
       <c r="AD34" s="151"/>
       <c r="AE34" s="151"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="140" t="s">
         <v>279</v>
       </c>
@@ -29355,7 +29357,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="140" t="s">
         <v>280</v>
       </c>
@@ -29390,7 +29392,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="140" t="s">
         <v>280</v>
       </c>
@@ -29425,7 +29427,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="120"/>
       <c r="B38" s="206" t="s">
         <v>294</v>
@@ -29470,7 +29472,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" spans="1:31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="39.9" customHeight="1">
       <c r="A39" s="116" t="s">
         <v>281</v>
       </c>
@@ -29503,7 +29505,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="20.399999999999999">
       <c r="A40" s="140" t="s">
         <v>282</v>
       </c>
@@ -29556,7 +29558,7 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="13"/>
     </row>
-    <row r="41" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="20.399999999999999">
       <c r="A41" s="140" t="s">
         <v>285</v>
       </c>
@@ -29609,7 +29611,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="13"/>
     </row>
-    <row r="42" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="20.399999999999999">
       <c r="A42" s="140" t="s">
         <v>286</v>
       </c>
@@ -29662,7 +29664,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="13"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="120"/>
       <c r="B43" s="206" t="s">
         <v>441</v>
@@ -29707,7 +29709,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="13"/>
     </row>
-    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="15" customHeight="1">
       <c r="A44" s="116"/>
       <c r="B44" s="208" t="s">
         <v>287</v>
@@ -29749,7 +29751,7 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="13"/>
     </row>
-    <row r="45" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15" customHeight="1">
       <c r="A45" s="116"/>
       <c r="B45" s="208" t="s">
         <v>288</v>
@@ -29785,7 +29787,7 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="13"/>
     </row>
-    <row r="46" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" customHeight="1">
       <c r="A46" s="116"/>
       <c r="B46" s="209" t="s">
         <v>265</v>
@@ -29821,7 +29823,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="13"/>
     </row>
-    <row r="47" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="15" customHeight="1">
       <c r="A47" s="116"/>
       <c r="B47" s="208" t="s">
         <v>289</v>
@@ -29857,7 +29859,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="13"/>
     </row>
-    <row r="48" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15" customHeight="1">
       <c r="A48" s="116"/>
       <c r="B48" s="208" t="s">
         <v>299</v>
@@ -29893,7 +29895,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="13"/>
     </row>
-    <row r="49" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15" customHeight="1">
       <c r="B49" s="59"/>
       <c r="C49" s="113"/>
       <c r="D49" s="113"/>
@@ -29920,7 +29922,7 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="13"/>
     </row>
-    <row r="50" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15" customHeight="1">
       <c r="A50" s="60" t="s">
         <v>298</v>
       </c>
@@ -29950,7 +29952,7 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="13"/>
     </row>
-    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="15" customHeight="1">
       <c r="A51" s="60" t="s">
         <v>290</v>
       </c>
@@ -29980,7 +29982,7 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="13"/>
     </row>
-    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15" customHeight="1">
       <c r="A52" s="114" t="s">
         <v>291</v>
       </c>
@@ -29992,7 +29994,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="15" customHeight="1">
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
       <c r="AA53" s="13"/>
@@ -30001,7 +30003,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15" customHeight="1">
       <c r="V54" s="68"/>
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
@@ -30011,7 +30013,7 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="13"/>
     </row>
-    <row r="55" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15" customHeight="1">
       <c r="V55" s="68"/>
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
@@ -30021,7 +30023,7 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="13"/>
     </row>
-    <row r="56" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15" customHeight="1">
       <c r="V56" s="68"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
@@ -30031,7 +30033,7 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="13"/>
     </row>
-    <row r="57" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15" customHeight="1">
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
@@ -30040,7 +30042,7 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="13"/>
     </row>
-    <row r="58" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15" customHeight="1">
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
@@ -30049,7 +30051,7 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="13"/>
     </row>
-    <row r="59" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15" customHeight="1">
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
@@ -30058,7 +30060,7 @@
       <c r="AD59" s="13"/>
       <c r="AE59" s="13"/>
     </row>
-    <row r="60" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15" customHeight="1">
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
@@ -30067,7 +30069,7 @@
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15" customHeight="1">
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
@@ -30076,7 +30078,7 @@
       <c r="AD61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15" customHeight="1">
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
       <c r="AA62" s="13"/>
@@ -30085,7 +30087,7 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="13"/>
     </row>
-    <row r="63" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15" customHeight="1">
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
       <c r="AA63" s="13"/>
@@ -30094,7 +30096,7 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="13"/>
     </row>
-    <row r="64" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15" customHeight="1">
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
@@ -30103,7 +30105,7 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="13"/>
     </row>
-    <row r="65" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="22:31" ht="15" customHeight="1">
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
       <c r="AA65" s="13"/>
@@ -30112,7 +30114,7 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="13"/>
     </row>
-    <row r="66" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="22:31" ht="15" customHeight="1">
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
       <c r="AA66" s="13"/>
@@ -30121,7 +30123,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="22:31" ht="15" customHeight="1">
       <c r="V67" s="45"/>
       <c r="W67" s="45"/>
       <c r="X67" s="45"/>
@@ -30133,7 +30135,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="22:31" ht="15" customHeight="1">
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
       <c r="AA68" s="13"/>
@@ -30142,7 +30144,7 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="13"/>
     </row>
-    <row r="69" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="22:31" ht="15" customHeight="1">
       <c r="V69" s="45"/>
       <c r="W69" s="45"/>
       <c r="X69" s="45"/>
@@ -30154,7 +30156,7 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="13"/>
     </row>
-    <row r="70" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="22:31" ht="15" customHeight="1">
       <c r="Y70" s="13"/>
       <c r="Z70" s="13"/>
       <c r="AA70" s="13"/>
@@ -30163,7 +30165,7 @@
       <c r="AD70" s="13"/>
       <c r="AE70" s="13"/>
     </row>
-    <row r="71" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="22:31" ht="15" customHeight="1">
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
       <c r="AA71" s="13"/>
@@ -30172,7 +30174,7 @@
       <c r="AD71" s="13"/>
       <c r="AE71" s="13"/>
     </row>
-    <row r="72" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="22:31" ht="15" customHeight="1">
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
       <c r="AA72" s="13"/>
@@ -30181,7 +30183,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="22:31" ht="15" customHeight="1">
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
       <c r="AA73" s="13"/>
@@ -30190,18 +30192,28 @@
       <c r="AD73" s="13"/>
       <c r="AE73" s="13"/>
     </row>
-    <row r="74" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="22:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="22:31" ht="15" customHeight="1"/>
+    <row r="75" spans="22:31" ht="15" customHeight="1"/>
+    <row r="76" spans="22:31" ht="15" customHeight="1"/>
+    <row r="77" spans="22:31" ht="15" customHeight="1"/>
+    <row r="78" spans="22:31" ht="15" customHeight="1"/>
+    <row r="79" spans="22:31" ht="15" customHeight="1"/>
+    <row r="80" spans="22:31" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -30209,16 +30221,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -30253,7 +30255,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30261,6 +30263,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -30471,22 +30488,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30503,29 +30530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73295E0-BB41-4BEE-91B8-DDF87029EE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE27512-4F22-4D58-BC9C-37D9C1889F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" activeTab="15" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" activeTab="12" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -1384,47 +1384,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Please refer to the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>GPW13 Methods report</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> and the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Triple Billion Dashboard FAQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
     <t>Indicators for measuring Triple Billion</t>
   </si>
   <si>
@@ -1728,9 +1687,6 @@
     </r>
   </si>
   <si>
-    <t>Please report any issues or feedback to *** find email address **** </t>
-  </si>
-  <si>
     <t>- Year: even if the time series might contain more data, only latest reported, baseline and last projected years are reported in the summary.</t>
   </si>
   <si>
@@ -1780,6 +1736,12 @@
   <si>
     <t>Raw values *</t>
   </si>
+  <si>
+    <t>Please refer to the GPW13 Methods report and the Triple Billion Dashboard FAQ. </t>
+  </si>
+  <si>
+    <t>Please report any issues or feedback to robsona@who.int</t>
+  </si>
 </sst>
 </file>
 
@@ -1790,7 +1752,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,13 +2071,6 @@
       <u/>
       <sz val="10"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3195,7 +3150,7 @@
     <xf numFmtId="1" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3270,7 +3225,7 @@
     <xf numFmtId="2" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="48" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="47" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3300,10 +3255,10 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="50" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="49" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3361,7 +3316,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="51" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3476,7 +3431,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3501,33 +3456,33 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3571,28 +3526,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="53" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3602,38 +3557,38 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4331,7 +4286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7160CD69-DC23-4C93-9646-E6720F7771E8}" type="CELLRANGE">
+                    <a:fld id="{96019CA0-3C60-48C0-9C65-8DA2AA223DDE}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4392,7 +4347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C85A954-3C38-480A-BD2A-EE59D0B07BDD}" type="CELLRANGE">
+                    <a:fld id="{0972DEC8-1C09-472C-96AD-45FDC41DE24A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4453,7 +4408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C26C6560-9176-4C70-8F33-F5CDB4349990}" type="CELLRANGE">
+                    <a:fld id="{B66A2E3A-508A-4F51-A1DE-DD0F1BE7C364}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4487,7 +4442,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{722FE44D-9366-4E42-8930-5AC3E8E5FB81}" type="CELLRANGE">
+                    <a:fld id="{666E3DE9-37B9-40BD-92A9-B85CA3074D3D}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4548,7 +4503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8341BBB6-A374-47F6-B922-5AD13586B6D9}" type="CELLRANGE">
+                    <a:fld id="{DF895504-8239-4ACC-9C81-1C7572F1E12B}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4582,7 +4537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83C637D6-523D-4C20-A61A-8FD56AA730C5}" type="CELLRANGE">
+                    <a:fld id="{35F5C970-41C8-482C-9BBE-483BE5E48FD2}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4616,7 +4571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{684E7D68-37E8-45BA-A083-EA071DB90FC2}" type="CELLRANGE">
+                    <a:fld id="{B44A7A68-8A72-4E24-8449-7C05FB31383F}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4650,7 +4605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2449F8-6F34-480A-A350-359EF9CE4872}" type="CELLRANGE">
+                    <a:fld id="{A54D54EE-229A-40BC-823B-154EE78FDF43}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4684,7 +4639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{293B65C5-70ED-40BE-A926-3368EBE9BAC7}" type="CELLRANGE">
+                    <a:fld id="{15FDF1A3-0A26-4E81-B77A-FC816A7F1814}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4718,7 +4673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87A8520D-BA2A-450B-AB21-BB3913039E04}" type="CELLRANGE">
+                    <a:fld id="{274EAD34-2666-46EB-8E3F-925B9559F71D}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4752,7 +4707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F93D2134-1FB2-4B7B-8C30-68E3D210CFFC}" type="CELLRANGE">
+                    <a:fld id="{D9369708-59D4-4AA9-8227-38A9F4766B4A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6514,7 +6469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33142955-95E5-4520-B33C-27C3ADD4E1A6}" type="CELLRANGE">
+                    <a:fld id="{0C5C5895-9B94-40AB-8BDE-4B9E2ED9AEA0}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6575,7 +6530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FA17EFF-B53D-425D-BD13-6343D76B13EA}" type="CELLRANGE">
+                    <a:fld id="{F31142D8-7CF0-41EB-8A51-63D7A0D09C28}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6636,7 +6591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2270D2E7-70E6-4959-ABD2-C93729891C53}" type="CELLRANGE">
+                    <a:fld id="{6491CDAA-B150-4A09-883A-9247AC28BA03}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6670,7 +6625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0172E69-4866-4D1C-B93F-B70243CADE6F}" type="CELLRANGE">
+                    <a:fld id="{4C70E23F-B0CE-4177-877A-94BB3B25A085}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6731,7 +6686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7A4EB83-30B8-4377-A2DC-D0CBAA4258B5}" type="CELLRANGE">
+                    <a:fld id="{2346E93F-4190-4E9A-9944-E8D82A64AF0E}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6765,7 +6720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6C673CF-0516-44FA-8229-7461ACF3E1DD}" type="CELLRANGE">
+                    <a:fld id="{148F5586-69E7-4DA4-9750-9EE288958411}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6799,7 +6754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFF9E5DD-5155-4912-B450-CBCEA29C727E}" type="CELLRANGE">
+                    <a:fld id="{AEDE0954-4ABE-4125-8075-B1EBD5815B50}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6833,7 +6788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{600A38E3-04E2-4490-B71F-668396B2411A}" type="CELLRANGE">
+                    <a:fld id="{A63EFEBF-C644-4F22-A5E7-23A5A87130BC}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6867,7 +6822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{803734AE-F64E-49FD-B922-DB097A15AF65}" type="CELLRANGE">
+                    <a:fld id="{4FC67908-4650-42CA-A2B2-9A42D8572EB1}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6901,7 +6856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F3EC613-E340-4ECF-ABFD-BDC5CFC66251}" type="CELLRANGE">
+                    <a:fld id="{89B870E9-46B1-49F6-A222-CD579ED7E615}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6935,7 +6890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21E89E01-AB90-46C5-98E4-3F976FB26679}" type="CELLRANGE">
+                    <a:fld id="{DBE6113F-5798-4DE5-8D82-9BFB7B99A2A4}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6969,7 +6924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90A77F2B-8EE3-4270-8FB6-89E117650D33}" type="CELLRANGE">
+                    <a:fld id="{8C3387C0-D4E0-4DB6-A396-41BA1B974A19}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7003,7 +6958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA75D52-9E6A-4DA8-9063-EB378110A04C}" type="CELLRANGE">
+                    <a:fld id="{5D7B983C-0694-4DE6-9517-014133D7E0D7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7890,7 +7845,7 @@
   <dimension ref="B1:O47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:M34"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7903,668 +7858,668 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:15" ht="36" customHeight="1">
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="325" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
-      <c r="K2" s="322"/>
-      <c r="L2" s="322"/>
-      <c r="M2" s="322"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="325"/>
+      <c r="G2" s="325"/>
+      <c r="H2" s="325"/>
+      <c r="I2" s="325"/>
+      <c r="J2" s="325"/>
+      <c r="K2" s="325"/>
+      <c r="L2" s="325"/>
+      <c r="M2" s="325"/>
       <c r="N2" s="60"/>
       <c r="O2" s="60"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
-      <c r="B3" s="323" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="323"/>
-      <c r="K3" s="323"/>
-      <c r="L3" s="323"/>
-      <c r="M3" s="323"/>
+      <c r="B3" s="326" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
       <c r="N3" s="199"/>
       <c r="O3" s="199"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="322" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="319"/>
-      <c r="J4" s="319"/>
-      <c r="K4" s="319"/>
-      <c r="L4" s="319"/>
-      <c r="M4" s="319"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
       <c r="N4" s="200"/>
       <c r="O4" s="200"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="319" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
       <c r="N5" s="199"/>
       <c r="O5" s="199"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1">
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="324" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
       <c r="N6" s="201"/>
       <c r="O6" s="201"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1">
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="324" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="318"/>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="318"/>
-      <c r="M7" s="318"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="324"/>
+      <c r="L7" s="324"/>
+      <c r="M7" s="324"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
     </row>
     <row r="8" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="324" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="318"/>
-      <c r="D8" s="318"/>
-      <c r="E8" s="318"/>
-      <c r="F8" s="318"/>
-      <c r="G8" s="318"/>
-      <c r="H8" s="318"/>
-      <c r="I8" s="318"/>
-      <c r="J8" s="318"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="318"/>
-      <c r="M8" s="318"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="324"/>
+      <c r="K8" s="324"/>
+      <c r="L8" s="324"/>
+      <c r="M8" s="324"/>
       <c r="N8" s="201"/>
       <c r="O8" s="201"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1">
-      <c r="B9" s="320" t="s">
+      <c r="B9" s="319" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="320"/>
-      <c r="D9" s="320"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="320"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="320"/>
-      <c r="L9" s="320"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="319"/>
+      <c r="K9" s="319"/>
+      <c r="L9" s="319"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B10" s="320" t="s">
+      <c r="B10" s="319" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="320"/>
-      <c r="L10" s="320"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="319"/>
+      <c r="K10" s="319"/>
+      <c r="L10" s="319"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1">
-      <c r="B11" s="319" t="s">
+      <c r="B11" s="322" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="319"/>
-      <c r="D11" s="319"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="319"/>
-      <c r="G11" s="319"/>
-      <c r="H11" s="319"/>
-      <c r="I11" s="319"/>
-      <c r="J11" s="319"/>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
-      <c r="M11" s="319"/>
+      <c r="C11" s="322"/>
+      <c r="D11" s="322"/>
+      <c r="E11" s="322"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="322"/>
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="320" t="s">
+      <c r="B12" s="319" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="320"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="320"/>
-      <c r="I12" s="320"/>
-      <c r="J12" s="320"/>
-      <c r="K12" s="320"/>
-      <c r="L12" s="320"/>
-      <c r="M12" s="320"/>
+      <c r="C12" s="319"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="319"/>
+      <c r="K12" s="319"/>
+      <c r="L12" s="319"/>
+      <c r="M12" s="319"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="321" t="s">
+      <c r="B13" s="323" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="318"/>
-      <c r="M13" s="318"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="324"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="324"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="324"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="324"/>
+      <c r="L13" s="324"/>
+      <c r="M13" s="324"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="321" t="s">
+      <c r="B14" s="323" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="318"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="318"/>
-      <c r="F14" s="318"/>
-      <c r="G14" s="318"/>
-      <c r="H14" s="318"/>
-      <c r="I14" s="318"/>
-      <c r="J14" s="318"/>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
-      <c r="M14" s="318"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="324"/>
+      <c r="G14" s="324"/>
+      <c r="H14" s="324"/>
+      <c r="I14" s="324"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
+      <c r="M14" s="324"/>
     </row>
     <row r="15" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B15" s="321" t="s">
+      <c r="B15" s="323" t="s">
         <v>367</v>
       </c>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="318"/>
-      <c r="I15" s="318"/>
-      <c r="J15" s="318"/>
-      <c r="K15" s="318"/>
-      <c r="L15" s="318"/>
-      <c r="M15" s="318"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="324"/>
+      <c r="E15" s="324"/>
+      <c r="F15" s="324"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="324"/>
+      <c r="I15" s="324"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="320" t="s">
+      <c r="B16" s="319" t="s">
         <v>364</v>
       </c>
-      <c r="C16" s="320"/>
-      <c r="D16" s="320"/>
-      <c r="E16" s="320"/>
-      <c r="F16" s="320"/>
-      <c r="G16" s="320"/>
-      <c r="H16" s="320"/>
-      <c r="I16" s="320"/>
-      <c r="J16" s="320"/>
-      <c r="K16" s="320"/>
-      <c r="L16" s="320"/>
-      <c r="M16" s="320"/>
+      <c r="C16" s="319"/>
+      <c r="D16" s="319"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="319"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="319"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="319"/>
+      <c r="M16" s="319"/>
     </row>
     <row r="17" spans="2:13" ht="18.75">
-      <c r="B17" s="319" t="s">
+      <c r="B17" s="322" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="319"/>
-      <c r="D17" s="319"/>
-      <c r="E17" s="319"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319"/>
-      <c r="H17" s="319"/>
-      <c r="I17" s="319"/>
-      <c r="J17" s="319"/>
-      <c r="K17" s="319"/>
-      <c r="L17" s="319"/>
-      <c r="M17" s="319"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="322"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="322"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="322"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="320" t="s">
+      <c r="B18" s="319" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="320"/>
-      <c r="D18" s="320"/>
-      <c r="E18" s="320"/>
-      <c r="F18" s="320"/>
-      <c r="G18" s="320"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="320"/>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
+      <c r="C18" s="319"/>
+      <c r="D18" s="319"/>
+      <c r="E18" s="319"/>
+      <c r="F18" s="319"/>
+      <c r="G18" s="319"/>
+      <c r="H18" s="319"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="319"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="319"/>
+      <c r="M18" s="319"/>
     </row>
     <row r="19" spans="2:13" ht="14.45" customHeight="1">
       <c r="B19" s="257"/>
-      <c r="C19" s="324" t="s">
+      <c r="C19" s="318" t="s">
         <v>360</v>
       </c>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="324"/>
-      <c r="I19" s="324"/>
-      <c r="J19" s="324"/>
-      <c r="K19" s="324"/>
-      <c r="L19" s="324"/>
-      <c r="M19" s="324"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="318"/>
+      <c r="J19" s="318"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="318"/>
+      <c r="M19" s="318"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="257"/>
-      <c r="C20" s="324" t="s">
+      <c r="C20" s="318" t="s">
         <v>361</v>
       </c>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="324"/>
-      <c r="H20" s="324"/>
-      <c r="I20" s="324"/>
-      <c r="J20" s="324"/>
-      <c r="K20" s="324"/>
-      <c r="L20" s="324"/>
-      <c r="M20" s="324"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
+      <c r="J20" s="318"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="318"/>
+      <c r="M20" s="318"/>
     </row>
     <row r="21" spans="2:13" ht="14.45" customHeight="1">
       <c r="B21" s="257"/>
-      <c r="C21" s="324" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="324"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="324"/>
-      <c r="I21" s="324"/>
-      <c r="J21" s="324"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="324"/>
-      <c r="M21" s="324"/>
+      <c r="C21" s="318" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="318"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="318"/>
+      <c r="J21" s="318"/>
+      <c r="K21" s="318"/>
+      <c r="L21" s="318"/>
+      <c r="M21" s="318"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="257"/>
-      <c r="C22" s="324" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324"/>
-      <c r="J22" s="324"/>
-      <c r="K22" s="324"/>
-      <c r="L22" s="324"/>
-      <c r="M22" s="324"/>
+      <c r="C22" s="318" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="318"/>
+      <c r="J22" s="318"/>
+      <c r="K22" s="318"/>
+      <c r="L22" s="318"/>
+      <c r="M22" s="318"/>
     </row>
     <row r="23" spans="2:13" ht="14.45" customHeight="1">
       <c r="B23" s="257"/>
       <c r="C23" s="257"/>
-      <c r="D23" s="324" t="s">
-        <v>452</v>
-      </c>
-      <c r="E23" s="324"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="324"/>
-      <c r="I23" s="324"/>
-      <c r="J23" s="324"/>
-      <c r="K23" s="324"/>
-      <c r="L23" s="324"/>
-      <c r="M23" s="324"/>
+      <c r="D23" s="318" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="318"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="318"/>
     </row>
     <row r="24" spans="2:13" ht="14.45" customHeight="1">
       <c r="B24" s="257"/>
       <c r="C24" s="257"/>
-      <c r="D24" s="324" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="324"/>
-      <c r="I24" s="324"/>
-      <c r="J24" s="324"/>
-      <c r="K24" s="324"/>
-      <c r="L24" s="324"/>
-      <c r="M24" s="324"/>
+      <c r="D24" s="318" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
+      <c r="K24" s="318"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="318"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="254"/>
       <c r="C25" s="255"/>
-      <c r="D25" s="320" t="s">
-        <v>454</v>
-      </c>
-      <c r="E25" s="320"/>
-      <c r="F25" s="320"/>
-      <c r="G25" s="320"/>
-      <c r="H25" s="320"/>
-      <c r="I25" s="320"/>
-      <c r="J25" s="320"/>
-      <c r="K25" s="320"/>
-      <c r="L25" s="320"/>
-      <c r="M25" s="320"/>
+      <c r="D25" s="319" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
+      <c r="K25" s="319"/>
+      <c r="L25" s="319"/>
+      <c r="M25" s="319"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="254"/>
       <c r="C26" s="255"/>
-      <c r="D26" s="324" t="s">
-        <v>455</v>
-      </c>
-      <c r="E26" s="324"/>
-      <c r="F26" s="324"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="324"/>
-      <c r="I26" s="324"/>
-      <c r="J26" s="324"/>
-      <c r="K26" s="324"/>
-      <c r="L26" s="324"/>
-      <c r="M26" s="324"/>
+      <c r="D26" s="318" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" s="318"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="318"/>
+      <c r="J26" s="318"/>
+      <c r="K26" s="318"/>
+      <c r="L26" s="318"/>
+      <c r="M26" s="318"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1">
-      <c r="B27" s="321" t="s">
+      <c r="B27" s="323" t="s">
         <v>362</v>
       </c>
-      <c r="C27" s="318"/>
-      <c r="D27" s="318"/>
-      <c r="E27" s="318"/>
-      <c r="F27" s="318"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="318"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="318"/>
-      <c r="K27" s="318"/>
-      <c r="L27" s="318"/>
-      <c r="M27" s="318"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="324"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="324"/>
+      <c r="M27" s="324"/>
     </row>
     <row r="28" spans="2:13" ht="15" customHeight="1">
-      <c r="B28" s="321" t="s">
+      <c r="B28" s="323" t="s">
         <v>363</v>
       </c>
-      <c r="C28" s="318"/>
-      <c r="D28" s="318"/>
-      <c r="E28" s="318"/>
-      <c r="F28" s="318"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="318"/>
-      <c r="I28" s="318"/>
-      <c r="J28" s="318"/>
-      <c r="K28" s="318"/>
-      <c r="L28" s="318"/>
-      <c r="M28" s="318"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="324"/>
+      <c r="F28" s="324"/>
+      <c r="G28" s="324"/>
+      <c r="H28" s="324"/>
+      <c r="I28" s="324"/>
+      <c r="J28" s="324"/>
+      <c r="K28" s="324"/>
+      <c r="L28" s="324"/>
+      <c r="M28" s="324"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="198"/>
     </row>
     <row r="30" spans="2:13" ht="18.75">
-      <c r="B30" s="319" t="s">
+      <c r="B30" s="322" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="319"/>
-      <c r="D30" s="319"/>
-      <c r="E30" s="319"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="319"/>
-      <c r="H30" s="319"/>
-      <c r="I30" s="319"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="319"/>
-      <c r="L30" s="319"/>
-      <c r="M30" s="319"/>
+      <c r="C30" s="322"/>
+      <c r="D30" s="322"/>
+      <c r="E30" s="322"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="322"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="322"/>
+      <c r="K30" s="322"/>
+      <c r="L30" s="322"/>
+      <c r="M30" s="322"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1">
-      <c r="B31" s="320" t="s">
-        <v>368</v>
-      </c>
-      <c r="C31" s="320"/>
-      <c r="D31" s="320"/>
-      <c r="E31" s="320"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="320"/>
-      <c r="K31" s="320"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="320"/>
+      <c r="B31" s="321" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" s="321"/>
+      <c r="D31" s="321"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="321"/>
+      <c r="G31" s="321"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="321"/>
+      <c r="J31" s="321"/>
+      <c r="K31" s="321"/>
+      <c r="L31" s="321"/>
+      <c r="M31" s="321"/>
     </row>
     <row r="32" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B32" s="320" t="s">
+      <c r="B32" s="319" t="s">
         <v>344</v>
       </c>
-      <c r="C32" s="320"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="320"/>
-      <c r="F32" s="320"/>
-      <c r="G32" s="320"/>
-      <c r="H32" s="320"/>
-      <c r="I32" s="320"/>
-      <c r="J32" s="320"/>
-      <c r="K32" s="320"/>
-      <c r="L32" s="320"/>
-      <c r="M32" s="320"/>
+      <c r="C32" s="319"/>
+      <c r="D32" s="319"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="319"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="319"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="319"/>
+      <c r="K32" s="319"/>
+      <c r="L32" s="319"/>
+      <c r="M32" s="319"/>
     </row>
     <row r="33" spans="2:13" ht="28.5" customHeight="1">
-      <c r="B33" s="320" t="s">
+      <c r="B33" s="319" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="320"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="320"/>
-      <c r="F33" s="320"/>
-      <c r="G33" s="320"/>
-      <c r="H33" s="320"/>
-      <c r="I33" s="320"/>
-      <c r="J33" s="320"/>
-      <c r="K33" s="320"/>
-      <c r="L33" s="320"/>
-      <c r="M33" s="320"/>
+      <c r="C33" s="319"/>
+      <c r="D33" s="319"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="319"/>
+      <c r="K33" s="319"/>
+      <c r="L33" s="319"/>
+      <c r="M33" s="319"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="320" t="s">
+      <c r="B34" s="319" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="320"/>
-      <c r="I34" s="320"/>
-      <c r="J34" s="320"/>
-      <c r="K34" s="320"/>
-      <c r="L34" s="320"/>
-      <c r="M34" s="320"/>
+      <c r="C34" s="319"/>
+      <c r="D34" s="319"/>
+      <c r="E34" s="319"/>
+      <c r="F34" s="319"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="319"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="319"/>
+      <c r="K34" s="319"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="319"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="320" t="s">
+      <c r="B35" s="319" t="s">
         <v>347</v>
       </c>
-      <c r="C35" s="320"/>
-      <c r="D35" s="320"/>
-      <c r="E35" s="320"/>
-      <c r="F35" s="320"/>
-      <c r="G35" s="320"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="320"/>
-      <c r="K35" s="320"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="320"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="319"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="319"/>
+      <c r="I35" s="319"/>
+      <c r="J35" s="319"/>
+      <c r="K35" s="319"/>
+      <c r="L35" s="319"/>
+      <c r="M35" s="319"/>
     </row>
     <row r="36" spans="2:13" ht="18.75">
-      <c r="B36" s="319" t="s">
+      <c r="B36" s="322" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="319"/>
-      <c r="D36" s="319"/>
-      <c r="E36" s="319"/>
-      <c r="F36" s="319"/>
-      <c r="G36" s="319"/>
-      <c r="H36" s="319"/>
-      <c r="I36" s="319"/>
-      <c r="J36" s="319"/>
-      <c r="K36" s="319"/>
-      <c r="L36" s="319"/>
-      <c r="M36" s="319"/>
+      <c r="C36" s="322"/>
+      <c r="D36" s="322"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="322"/>
+      <c r="H36" s="322"/>
+      <c r="I36" s="322"/>
+      <c r="J36" s="322"/>
+      <c r="K36" s="322"/>
+      <c r="L36" s="322"/>
+      <c r="M36" s="322"/>
     </row>
     <row r="37" spans="2:13" ht="30.75" customHeight="1">
-      <c r="B37" s="320" t="s">
+      <c r="B37" s="319" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="320"/>
-      <c r="D37" s="320"/>
-      <c r="E37" s="320"/>
-      <c r="F37" s="320"/>
-      <c r="G37" s="320"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="319"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="319"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="319"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="319"/>
+      <c r="K37" s="319"/>
+      <c r="L37" s="319"/>
+      <c r="M37" s="319"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="320" t="s">
+      <c r="B38" s="319" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="320"/>
-      <c r="D38" s="320"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="320"/>
-      <c r="G38" s="320"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
+      <c r="C38" s="319"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="319"/>
+      <c r="K38" s="319"/>
+      <c r="L38" s="319"/>
+      <c r="M38" s="319"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="198"/>
     </row>
     <row r="40" spans="2:13" ht="18.75">
-      <c r="B40" s="319" t="s">
+      <c r="B40" s="322" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="319"/>
-      <c r="F40" s="319"/>
-      <c r="G40" s="319"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="319"/>
-      <c r="K40" s="319"/>
-      <c r="L40" s="319"/>
-      <c r="M40" s="319"/>
+      <c r="C40" s="322"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="322"/>
+      <c r="F40" s="322"/>
+      <c r="G40" s="322"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="322"/>
+      <c r="J40" s="322"/>
+      <c r="K40" s="322"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="322"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="326" t="s">
+      <c r="B41" s="321" t="s">
         <v>352</v>
       </c>
-      <c r="C41" s="326"/>
-      <c r="D41" s="326"/>
-      <c r="E41" s="326"/>
-      <c r="F41" s="326"/>
-      <c r="G41" s="326"/>
-      <c r="H41" s="326"/>
-      <c r="I41" s="326"/>
-      <c r="J41" s="326"/>
-      <c r="K41" s="326"/>
-      <c r="L41" s="326"/>
-      <c r="M41" s="326"/>
+      <c r="C41" s="321"/>
+      <c r="D41" s="321"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="321"/>
+      <c r="J41" s="321"/>
+      <c r="K41" s="321"/>
+      <c r="L41" s="321"/>
+      <c r="M41" s="321"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="326" t="s">
+      <c r="B42" s="321" t="s">
         <v>353</v>
       </c>
-      <c r="C42" s="326"/>
-      <c r="D42" s="326"/>
-      <c r="E42" s="326"/>
-      <c r="F42" s="326"/>
-      <c r="G42" s="326"/>
-      <c r="H42" s="326"/>
-      <c r="I42" s="326"/>
-      <c r="J42" s="326"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
+      <c r="C42" s="321"/>
+      <c r="D42" s="321"/>
+      <c r="E42" s="321"/>
+      <c r="F42" s="321"/>
+      <c r="G42" s="321"/>
+      <c r="H42" s="321"/>
+      <c r="I42" s="321"/>
+      <c r="J42" s="321"/>
+      <c r="K42" s="321"/>
+      <c r="L42" s="321"/>
+      <c r="M42" s="321"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="326" t="s">
+      <c r="B43" s="321" t="s">
         <v>354</v>
       </c>
-      <c r="C43" s="326"/>
-      <c r="D43" s="326"/>
-      <c r="E43" s="326"/>
-      <c r="F43" s="326"/>
-      <c r="G43" s="326"/>
-      <c r="H43" s="326"/>
-      <c r="I43" s="326"/>
-      <c r="J43" s="326"/>
-      <c r="K43" s="326"/>
-      <c r="L43" s="326"/>
-      <c r="M43" s="326"/>
+      <c r="C43" s="321"/>
+      <c r="D43" s="321"/>
+      <c r="E43" s="321"/>
+      <c r="F43" s="321"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="321"/>
+      <c r="I43" s="321"/>
+      <c r="J43" s="321"/>
+      <c r="K43" s="321"/>
+      <c r="L43" s="321"/>
+      <c r="M43" s="321"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="248" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C44" s="246"/>
       <c r="D44" s="246"/>
@@ -8579,55 +8534,82 @@
       <c r="M44" s="246"/>
     </row>
     <row r="45" spans="2:13" ht="18.75">
-      <c r="B45" s="319" t="s">
+      <c r="B45" s="322" t="s">
         <v>355</v>
       </c>
-      <c r="C45" s="319"/>
-      <c r="D45" s="319"/>
-      <c r="E45" s="319"/>
-      <c r="F45" s="319"/>
-      <c r="G45" s="319"/>
-      <c r="H45" s="319"/>
-      <c r="I45" s="319"/>
-      <c r="J45" s="319"/>
-      <c r="K45" s="319"/>
-      <c r="L45" s="319"/>
-      <c r="M45" s="319"/>
+      <c r="C45" s="322"/>
+      <c r="D45" s="322"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="322"/>
+      <c r="G45" s="322"/>
+      <c r="H45" s="322"/>
+      <c r="I45" s="322"/>
+      <c r="J45" s="322"/>
+      <c r="K45" s="322"/>
+      <c r="L45" s="322"/>
+      <c r="M45" s="322"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="320" t="s">
-        <v>459</v>
-      </c>
-      <c r="C46" s="320"/>
-      <c r="D46" s="320"/>
-      <c r="E46" s="320"/>
-      <c r="F46" s="320"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="320"/>
-      <c r="I46" s="320"/>
-      <c r="J46" s="320"/>
-      <c r="K46" s="320"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
+      <c r="B46" s="319" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="319"/>
+      <c r="D46" s="319"/>
+      <c r="E46" s="319"/>
+      <c r="F46" s="319"/>
+      <c r="G46" s="319"/>
+      <c r="H46" s="319"/>
+      <c r="I46" s="319"/>
+      <c r="J46" s="319"/>
+      <c r="K46" s="319"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="325" t="s">
-        <v>445</v>
-      </c>
-      <c r="C47" s="325"/>
-      <c r="D47" s="325"/>
-      <c r="E47" s="325"/>
-      <c r="F47" s="325"/>
-      <c r="G47" s="325"/>
-      <c r="H47" s="325"/>
-      <c r="I47" s="325"/>
-      <c r="J47" s="325"/>
-      <c r="K47" s="325"/>
-      <c r="L47" s="325"/>
-      <c r="M47" s="325"/>
+      <c r="B47" s="320" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" s="320"/>
+      <c r="D47" s="320"/>
+      <c r="E47" s="320"/>
+      <c r="F47" s="320"/>
+      <c r="G47" s="320"/>
+      <c r="H47" s="320"/>
+      <c r="I47" s="320"/>
+      <c r="J47" s="320"/>
+      <c r="K47" s="320"/>
+      <c r="L47" s="320"/>
+      <c r="M47" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="D25:M25"/>
@@ -8644,33 +8626,6 @@
     <mergeCell ref="B41:M41"/>
     <mergeCell ref="B31:M31"/>
     <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
@@ -8679,9 +8634,10 @@
     <hyperlink ref="B47:M47" r:id="rId4" display="All code to generate those worksheets is available on github: https://github.com/gpw13/billionaiRe" xr:uid="{6B3A0F6D-7C00-4207-8178-C4441530F2EE}"/>
     <hyperlink ref="B44" r:id="rId5" xr:uid="{FD9EE3AE-A49B-4FA5-9301-8B375015E4D9}"/>
     <hyperlink ref="C20" r:id="rId6" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{750C9F1F-2EE1-4505-B669-265101DDC166}"/>
+    <hyperlink ref="B31:M31" r:id="rId7" display="Please refer to the GPW13 Methods report and the Triple Billion Dashboard FAQ. " xr:uid="{C96716F9-2E88-489B-A833-0A48A8A326AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -8693,7 +8649,7 @@
   <dimension ref="A1:S115"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8711,7 +8667,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -8726,13 +8682,13 @@
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="350" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="350" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="352" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E4" s="352"/>
       <c r="F4" s="352"/>
@@ -8779,7 +8735,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C6" s="316" t="s">
         <v>203</v>
@@ -8796,7 +8752,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>203</v>
@@ -8816,7 +8772,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>203</v>
@@ -8836,7 +8792,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="B9" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>203</v>
@@ -8856,7 +8812,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C10" s="316" t="s">
         <v>298</v>
@@ -8873,7 +8829,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>298</v>
@@ -8893,7 +8849,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>298</v>
@@ -8913,7 +8869,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>298</v>
@@ -8933,7 +8889,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="316" t="s">
         <v>299</v>
@@ -8944,7 +8900,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>299</v>
@@ -8964,7 +8920,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>299</v>
@@ -8984,7 +8940,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>299</v>
@@ -9004,7 +8960,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" s="316" t="s">
         <v>301</v>
@@ -9021,7 +8977,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>301</v>
@@ -9041,7 +8997,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>301</v>
@@ -9061,7 +9017,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>301</v>
@@ -9081,7 +9037,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C22" s="316" t="s">
         <v>303</v>
@@ -9092,7 +9048,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>303</v>
@@ -9112,7 +9068,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>303</v>
@@ -9132,7 +9088,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>303</v>
@@ -9152,7 +9108,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" s="316" t="s">
         <v>304</v>
@@ -9169,7 +9125,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>304</v>
@@ -9189,7 +9145,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>304</v>
@@ -9209,7 +9165,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>304</v>
@@ -9229,7 +9185,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="316" t="s">
         <v>305</v>
@@ -9240,7 +9196,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>305</v>
@@ -9260,7 +9216,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>305</v>
@@ -9280,7 +9236,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>305</v>
@@ -9300,7 +9256,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" s="316" t="s">
         <v>306</v>
@@ -9311,7 +9267,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C35" s="316" t="s">
         <v>306</v>
@@ -9331,7 +9287,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C36" s="316" t="s">
         <v>306</v>
@@ -9351,7 +9307,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C37" s="316" t="s">
         <v>306</v>
@@ -9371,7 +9327,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C38" s="316" t="s">
         <v>307</v>
@@ -9388,7 +9344,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C39" s="316" t="s">
         <v>307</v>
@@ -9408,7 +9364,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" s="316" t="s">
         <v>307</v>
@@ -9428,7 +9384,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C41" s="316" t="s">
         <v>307</v>
@@ -9448,7 +9404,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C42" s="316" t="s">
         <v>308</v>
@@ -9465,7 +9421,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C43" s="316" t="s">
         <v>308</v>
@@ -9485,7 +9441,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44" s="316" t="s">
         <v>308</v>
@@ -9505,7 +9461,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C45" s="316" t="s">
         <v>308</v>
@@ -9525,7 +9481,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C46" s="316" t="s">
         <v>309</v>
@@ -9542,7 +9498,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C47" s="316" t="s">
         <v>309</v>
@@ -9562,7 +9518,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="316" t="s">
         <v>309</v>
@@ -9582,7 +9538,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C49" s="316" t="s">
         <v>309</v>
@@ -9602,7 +9558,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C50" s="316" t="s">
         <v>310</v>
@@ -9619,7 +9575,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C51" s="316" t="s">
         <v>310</v>
@@ -9639,7 +9595,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52" s="316" t="s">
         <v>310</v>
@@ -9659,7 +9615,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C53" s="316" t="s">
         <v>310</v>
@@ -9679,7 +9635,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C54" s="316" t="s">
         <v>311</v>
@@ -9696,7 +9652,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" s="316" t="s">
         <v>311</v>
@@ -9716,7 +9672,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C56" s="316" t="s">
         <v>311</v>
@@ -9736,7 +9692,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="316" t="s">
         <v>311</v>
@@ -9756,7 +9712,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C58" s="316" t="s">
         <v>312</v>
@@ -9773,7 +9729,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C59" s="316" t="s">
         <v>312</v>
@@ -9793,7 +9749,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C60" s="316" t="s">
         <v>312</v>
@@ -9813,7 +9769,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C61" s="316" t="s">
         <v>312</v>
@@ -9833,10 +9789,10 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C62" s="316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D62" s="175">
         <v>19</v>
@@ -9850,10 +9806,10 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C63" s="316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D63" s="175">
         <f t="shared" ref="D63:F63" si="42">+D62</f>
@@ -9870,10 +9826,10 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C64" s="316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D64" s="175">
         <f t="shared" ref="D64:F64" si="43">D63+1</f>
@@ -9890,10 +9846,10 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C65" s="316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D65" s="175">
         <f t="shared" ref="D65:F65" si="44">+D63+2</f>
@@ -9910,7 +9866,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C66" s="316" t="s">
         <v>314</v>
@@ -9930,7 +9886,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C67" s="316" t="s">
         <v>314</v>
@@ -9950,7 +9906,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C68" s="316" t="s">
         <v>314</v>
@@ -9970,7 +9926,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C69" s="316" t="s">
         <v>314</v>
@@ -9990,7 +9946,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C70" s="316" t="s">
         <v>316</v>
@@ -10007,7 +9963,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C71" s="316" t="s">
         <v>316</v>
@@ -10027,7 +9983,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C72" s="316" t="s">
         <v>316</v>
@@ -10047,7 +10003,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C73" s="316" t="s">
         <v>316</v>
@@ -10067,7 +10023,7 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C74" s="316" t="s">
         <v>319</v>
@@ -10084,7 +10040,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C75" s="316" t="s">
         <v>319</v>
@@ -10104,7 +10060,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C76" s="316" t="s">
         <v>319</v>
@@ -10124,7 +10080,7 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C77" s="316" t="s">
         <v>319</v>
@@ -10144,7 +10100,7 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C78" s="316" t="s">
         <v>321</v>
@@ -10155,7 +10111,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C79" s="316" t="s">
         <v>321</v>
@@ -10175,7 +10131,7 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C80" s="316" t="s">
         <v>321</v>
@@ -10195,7 +10151,7 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C81" s="316" t="s">
         <v>321</v>
@@ -10215,7 +10171,7 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C82" s="316" t="s">
         <v>323</v>
@@ -10232,7 +10188,7 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C83" s="316" t="s">
         <v>323</v>
@@ -10252,7 +10208,7 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C84" s="316" t="s">
         <v>323</v>
@@ -10272,7 +10228,7 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C85" s="316" t="s">
         <v>323</v>
@@ -10292,7 +10248,7 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C86" s="316" t="s">
         <v>325</v>
@@ -10309,7 +10265,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C87" s="316" t="s">
         <v>325</v>
@@ -10329,7 +10285,7 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C88" s="316" t="s">
         <v>325</v>
@@ -10349,7 +10305,7 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C89" s="316" t="s">
         <v>325</v>
@@ -10369,7 +10325,7 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C90" s="316" t="s">
         <v>327</v>
@@ -10386,7 +10342,7 @@
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C91" s="316" t="s">
         <v>327</v>
@@ -10406,7 +10362,7 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C92" s="316" t="s">
         <v>327</v>
@@ -10426,7 +10382,7 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C93" s="316" t="s">
         <v>327</v>
@@ -10446,10 +10402,10 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C94" s="316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D94" s="175">
         <v>19</v>
@@ -10463,10 +10419,10 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C95" s="316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D95" s="175">
         <f t="shared" ref="D95:F97" si="53">+D94+1</f>
@@ -10483,10 +10439,10 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C96" s="316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D96" s="175">
         <f t="shared" si="53"/>
@@ -10503,10 +10459,10 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C97" s="316" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D97" s="175">
         <f t="shared" si="53"/>
@@ -10523,7 +10479,7 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C98" s="316" t="s">
         <v>280</v>
@@ -10540,7 +10496,7 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C99" s="316" t="s">
         <v>280</v>
@@ -10560,7 +10516,7 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C100" s="316" t="s">
         <v>280</v>
@@ -10580,7 +10536,7 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C101" s="316" t="s">
         <v>280</v>
@@ -10600,7 +10556,7 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C102" s="316" t="s">
         <v>283</v>
@@ -10617,7 +10573,7 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C103" s="316" t="s">
         <v>283</v>
@@ -10637,7 +10593,7 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C104" s="316" t="s">
         <v>283</v>
@@ -10657,7 +10613,7 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C105" s="316" t="s">
         <v>283</v>
@@ -10677,7 +10633,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C106" s="316" t="s">
         <v>284</v>
@@ -10694,7 +10650,7 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="316" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C107" s="316" t="s">
         <v>284</v>
@@ -10714,7 +10670,7 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="316" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C108" s="316" t="s">
         <v>284</v>
@@ -10734,7 +10690,7 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="316" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C109" s="316" t="s">
         <v>284</v>
@@ -10754,7 +10710,7 @@
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C110" s="316" t="s">
         <v>285</v>
@@ -10771,7 +10727,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>285</v>
@@ -10791,7 +10747,7 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>285</v>
@@ -10811,7 +10767,7 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>285</v>
@@ -11331,9 +11287,9 @@
   </sheetPr>
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+      <selection pane="topRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11510,7 +11466,7 @@
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="161"/>
@@ -11545,7 +11501,7 @@
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1">
       <c r="A7" s="266" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -11600,40 +11556,40 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1">
-      <c r="A9" s="356" t="s">
+      <c r="A9" s="353" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="356"/>
-      <c r="C9" s="361" t="s">
+      <c r="B9" s="353"/>
+      <c r="C9" s="360" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="361"/>
-      <c r="E9" s="361"/>
-      <c r="F9" s="361"/>
-      <c r="G9" s="361"/>
-      <c r="H9" s="361"/>
-      <c r="I9" s="361"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="360"/>
+      <c r="G9" s="360"/>
+      <c r="H9" s="360"/>
+      <c r="I9" s="360"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="362" t="s">
+      <c r="K9" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="362"/>
-      <c r="M9" s="362"/>
-      <c r="N9" s="362"/>
-      <c r="O9" s="362"/>
-      <c r="P9" s="362"/>
-      <c r="Q9" s="362"/>
-      <c r="R9" s="362"/>
-      <c r="S9" s="362"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="362"/>
+      <c r="L9" s="361"/>
+      <c r="M9" s="361"/>
+      <c r="N9" s="361"/>
+      <c r="O9" s="361"/>
+      <c r="P9" s="361"/>
+      <c r="Q9" s="361"/>
+      <c r="R9" s="361"/>
+      <c r="S9" s="361"/>
+      <c r="T9" s="361"/>
+      <c r="U9" s="361"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="358" t="s">
+      <c r="W9" s="357" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="359"/>
-      <c r="Y9" s="359"/>
-      <c r="Z9" s="360"/>
+      <c r="X9" s="358"/>
+      <c r="Y9" s="358"/>
+      <c r="Z9" s="359"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="354" t="s">
@@ -11657,48 +11613,48 @@
       <c r="G10" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="363" t="s">
+      <c r="H10" s="362" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="363" t="s">
+      <c r="I10" s="362" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="353" t="s">
+      <c r="K10" s="363" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="353" t="s">
+      <c r="L10" s="363" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="77"/>
-      <c r="N10" s="353" t="s">
+      <c r="N10" s="363" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="353" t="s">
+      <c r="O10" s="363" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="77"/>
-      <c r="Q10" s="353" t="s">
+      <c r="Q10" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="353" t="s">
+      <c r="R10" s="363" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="77"/>
-      <c r="T10" s="353" t="s">
+      <c r="T10" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="353" t="s">
+      <c r="U10" s="363" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="357" t="s">
+      <c r="W10" s="356" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="357" t="s">
+      <c r="X10" s="356" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" s="357" t="s">
+      <c r="Y10" s="356" t="s">
         <v>115</v>
       </c>
       <c r="Z10" s="354" t="s">
@@ -13073,7 +13029,7 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="W34" s="306" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X34" s="307"/>
       <c r="Y34" s="237">
@@ -13512,6 +13468,11 @@
     <row r="76" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -13528,11 +13489,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -14751,7 +14707,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -14767,13 +14723,13 @@
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="365" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="365" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="364" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E4" s="364"/>
       <c r="F4" s="364"/>
@@ -14820,7 +14776,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C6" s="307" t="s">
         <v>2</v>
@@ -14837,7 +14793,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="175" t="s">
         <v>2</v>
@@ -14854,7 +14810,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="175" t="s">
         <v>2</v>
@@ -14871,7 +14827,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="B9" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C9" s="175" t="s">
         <v>2</v>
@@ -14888,7 +14844,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C10" s="307" t="s">
         <v>9</v>
@@ -14905,7 +14861,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="175" t="s">
         <v>9</v>
@@ -14922,7 +14878,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" s="175" t="s">
         <v>9</v>
@@ -14939,7 +14895,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C13" s="175" t="s">
         <v>9</v>
@@ -14956,7 +14912,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="307" t="s">
         <v>3</v>
@@ -14973,7 +14929,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="175" t="s">
         <v>3</v>
@@ -14990,7 +14946,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="175" t="s">
         <v>3</v>
@@ -15007,7 +14963,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="175" t="s">
         <v>3</v>
@@ -15024,7 +14980,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" s="307" t="s">
         <v>93</v>
@@ -15041,7 +14997,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="175" t="s">
         <v>93</v>
@@ -15058,7 +15014,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" s="175" t="s">
         <v>93</v>
@@ -15075,7 +15031,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C21" s="175" t="s">
         <v>93</v>
@@ -15092,7 +15048,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C22" s="307" t="s">
         <v>12</v>
@@ -15109,7 +15065,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C23" s="175" t="s">
         <v>12</v>
@@ -15126,7 +15082,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" s="175" t="s">
         <v>12</v>
@@ -15143,7 +15099,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C25" s="175" t="s">
         <v>12</v>
@@ -15160,7 +15116,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" s="307" t="s">
         <v>33</v>
@@ -15173,7 +15129,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C27" s="175" t="s">
         <v>33</v>
@@ -15186,7 +15142,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C28" s="175" t="s">
         <v>33</v>
@@ -15199,7 +15155,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C29" s="175" t="s">
         <v>33</v>
@@ -15212,7 +15168,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="307" t="s">
         <v>13</v>
@@ -15225,7 +15181,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C31" s="175" t="s">
         <v>13</v>
@@ -15238,7 +15194,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C32" s="175" t="s">
         <v>13</v>
@@ -15251,7 +15207,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C33" s="175" t="s">
         <v>13</v>
@@ -15264,7 +15220,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" s="307" t="s">
         <v>8</v>
@@ -15281,7 +15237,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C35" s="175" t="s">
         <v>8</v>
@@ -15298,7 +15254,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C36" s="175" t="s">
         <v>8</v>
@@ -15315,7 +15271,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C37" s="175" t="s">
         <v>8</v>
@@ -15332,7 +15288,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C38" s="307" t="s">
         <v>7</v>
@@ -15349,7 +15305,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C39" s="175" t="s">
         <v>7</v>
@@ -15366,7 +15322,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" s="175" t="s">
         <v>7</v>
@@ -15383,7 +15339,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C41" s="175" t="s">
         <v>7</v>
@@ -15400,7 +15356,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C42" s="307" t="s">
         <v>97</v>
@@ -15417,7 +15373,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C43" s="175" t="s">
         <v>97</v>
@@ -15434,7 +15390,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44" s="175" t="s">
         <v>97</v>
@@ -15451,7 +15407,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C45" s="175" t="s">
         <v>97</v>
@@ -15468,7 +15424,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C46" s="307" t="s">
         <v>5</v>
@@ -15485,7 +15441,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C47" s="175" t="s">
         <v>5</v>
@@ -15502,7 +15458,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="175" t="s">
         <v>5</v>
@@ -15519,7 +15475,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C49" s="175" t="s">
         <v>5</v>
@@ -15536,7 +15492,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C50" s="307" t="s">
         <v>10</v>
@@ -15553,7 +15509,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C51" s="175" t="s">
         <v>10</v>
@@ -15570,7 +15526,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52" s="175" t="s">
         <v>10</v>
@@ -15587,7 +15543,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C53" s="175" t="s">
         <v>10</v>
@@ -15604,7 +15560,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C54" s="307" t="s">
         <v>4</v>
@@ -15621,7 +15577,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" s="175" t="s">
         <v>4</v>
@@ -15638,7 +15594,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C56" s="175" t="s">
         <v>4</v>
@@ -15655,7 +15611,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="175" t="s">
         <v>4</v>
@@ -15672,7 +15628,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C58" s="307" t="s">
         <v>14</v>
@@ -15689,7 +15645,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C59" s="175" t="s">
         <v>14</v>
@@ -15706,7 +15662,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C60" s="175" t="s">
         <v>14</v>
@@ -15723,7 +15679,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C61" s="175" t="s">
         <v>14</v>
@@ -15740,7 +15696,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C62" s="307" t="s">
         <v>6</v>
@@ -15757,7 +15713,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C63" s="175" t="s">
         <v>6</v>
@@ -15774,7 +15730,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C64" s="175" t="s">
         <v>6</v>
@@ -15791,7 +15747,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C65" s="175" t="s">
         <v>6</v>
@@ -15808,7 +15764,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C66" s="317" t="s">
         <v>11</v>
@@ -15825,7 +15781,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>11</v>
@@ -15842,7 +15798,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>11</v>
@@ -15859,7 +15815,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>11</v>
@@ -15876,7 +15832,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C70" s="307" t="s">
         <v>15</v>
@@ -15893,7 +15849,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C71" s="175" t="s">
         <v>15</v>
@@ -15910,7 +15866,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C72" s="175" t="s">
         <v>15</v>
@@ -15927,7 +15883,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C73" s="175" t="s">
         <v>15</v>
@@ -15965,7 +15921,7 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
@@ -16841,7 +16797,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
@@ -16856,7 +16812,7 @@
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="212" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="212" t="s">
         <v>40</v>
@@ -16871,12 +16827,12 @@
         <v>43</v>
       </c>
       <c r="G4" s="212" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="220" t="s">
         <v>227</v>
@@ -16885,18 +16841,18 @@
         <v>156</v>
       </c>
       <c r="E5" s="221" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="222" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="220" t="s">
         <v>228</v>
@@ -16905,18 +16861,18 @@
         <v>159</v>
       </c>
       <c r="E6" s="221" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F6" s="220" t="s">
         <v>229</v>
       </c>
       <c r="G6" s="222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="220" t="s">
         <v>230</v>
@@ -16934,7 +16890,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="220" t="s">
         <v>233</v>
@@ -16952,7 +16908,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C9" s="220" t="s">
         <v>236</v>
@@ -16967,12 +16923,12 @@
         <v>173</v>
       </c>
       <c r="G9" s="222" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="220" t="s">
         <v>237</v>
@@ -16981,18 +16937,18 @@
         <v>175</v>
       </c>
       <c r="E10" s="221" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F10" s="220" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="222" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C11" s="220" t="s">
         <v>238</v>
@@ -17001,18 +16957,18 @@
         <v>178</v>
       </c>
       <c r="E11" s="221" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="220" t="s">
         <v>239</v>
       </c>
       <c r="G11" s="222" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="220" t="s">
         <v>240</v>
@@ -17030,7 +16986,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="220" t="s">
         <v>242</v>
@@ -17039,18 +16995,18 @@
         <v>184</v>
       </c>
       <c r="E13" s="221" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="220" t="s">
         <v>243</v>
       </c>
       <c r="G13" s="249" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" s="220" t="s">
         <v>244</v>
@@ -17059,18 +17015,18 @@
         <v>187</v>
       </c>
       <c r="E14" s="221" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F14" s="220" t="s">
         <v>245</v>
       </c>
       <c r="G14" s="249" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C15" s="220" t="s">
         <v>246</v>
@@ -17079,18 +17035,18 @@
         <v>189</v>
       </c>
       <c r="E15" s="221" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" s="220" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="222" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="220" t="s">
         <v>247</v>
@@ -17099,18 +17055,18 @@
         <v>194</v>
       </c>
       <c r="E16" s="221" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F16" s="220" t="s">
         <v>248</v>
       </c>
       <c r="G16" s="249" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C17" s="220" t="s">
         <v>249</v>
@@ -17125,12 +17081,12 @@
         <v>250</v>
       </c>
       <c r="G17" s="249" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" s="220" t="s">
         <v>251</v>
@@ -17148,7 +17104,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C19" s="220" t="s">
         <v>254</v>
@@ -17166,7 +17122,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C20" s="220" t="s">
         <v>257</v>
@@ -17175,18 +17131,18 @@
         <v>203</v>
       </c>
       <c r="E20" s="221" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F20" s="220" t="s">
         <v>258</v>
       </c>
       <c r="G20" s="249" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="220" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C21" s="221" t="s">
         <v>259</v>
@@ -17195,24 +17151,24 @@
         <v>208</v>
       </c>
       <c r="E21" s="221" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F21" s="220" t="s">
         <v>208</v>
       </c>
       <c r="G21" s="222" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C22" s="217" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E22" s="218" t="s">
         <v>258</v>
@@ -17222,231 +17178,231 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="217" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="217" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="217" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="217" t="s">
-        <v>414</v>
-      </c>
-      <c r="D23" s="217" t="s">
-        <v>373</v>
-      </c>
       <c r="E23" s="218" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F23" s="217"/>
       <c r="G23" s="219"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="217" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D24" s="217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="218" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F24" s="217"/>
       <c r="G24" s="219"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C25" s="217" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D25" s="217" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="218" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F25" s="217"/>
       <c r="G25" s="219"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C26" s="217" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D26" s="217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E26" s="218" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F26" s="217"/>
       <c r="G26" s="219"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C27" s="217" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D27" s="217" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="218" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F27" s="217"/>
       <c r="G27" s="219"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C28" s="217" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D28" s="217" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="218" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F28" s="217"/>
       <c r="G28" s="219"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C29" s="217" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D29" s="217" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E29" s="218" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F29" s="217"/>
       <c r="G29" s="219"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C30" s="217" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D30" s="217" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E30" s="218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F30" s="217"/>
       <c r="G30" s="219"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C31" s="217" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D31" s="217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E31" s="218" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F31" s="217"/>
       <c r="G31" s="219"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" s="217" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D32" s="217" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E32" s="218" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F32" s="217"/>
       <c r="G32" s="219"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C33" s="217" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D33" s="217" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F33" s="217"/>
       <c r="G33" s="219"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="217" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D34" s="217" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E34" s="218" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F34" s="217"/>
       <c r="G34" s="219"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="217" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D35" s="217" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E35" s="218" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F35" s="217"/>
       <c r="G35" s="219"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="218" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C36" s="218" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D36" s="218" t="s">
+        <v>436</v>
+      </c>
+      <c r="E36" s="218" t="s">
         <v>437</v>
-      </c>
-      <c r="E36" s="218" t="s">
-        <v>438</v>
       </c>
       <c r="F36" s="217"/>
       <c r="G36" s="219"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" s="217" t="s">
         <v>313</v>
@@ -17462,7 +17418,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C38" s="217" t="s">
         <v>315</v>
@@ -17478,7 +17434,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C39" s="217" t="s">
         <v>318</v>
@@ -17494,7 +17450,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C40" s="217" t="s">
         <v>320</v>
@@ -17510,7 +17466,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C41" s="217" t="s">
         <v>322</v>
@@ -17526,7 +17482,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="217" t="s">
         <v>324</v>
@@ -17542,7 +17498,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C43" s="217" t="s">
         <v>326</v>
@@ -17558,23 +17514,23 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="218" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="218" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D44" s="218" t="s">
+        <v>433</v>
+      </c>
+      <c r="E44" s="218" t="s">
         <v>434</v>
-      </c>
-      <c r="E44" s="218" t="s">
-        <v>435</v>
       </c>
       <c r="F44" s="217"/>
       <c r="G44" s="219"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="217" t="s">
         <v>328</v>
@@ -17590,7 +17546,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="217" t="s">
         <v>329</v>
@@ -17606,7 +17562,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="217" t="s">
         <v>330</v>
@@ -17622,7 +17578,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C48" s="214" t="s">
         <v>44</v>
@@ -17640,7 +17596,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C49" s="214" t="s">
         <v>47</v>
@@ -17658,7 +17614,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C50" s="214" t="s">
         <v>49</v>
@@ -17676,7 +17632,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C51" s="214" t="s">
         <v>122</v>
@@ -17694,7 +17650,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C52" s="214" t="s">
         <v>51</v>
@@ -17712,7 +17668,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C53" s="214" t="s">
         <v>53</v>
@@ -17730,7 +17686,7 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="214" t="s">
         <v>55</v>
@@ -17748,7 +17704,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C55" s="214" t="s">
         <v>57</v>
@@ -17766,7 +17722,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C56" s="214" t="s">
         <v>59</v>
@@ -17784,13 +17740,13 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="214" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="215" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E57" s="215" t="s">
         <v>62</v>
@@ -17799,12 +17755,12 @@
         <v>24</v>
       </c>
       <c r="G57" s="216" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="214" t="s">
         <v>63</v>
@@ -17819,12 +17775,12 @@
         <v>25</v>
       </c>
       <c r="G58" s="216" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" s="214" t="s">
         <v>65</v>
@@ -17842,7 +17798,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="214" t="s">
         <v>67</v>
@@ -17860,7 +17816,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C61" s="214" t="s">
         <v>69</v>
@@ -17878,7 +17834,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="214" t="s">
         <v>71</v>
@@ -17896,7 +17852,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C63" s="214" t="s">
         <v>73</v>
@@ -17914,7 +17870,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="214" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="214" t="s">
         <v>51</v>
@@ -17947,7 +17903,7 @@
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -18147,7 +18103,7 @@
     </row>
     <row r="6" spans="1:31" ht="18.75">
       <c r="A6" s="124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" s="124"/>
       <c r="C6" s="124"/>
@@ -18187,7 +18143,7 @@
     </row>
     <row r="7" spans="1:31" ht="18.75">
       <c r="A7" s="266" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="124"/>
       <c r="C7" s="124"/>
@@ -18322,7 +18278,7 @@
       <c r="M10" s="327"/>
       <c r="N10" s="256"/>
       <c r="O10" s="336" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P10" s="256"/>
       <c r="Q10" s="327" t="s">
@@ -18814,7 +18770,7 @@
         <v>175</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C20" s="258">
         <v>64.595253999999997</v>
@@ -18874,7 +18830,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -19677,7 +19633,7 @@
     </row>
     <row r="36" spans="1:31" ht="15" customHeight="1">
       <c r="A36" s="184" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="105"/>
@@ -20139,7 +20095,7 @@
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B48" s="69"/>
       <c r="C48" s="13"/>
@@ -20173,7 +20129,7 @@
     </row>
     <row r="49" spans="1:31" ht="15" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B49" s="69"/>
       <c r="C49" s="13"/>
@@ -21052,7 +21008,7 @@
   <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22438,7 +22394,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -22454,13 +22410,13 @@
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="338" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="338" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="340" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E4" s="340"/>
       <c r="F4" s="340"/>
@@ -22507,7 +22463,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C6" s="316" t="s">
         <v>156</v>
@@ -22524,7 +22480,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>156</v>
@@ -22544,7 +22500,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>156</v>
@@ -22564,7 +22520,7 @@
     </row>
     <row r="9" spans="1:19" ht="23.25">
       <c r="B9" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>156</v>
@@ -22584,7 +22540,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C10" s="316" t="s">
         <v>159</v>
@@ -22595,7 +22551,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>159</v>
@@ -22615,7 +22571,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>159</v>
@@ -22635,7 +22591,7 @@
     </row>
     <row r="13" spans="1:19" ht="23.25">
       <c r="B13" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>159</v>
@@ -22655,7 +22611,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="316" t="s">
         <v>164</v>
@@ -22672,7 +22628,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>164</v>
@@ -22692,7 +22648,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>164</v>
@@ -22712,7 +22668,7 @@
     </row>
     <row r="17" spans="2:6" ht="23.25">
       <c r="B17" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>164</v>
@@ -22732,7 +22688,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C18" s="316" t="s">
         <v>167</v>
@@ -22743,7 +22699,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>167</v>
@@ -22763,7 +22719,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>167</v>
@@ -22783,7 +22739,7 @@
     </row>
     <row r="21" spans="2:6" ht="23.25">
       <c r="B21" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>167</v>
@@ -22803,7 +22759,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C22" s="316" t="s">
         <v>172</v>
@@ -22820,7 +22776,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>172</v>
@@ -22840,7 +22796,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>172</v>
@@ -22860,7 +22816,7 @@
     </row>
     <row r="25" spans="2:6" ht="23.25">
       <c r="B25" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>172</v>
@@ -22880,7 +22836,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C26" s="316" t="s">
         <v>175</v>
@@ -22897,7 +22853,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>175</v>
@@ -22917,7 +22873,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>175</v>
@@ -22937,7 +22893,7 @@
     </row>
     <row r="29" spans="2:6" ht="23.25">
       <c r="B29" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>175</v>
@@ -22957,7 +22913,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="316" t="s">
         <v>178</v>
@@ -22968,7 +22924,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>178</v>
@@ -22988,7 +22944,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>178</v>
@@ -23008,7 +22964,7 @@
     </row>
     <row r="33" spans="2:6" ht="23.25">
       <c r="B33" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>178</v>
@@ -23028,7 +22984,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C34" s="316" t="s">
         <v>179</v>
@@ -23045,7 +23001,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>179</v>
@@ -23065,7 +23021,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>179</v>
@@ -23085,7 +23041,7 @@
     </row>
     <row r="37" spans="2:6" ht="23.25">
       <c r="B37" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>179</v>
@@ -23105,7 +23061,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C38" s="316" t="s">
         <v>184</v>
@@ -23122,7 +23078,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>184</v>
@@ -23142,7 +23098,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>184</v>
@@ -23162,7 +23118,7 @@
     </row>
     <row r="41" spans="2:6" ht="23.25">
       <c r="B41" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>184</v>
@@ -23182,7 +23138,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C42" s="316" t="s">
         <v>187</v>
@@ -23199,7 +23155,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>187</v>
@@ -23219,7 +23175,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>187</v>
@@ -23239,7 +23195,7 @@
     </row>
     <row r="45" spans="2:6" ht="23.25">
       <c r="B45" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>187</v>
@@ -23259,7 +23215,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C46" s="316" t="s">
         <v>189</v>
@@ -23276,7 +23232,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>189</v>
@@ -23296,7 +23252,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>189</v>
@@ -23316,7 +23272,7 @@
     </row>
     <row r="49" spans="2:6" ht="23.25">
       <c r="B49" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>189</v>
@@ -23336,7 +23292,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C50" s="316" t="s">
         <v>194</v>
@@ -23353,7 +23309,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>194</v>
@@ -23373,7 +23329,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>194</v>
@@ -23393,7 +23349,7 @@
     </row>
     <row r="53" spans="2:6" ht="23.25">
       <c r="B53" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>194</v>
@@ -23413,7 +23369,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C54" s="316" t="s">
         <v>197</v>
@@ -23430,7 +23386,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>197</v>
@@ -23450,7 +23406,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>197</v>
@@ -23470,7 +23426,7 @@
     </row>
     <row r="57" spans="2:6" ht="23.25">
       <c r="B57" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>197</v>
@@ -23490,7 +23446,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C58" s="316" t="s">
         <v>252</v>
@@ -23507,7 +23463,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>252</v>
@@ -23527,7 +23483,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>252</v>
@@ -23547,7 +23503,7 @@
     </row>
     <row r="61" spans="2:6" ht="23.25">
       <c r="B61" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>252</v>
@@ -23567,7 +23523,7 @@
     </row>
     <row r="62" spans="2:6" ht="23.25">
       <c r="B62" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C62" s="316" t="s">
         <v>255</v>
@@ -23584,7 +23540,7 @@
     </row>
     <row r="63" spans="2:6" ht="23.25">
       <c r="B63" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>255</v>
@@ -23604,7 +23560,7 @@
     </row>
     <row r="64" spans="2:6" ht="23.25">
       <c r="B64" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>255</v>
@@ -23624,7 +23580,7 @@
     </row>
     <row r="65" spans="2:6" ht="23.25">
       <c r="B65" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>255</v>
@@ -23644,7 +23600,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C66" s="316" t="s">
         <v>203</v>
@@ -23661,7 +23617,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>203</v>
@@ -23681,7 +23637,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>203</v>
@@ -23701,7 +23657,7 @@
     </row>
     <row r="69" spans="2:6" ht="23.25">
       <c r="B69" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>203</v>
@@ -23721,7 +23677,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C70" s="316" t="s">
         <v>208</v>
@@ -23732,7 +23688,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>208</v>
@@ -23752,7 +23708,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>208</v>
@@ -23772,7 +23728,7 @@
     </row>
     <row r="73" spans="2:6" ht="23.25">
       <c r="B73" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>208</v>
@@ -23792,7 +23748,7 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C74" s="316" t="s">
         <v>207</v>
@@ -23809,7 +23765,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>207</v>
@@ -23829,7 +23785,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>207</v>
@@ -23849,7 +23805,7 @@
     </row>
     <row r="77" spans="2:6" ht="23.25">
       <c r="B77" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>207</v>
@@ -23869,7 +23825,7 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="316" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C78" s="316" t="s">
         <v>211</v>
@@ -23886,7 +23842,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>211</v>
@@ -23906,7 +23862,7 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>211</v>
@@ -23926,7 +23882,7 @@
     </row>
     <row r="81" spans="2:6" ht="23.25">
       <c r="B81" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>211</v>
@@ -23971,7 +23927,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24736,11 +24692,11 @@
   <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
       <selection pane="topRight" activeCell="B26" sqref="B26"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -24904,11 +24860,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="342" t="s">
+      <c r="H5" s="346" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="343"/>
-      <c r="J5" s="343"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -24933,7 +24889,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="161" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="13"/>
@@ -24944,11 +24900,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="342" t="s">
+      <c r="H6" s="346" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
+      <c r="I6" s="347"/>
+      <c r="J6" s="347"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -24973,7 +24929,7 @@
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="266" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -24984,11 +24940,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="342" t="s">
+      <c r="H7" s="346" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="343"/>
-      <c r="J7" s="343"/>
+      <c r="I7" s="347"/>
+      <c r="J7" s="347"/>
       <c r="K7" s="65"/>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
@@ -25045,31 +25001,31 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1">
-      <c r="A9" s="345" t="s">
+      <c r="A9" s="349" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="345"/>
-      <c r="C9" s="347" t="s">
+      <c r="B9" s="349"/>
+      <c r="C9" s="345" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="347"/>
-      <c r="E9" s="347"/>
-      <c r="F9" s="347"/>
-      <c r="G9" s="347"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="345"/>
+      <c r="G9" s="345"/>
       <c r="H9" s="155"/>
-      <c r="I9" s="344" t="s">
+      <c r="I9" s="348" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="344"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="344"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
+      <c r="J9" s="348"/>
+      <c r="K9" s="348"/>
+      <c r="L9" s="348"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
       <c r="T9" s="114"/>
       <c r="U9" s="114"/>
       <c r="V9" s="114"/>
@@ -25084,47 +25040,47 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="346" t="s">
+      <c r="A10" s="343" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="346" t="s">
+      <c r="B10" s="343" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="349" t="s">
+      <c r="C10" s="344" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="346" t="s">
+      <c r="D10" s="343" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="349" t="s">
+      <c r="E10" s="344" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="349" t="s">
+      <c r="F10" s="344" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="346" t="s">
+      <c r="G10" s="343" t="s">
         <v>152</v>
       </c>
       <c r="H10" s="126"/>
-      <c r="I10" s="348" t="s">
+      <c r="I10" s="342" t="s">
         <v>266</v>
       </c>
-      <c r="J10" s="348"/>
+      <c r="J10" s="342"/>
       <c r="K10" s="131"/>
-      <c r="L10" s="348" t="s">
+      <c r="L10" s="342" t="s">
         <v>267</v>
       </c>
-      <c r="M10" s="348"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="131"/>
-      <c r="O10" s="348" t="s">
+      <c r="O10" s="342" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="348"/>
+      <c r="P10" s="342"/>
       <c r="Q10" s="131"/>
-      <c r="R10" s="348" t="s">
+      <c r="R10" s="342" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="348"/>
+      <c r="S10" s="342"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -25134,13 +25090,13 @@
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="346"/>
-      <c r="B11" s="346"/>
-      <c r="C11" s="349"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="349"/>
-      <c r="F11" s="349"/>
-      <c r="G11" s="346"/>
+      <c r="A11" s="343"/>
+      <c r="B11" s="343"/>
+      <c r="C11" s="344"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="343"/>
       <c r="H11" s="126"/>
       <c r="I11" s="130">
         <v>2018</v>
@@ -26760,7 +26716,7 @@
     <row r="43" spans="1:31">
       <c r="A43" s="119"/>
       <c r="B43" s="205" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C43" s="120" t="str">
         <f>IFERROR(AVERAGE(C40:C42),"")</f>
@@ -27297,6 +27253,16 @@
     <row r="83" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -27304,16 +27270,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -27354,6 +27310,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -27564,22 +27535,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27596,29 +27577,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/country_summary_template.xlsx
+++ b/inst/extdata/country_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\WHO\rapporteur\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE27512-4F22-4D58-BC9C-37D9C1889F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B14533-A51A-4529-8BA3-EC36DB3295C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" activeTab="12" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="942" xr2:uid="{A0469F42-B2BF-41E9-9270-FEA8E2D23640}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="453">
   <si>
     <t>Magnitude +</t>
   </si>
@@ -1215,9 +1215,6 @@
     <t>Purpose: </t>
   </si>
   <si>
-    <t>It provides a stand-alone country summary of the dashboard data and the calculation of the billion contribution estimates for each country. The calculations are based on reported/estimated data values together with projections out to 2025. </t>
-  </si>
-  <si>
     <t>The billion dashboard can be found at https://portal.who.int/triplebillions/. The data on the dashboard is updated every few months. The latest version of this workbook can be downloaded at: link to dashboard download page </t>
   </si>
   <si>
@@ -1227,36 +1224,9 @@
     <t>For each billion: </t>
   </si>
   <si>
-    <t>Summary sheets </t>
-  </si>
-  <si>
-    <t>Each billion summary sheet is tailored to the relevant billion. Each contains: </t>
-  </si>
-  <si>
     <t>Limitations </t>
   </si>
   <si>
-    <t>Some of the calculations are made within the workbook in order to demonstrate the underlying calculation. In some instances, this may result in slight differences relative to the dashboard due to rounding issues. </t>
-  </si>
-  <si>
-    <t>The contributions to the billion are based on projections and these will change as new data is reported (especially with the uncertainty due to COVID-19 – see below). </t>
-  </si>
-  <si>
-    <t>The uncertainty attached to the indicator and billion contribution estimates are large. </t>
-  </si>
-  <si>
-    <t>All empty cells in tables denote missing data entries. </t>
-  </si>
-  <si>
-    <t>COVID-19 </t>
-  </si>
-  <si>
-    <t>The data, data projections and calculations do not take account of the effect of COVID-19. There is currently very limited or no data available that includes the impact of COVID-19 for most indicators. </t>
-  </si>
-  <si>
-    <t>WHO is working to produce scenarios of the effects of COVID-19 on the triple billions and this will be included in future versions. </t>
-  </si>
-  <si>
     <t>Further information </t>
   </si>
   <si>
@@ -1272,9 +1242,6 @@
     <t>Feedback </t>
   </si>
   <si>
-    <t>This workbook provides an overview of country data and calculations for the WHO Triple Billions:</t>
-  </si>
-  <si>
     <t>- 1 billion more people benefiting from universal health coverage (UHC Billion)</t>
   </si>
   <si>
@@ -1282,18 +1249,6 @@
   </si>
   <si>
     <t>- 1 billion more people enjoying better health and well-being (HPOP Billion) </t>
-  </si>
-  <si>
-    <t>- Raw value: the SDG/WHO published value for each indicator or sub-indicator  </t>
-  </si>
-  <si>
-    <t>- Transformed value: the normalised value (scaled to 0-100) that is used in the Billion calculations (details are provided in the GPW13 methods report) </t>
-  </si>
-  <si>
-    <t>- Source: identifies the source of the data entry </t>
-  </si>
-  <si>
-    <t>- Calculated values showing how the components of the overall billion contribution </t>
   </si>
   <si>
     <r>
@@ -1318,72 +1273,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>- The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>summary sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> shows indicator and sub indicator data and how this is used to determine the overall country contribution to the billion. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>time series sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> shows the underlying timeseries data for 2000 to 2025 (including data projections). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>chart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> graphs the latest value and direction of the change for each indicator for 2018-2025 (on a normalised 0-100 scale). </t>
-    </r>
-  </si>
-  <si>
     <t>Indicators for measuring Triple Billion</t>
   </si>
   <si>
@@ -1631,21 +1520,6 @@
   </si>
   <si>
     <t>Direction of change</t>
-  </si>
-  <si>
-    <t>- reported: value observed through surveys, records, etc.</t>
-  </si>
-  <si>
-    <t>- estimated: calculations produced by WHO technical programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - imputed: in-filled values based on time series or other methods</t>
-  </si>
-  <si>
-    <t>- projected: in-filled values based on projection technics</t>
-  </si>
-  <si>
-    <t>- Type: type of data:</t>
   </si>
   <si>
     <r>
@@ -1687,9 +1561,6 @@
     </r>
   </si>
   <si>
-    <t>- Year: even if the time series might contain more data, only latest reported, baseline and last projected years are reported in the summary.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Average Service Coverage </t>
     </r>
@@ -1741,6 +1612,40 @@
   </si>
   <si>
     <t>Please report any issues or feedback to robsona@who.int</t>
+  </si>
+  <si>
+    <t>This workbook provides an overview of country data for the WHO Triple Billions:</t>
+  </si>
+  <si>
+    <t>It provides a stand-alone country summary of the dashboard data of the billion contribution estimates for each country.</t>
+  </si>
+  <si>
+    <r>
+      <t>- The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>time series sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> shows the underlying timeseries data for 2000 to 2021 (including flat extrapolation projections to 2021 and data imputation). </t>
+    </r>
+  </si>
+  <si>
+    <t>This sheet does not contain any calculations as the projections provided are under active revision. The data is however up to date.</t>
+  </si>
+  <si>
+    <t>All projected values presented here should be treated as highly experimental. The inclusion of data past the beginning of the COVID-19 pandemic has broken the assumption that past values could help forecast the trajectories of each indicator. There is active work to remedy this situation.</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2495,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3272,17 +3177,8 @@
     <xf numFmtId="2" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3456,33 +3352,30 @@
     <xf numFmtId="1" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3526,18 +3419,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="53" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3548,6 +3429,18 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3557,15 +3450,18 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3587,9 +3483,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3600,6 +3493,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4286,7 +4182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96019CA0-3C60-48C0-9C65-8DA2AA223DDE}" type="CELLRANGE">
+                    <a:fld id="{B445888A-99FB-480F-8DD9-5D822DBCB7E7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4347,7 +4243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0972DEC8-1C09-472C-96AD-45FDC41DE24A}" type="CELLRANGE">
+                    <a:fld id="{5FAAB115-5B3A-4146-98AA-D587FB2594C7}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4408,7 +4304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B66A2E3A-508A-4F51-A1DE-DD0F1BE7C364}" type="CELLRANGE">
+                    <a:fld id="{3AA22522-A5DE-454E-8E50-C11ECEC65CC3}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4442,7 +4338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{666E3DE9-37B9-40BD-92A9-B85CA3074D3D}" type="CELLRANGE">
+                    <a:fld id="{89F0D87C-6A15-4C7B-BE8D-0396698C9CD4}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4503,7 +4399,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF895504-8239-4ACC-9C81-1C7572F1E12B}" type="CELLRANGE">
+                    <a:fld id="{057DC4BC-1EFE-412E-B91B-84B413F1A9F1}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4537,7 +4433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35F5C970-41C8-482C-9BBE-483BE5E48FD2}" type="CELLRANGE">
+                    <a:fld id="{56D7F8FC-A0D1-4E4E-9BDC-7568FA7A2222}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4571,7 +4467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B44A7A68-8A72-4E24-8449-7C05FB31383F}" type="CELLRANGE">
+                    <a:fld id="{FAD69E94-D7D7-4CBD-9C3A-ECD31FD5CA9A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4605,7 +4501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A54D54EE-229A-40BC-823B-154EE78FDF43}" type="CELLRANGE">
+                    <a:fld id="{1B294B20-86DF-4D66-8171-4A3F91974C51}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4639,7 +4535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15FDF1A3-0A26-4E81-B77A-FC816A7F1814}" type="CELLRANGE">
+                    <a:fld id="{8077402F-BD12-456F-B819-60E94C19A421}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4673,7 +4569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{274EAD34-2666-46EB-8E3F-925B9559F71D}" type="CELLRANGE">
+                    <a:fld id="{5A2CDF49-FAD9-4FAF-AA66-4BECAEAAB025}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4707,7 +4603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9369708-59D4-4AA9-8227-38A9F4766B4A}" type="CELLRANGE">
+                    <a:fld id="{D0BC430C-12D1-440B-AC0D-17135EDAF410}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6469,7 +6365,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C5C5895-9B94-40AB-8BDE-4B9E2ED9AEA0}" type="CELLRANGE">
+                    <a:fld id="{045DCA77-9B43-40D2-8EC4-529312B4328F}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6530,7 +6426,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F31142D8-7CF0-41EB-8A51-63D7A0D09C28}" type="CELLRANGE">
+                    <a:fld id="{D2195BAB-DE28-47CE-9633-85C836E7CB5A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6591,7 +6487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6491CDAA-B150-4A09-883A-9247AC28BA03}" type="CELLRANGE">
+                    <a:fld id="{3BE9EC94-715B-445A-A7AD-CABAD0466699}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6625,7 +6521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C70E23F-B0CE-4177-877A-94BB3B25A085}" type="CELLRANGE">
+                    <a:fld id="{60640560-BDD2-4BB2-AA8A-BDA2B2DCC46A}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6686,7 +6582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2346E93F-4190-4E9A-9944-E8D82A64AF0E}" type="CELLRANGE">
+                    <a:fld id="{C291F075-6108-4351-A3A1-1B8C78A186E9}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6720,7 +6616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{148F5586-69E7-4DA4-9750-9EE288958411}" type="CELLRANGE">
+                    <a:fld id="{86DC7BCF-D374-4DFA-B772-AB6C0BC01742}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6754,7 +6650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEDE0954-4ABE-4125-8075-B1EBD5815B50}" type="CELLRANGE">
+                    <a:fld id="{D0FAD57D-9184-4144-B1D1-627581B86A23}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6788,7 +6684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A63EFEBF-C644-4F22-A5E7-23A5A87130BC}" type="CELLRANGE">
+                    <a:fld id="{FCF17684-9931-4D26-931A-C687B6E055BF}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6822,7 +6718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FC67908-4650-42CA-A2B2-9A42D8572EB1}" type="CELLRANGE">
+                    <a:fld id="{AAD0A7B6-529D-402A-AF5C-479AA823071B}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6856,7 +6752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89B870E9-46B1-49F6-A222-CD579ED7E615}" type="CELLRANGE">
+                    <a:fld id="{7BC7BB32-35C6-41DE-A4F1-B824358AF273}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6890,7 +6786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBE6113F-5798-4DE5-8D82-9BFB7B99A2A4}" type="CELLRANGE">
+                    <a:fld id="{DB63708A-7EF9-4697-BE51-F82A04384DCE}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6924,7 +6820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C3387C0-D4E0-4DB6-A396-41BA1B974A19}" type="CELLRANGE">
+                    <a:fld id="{340053B3-CC27-4E9E-AB13-2A19BDDDC280}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6958,7 +6854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D7B983C-0694-4DE6-9517-014133D7E0D7}" type="CELLRANGE">
+                    <a:fld id="{389ACFBE-FA2F-4A08-B066-B8504635B8D8}" type="CELLRANGE">
                       <a:rPr lang="en-CH"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7842,10 +7738,10 @@
   <sheetPr>
     <tabColor rgb="FFD1D9EB"/>
   </sheetPr>
-  <dimension ref="B1:O47"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7858,786 +7754,462 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:15" ht="36" customHeight="1">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="319" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="325"/>
-      <c r="M2" s="325"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
       <c r="N2" s="60"/>
       <c r="O2" s="60"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
-      <c r="B3" s="326" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="326"/>
+      <c r="B3" s="320" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
       <c r="N3" s="199"/>
       <c r="O3" s="199"/>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1">
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="316" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="316"/>
       <c r="N4" s="200"/>
       <c r="O4" s="200"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1">
-      <c r="B5" s="319" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
+      <c r="B5" s="317" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
       <c r="N5" s="199"/>
       <c r="O5" s="199"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1">
-      <c r="B6" s="324" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="324"/>
+      <c r="B6" s="315" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
       <c r="N6" s="201"/>
       <c r="O6" s="201"/>
     </row>
     <row r="7" spans="2:15" ht="15" customHeight="1">
-      <c r="B7" s="324" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="324"/>
-      <c r="J7" s="324"/>
-      <c r="K7" s="324"/>
-      <c r="L7" s="324"/>
-      <c r="M7" s="324"/>
+      <c r="B7" s="315" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="315"/>
       <c r="N7" s="201"/>
       <c r="O7" s="201"/>
     </row>
     <row r="8" spans="2:15" ht="21.75" customHeight="1">
-      <c r="B8" s="324" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="324"/>
-      <c r="K8" s="324"/>
-      <c r="L8" s="324"/>
-      <c r="M8" s="324"/>
+      <c r="B8" s="315" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="315"/>
+      <c r="D8" s="315"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="315"/>
+      <c r="G8" s="315"/>
+      <c r="H8" s="315"/>
+      <c r="I8" s="315"/>
+      <c r="J8" s="315"/>
+      <c r="K8" s="315"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="315"/>
       <c r="N8" s="201"/>
       <c r="O8" s="201"/>
     </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1">
-      <c r="B9" s="319" t="s">
+    <row r="9" spans="2:15">
+      <c r="B9" s="317" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="317"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="317"/>
+      <c r="K9" s="317"/>
+      <c r="L9" s="317"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="364" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="364"/>
+      <c r="D10" s="364"/>
+      <c r="E10" s="364"/>
+      <c r="F10" s="364"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="364"/>
+      <c r="L10" s="364"/>
+      <c r="M10" s="364"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.75" customHeight="1">
+      <c r="B11" s="317" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="319"/>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="319"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="319"/>
-    </row>
-    <row r="10" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B10" s="319" t="s">
+      <c r="C11" s="317"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
+      <c r="L11" s="317"/>
+    </row>
+    <row r="12" spans="2:15" ht="21" customHeight="1">
+      <c r="B12" s="316" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-    </row>
-    <row r="11" spans="2:15" ht="21" customHeight="1">
-      <c r="B11" s="322" t="s">
+      <c r="C12" s="316"/>
+      <c r="D12" s="316"/>
+      <c r="E12" s="316"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="316"/>
+      <c r="H12" s="316"/>
+      <c r="I12" s="316"/>
+      <c r="J12" s="316"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="316"/>
+      <c r="M12" s="316"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="317" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="322"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="322"/>
-      <c r="F11" s="322"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="322"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="319" t="s">
+      <c r="C13" s="317"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="318" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="315"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="317" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="317"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="317"/>
+      <c r="G15" s="317"/>
+      <c r="H15" s="317"/>
+      <c r="I15" s="317"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="317"/>
+      <c r="L15" s="317"/>
+      <c r="M15" s="317"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="198"/>
+    </row>
+    <row r="17" spans="2:13" ht="18.75">
+      <c r="B17" s="316" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="323" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
-      <c r="H13" s="324"/>
-      <c r="I13" s="324"/>
-      <c r="J13" s="324"/>
-      <c r="K13" s="324"/>
-      <c r="L13" s="324"/>
-      <c r="M13" s="324"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="323" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="324"/>
-      <c r="H14" s="324"/>
-      <c r="I14" s="324"/>
-      <c r="J14" s="324"/>
-      <c r="K14" s="324"/>
-      <c r="L14" s="324"/>
-      <c r="M14" s="324"/>
-    </row>
-    <row r="15" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B15" s="323" t="s">
-        <v>367</v>
-      </c>
-      <c r="C15" s="324"/>
-      <c r="D15" s="324"/>
-      <c r="E15" s="324"/>
-      <c r="F15" s="324"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="324"/>
-      <c r="I15" s="324"/>
-      <c r="J15" s="324"/>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="319" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="319"/>
-      <c r="D16" s="319"/>
-      <c r="E16" s="319"/>
-      <c r="F16" s="319"/>
-      <c r="G16" s="319"/>
-      <c r="H16" s="319"/>
-      <c r="I16" s="319"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="319"/>
-      <c r="M16" s="319"/>
-    </row>
-    <row r="17" spans="2:13" ht="18.75">
-      <c r="B17" s="322" t="s">
+      <c r="C17" s="316"/>
+      <c r="D17" s="316"/>
+      <c r="E17" s="316"/>
+      <c r="F17" s="316"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="316"/>
+      <c r="I17" s="316"/>
+      <c r="J17" s="316"/>
+      <c r="K17" s="316"/>
+      <c r="L17" s="316"/>
+      <c r="M17" s="316"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1">
+      <c r="B18" s="322" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="322"/>
+      <c r="D18" s="322"/>
+      <c r="E18" s="322"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="322"/>
+      <c r="H18" s="322"/>
+      <c r="I18" s="322"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="322"/>
+      <c r="L18" s="322"/>
+      <c r="M18" s="322"/>
+    </row>
+    <row r="19" spans="2:13" ht="28.5" customHeight="1">
+      <c r="B19" s="364" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="364"/>
+      <c r="G19" s="364"/>
+      <c r="H19" s="364"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="364"/>
+      <c r="L19" s="364"/>
+      <c r="M19" s="364"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="198"/>
+    </row>
+    <row r="21" spans="2:13" ht="18.75">
+      <c r="B21" s="316" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="322"/>
-      <c r="D17" s="322"/>
-      <c r="E17" s="322"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
-      <c r="M17" s="322"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="319" t="s">
+      <c r="C21" s="316"/>
+      <c r="D21" s="316"/>
+      <c r="E21" s="316"/>
+      <c r="F21" s="316"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="316"/>
+      <c r="I21" s="316"/>
+      <c r="J21" s="316"/>
+      <c r="K21" s="316"/>
+      <c r="L21" s="316"/>
+      <c r="M21" s="316"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="322" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="319"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
-      <c r="F18" s="319"/>
-      <c r="G18" s="319"/>
-      <c r="H18" s="319"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="319"/>
-      <c r="M18" s="319"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B19" s="257"/>
-      <c r="C19" s="318" t="s">
-        <v>360</v>
-      </c>
-      <c r="D19" s="318"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="318"/>
-      <c r="J19" s="318"/>
-      <c r="K19" s="318"/>
-      <c r="L19" s="318"/>
-      <c r="M19" s="318"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="257"/>
-      <c r="C20" s="318" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="318"/>
-      <c r="E20" s="318"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
-      <c r="K20" s="318"/>
-      <c r="L20" s="318"/>
-      <c r="M20" s="318"/>
-    </row>
-    <row r="21" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B21" s="257"/>
-      <c r="C21" s="318" t="s">
-        <v>458</v>
-      </c>
-      <c r="D21" s="318"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="318"/>
-      <c r="I21" s="318"/>
-      <c r="J21" s="318"/>
-      <c r="K21" s="318"/>
-      <c r="L21" s="318"/>
-      <c r="M21" s="318"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="257"/>
-      <c r="C22" s="318" t="s">
-        <v>455</v>
-      </c>
-      <c r="D22" s="318"/>
-      <c r="E22" s="318"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="318"/>
-      <c r="L22" s="318"/>
-      <c r="M22" s="318"/>
-    </row>
-    <row r="23" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B23" s="257"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="318" t="s">
-        <v>451</v>
-      </c>
-      <c r="E23" s="318"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="318"/>
-      <c r="L23" s="318"/>
-      <c r="M23" s="318"/>
-    </row>
-    <row r="24" spans="2:13" ht="14.45" customHeight="1">
-      <c r="B24" s="257"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="318" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
-      <c r="K24" s="318"/>
-      <c r="L24" s="318"/>
-      <c r="M24" s="318"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="322"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="322"/>
+      <c r="H22" s="322"/>
+      <c r="I22" s="322"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="322"/>
+      <c r="L22" s="322"/>
+      <c r="M22" s="322"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="322" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="322"/>
+      <c r="D23" s="322"/>
+      <c r="E23" s="322"/>
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="322" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="322"/>
+      <c r="D24" s="322"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="322"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
+      <c r="M24" s="322"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="254"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="319" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="254"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="318" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26" s="318"/>
-      <c r="F26" s="318"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="318"/>
-      <c r="I26" s="318"/>
-      <c r="J26" s="318"/>
-      <c r="K26" s="318"/>
-      <c r="L26" s="318"/>
-      <c r="M26" s="318"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1">
-      <c r="B27" s="323" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="324"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="324"/>
-      <c r="J27" s="324"/>
-      <c r="K27" s="324"/>
-      <c r="L27" s="324"/>
-      <c r="M27" s="324"/>
-    </row>
-    <row r="28" spans="2:13" ht="15" customHeight="1">
-      <c r="B28" s="323" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" s="324"/>
-      <c r="D28" s="324"/>
-      <c r="E28" s="324"/>
-      <c r="F28" s="324"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="324"/>
-      <c r="I28" s="324"/>
-      <c r="J28" s="324"/>
-      <c r="K28" s="324"/>
-      <c r="L28" s="324"/>
-      <c r="M28" s="324"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="198"/>
-    </row>
-    <row r="30" spans="2:13" ht="18.75">
-      <c r="B30" s="322" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" s="322"/>
-      <c r="D30" s="322"/>
-      <c r="E30" s="322"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="322"/>
-      <c r="H30" s="322"/>
-      <c r="I30" s="322"/>
-      <c r="J30" s="322"/>
-      <c r="K30" s="322"/>
-      <c r="L30" s="322"/>
-      <c r="M30" s="322"/>
-    </row>
-    <row r="31" spans="2:13" ht="15" customHeight="1">
-      <c r="B31" s="321" t="s">
-        <v>470</v>
-      </c>
-      <c r="C31" s="321"/>
-      <c r="D31" s="321"/>
-      <c r="E31" s="321"/>
-      <c r="F31" s="321"/>
-      <c r="G31" s="321"/>
-      <c r="H31" s="321"/>
-      <c r="I31" s="321"/>
-      <c r="J31" s="321"/>
-      <c r="K31" s="321"/>
-      <c r="L31" s="321"/>
-      <c r="M31" s="321"/>
-    </row>
-    <row r="32" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B32" s="319" t="s">
-        <v>344</v>
-      </c>
-      <c r="C32" s="319"/>
-      <c r="D32" s="319"/>
-      <c r="E32" s="319"/>
-      <c r="F32" s="319"/>
-      <c r="G32" s="319"/>
-      <c r="H32" s="319"/>
-      <c r="I32" s="319"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="319"/>
-      <c r="L32" s="319"/>
-      <c r="M32" s="319"/>
-    </row>
-    <row r="33" spans="2:13" ht="28.5" customHeight="1">
-      <c r="B33" s="319" t="s">
+      <c r="B25" s="248" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+    </row>
+    <row r="26" spans="2:13" ht="18.75">
+      <c r="B26" s="316" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="319"/>
-      <c r="D33" s="319"/>
-      <c r="E33" s="319"/>
-      <c r="F33" s="319"/>
-      <c r="G33" s="319"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="319"/>
-      <c r="K33" s="319"/>
-      <c r="L33" s="319"/>
-      <c r="M33" s="319"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="319" t="s">
-        <v>346</v>
-      </c>
-      <c r="C34" s="319"/>
-      <c r="D34" s="319"/>
-      <c r="E34" s="319"/>
-      <c r="F34" s="319"/>
-      <c r="G34" s="319"/>
-      <c r="H34" s="319"/>
-      <c r="I34" s="319"/>
-      <c r="J34" s="319"/>
-      <c r="K34" s="319"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="319"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="319" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="319"/>
-      <c r="J35" s="319"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
-    </row>
-    <row r="36" spans="2:13" ht="18.75">
-      <c r="B36" s="322" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="322"/>
-      <c r="D36" s="322"/>
-      <c r="E36" s="322"/>
-      <c r="F36" s="322"/>
-      <c r="G36" s="322"/>
-      <c r="H36" s="322"/>
-      <c r="I36" s="322"/>
-      <c r="J36" s="322"/>
-      <c r="K36" s="322"/>
-      <c r="L36" s="322"/>
-      <c r="M36" s="322"/>
-    </row>
-    <row r="37" spans="2:13" ht="30.75" customHeight="1">
-      <c r="B37" s="319" t="s">
-        <v>349</v>
-      </c>
-      <c r="C37" s="319"/>
-      <c r="D37" s="319"/>
-      <c r="E37" s="319"/>
-      <c r="F37" s="319"/>
-      <c r="G37" s="319"/>
-      <c r="H37" s="319"/>
-      <c r="I37" s="319"/>
-      <c r="J37" s="319"/>
-      <c r="K37" s="319"/>
-      <c r="L37" s="319"/>
-      <c r="M37" s="319"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="319" t="s">
-        <v>350</v>
-      </c>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="319"/>
-      <c r="F38" s="319"/>
-      <c r="G38" s="319"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="319"/>
-      <c r="J38" s="319"/>
-      <c r="K38" s="319"/>
-      <c r="L38" s="319"/>
-      <c r="M38" s="319"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="198"/>
-    </row>
-    <row r="40" spans="2:13" ht="18.75">
-      <c r="B40" s="322" t="s">
-        <v>351</v>
-      </c>
-      <c r="C40" s="322"/>
-      <c r="D40" s="322"/>
-      <c r="E40" s="322"/>
-      <c r="F40" s="322"/>
-      <c r="G40" s="322"/>
-      <c r="H40" s="322"/>
-      <c r="I40" s="322"/>
-      <c r="J40" s="322"/>
-      <c r="K40" s="322"/>
-      <c r="L40" s="322"/>
-      <c r="M40" s="322"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="321" t="s">
-        <v>352</v>
-      </c>
-      <c r="C41" s="321"/>
-      <c r="D41" s="321"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
-      <c r="I41" s="321"/>
-      <c r="J41" s="321"/>
-      <c r="K41" s="321"/>
-      <c r="L41" s="321"/>
-      <c r="M41" s="321"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="321" t="s">
-        <v>353</v>
-      </c>
-      <c r="C42" s="321"/>
-      <c r="D42" s="321"/>
-      <c r="E42" s="321"/>
-      <c r="F42" s="321"/>
-      <c r="G42" s="321"/>
-      <c r="H42" s="321"/>
-      <c r="I42" s="321"/>
-      <c r="J42" s="321"/>
-      <c r="K42" s="321"/>
-      <c r="L42" s="321"/>
-      <c r="M42" s="321"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="321" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="321"/>
-      <c r="D43" s="321"/>
-      <c r="E43" s="321"/>
-      <c r="F43" s="321"/>
-      <c r="G43" s="321"/>
-      <c r="H43" s="321"/>
-      <c r="I43" s="321"/>
-      <c r="J43" s="321"/>
-      <c r="K43" s="321"/>
-      <c r="L43" s="321"/>
-      <c r="M43" s="321"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="248" t="s">
-        <v>445</v>
-      </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246"/>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-    </row>
-    <row r="45" spans="2:13" ht="18.75">
-      <c r="B45" s="322" t="s">
-        <v>355</v>
-      </c>
-      <c r="C45" s="322"/>
-      <c r="D45" s="322"/>
-      <c r="E45" s="322"/>
-      <c r="F45" s="322"/>
-      <c r="G45" s="322"/>
-      <c r="H45" s="322"/>
-      <c r="I45" s="322"/>
-      <c r="J45" s="322"/>
-      <c r="K45" s="322"/>
-      <c r="L45" s="322"/>
-      <c r="M45" s="322"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="319" t="s">
-        <v>471</v>
-      </c>
-      <c r="C46" s="319"/>
-      <c r="D46" s="319"/>
-      <c r="E46" s="319"/>
-      <c r="F46" s="319"/>
-      <c r="G46" s="319"/>
-      <c r="H46" s="319"/>
-      <c r="I46" s="319"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="319"/>
-      <c r="L46" s="319"/>
-      <c r="M46" s="319"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="320" t="s">
-        <v>444</v>
-      </c>
-      <c r="C47" s="320"/>
-      <c r="D47" s="320"/>
-      <c r="E47" s="320"/>
-      <c r="F47" s="320"/>
-      <c r="G47" s="320"/>
-      <c r="H47" s="320"/>
-      <c r="I47" s="320"/>
-      <c r="J47" s="320"/>
-      <c r="K47" s="320"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="316"/>
+      <c r="I26" s="316"/>
+      <c r="J26" s="316"/>
+      <c r="K26" s="316"/>
+      <c r="L26" s="316"/>
+      <c r="M26" s="316"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="317" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="317"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="317"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="321" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="321"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="321"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="321"/>
+      <c r="J28" s="321"/>
+      <c r="K28" s="321"/>
+      <c r="L28" s="321"/>
+      <c r="M28" s="321"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
+  <mergeCells count="24">
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:M24"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B10:M10"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="B43:M43"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B37:M37"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="B36:M36"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B41:M41"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
-    <hyperlink ref="B42" r:id="rId2" display="https://www.who.int/data/stories/the-triple-billion-targets-a-visual-summary-of-methods-to-deliver-impact" xr:uid="{D4AD1440-FB19-4536-BA9C-20A2D8687CB8}"/>
-    <hyperlink ref="B43" r:id="rId3" display="https://cdn.who.int/media/docs/default-source/documents/metadata-v11-final_16julydd1799c1-ee97-49cc-a793-7aea445d94cc.pdf?sfvrsn=c3021a38_1&amp;download=true" xr:uid="{516CDD63-44E3-4DB4-B3DD-EFF1963A1DFF}"/>
-    <hyperlink ref="B47:M47" r:id="rId4" display="All code to generate those worksheets is available on github: https://github.com/gpw13/billionaiRe" xr:uid="{6B3A0F6D-7C00-4207-8178-C4441530F2EE}"/>
-    <hyperlink ref="B44" r:id="rId5" xr:uid="{FD9EE3AE-A49B-4FA5-9301-8B375015E4D9}"/>
-    <hyperlink ref="C20" r:id="rId6" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{750C9F1F-2EE1-4505-B669-265101DDC166}"/>
-    <hyperlink ref="B31:M31" r:id="rId7" display="Please refer to the GPW13 Methods report and the Triple Billion Dashboard FAQ. " xr:uid="{C96716F9-2E88-489B-A833-0A48A8A326AA}"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://cdn.who.int/media/docs/default-source/documents/about-us/thirteenth-general-programme/gpw13_methodology_nov9_online-version1b3170f8-98ea-4fcc-aa3a-059ede7e51ad.pdf?sfvrsn=12dfeb0d_1&amp;download=true" xr:uid="{5B1AD3AB-AC30-4E70-9D4E-7E9B49DF39DD}"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://www.who.int/data/stories/the-triple-billion-targets-a-visual-summary-of-methods-to-deliver-impact" xr:uid="{D4AD1440-FB19-4536-BA9C-20A2D8687CB8}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://cdn.who.int/media/docs/default-source/documents/metadata-v11-final_16julydd1799c1-ee97-49cc-a793-7aea445d94cc.pdf?sfvrsn=c3021a38_1&amp;download=true" xr:uid="{516CDD63-44E3-4DB4-B3DD-EFF1963A1DFF}"/>
+    <hyperlink ref="B28:M28" r:id="rId4" display="All code to generate those worksheets is available on github: https://github.com/gpw13/billionaiRe" xr:uid="{6B3A0F6D-7C00-4207-8178-C4441530F2EE}"/>
+    <hyperlink ref="B25" r:id="rId5" xr:uid="{FD9EE3AE-A49B-4FA5-9301-8B375015E4D9}"/>
+    <hyperlink ref="B18:M18" r:id="rId6" display="Please refer to the GPW13 Methods report and the Triple Billion Dashboard FAQ. " xr:uid="{C96716F9-2E88-489B-A833-0A48A8A326AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -8667,7 +8239,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -8681,17 +8253,17 @@
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="350" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="350" t="s">
+      <c r="B4" s="346" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="346" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="352" t="s">
-        <v>467</v>
-      </c>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
+      <c r="D4" s="348" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -8708,8 +8280,8 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="13"/>
-      <c r="B5" s="351"/>
-      <c r="C5" s="351"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
       <c r="D5" s="171" t="s">
         <v>88</v>
       </c>
@@ -8734,10 +8306,10 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="316" t="s">
+      <c r="B6" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="313" t="s">
         <v>203</v>
       </c>
       <c r="D6" s="175">
@@ -8752,7 +8324,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>203</v>
@@ -8772,7 +8344,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>203</v>
@@ -8792,7 +8364,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="B9" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>203</v>
@@ -8811,10 +8383,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="316" t="s">
+      <c r="B10" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="313" t="s">
         <v>298</v>
       </c>
       <c r="D10" s="175">
@@ -8829,7 +8401,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>298</v>
@@ -8849,7 +8421,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>298</v>
@@ -8869,7 +8441,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>298</v>
@@ -8888,10 +8460,10 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="316" t="s">
+      <c r="B14" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="313" t="s">
         <v>299</v>
       </c>
       <c r="D14" s="23"/>
@@ -8900,7 +8472,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>299</v>
@@ -8920,7 +8492,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>299</v>
@@ -8940,7 +8512,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>299</v>
@@ -8959,10 +8531,10 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="316" t="s">
+      <c r="B18" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="313" t="s">
         <v>301</v>
       </c>
       <c r="D18" s="175">
@@ -8977,7 +8549,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>301</v>
@@ -8997,7 +8569,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>301</v>
@@ -9017,7 +8589,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>301</v>
@@ -9036,10 +8608,10 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" s="316" t="s">
+      <c r="B22" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="313" t="s">
         <v>303</v>
       </c>
       <c r="D22" s="175"/>
@@ -9048,7 +8620,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>303</v>
@@ -9068,7 +8640,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>303</v>
@@ -9088,7 +8660,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>303</v>
@@ -9107,10 +8679,10 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="316" t="s">
+      <c r="B26" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="313" t="s">
         <v>304</v>
       </c>
       <c r="D26" s="175">
@@ -9125,7 +8697,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>304</v>
@@ -9145,7 +8717,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>304</v>
@@ -9165,7 +8737,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>304</v>
@@ -9184,10 +8756,10 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C30" s="316" t="s">
+      <c r="B30" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="313" t="s">
         <v>305</v>
       </c>
       <c r="D30" s="175"/>
@@ -9196,7 +8768,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>305</v>
@@ -9216,7 +8788,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>305</v>
@@ -9236,7 +8808,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>305</v>
@@ -9255,10 +8827,10 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C34" s="316" t="s">
+      <c r="B34" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="313" t="s">
         <v>306</v>
       </c>
       <c r="D34" s="175"/>
@@ -9266,10 +8838,10 @@
       <c r="F34" s="175"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C35" s="316" t="s">
+      <c r="B35" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" s="313" t="s">
         <v>306</v>
       </c>
       <c r="D35" s="175">
@@ -9286,10 +8858,10 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C36" s="316" t="s">
+      <c r="B36" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36" s="313" t="s">
         <v>306</v>
       </c>
       <c r="D36" s="175">
@@ -9306,10 +8878,10 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C37" s="316" t="s">
+      <c r="B37" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="313" t="s">
         <v>306</v>
       </c>
       <c r="D37" s="175">
@@ -9326,10 +8898,10 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C38" s="316" t="s">
+      <c r="B38" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="313" t="s">
         <v>307</v>
       </c>
       <c r="D38" s="175">
@@ -9343,10 +8915,10 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C39" s="316" t="s">
+      <c r="B39" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C39" s="313" t="s">
         <v>307</v>
       </c>
       <c r="D39" s="175">
@@ -9363,10 +8935,10 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C40" s="316" t="s">
+      <c r="B40" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C40" s="313" t="s">
         <v>307</v>
       </c>
       <c r="D40" s="175">
@@ -9383,10 +8955,10 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C41" s="316" t="s">
+      <c r="B41" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="313" t="s">
         <v>307</v>
       </c>
       <c r="D41" s="175">
@@ -9403,10 +8975,10 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C42" s="316" t="s">
+      <c r="B42" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="313" t="s">
         <v>308</v>
       </c>
       <c r="D42" s="175">
@@ -9420,10 +8992,10 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C43" s="316" t="s">
+      <c r="B43" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="313" t="s">
         <v>308</v>
       </c>
       <c r="D43" s="175">
@@ -9440,10 +9012,10 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44" s="316" t="s">
+      <c r="B44" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="313" t="s">
         <v>308</v>
       </c>
       <c r="D44" s="175">
@@ -9460,10 +9032,10 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C45" s="316" t="s">
+      <c r="B45" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="313" t="s">
         <v>308</v>
       </c>
       <c r="D45" s="175">
@@ -9480,10 +9052,10 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" s="316" t="s">
+      <c r="B46" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="313" t="s">
         <v>309</v>
       </c>
       <c r="D46" s="175">
@@ -9497,10 +9069,10 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C47" s="316" t="s">
+      <c r="B47" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="313" t="s">
         <v>309</v>
       </c>
       <c r="D47" s="175">
@@ -9517,10 +9089,10 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C48" s="316" t="s">
+      <c r="B48" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C48" s="313" t="s">
         <v>309</v>
       </c>
       <c r="D48" s="175">
@@ -9537,10 +9109,10 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C49" s="316" t="s">
+      <c r="B49" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="313" t="s">
         <v>309</v>
       </c>
       <c r="D49" s="175">
@@ -9557,10 +9129,10 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" s="316" t="s">
+      <c r="B50" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="313" t="s">
         <v>310</v>
       </c>
       <c r="D50" s="175">
@@ -9574,10 +9146,10 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C51" s="316" t="s">
+      <c r="B51" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C51" s="313" t="s">
         <v>310</v>
       </c>
       <c r="D51" s="175">
@@ -9594,10 +9166,10 @@
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C52" s="316" t="s">
+      <c r="B52" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C52" s="313" t="s">
         <v>310</v>
       </c>
       <c r="D52" s="175">
@@ -9614,10 +9186,10 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C53" s="316" t="s">
+      <c r="B53" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C53" s="313" t="s">
         <v>310</v>
       </c>
       <c r="D53" s="175">
@@ -9634,10 +9206,10 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C54" s="316" t="s">
+      <c r="B54" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="313" t="s">
         <v>311</v>
       </c>
       <c r="D54" s="175">
@@ -9651,10 +9223,10 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C55" s="316" t="s">
+      <c r="B55" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C55" s="313" t="s">
         <v>311</v>
       </c>
       <c r="D55" s="175">
@@ -9671,10 +9243,10 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" s="316" t="s">
+      <c r="B56" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" s="313" t="s">
         <v>311</v>
       </c>
       <c r="D56" s="175">
@@ -9691,10 +9263,10 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C57" s="316" t="s">
+      <c r="B57" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C57" s="313" t="s">
         <v>311</v>
       </c>
       <c r="D57" s="175">
@@ -9711,10 +9283,10 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" s="316" t="s">
+      <c r="B58" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="313" t="s">
         <v>312</v>
       </c>
       <c r="D58" s="175">
@@ -9728,10 +9300,10 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C59" s="316" t="s">
+      <c r="B59" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C59" s="313" t="s">
         <v>312</v>
       </c>
       <c r="D59" s="175">
@@ -9748,10 +9320,10 @@
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C60" s="316" t="s">
+      <c r="B60" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C60" s="313" t="s">
         <v>312</v>
       </c>
       <c r="D60" s="175">
@@ -9768,10 +9340,10 @@
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C61" s="316" t="s">
+      <c r="B61" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C61" s="313" t="s">
         <v>312</v>
       </c>
       <c r="D61" s="175">
@@ -9788,11 +9360,11 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="316" t="s">
-        <v>436</v>
+      <c r="B62" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="313" t="s">
+        <v>418</v>
       </c>
       <c r="D62" s="175">
         <v>19</v>
@@ -9805,11 +9377,11 @@
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C63" s="316" t="s">
-        <v>436</v>
+      <c r="B63" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" s="313" t="s">
+        <v>418</v>
       </c>
       <c r="D63" s="175">
         <f t="shared" ref="D63:F63" si="42">+D62</f>
@@ -9825,11 +9397,11 @@
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C64" s="316" t="s">
-        <v>436</v>
+      <c r="B64" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="313" t="s">
+        <v>418</v>
       </c>
       <c r="D64" s="175">
         <f t="shared" ref="D64:F64" si="43">D63+1</f>
@@ -9845,11 +9417,11 @@
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C65" s="316" t="s">
-        <v>436</v>
+      <c r="B65" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" s="313" t="s">
+        <v>418</v>
       </c>
       <c r="D65" s="175">
         <f t="shared" ref="D65:F65" si="44">+D63+2</f>
@@ -9865,10 +9437,10 @@
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C66" s="316" t="s">
+      <c r="B66" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" s="313" t="s">
         <v>314</v>
       </c>
       <c r="D66" s="175">
@@ -9885,10 +9457,10 @@
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C67" s="316" t="s">
+      <c r="B67" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C67" s="313" t="s">
         <v>314</v>
       </c>
       <c r="D67" s="175">
@@ -9905,10 +9477,10 @@
       </c>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C68" s="316" t="s">
+      <c r="B68" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="313" t="s">
         <v>314</v>
       </c>
       <c r="D68" s="175">
@@ -9925,10 +9497,10 @@
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" s="316" t="s">
+      <c r="B69" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="313" t="s">
         <v>314</v>
       </c>
       <c r="D69" s="175">
@@ -9945,10 +9517,10 @@
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C70" s="316" t="s">
+      <c r="B70" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="313" t="s">
         <v>316</v>
       </c>
       <c r="D70" s="175">
@@ -9962,10 +9534,10 @@
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C71" s="316" t="s">
+      <c r="B71" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C71" s="313" t="s">
         <v>316</v>
       </c>
       <c r="D71" s="175">
@@ -9982,10 +9554,10 @@
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C72" s="316" t="s">
+      <c r="B72" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C72" s="313" t="s">
         <v>316</v>
       </c>
       <c r="D72" s="175">
@@ -10002,10 +9574,10 @@
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C73" s="316" t="s">
+      <c r="B73" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C73" s="313" t="s">
         <v>316</v>
       </c>
       <c r="D73" s="175">
@@ -10022,10 +9594,10 @@
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C74" s="316" t="s">
+      <c r="B74" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" s="313" t="s">
         <v>319</v>
       </c>
       <c r="D74" s="175">
@@ -10039,10 +9611,10 @@
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C75" s="316" t="s">
+      <c r="B75" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C75" s="313" t="s">
         <v>319</v>
       </c>
       <c r="D75" s="175">
@@ -10059,10 +9631,10 @@
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C76" s="316" t="s">
+      <c r="B76" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" s="313" t="s">
         <v>319</v>
       </c>
       <c r="D76" s="175">
@@ -10079,10 +9651,10 @@
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C77" s="316" t="s">
+      <c r="B77" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="313" t="s">
         <v>319</v>
       </c>
       <c r="D77" s="175">
@@ -10099,10 +9671,10 @@
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C78" s="316" t="s">
+      <c r="B78" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C78" s="313" t="s">
         <v>321</v>
       </c>
       <c r="D78" s="175"/>
@@ -10110,10 +9682,10 @@
       <c r="F78" s="175"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C79" s="316" t="s">
+      <c r="B79" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="313" t="s">
         <v>321</v>
       </c>
       <c r="D79" s="175">
@@ -10130,10 +9702,10 @@
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C80" s="316" t="s">
+      <c r="B80" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C80" s="313" t="s">
         <v>321</v>
       </c>
       <c r="D80" s="175">
@@ -10150,10 +9722,10 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C81" s="316" t="s">
+      <c r="B81" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C81" s="313" t="s">
         <v>321</v>
       </c>
       <c r="D81" s="175">
@@ -10170,10 +9742,10 @@
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C82" s="316" t="s">
+      <c r="B82" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C82" s="313" t="s">
         <v>323</v>
       </c>
       <c r="D82" s="175">
@@ -10187,10 +9759,10 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C83" s="316" t="s">
+      <c r="B83" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C83" s="313" t="s">
         <v>323</v>
       </c>
       <c r="D83" s="175">
@@ -10207,10 +9779,10 @@
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C84" s="316" t="s">
+      <c r="B84" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C84" s="313" t="s">
         <v>323</v>
       </c>
       <c r="D84" s="175">
@@ -10227,10 +9799,10 @@
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C85" s="316" t="s">
+      <c r="B85" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C85" s="313" t="s">
         <v>323</v>
       </c>
       <c r="D85" s="175">
@@ -10247,10 +9819,10 @@
       </c>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C86" s="316" t="s">
+      <c r="B86" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C86" s="313" t="s">
         <v>325</v>
       </c>
       <c r="D86" s="175">
@@ -10264,10 +9836,10 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C87" s="316" t="s">
+      <c r="B87" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C87" s="313" t="s">
         <v>325</v>
       </c>
       <c r="D87" s="175">
@@ -10284,10 +9856,10 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C88" s="316" t="s">
+      <c r="B88" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" s="313" t="s">
         <v>325</v>
       </c>
       <c r="D88" s="175">
@@ -10304,10 +9876,10 @@
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C89" s="316" t="s">
+      <c r="B89" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="313" t="s">
         <v>325</v>
       </c>
       <c r="D89" s="175">
@@ -10324,10 +9896,10 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C90" s="316" t="s">
+      <c r="B90" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C90" s="313" t="s">
         <v>327</v>
       </c>
       <c r="D90" s="175">
@@ -10341,10 +9913,10 @@
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C91" s="316" t="s">
+      <c r="B91" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="313" t="s">
         <v>327</v>
       </c>
       <c r="D91" s="175">
@@ -10361,10 +9933,10 @@
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C92" s="316" t="s">
+      <c r="B92" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="313" t="s">
         <v>327</v>
       </c>
       <c r="D92" s="175">
@@ -10381,10 +9953,10 @@
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C93" s="316" t="s">
+      <c r="B93" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C93" s="313" t="s">
         <v>327</v>
       </c>
       <c r="D93" s="175">
@@ -10401,11 +9973,11 @@
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C94" s="316" t="s">
-        <v>433</v>
+      <c r="B94" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C94" s="313" t="s">
+        <v>415</v>
       </c>
       <c r="D94" s="175">
         <v>19</v>
@@ -10418,11 +9990,11 @@
       </c>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C95" s="316" t="s">
-        <v>433</v>
+      <c r="B95" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" s="313" t="s">
+        <v>415</v>
       </c>
       <c r="D95" s="175">
         <f t="shared" ref="D95:F97" si="53">+D94+1</f>
@@ -10438,11 +10010,11 @@
       </c>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C96" s="316" t="s">
-        <v>433</v>
+      <c r="B96" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C96" s="313" t="s">
+        <v>415</v>
       </c>
       <c r="D96" s="175">
         <f t="shared" si="53"/>
@@ -10458,11 +10030,11 @@
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C97" s="316" t="s">
-        <v>433</v>
+      <c r="B97" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C97" s="313" t="s">
+        <v>415</v>
       </c>
       <c r="D97" s="175">
         <f t="shared" si="53"/>
@@ -10478,10 +10050,10 @@
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C98" s="316" t="s">
+      <c r="B98" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" s="313" t="s">
         <v>280</v>
       </c>
       <c r="D98" s="175">
@@ -10495,10 +10067,10 @@
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C99" s="316" t="s">
+      <c r="B99" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C99" s="313" t="s">
         <v>280</v>
       </c>
       <c r="D99" s="175">
@@ -10515,10 +10087,10 @@
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C100" s="316" t="s">
+      <c r="B100" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" s="313" t="s">
         <v>280</v>
       </c>
       <c r="D100" s="175">
@@ -10535,10 +10107,10 @@
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C101" s="316" t="s">
+      <c r="B101" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" s="313" t="s">
         <v>280</v>
       </c>
       <c r="D101" s="175">
@@ -10555,10 +10127,10 @@
       </c>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C102" s="316" t="s">
+      <c r="B102" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C102" s="313" t="s">
         <v>283</v>
       </c>
       <c r="D102" s="175">
@@ -10572,10 +10144,10 @@
       </c>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C103" s="316" t="s">
+      <c r="B103" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C103" s="313" t="s">
         <v>283</v>
       </c>
       <c r="D103" s="175">
@@ -10592,10 +10164,10 @@
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C104" s="316" t="s">
+      <c r="B104" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" s="313" t="s">
         <v>283</v>
       </c>
       <c r="D104" s="175">
@@ -10612,10 +10184,10 @@
       </c>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C105" s="316" t="s">
+      <c r="B105" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="313" t="s">
         <v>283</v>
       </c>
       <c r="D105" s="175">
@@ -10632,10 +10204,10 @@
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C106" s="316" t="s">
+      <c r="B106" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C106" s="313" t="s">
         <v>284</v>
       </c>
       <c r="D106" s="175">
@@ -10649,10 +10221,10 @@
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="316" t="s">
-        <v>464</v>
-      </c>
-      <c r="C107" s="316" t="s">
+      <c r="B107" s="313" t="s">
+        <v>440</v>
+      </c>
+      <c r="C107" s="313" t="s">
         <v>284</v>
       </c>
       <c r="D107" s="175">
@@ -10669,10 +10241,10 @@
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="316" t="s">
-        <v>465</v>
-      </c>
-      <c r="C108" s="316" t="s">
+      <c r="B108" s="313" t="s">
+        <v>441</v>
+      </c>
+      <c r="C108" s="313" t="s">
         <v>284</v>
       </c>
       <c r="D108" s="175">
@@ -10689,10 +10261,10 @@
       </c>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="316" t="s">
-        <v>466</v>
-      </c>
-      <c r="C109" s="316" t="s">
+      <c r="B109" s="313" t="s">
+        <v>442</v>
+      </c>
+      <c r="C109" s="313" t="s">
         <v>284</v>
       </c>
       <c r="D109" s="175">
@@ -10709,10 +10281,10 @@
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C110" s="316" t="s">
+      <c r="B110" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" s="313" t="s">
         <v>285</v>
       </c>
       <c r="D110" s="175">
@@ -10727,7 +10299,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>285</v>
@@ -10747,7 +10319,7 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>285</v>
@@ -10767,7 +10339,7 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>285</v>
@@ -11287,9 +10859,9 @@
   </sheetPr>
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11466,7 +11038,7 @@
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1">
       <c r="A6" s="124" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="161"/>
@@ -11500,8 +11072,8 @@
       <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1">
-      <c r="A7" s="266" t="s">
-        <v>446</v>
+      <c r="A7" s="263" t="s">
+        <v>428</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -11556,222 +11128,222 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1">
-      <c r="A9" s="353" t="s">
+      <c r="A9" s="352" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="353"/>
-      <c r="C9" s="360" t="s">
+      <c r="B9" s="352"/>
+      <c r="C9" s="357" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="360"/>
-      <c r="E9" s="360"/>
-      <c r="F9" s="360"/>
-      <c r="G9" s="360"/>
-      <c r="H9" s="360"/>
-      <c r="I9" s="360"/>
+      <c r="D9" s="357"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="361" t="s">
+      <c r="K9" s="358" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="361"/>
-      <c r="M9" s="361"/>
-      <c r="N9" s="361"/>
-      <c r="O9" s="361"/>
-      <c r="P9" s="361"/>
-      <c r="Q9" s="361"/>
-      <c r="R9" s="361"/>
-      <c r="S9" s="361"/>
-      <c r="T9" s="361"/>
-      <c r="U9" s="361"/>
+      <c r="L9" s="358"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="358"/>
+      <c r="O9" s="358"/>
+      <c r="P9" s="358"/>
+      <c r="Q9" s="358"/>
+      <c r="R9" s="358"/>
+      <c r="S9" s="358"/>
+      <c r="T9" s="358"/>
+      <c r="U9" s="358"/>
       <c r="V9" s="29"/>
-      <c r="W9" s="357" t="s">
+      <c r="W9" s="354" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="358"/>
-      <c r="Y9" s="358"/>
-      <c r="Z9" s="359"/>
+      <c r="X9" s="355"/>
+      <c r="Y9" s="355"/>
+      <c r="Z9" s="356"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="350" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="350" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="354" t="s">
+      <c r="C10" s="350" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="354" t="s">
+      <c r="D10" s="350" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="354" t="s">
+      <c r="E10" s="350" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="354" t="s">
+      <c r="F10" s="350" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="354" t="s">
+      <c r="G10" s="350" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="362" t="s">
+      <c r="H10" s="359" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="362" t="s">
+      <c r="I10" s="359" t="s">
         <v>113</v>
       </c>
       <c r="J10" s="30"/>
-      <c r="K10" s="363" t="s">
+      <c r="K10" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="363" t="s">
+      <c r="L10" s="349" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="77"/>
-      <c r="N10" s="363" t="s">
+      <c r="N10" s="349" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="363" t="s">
+      <c r="O10" s="349" t="s">
         <v>82</v>
       </c>
       <c r="P10" s="77"/>
-      <c r="Q10" s="363" t="s">
+      <c r="Q10" s="349" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="363" t="s">
+      <c r="R10" s="349" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="77"/>
-      <c r="T10" s="363" t="s">
+      <c r="T10" s="349" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="363" t="s">
+      <c r="U10" s="349" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="30"/>
-      <c r="W10" s="356" t="s">
+      <c r="W10" s="353" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="356" t="s">
+      <c r="X10" s="353" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" s="356" t="s">
+      <c r="Y10" s="353" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" s="354" t="s">
+      <c r="Z10" s="350" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1">
-      <c r="A11" s="355"/>
-      <c r="B11" s="355"/>
-      <c r="C11" s="355"/>
-      <c r="D11" s="355"/>
-      <c r="E11" s="355"/>
-      <c r="F11" s="355"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="355"/>
-      <c r="I11" s="355"/>
+      <c r="A11" s="351"/>
+      <c r="B11" s="351"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="351"/>
+      <c r="G11" s="351"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="351"/>
       <c r="J11" s="30"/>
-      <c r="K11" s="286">
+      <c r="K11" s="283">
         <v>2018</v>
       </c>
-      <c r="L11" s="286">
+      <c r="L11" s="283">
         <v>2023</v>
       </c>
-      <c r="M11" s="286"/>
-      <c r="N11" s="286">
+      <c r="M11" s="283"/>
+      <c r="N11" s="283">
         <v>2018</v>
       </c>
-      <c r="O11" s="286">
+      <c r="O11" s="283">
         <v>2023</v>
       </c>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286">
+      <c r="P11" s="283"/>
+      <c r="Q11" s="283">
         <v>2018</v>
       </c>
-      <c r="R11" s="286">
+      <c r="R11" s="283">
         <v>2023</v>
       </c>
-      <c r="S11" s="286"/>
-      <c r="T11" s="286">
+      <c r="S11" s="283"/>
+      <c r="T11" s="283">
         <v>2018</v>
       </c>
-      <c r="U11" s="286">
+      <c r="U11" s="283">
         <v>2023</v>
       </c>
       <c r="V11" s="30"/>
-      <c r="W11" s="355"/>
-      <c r="X11" s="355"/>
-      <c r="Y11" s="355"/>
-      <c r="Z11" s="355"/>
+      <c r="W11" s="351"/>
+      <c r="X11" s="351"/>
+      <c r="Y11" s="351"/>
+      <c r="Z11" s="351"/>
     </row>
     <row r="12" spans="1:32" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="287" t="s">
+      <c r="B12" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="288">
+      <c r="C12" s="285">
         <v>2.1</v>
       </c>
-      <c r="D12" s="289">
+      <c r="D12" s="286">
         <v>97.9</v>
       </c>
-      <c r="E12" s="290">
+      <c r="E12" s="287">
         <v>2020</v>
       </c>
-      <c r="F12" s="291" t="s">
+      <c r="F12" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="292" t="s">
+      <c r="G12" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="290">
+      <c r="H12" s="287">
         <v>21</v>
       </c>
-      <c r="I12" s="290">
+      <c r="I12" s="287">
         <v>9</v>
       </c>
       <c r="J12" s="38"/>
-      <c r="K12" s="288">
+      <c r="K12" s="285">
         <v>2.1</v>
       </c>
-      <c r="L12" s="289">
+      <c r="L12" s="286">
         <v>2.1505292610683502</v>
       </c>
-      <c r="M12" s="289"/>
-      <c r="N12" s="289">
+      <c r="M12" s="286"/>
+      <c r="N12" s="286">
         <v>97.9</v>
       </c>
-      <c r="O12" s="293">
+      <c r="O12" s="290">
         <v>97.849470738931601</v>
       </c>
-      <c r="P12" s="291"/>
-      <c r="Q12" s="291" t="s">
+      <c r="P12" s="288"/>
+      <c r="Q12" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="291" t="s">
+      <c r="R12" s="288" t="s">
         <v>90</v>
       </c>
-      <c r="S12" s="294"/>
-      <c r="T12" s="295" t="s">
+      <c r="S12" s="291"/>
+      <c r="T12" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="292" t="s">
+      <c r="U12" s="289" t="s">
         <v>92</v>
       </c>
       <c r="V12" s="38"/>
-      <c r="W12" s="288">
+      <c r="W12" s="285">
         <v>-5.0529261068405197E-2</v>
       </c>
-      <c r="X12" s="296">
+      <c r="X12" s="293">
         <v>1674.905</v>
       </c>
-      <c r="Y12" s="296">
+      <c r="Y12" s="293">
         <v>-0.84631712009777194</v>
       </c>
-      <c r="Z12" s="288">
+      <c r="Z12" s="285">
         <v>-3.2126742392498101E-3</v>
       </c>
       <c r="AA12" s="33"/>
@@ -12886,14 +12458,14 @@
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
-      <c r="W30" s="311" t="s">
+      <c r="W30" s="308" t="s">
         <v>103</v>
       </c>
-      <c r="X30" s="312"/>
-      <c r="Y30" s="309" t="s">
+      <c r="X30" s="309"/>
+      <c r="Y30" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="Z30" s="310"/>
+      <c r="Z30" s="307"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="45" t="s">
@@ -12920,14 +12492,14 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="26"/>
-      <c r="W31" s="313" t="s">
+      <c r="W31" s="310" t="s">
         <v>106</v>
       </c>
-      <c r="X31" s="314"/>
-      <c r="Y31" s="308" t="s">
+      <c r="X31" s="311"/>
+      <c r="Y31" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="Z31" s="308" t="s">
+      <c r="Z31" s="305" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12956,14 +12528,14 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="26"/>
-      <c r="W32" s="305" t="s">
+      <c r="W32" s="302" t="s">
         <v>108</v>
       </c>
-      <c r="X32" s="305"/>
-      <c r="Y32" s="305">
+      <c r="X32" s="302"/>
+      <c r="Y32" s="302">
         <v>1660448.0263009099</v>
       </c>
-      <c r="Z32" s="305">
+      <c r="Z32" s="302">
         <v>1634119.5355378301</v>
       </c>
       <c r="AA32" s="31"/>
@@ -12993,14 +12565,14 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="26"/>
-      <c r="W33" s="305" t="s">
+      <c r="W33" s="302" t="s">
         <v>110</v>
       </c>
-      <c r="X33" s="305"/>
-      <c r="Y33" s="305">
+      <c r="X33" s="302"/>
+      <c r="Y33" s="302">
         <v>-691434.53619569901</v>
       </c>
-      <c r="Z33" s="305">
+      <c r="Z33" s="302">
         <v>-691196.56527598796</v>
       </c>
       <c r="AA33" s="31"/>
@@ -13028,10 +12600,10 @@
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
-      <c r="W34" s="306" t="s">
-        <v>439</v>
-      </c>
-      <c r="X34" s="307"/>
+      <c r="W34" s="303" t="s">
+        <v>421</v>
+      </c>
+      <c r="X34" s="304"/>
       <c r="Y34" s="237">
         <f>Y32+Y33</f>
         <v>969013.49010521092</v>
@@ -13063,11 +12635,11 @@
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
-      <c r="W35" s="305" t="s">
+      <c r="W35" s="302" t="s">
         <v>111</v>
       </c>
-      <c r="X35" s="305"/>
-      <c r="Y35" s="305">
+      <c r="X35" s="302"/>
+      <c r="Y35" s="302">
         <v>3.6784375539831999</v>
       </c>
       <c r="Z35" s="236">
@@ -13468,11 +13040,6 @@
     <row r="76" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="Y10:Y11"/>
@@ -13489,6 +13056,11 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E28">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -13598,32 +13170,32 @@
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="361" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="364" t="s">
+      <c r="C4" s="360" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="364"/>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="364"/>
-      <c r="Q4" s="364"/>
-      <c r="R4" s="364"/>
-      <c r="S4" s="364"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="364"/>
-      <c r="V4" s="364"/>
-      <c r="W4" s="364"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="360"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="360"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="360"/>
+      <c r="M4" s="360"/>
+      <c r="N4" s="360"/>
+      <c r="O4" s="360"/>
+      <c r="P4" s="360"/>
+      <c r="Q4" s="360"/>
+      <c r="R4" s="360"/>
+      <c r="S4" s="360"/>
+      <c r="T4" s="360"/>
+      <c r="U4" s="360"/>
+      <c r="V4" s="360"/>
+      <c r="W4" s="360"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
@@ -13640,7 +13212,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="13"/>
-      <c r="B5" s="366"/>
+      <c r="B5" s="362"/>
       <c r="C5" s="239" t="s">
         <v>126</v>
       </c>
@@ -14647,28 +14219,28 @@
       <c r="W22" s="240"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="367"/>
-      <c r="C23" s="367"/>
-      <c r="D23" s="367"/>
-      <c r="E23" s="367"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="367"/>
-      <c r="H23" s="367"/>
-      <c r="I23" s="367"/>
-      <c r="J23" s="367"/>
-      <c r="K23" s="367"/>
-      <c r="L23" s="367"/>
-      <c r="M23" s="367"/>
-      <c r="N23" s="367"/>
-      <c r="O23" s="367"/>
-      <c r="P23" s="367"/>
-      <c r="Q23" s="367"/>
-      <c r="R23" s="367"/>
-      <c r="S23" s="367"/>
-      <c r="T23" s="367"/>
-      <c r="U23" s="367"/>
-      <c r="V23" s="367"/>
-      <c r="W23" s="367"/>
+      <c r="B23" s="363"/>
+      <c r="C23" s="363"/>
+      <c r="D23" s="363"/>
+      <c r="E23" s="363"/>
+      <c r="F23" s="363"/>
+      <c r="G23" s="363"/>
+      <c r="H23" s="363"/>
+      <c r="I23" s="363"/>
+      <c r="J23" s="363"/>
+      <c r="K23" s="363"/>
+      <c r="L23" s="363"/>
+      <c r="M23" s="363"/>
+      <c r="N23" s="363"/>
+      <c r="O23" s="363"/>
+      <c r="P23" s="363"/>
+      <c r="Q23" s="363"/>
+      <c r="R23" s="363"/>
+      <c r="S23" s="363"/>
+      <c r="T23" s="363"/>
+      <c r="U23" s="363"/>
+      <c r="V23" s="363"/>
+      <c r="W23" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14707,7 +14279,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -14722,17 +14294,17 @@
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="365" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="365" t="s">
+      <c r="B4" s="361" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="361" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="364" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" s="364"/>
-      <c r="F4" s="364"/>
+      <c r="D4" s="360" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="360"/>
+      <c r="F4" s="360"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -14749,8 +14321,8 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="13"/>
-      <c r="B5" s="366"/>
-      <c r="C5" s="366"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="362"/>
       <c r="D5" s="239" t="s">
         <v>88</v>
       </c>
@@ -14775,10 +14347,10 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="307" t="s">
+      <c r="B6" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="304" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="240">
@@ -14793,7 +14365,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C7" s="175" t="s">
         <v>2</v>
@@ -14810,7 +14382,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C8" s="175" t="s">
         <v>2</v>
@@ -14827,7 +14399,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="B9" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C9" s="175" t="s">
         <v>2</v>
@@ -14843,10 +14415,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="307" t="s">
+      <c r="B10" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="304" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="240">
@@ -14861,7 +14433,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C11" s="175" t="s">
         <v>9</v>
@@ -14878,7 +14450,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C12" s="175" t="s">
         <v>9</v>
@@ -14895,7 +14467,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C13" s="175" t="s">
         <v>9</v>
@@ -14911,10 +14483,10 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="307" t="s">
+      <c r="B14" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="304" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="241">
@@ -14929,7 +14501,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C15" s="175" t="s">
         <v>3</v>
@@ -14946,7 +14518,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C16" s="175" t="s">
         <v>3</v>
@@ -14963,7 +14535,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C17" s="175" t="s">
         <v>3</v>
@@ -14979,10 +14551,10 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="307" t="s">
+      <c r="B18" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="304" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="241">
@@ -14997,7 +14569,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C19" s="175" t="s">
         <v>93</v>
@@ -15014,7 +14586,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C20" s="175" t="s">
         <v>93</v>
@@ -15031,7 +14603,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C21" s="175" t="s">
         <v>93</v>
@@ -15047,10 +14619,10 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" s="307" t="s">
+      <c r="B22" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="304" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="240">
@@ -15065,7 +14637,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C23" s="175" t="s">
         <v>12</v>
@@ -15082,7 +14654,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C24" s="175" t="s">
         <v>12</v>
@@ -15099,7 +14671,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C25" s="175" t="s">
         <v>12</v>
@@ -15115,10 +14687,10 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="307" t="s">
+      <c r="B26" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="304" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="240">
@@ -15129,7 +14701,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C27" s="175" t="s">
         <v>33</v>
@@ -15142,7 +14714,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C28" s="175" t="s">
         <v>33</v>
@@ -15155,7 +14727,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C29" s="175" t="s">
         <v>33</v>
@@ -15167,10 +14739,10 @@
       <c r="F29" s="241"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C30" s="307" t="s">
+      <c r="B30" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="304" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="240">
@@ -15181,7 +14753,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C31" s="175" t="s">
         <v>13</v>
@@ -15194,7 +14766,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C32" s="175" t="s">
         <v>13</v>
@@ -15207,7 +14779,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C33" s="175" t="s">
         <v>13</v>
@@ -15219,10 +14791,10 @@
       <c r="F33" s="241"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C34" s="307" t="s">
+      <c r="B34" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="304" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="241">
@@ -15237,7 +14809,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C35" s="175" t="s">
         <v>8</v>
@@ -15254,7 +14826,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C36" s="175" t="s">
         <v>8</v>
@@ -15271,7 +14843,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C37" s="175" t="s">
         <v>8</v>
@@ -15287,10 +14859,10 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C38" s="307" t="s">
+      <c r="B38" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="304" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="240">
@@ -15305,7 +14877,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C39" s="175" t="s">
         <v>7</v>
@@ -15322,7 +14894,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C40" s="175" t="s">
         <v>7</v>
@@ -15339,7 +14911,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C41" s="175" t="s">
         <v>7</v>
@@ -15355,10 +14927,10 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C42" s="307" t="s">
+      <c r="B42" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="304" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="240">
@@ -15373,7 +14945,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C43" s="175" t="s">
         <v>97</v>
@@ -15390,7 +14962,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C44" s="175" t="s">
         <v>97</v>
@@ -15407,7 +14979,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C45" s="175" t="s">
         <v>97</v>
@@ -15423,10 +14995,10 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" s="307" t="s">
+      <c r="B46" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="304" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="241">
@@ -15441,7 +15013,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C47" s="175" t="s">
         <v>5</v>
@@ -15458,7 +15030,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C48" s="175" t="s">
         <v>5</v>
@@ -15475,7 +15047,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C49" s="175" t="s">
         <v>5</v>
@@ -15491,10 +15063,10 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" s="307" t="s">
+      <c r="B50" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="304" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="240">
@@ -15509,7 +15081,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C51" s="175" t="s">
         <v>10</v>
@@ -15526,7 +15098,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C52" s="175" t="s">
         <v>10</v>
@@ -15543,7 +15115,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C53" s="175" t="s">
         <v>10</v>
@@ -15559,10 +15131,10 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C54" s="307" t="s">
+      <c r="B54" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="304" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="241">
@@ -15577,7 +15149,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C55" s="175" t="s">
         <v>4</v>
@@ -15594,7 +15166,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C56" s="175" t="s">
         <v>4</v>
@@ -15611,7 +15183,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C57" s="175" t="s">
         <v>4</v>
@@ -15627,10 +15199,10 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" s="307" t="s">
+      <c r="B58" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="304" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="240">
@@ -15645,7 +15217,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C59" s="175" t="s">
         <v>14</v>
@@ -15662,7 +15234,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C60" s="175" t="s">
         <v>14</v>
@@ -15679,7 +15251,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C61" s="175" t="s">
         <v>14</v>
@@ -15695,10 +15267,10 @@
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="307" t="s">
+      <c r="B62" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="304" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="240">
@@ -15713,7 +15285,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C63" s="175" t="s">
         <v>6</v>
@@ -15730,7 +15302,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C64" s="175" t="s">
         <v>6</v>
@@ -15747,7 +15319,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C65" s="175" t="s">
         <v>6</v>
@@ -15763,10 +15335,10 @@
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C66" s="317" t="s">
+      <c r="B66" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" s="314" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="240">
@@ -15781,7 +15353,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>11</v>
@@ -15798,7 +15370,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>11</v>
@@ -15815,7 +15387,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>11</v>
@@ -15831,10 +15403,10 @@
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C70" s="307" t="s">
+      <c r="B70" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="304" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="240">
@@ -15849,7 +15421,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C71" s="175" t="s">
         <v>15</v>
@@ -15866,7 +15438,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C72" s="175" t="s">
         <v>15</v>
@@ -15883,7 +15455,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C73" s="175" t="s">
         <v>15</v>
@@ -15899,7 +15471,7 @@
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="C75" s="315" t="s">
+      <c r="C75" s="312" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16797,7 +16369,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
@@ -16812,7 +16384,7 @@
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="212" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C4" s="212" t="s">
         <v>40</v>
@@ -16827,12 +16399,12 @@
         <v>43</v>
       </c>
       <c r="G4" s="212" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C5" s="220" t="s">
         <v>227</v>
@@ -16841,18 +16413,18 @@
         <v>156</v>
       </c>
       <c r="E5" s="221" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F5" s="220" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="222" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C6" s="220" t="s">
         <v>228</v>
@@ -16861,18 +16433,18 @@
         <v>159</v>
       </c>
       <c r="E6" s="221" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F6" s="220" t="s">
         <v>229</v>
       </c>
       <c r="G6" s="222" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C7" s="220" t="s">
         <v>230</v>
@@ -16890,7 +16462,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C8" s="220" t="s">
         <v>233</v>
@@ -16908,7 +16480,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C9" s="220" t="s">
         <v>236</v>
@@ -16923,12 +16495,12 @@
         <v>173</v>
       </c>
       <c r="G9" s="222" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C10" s="220" t="s">
         <v>237</v>
@@ -16937,18 +16509,18 @@
         <v>175</v>
       </c>
       <c r="E10" s="221" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F10" s="220" t="s">
         <v>175</v>
       </c>
       <c r="G10" s="222" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C11" s="220" t="s">
         <v>238</v>
@@ -16957,18 +16529,18 @@
         <v>178</v>
       </c>
       <c r="E11" s="221" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F11" s="220" t="s">
         <v>239</v>
       </c>
       <c r="G11" s="222" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C12" s="220" t="s">
         <v>240</v>
@@ -16986,7 +16558,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C13" s="220" t="s">
         <v>242</v>
@@ -16995,18 +16567,18 @@
         <v>184</v>
       </c>
       <c r="E13" s="221" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F13" s="220" t="s">
         <v>243</v>
       </c>
       <c r="G13" s="249" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C14" s="220" t="s">
         <v>244</v>
@@ -17015,18 +16587,18 @@
         <v>187</v>
       </c>
       <c r="E14" s="221" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F14" s="220" t="s">
         <v>245</v>
       </c>
       <c r="G14" s="249" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C15" s="220" t="s">
         <v>246</v>
@@ -17035,18 +16607,18 @@
         <v>189</v>
       </c>
       <c r="E15" s="221" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="F15" s="220" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="222" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C16" s="220" t="s">
         <v>247</v>
@@ -17055,18 +16627,18 @@
         <v>194</v>
       </c>
       <c r="E16" s="221" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F16" s="220" t="s">
         <v>248</v>
       </c>
       <c r="G16" s="249" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C17" s="220" t="s">
         <v>249</v>
@@ -17081,12 +16653,12 @@
         <v>250</v>
       </c>
       <c r="G17" s="249" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C18" s="220" t="s">
         <v>251</v>
@@ -17104,7 +16676,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C19" s="220" t="s">
         <v>254</v>
@@ -17122,7 +16694,7 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C20" s="220" t="s">
         <v>257</v>
@@ -17131,18 +16703,18 @@
         <v>203</v>
       </c>
       <c r="E20" s="221" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F20" s="220" t="s">
         <v>258</v>
       </c>
       <c r="G20" s="249" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="220" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C21" s="221" t="s">
         <v>259</v>
@@ -17151,24 +16723,24 @@
         <v>208</v>
       </c>
       <c r="E21" s="221" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F21" s="220" t="s">
         <v>208</v>
       </c>
       <c r="G21" s="222" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C22" s="217" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="217" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="E22" s="218" t="s">
         <v>258</v>
@@ -17178,231 +16750,231 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C23" s="217" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D23" s="217" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E23" s="218" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F23" s="217"/>
       <c r="G23" s="219"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C24" s="217" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D24" s="217" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E24" s="218" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F24" s="217"/>
       <c r="G24" s="219"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C25" s="217" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D25" s="217" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E25" s="218" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F25" s="217"/>
       <c r="G25" s="219"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C26" s="217" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D26" s="217" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E26" s="218" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F26" s="217"/>
       <c r="G26" s="219"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C27" s="217" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D27" s="217" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E27" s="218" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F27" s="217"/>
       <c r="G27" s="219"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="217" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="217" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="217" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="217" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" s="217" t="s">
-        <v>389</v>
-      </c>
       <c r="E28" s="218" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F28" s="217"/>
       <c r="G28" s="219"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C29" s="217" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D29" s="217" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="E29" s="218" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="F29" s="217"/>
       <c r="G29" s="219"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C30" s="217" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="D30" s="217" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E30" s="218" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F30" s="217"/>
       <c r="G30" s="219"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C31" s="217" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D31" s="217" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E31" s="218" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="F31" s="217"/>
       <c r="G31" s="219"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C32" s="217" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D32" s="217" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="E32" s="218" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F32" s="217"/>
       <c r="G32" s="219"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C33" s="217" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D33" s="217" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E33" s="218" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F33" s="217"/>
       <c r="G33" s="219"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C34" s="217" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D34" s="217" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E34" s="218" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F34" s="217"/>
       <c r="G34" s="219"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C35" s="217" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D35" s="217" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="E35" s="218" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F35" s="217"/>
       <c r="G35" s="219"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="218" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C36" s="218" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D36" s="218" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E36" s="218" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F36" s="217"/>
       <c r="G36" s="219"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C37" s="217" t="s">
         <v>313</v>
@@ -17418,7 +16990,7 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C38" s="217" t="s">
         <v>315</v>
@@ -17434,7 +17006,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C39" s="217" t="s">
         <v>318</v>
@@ -17450,7 +17022,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C40" s="217" t="s">
         <v>320</v>
@@ -17466,7 +17038,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C41" s="217" t="s">
         <v>322</v>
@@ -17482,7 +17054,7 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C42" s="217" t="s">
         <v>324</v>
@@ -17498,7 +17070,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C43" s="217" t="s">
         <v>326</v>
@@ -17514,23 +17086,23 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="218" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C44" s="218" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D44" s="218" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E44" s="218" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="F44" s="217"/>
       <c r="G44" s="219"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C45" s="217" t="s">
         <v>328</v>
@@ -17546,7 +17118,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C46" s="217" t="s">
         <v>329</v>
@@ -17562,7 +17134,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="217" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C47" s="217" t="s">
         <v>330</v>
@@ -17578,7 +17150,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C48" s="214" t="s">
         <v>44</v>
@@ -17596,7 +17168,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C49" s="214" t="s">
         <v>47</v>
@@ -17614,7 +17186,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C50" s="214" t="s">
         <v>49</v>
@@ -17632,7 +17204,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C51" s="214" t="s">
         <v>122</v>
@@ -17650,7 +17222,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C52" s="214" t="s">
         <v>51</v>
@@ -17668,7 +17240,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C53" s="214" t="s">
         <v>53</v>
@@ -17686,7 +17258,7 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C54" s="214" t="s">
         <v>55</v>
@@ -17704,7 +17276,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C55" s="214" t="s">
         <v>57</v>
@@ -17722,7 +17294,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C56" s="214" t="s">
         <v>59</v>
@@ -17740,13 +17312,13 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C57" s="214" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="215" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E57" s="215" t="s">
         <v>62</v>
@@ -17755,12 +17327,12 @@
         <v>24</v>
       </c>
       <c r="G57" s="216" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C58" s="214" t="s">
         <v>63</v>
@@ -17775,12 +17347,12 @@
         <v>25</v>
       </c>
       <c r="G58" s="216" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C59" s="214" t="s">
         <v>65</v>
@@ -17798,7 +17370,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C60" s="214" t="s">
         <v>67</v>
@@ -17816,7 +17388,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C61" s="214" t="s">
         <v>69</v>
@@ -17834,7 +17406,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C62" s="214" t="s">
         <v>71</v>
@@ -17852,7 +17424,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C63" s="214" t="s">
         <v>73</v>
@@ -17870,7 +17442,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="214" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C64" s="214" t="s">
         <v>51</v>
@@ -18103,7 +17675,7 @@
     </row>
     <row r="6" spans="1:31" ht="18.75">
       <c r="A6" s="124" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="B6" s="124"/>
       <c r="C6" s="124"/>
@@ -18142,8 +17714,8 @@
       <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31" ht="18.75">
-      <c r="A7" s="266" t="s">
-        <v>446</v>
+      <c r="A7" s="263" t="s">
+        <v>428</v>
       </c>
       <c r="B7" s="124"/>
       <c r="C7" s="124"/>
@@ -18213,30 +17785,30 @@
     </row>
     <row r="9" spans="1:31" ht="18.75">
       <c r="A9" s="75"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="332" t="s">
+      <c r="B9" s="262"/>
+      <c r="C9" s="328" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="328"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="332" t="s">
+      <c r="I9" s="328" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="332"/>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="332"/>
-      <c r="O9" s="332"/>
-      <c r="P9" s="332"/>
-      <c r="Q9" s="332"/>
-      <c r="R9" s="332"/>
-      <c r="S9" s="332"/>
-      <c r="T9" s="332"/>
-      <c r="U9" s="332"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="328"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="328"/>
+      <c r="N9" s="328"/>
+      <c r="O9" s="328"/>
+      <c r="P9" s="328"/>
+      <c r="Q9" s="328"/>
+      <c r="R9" s="328"/>
+      <c r="S9" s="328"/>
+      <c r="T9" s="328"/>
+      <c r="U9" s="328"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -18251,45 +17823,45 @@
     <row r="10" spans="1:31" ht="14.45" customHeight="1">
       <c r="A10" s="76"/>
       <c r="B10" s="76"/>
-      <c r="C10" s="333" t="s">
+      <c r="C10" s="329" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="333" t="s">
+      <c r="D10" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="327" t="s">
+      <c r="E10" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="327" t="s">
+      <c r="F10" s="323" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="327" t="s">
+      <c r="G10" s="323" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="327" t="s">
+      <c r="I10" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="327"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="327" t="s">
+      <c r="J10" s="323"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="323" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="327"/>
-      <c r="N10" s="256"/>
-      <c r="O10" s="336" t="s">
-        <v>450</v>
-      </c>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="327" t="s">
+      <c r="M10" s="323"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="332" t="s">
+        <v>432</v>
+      </c>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="323" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="327"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="327" t="s">
+      <c r="R10" s="323"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="323" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="327"/>
+      <c r="U10" s="323"/>
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
       <c r="X10" s="45"/>
@@ -18308,11 +17880,11 @@
       <c r="B11" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="334"/>
-      <c r="D11" s="334"/>
-      <c r="E11" s="335"/>
-      <c r="F11" s="335"/>
-      <c r="G11" s="335"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
       <c r="H11" s="29"/>
       <c r="I11" s="98">
         <v>2018</v>
@@ -18328,7 +17900,7 @@
         <v>2023</v>
       </c>
       <c r="N11" s="99"/>
-      <c r="O11" s="337"/>
+      <c r="O11" s="333"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="98">
         <v>2018</v>
@@ -18570,52 +18142,52 @@
       <c r="AE15" s="13"/>
     </row>
     <row r="16" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A16" s="298" t="s">
+      <c r="A16" s="295" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="298" t="s">
+      <c r="B16" s="295" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="299">
+      <c r="C16" s="296">
         <v>94.3</v>
       </c>
-      <c r="D16" s="299"/>
-      <c r="E16" s="300">
+      <c r="D16" s="296"/>
+      <c r="E16" s="297">
         <v>2012</v>
       </c>
-      <c r="F16" s="300" t="s">
+      <c r="F16" s="297" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="301" t="s">
+      <c r="G16" s="298" t="s">
         <v>169</v>
       </c>
       <c r="H16" s="38"/>
-      <c r="I16" s="299">
+      <c r="I16" s="296">
         <v>95.124245509999994</v>
       </c>
-      <c r="J16" s="299">
+      <c r="J16" s="296">
         <v>95.710750450000006</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="302"/>
-      <c r="M16" s="302"/>
-      <c r="N16" s="303"/>
-      <c r="O16" s="304">
+      <c r="K16" s="296"/>
+      <c r="L16" s="299"/>
+      <c r="M16" s="299"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="301">
         <f t="shared" si="0"/>
         <v>0.58650494000001174</v>
       </c>
-      <c r="P16" s="303"/>
-      <c r="Q16" s="300" t="s">
+      <c r="P16" s="300"/>
+      <c r="Q16" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="300" t="s">
+      <c r="R16" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="303"/>
-      <c r="T16" s="301" t="s">
+      <c r="S16" s="300"/>
+      <c r="T16" s="298" t="s">
         <v>163</v>
       </c>
-      <c r="U16" s="301" t="s">
+      <c r="U16" s="298" t="s">
         <v>163</v>
       </c>
       <c r="V16" s="45"/>
@@ -18770,48 +18342,48 @@
         <v>175</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="258">
+        <v>387</v>
+      </c>
+      <c r="C20" s="255">
         <v>64.595253999999997</v>
       </c>
-      <c r="D20" s="258"/>
-      <c r="E20" s="259">
+      <c r="D20" s="255"/>
+      <c r="E20" s="256">
         <v>2018</v>
       </c>
-      <c r="F20" s="259" t="s">
+      <c r="F20" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="260" t="s">
+      <c r="G20" s="257" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="261"/>
-      <c r="I20" s="258">
+      <c r="H20" s="258"/>
+      <c r="I20" s="255">
         <v>64.595253999999997</v>
       </c>
-      <c r="J20" s="258">
+      <c r="J20" s="255">
         <v>72.525628659999995</v>
       </c>
-      <c r="K20" s="258"/>
-      <c r="L20" s="262"/>
-      <c r="M20" s="262"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="264">
+      <c r="K20" s="255"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="260"/>
+      <c r="O20" s="261">
         <f t="shared" ref="O20:O22" si="1">IF(OR(ISBLANK(I20),ISBLANK(J20)),"",J20-I20)</f>
         <v>7.9303746599999982</v>
       </c>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="259" t="s">
+      <c r="P20" s="260"/>
+      <c r="Q20" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="R20" s="259" t="s">
+      <c r="R20" s="256" t="s">
         <v>90</v>
       </c>
-      <c r="S20" s="263"/>
-      <c r="T20" s="260" t="s">
+      <c r="S20" s="260"/>
+      <c r="T20" s="257" t="s">
         <v>177</v>
       </c>
-      <c r="U20" s="260" t="s">
+      <c r="U20" s="257" t="s">
         <v>163</v>
       </c>
       <c r="V20" s="45"/>
@@ -18830,7 +18402,7 @@
         <v>178</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
@@ -18866,52 +18438,52 @@
       <c r="AE21" s="13"/>
     </row>
     <row r="22" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A22" s="298" t="s">
+      <c r="A22" s="295" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="298" t="s">
+      <c r="B22" s="295" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="299">
+      <c r="C22" s="296">
         <v>94.258510000000001</v>
       </c>
-      <c r="D22" s="299"/>
-      <c r="E22" s="300">
+      <c r="D22" s="296"/>
+      <c r="E22" s="297">
         <v>2016</v>
       </c>
-      <c r="F22" s="300" t="s">
+      <c r="F22" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="301" t="s">
+      <c r="G22" s="298" t="s">
         <v>181</v>
       </c>
       <c r="H22" s="38"/>
-      <c r="I22" s="299">
+      <c r="I22" s="296">
         <v>94.910256009999998</v>
       </c>
-      <c r="J22" s="299">
+      <c r="J22" s="296">
         <v>96.093194519999997</v>
       </c>
-      <c r="K22" s="299"/>
-      <c r="L22" s="302"/>
-      <c r="M22" s="302"/>
-      <c r="N22" s="303"/>
-      <c r="O22" s="304">
+      <c r="K22" s="296"/>
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="300"/>
+      <c r="O22" s="301">
         <f t="shared" si="1"/>
         <v>1.1829385099999996</v>
       </c>
-      <c r="P22" s="303"/>
-      <c r="Q22" s="300" t="s">
+      <c r="P22" s="300"/>
+      <c r="Q22" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="300" t="s">
+      <c r="R22" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="S22" s="303"/>
-      <c r="T22" s="301" t="s">
+      <c r="S22" s="300"/>
+      <c r="T22" s="298" t="s">
         <v>163</v>
       </c>
-      <c r="U22" s="301" t="s">
+      <c r="U22" s="298" t="s">
         <v>163</v>
       </c>
       <c r="V22" s="45"/>
@@ -19140,61 +18712,61 @@
       <c r="AE26" s="13"/>
     </row>
     <row r="27" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A27" s="298" t="s">
+      <c r="A27" s="295" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="295" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="299">
+      <c r="C27" s="296">
         <v>21.8</v>
       </c>
-      <c r="D27" s="299">
+      <c r="D27" s="296">
         <f>IF(C27&lt;&gt;"",100-C27,"")</f>
         <v>78.2</v>
       </c>
-      <c r="E27" s="300">
+      <c r="E27" s="297">
         <v>2018</v>
       </c>
-      <c r="F27" s="300" t="s">
+      <c r="F27" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="301" t="s">
+      <c r="G27" s="298" t="s">
         <v>102</v>
       </c>
       <c r="H27" s="38"/>
-      <c r="I27" s="299">
+      <c r="I27" s="296">
         <v>21.8</v>
       </c>
-      <c r="J27" s="299">
+      <c r="J27" s="296">
         <v>18.100000000000001</v>
       </c>
-      <c r="K27" s="299"/>
-      <c r="L27" s="302">
+      <c r="K27" s="296"/>
+      <c r="L27" s="299">
         <f>IF(I27&lt;&gt;"",100-I27,"")</f>
         <v>78.2</v>
       </c>
-      <c r="M27" s="302">
+      <c r="M27" s="299">
         <f>IF(J27&lt;&gt;"",100-J27,"")</f>
         <v>81.900000000000006</v>
       </c>
-      <c r="N27" s="303"/>
-      <c r="O27" s="304">
+      <c r="N27" s="300"/>
+      <c r="O27" s="301">
         <f t="shared" si="2"/>
         <v>-3.6999999999999993</v>
       </c>
-      <c r="P27" s="303"/>
-      <c r="Q27" s="300" t="s">
+      <c r="P27" s="300"/>
+      <c r="Q27" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="R27" s="300" t="s">
+      <c r="R27" s="297" t="s">
         <v>191</v>
       </c>
-      <c r="S27" s="303"/>
-      <c r="T27" s="301" t="s">
+      <c r="S27" s="300"/>
+      <c r="T27" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="U27" s="301" t="s">
+      <c r="U27" s="298" t="s">
         <v>102</v>
       </c>
       <c r="V27" s="45"/>
@@ -19354,7 +18926,7 @@
       <c r="AE30" s="13"/>
     </row>
     <row r="31" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A31" s="329" t="s">
+      <c r="A31" s="325" t="s">
         <v>197</v>
       </c>
       <c r="B31" s="81" t="s">
@@ -19415,7 +18987,7 @@
       <c r="AE31" s="13"/>
     </row>
     <row r="32" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A32" s="330"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="81" t="s">
         <v>199</v>
       </c>
@@ -19473,7 +19045,7 @@
       <c r="AE32" s="13"/>
     </row>
     <row r="33" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A33" s="331"/>
+      <c r="A33" s="327"/>
       <c r="B33" s="81" t="s">
         <v>202</v>
       </c>
@@ -19531,52 +19103,52 @@
       <c r="AE33" s="13"/>
     </row>
     <row r="34" spans="1:31" ht="25.5" customHeight="1">
-      <c r="A34" s="298" t="s">
+      <c r="A34" s="295" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="298" t="s">
+      <c r="B34" s="295" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="299">
+      <c r="C34" s="296">
         <v>64</v>
       </c>
-      <c r="D34" s="299"/>
-      <c r="E34" s="300">
+      <c r="D34" s="296"/>
+      <c r="E34" s="297">
         <v>2018</v>
       </c>
-      <c r="F34" s="300" t="s">
+      <c r="F34" s="297" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="301" t="s">
+      <c r="G34" s="298" t="s">
         <v>205</v>
       </c>
       <c r="H34" s="38"/>
-      <c r="I34" s="299">
+      <c r="I34" s="296">
         <v>64</v>
       </c>
-      <c r="J34" s="299">
+      <c r="J34" s="296">
         <v>71.315232589999994</v>
       </c>
-      <c r="K34" s="299"/>
-      <c r="L34" s="302"/>
-      <c r="M34" s="302"/>
-      <c r="N34" s="303"/>
-      <c r="O34" s="304">
+      <c r="K34" s="296"/>
+      <c r="L34" s="299"/>
+      <c r="M34" s="299"/>
+      <c r="N34" s="300"/>
+      <c r="O34" s="301">
         <f t="shared" si="3"/>
         <v>7.3152325899999937</v>
       </c>
-      <c r="P34" s="303"/>
-      <c r="Q34" s="300" t="s">
+      <c r="P34" s="300"/>
+      <c r="Q34" s="297" t="s">
         <v>161</v>
       </c>
-      <c r="R34" s="300" t="s">
+      <c r="R34" s="297" t="s">
         <v>191</v>
       </c>
-      <c r="S34" s="303"/>
-      <c r="T34" s="301" t="s">
+      <c r="S34" s="300"/>
+      <c r="T34" s="298" t="s">
         <v>205</v>
       </c>
-      <c r="U34" s="301" t="s">
+      <c r="U34" s="298" t="s">
         <v>163</v>
       </c>
       <c r="V34" s="45"/>
@@ -19633,7 +19205,7 @@
     </row>
     <row r="36" spans="1:31" ht="15" customHeight="1">
       <c r="A36" s="184" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B36" s="91"/>
       <c r="C36" s="105"/>
@@ -19673,58 +19245,58 @@
       <c r="AE36" s="13"/>
     </row>
     <row r="37" spans="1:31" ht="36.950000000000003" customHeight="1">
-      <c r="A37" s="298" t="s">
+      <c r="A37" s="295" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="298" t="s">
+      <c r="B37" s="295" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="299">
+      <c r="C37" s="296">
         <v>16.899999999999999</v>
       </c>
-      <c r="D37" s="299"/>
-      <c r="E37" s="300">
+      <c r="D37" s="296"/>
+      <c r="E37" s="297">
         <v>2004</v>
       </c>
-      <c r="F37" s="300" t="s">
+      <c r="F37" s="297" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="301" t="s">
+      <c r="G37" s="298" t="s">
         <v>209</v>
       </c>
       <c r="H37" s="38"/>
-      <c r="I37" s="299">
+      <c r="I37" s="296">
         <v>21.41</v>
       </c>
-      <c r="J37" s="299">
+      <c r="J37" s="296">
         <v>20.53</v>
       </c>
-      <c r="K37" s="299"/>
-      <c r="L37" s="302">
+      <c r="K37" s="296"/>
+      <c r="L37" s="299">
         <f>100-I37</f>
         <v>78.59</v>
       </c>
-      <c r="M37" s="302">
+      <c r="M37" s="299">
         <f>100-J37</f>
         <v>79.47</v>
       </c>
-      <c r="N37" s="303"/>
-      <c r="O37" s="304">
+      <c r="N37" s="300"/>
+      <c r="O37" s="301">
         <f>IF(OR(ISBLANK(L37),ISBLANK(M37)),"",M37-L37)</f>
         <v>0.87999999999999545</v>
       </c>
-      <c r="P37" s="303"/>
-      <c r="Q37" s="300" t="s">
+      <c r="P37" s="300"/>
+      <c r="Q37" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="R37" s="300" t="s">
+      <c r="R37" s="297" t="s">
         <v>90</v>
       </c>
-      <c r="S37" s="303"/>
-      <c r="T37" s="301" t="s">
+      <c r="S37" s="300"/>
+      <c r="T37" s="298" t="s">
         <v>210</v>
       </c>
-      <c r="U37" s="301" t="s">
+      <c r="U37" s="298" t="s">
         <v>210</v>
       </c>
       <c r="V37" s="45"/>
@@ -19739,34 +19311,34 @@
       <c r="AE37" s="13"/>
     </row>
     <row r="38" spans="1:31" ht="15" customHeight="1">
-      <c r="A38" s="267"/>
-      <c r="B38" s="267" t="s">
+      <c r="A38" s="264"/>
+      <c r="B38" s="264" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="268"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="268"/>
-      <c r="K38" s="268"/>
-      <c r="L38" s="273">
+      <c r="C38" s="265"/>
+      <c r="D38" s="265"/>
+      <c r="E38" s="265"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="265"/>
+      <c r="I38" s="265"/>
+      <c r="J38" s="265"/>
+      <c r="K38" s="265"/>
+      <c r="L38" s="270">
         <f>L36*L37/100</f>
         <v>61.09664039777099</v>
       </c>
-      <c r="M38" s="274">
+      <c r="M38" s="271">
         <f>M36*M37/100</f>
         <v>63.310803650646406</v>
       </c>
-      <c r="N38" s="268"/>
-      <c r="O38" s="275"/>
-      <c r="P38" s="268"/>
-      <c r="Q38" s="268"/>
-      <c r="R38" s="268"/>
-      <c r="S38" s="268"/>
-      <c r="T38" s="268"/>
-      <c r="U38" s="268"/>
+      <c r="N38" s="265"/>
+      <c r="O38" s="272"/>
+      <c r="P38" s="265"/>
+      <c r="Q38" s="265"/>
+      <c r="R38" s="265"/>
+      <c r="S38" s="265"/>
+      <c r="T38" s="265"/>
+      <c r="U38" s="265"/>
       <c r="V38" s="45"/>
       <c r="W38" s="45"/>
       <c r="X38" s="45"/>
@@ -19779,31 +19351,31 @@
       <c r="AE38" s="13"/>
     </row>
     <row r="39" spans="1:31" ht="15" customHeight="1">
-      <c r="A39" s="269"/>
-      <c r="B39" s="270" t="s">
+      <c r="A39" s="266"/>
+      <c r="B39" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="270"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="270"/>
-      <c r="I39" s="272"/>
-      <c r="J39" s="272"/>
-      <c r="K39" s="272"/>
-      <c r="L39" s="272"/>
-      <c r="M39" s="276">
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="269"/>
+      <c r="K39" s="269"/>
+      <c r="L39" s="269"/>
+      <c r="M39" s="273">
         <f>M38-L38</f>
         <v>2.2141632528754158</v>
       </c>
-      <c r="N39" s="272"/>
-      <c r="O39" s="277"/>
-      <c r="P39" s="272"/>
-      <c r="Q39" s="272"/>
-      <c r="R39" s="272"/>
-      <c r="S39" s="272"/>
-      <c r="T39" s="272"/>
-      <c r="U39" s="272"/>
+      <c r="N39" s="269"/>
+      <c r="O39" s="274"/>
+      <c r="P39" s="269"/>
+      <c r="Q39" s="269"/>
+      <c r="R39" s="269"/>
+      <c r="S39" s="269"/>
+      <c r="T39" s="269"/>
+      <c r="U39" s="269"/>
       <c r="V39" s="45"/>
       <c r="W39" s="45"/>
       <c r="X39" s="45"/>
@@ -19816,30 +19388,30 @@
       <c r="AE39" s="13"/>
     </row>
     <row r="40" spans="1:31" ht="15" customHeight="1">
-      <c r="A40" s="269"/>
-      <c r="B40" s="269" t="s">
+      <c r="A40" s="266"/>
+      <c r="B40" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="270"/>
-      <c r="I40" s="272"/>
-      <c r="J40" s="272"/>
-      <c r="K40" s="272"/>
-      <c r="L40" s="272"/>
-      <c r="M40" s="278">
+      <c r="C40" s="267"/>
+      <c r="D40" s="267"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="267"/>
+      <c r="G40" s="267"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
+      <c r="M40" s="275">
         <v>46409.173000000003</v>
       </c>
-      <c r="N40" s="272"/>
-      <c r="O40" s="279"/>
-      <c r="P40" s="272"/>
-      <c r="Q40" s="272"/>
-      <c r="R40" s="272"/>
-      <c r="S40" s="272"/>
-      <c r="T40" s="272"/>
-      <c r="U40" s="272"/>
+      <c r="N40" s="269"/>
+      <c r="O40" s="276"/>
+      <c r="P40" s="269"/>
+      <c r="Q40" s="269"/>
+      <c r="R40" s="269"/>
+      <c r="S40" s="269"/>
+      <c r="T40" s="269"/>
+      <c r="U40" s="269"/>
       <c r="V40" s="45"/>
       <c r="W40" s="45"/>
       <c r="X40" s="45"/>
@@ -19852,31 +19424,31 @@
       <c r="AE40" s="13"/>
     </row>
     <row r="41" spans="1:31" ht="15" customHeight="1">
-      <c r="A41" s="271"/>
-      <c r="B41" s="271" t="s">
+      <c r="A41" s="268"/>
+      <c r="B41" s="268" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="272"/>
-      <c r="D41" s="272"/>
-      <c r="E41" s="272"/>
-      <c r="F41" s="272"/>
-      <c r="G41" s="272"/>
-      <c r="I41" s="272"/>
-      <c r="J41" s="272"/>
-      <c r="K41" s="272"/>
-      <c r="L41" s="272"/>
-      <c r="M41" s="280">
+      <c r="C41" s="269"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
+      <c r="I41" s="269"/>
+      <c r="J41" s="269"/>
+      <c r="K41" s="269"/>
+      <c r="L41" s="269"/>
+      <c r="M41" s="277">
         <f>M39*M40/100</f>
         <v>1027.5748545293793</v>
       </c>
-      <c r="N41" s="272"/>
-      <c r="O41" s="279"/>
-      <c r="P41" s="272"/>
-      <c r="Q41" s="272"/>
-      <c r="R41" s="272"/>
-      <c r="S41" s="272"/>
-      <c r="T41" s="272"/>
-      <c r="U41" s="272"/>
+      <c r="N41" s="269"/>
+      <c r="O41" s="276"/>
+      <c r="P41" s="269"/>
+      <c r="Q41" s="269"/>
+      <c r="R41" s="269"/>
+      <c r="S41" s="269"/>
+      <c r="T41" s="269"/>
+      <c r="U41" s="269"/>
       <c r="V41" s="45"/>
       <c r="W41" s="45"/>
       <c r="X41" s="45"/>
@@ -19889,31 +19461,31 @@
       <c r="AE41" s="13"/>
     </row>
     <row r="42" spans="1:31" ht="15" customHeight="1">
-      <c r="A42" s="271"/>
-      <c r="B42" s="271" t="s">
+      <c r="A42" s="268"/>
+      <c r="B42" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="272"/>
-      <c r="G42" s="272"/>
-      <c r="I42" s="272"/>
-      <c r="J42" s="272"/>
-      <c r="K42" s="272"/>
-      <c r="L42" s="272"/>
-      <c r="M42" s="281">
+      <c r="C42" s="269"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="269"/>
+      <c r="L42" s="269"/>
+      <c r="M42" s="278">
         <f>M41/M40</f>
         <v>2.214163252875416E-2</v>
       </c>
-      <c r="N42" s="272"/>
-      <c r="O42" s="282"/>
-      <c r="P42" s="272"/>
-      <c r="Q42" s="272"/>
-      <c r="R42" s="272"/>
-      <c r="S42" s="272"/>
-      <c r="T42" s="272"/>
-      <c r="U42" s="272"/>
+      <c r="N42" s="269"/>
+      <c r="O42" s="279"/>
+      <c r="P42" s="269"/>
+      <c r="Q42" s="269"/>
+      <c r="R42" s="269"/>
+      <c r="S42" s="269"/>
+      <c r="T42" s="269"/>
+      <c r="U42" s="269"/>
       <c r="V42" s="45"/>
       <c r="W42" s="45"/>
       <c r="X42" s="45"/>
@@ -20095,7 +19667,7 @@
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1">
       <c r="A48" s="69" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B48" s="69"/>
       <c r="C48" s="13"/>
@@ -20129,7 +19701,7 @@
     </row>
     <row r="49" spans="1:31" ht="15" customHeight="1">
       <c r="A49" s="69" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B49" s="69"/>
       <c r="C49" s="13"/>
@@ -20162,29 +19734,29 @@
       <c r="AE49" s="13"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1">
-      <c r="A50" s="328" t="s">
+      <c r="A50" s="324" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="328"/>
-      <c r="C50" s="328"/>
-      <c r="D50" s="328"/>
-      <c r="E50" s="328"/>
-      <c r="F50" s="328"/>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="328"/>
-      <c r="O50" s="328"/>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="328"/>
-      <c r="S50" s="328"/>
-      <c r="T50" s="328"/>
-      <c r="U50" s="328"/>
+      <c r="B50" s="324"/>
+      <c r="C50" s="324"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="324"/>
+      <c r="G50" s="324"/>
+      <c r="H50" s="324"/>
+      <c r="I50" s="324"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="324"/>
+      <c r="L50" s="324"/>
+      <c r="M50" s="324"/>
+      <c r="N50" s="324"/>
+      <c r="O50" s="324"/>
+      <c r="P50" s="324"/>
+      <c r="Q50" s="324"/>
+      <c r="R50" s="324"/>
+      <c r="S50" s="324"/>
+      <c r="T50" s="324"/>
+      <c r="U50" s="324"/>
       <c r="V50" s="67"/>
       <c r="W50" s="13"/>
       <c r="X50" s="13"/>
@@ -20197,27 +19769,27 @@
       <c r="AE50" s="13"/>
     </row>
     <row r="51" spans="1:31" ht="15" customHeight="1">
-      <c r="A51" s="328"/>
-      <c r="B51" s="328"/>
-      <c r="C51" s="328"/>
-      <c r="D51" s="328"/>
-      <c r="E51" s="328"/>
-      <c r="F51" s="328"/>
-      <c r="G51" s="328"/>
-      <c r="H51" s="328"/>
-      <c r="I51" s="328"/>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="328"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="328"/>
-      <c r="O51" s="328"/>
-      <c r="P51" s="328"/>
-      <c r="Q51" s="328"/>
-      <c r="R51" s="328"/>
-      <c r="S51" s="328"/>
-      <c r="T51" s="328"/>
-      <c r="U51" s="328"/>
+      <c r="A51" s="324"/>
+      <c r="B51" s="324"/>
+      <c r="C51" s="324"/>
+      <c r="D51" s="324"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="324"/>
+      <c r="G51" s="324"/>
+      <c r="H51" s="324"/>
+      <c r="I51" s="324"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="324"/>
+      <c r="L51" s="324"/>
+      <c r="M51" s="324"/>
+      <c r="N51" s="324"/>
+      <c r="O51" s="324"/>
+      <c r="P51" s="324"/>
+      <c r="Q51" s="324"/>
+      <c r="R51" s="324"/>
+      <c r="S51" s="324"/>
+      <c r="T51" s="324"/>
+      <c r="U51" s="324"/>
       <c r="V51" s="67"/>
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
@@ -20230,27 +19802,27 @@
       <c r="AE51" s="13"/>
     </row>
     <row r="52" spans="1:31" ht="15" customHeight="1">
-      <c r="A52" s="328"/>
-      <c r="B52" s="328"/>
-      <c r="C52" s="328"/>
-      <c r="D52" s="328"/>
-      <c r="E52" s="328"/>
-      <c r="F52" s="328"/>
-      <c r="G52" s="328"/>
-      <c r="H52" s="328"/>
-      <c r="I52" s="328"/>
-      <c r="J52" s="328"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="328"/>
-      <c r="M52" s="328"/>
-      <c r="N52" s="328"/>
-      <c r="O52" s="328"/>
-      <c r="P52" s="328"/>
-      <c r="Q52" s="328"/>
-      <c r="R52" s="328"/>
-      <c r="S52" s="328"/>
-      <c r="T52" s="328"/>
-      <c r="U52" s="328"/>
+      <c r="A52" s="324"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="324"/>
+      <c r="D52" s="324"/>
+      <c r="E52" s="324"/>
+      <c r="F52" s="324"/>
+      <c r="G52" s="324"/>
+      <c r="H52" s="324"/>
+      <c r="I52" s="324"/>
+      <c r="J52" s="324"/>
+      <c r="K52" s="324"/>
+      <c r="L52" s="324"/>
+      <c r="M52" s="324"/>
+      <c r="N52" s="324"/>
+      <c r="O52" s="324"/>
+      <c r="P52" s="324"/>
+      <c r="Q52" s="324"/>
+      <c r="R52" s="324"/>
+      <c r="S52" s="324"/>
+      <c r="T52" s="324"/>
+      <c r="U52" s="324"/>
       <c r="V52" s="67"/>
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
@@ -21096,33 +20668,33 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="338" t="s">
+      <c r="B4" s="334" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="336" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="340"/>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="340"/>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="340"/>
-      <c r="N4" s="340"/>
-      <c r="O4" s="340"/>
-      <c r="P4" s="340"/>
-      <c r="Q4" s="340"/>
-      <c r="R4" s="340"/>
-      <c r="S4" s="340"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="340"/>
-      <c r="V4" s="340"/>
-      <c r="W4" s="340"/>
-      <c r="X4" s="340"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336"/>
+      <c r="M4" s="336"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="336"/>
+      <c r="Q4" s="336"/>
+      <c r="R4" s="336"/>
+      <c r="S4" s="336"/>
+      <c r="T4" s="336"/>
+      <c r="U4" s="336"/>
+      <c r="V4" s="336"/>
+      <c r="W4" s="336"/>
+      <c r="X4" s="336"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
@@ -21139,7 +20711,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="13"/>
-      <c r="B5" s="339"/>
+      <c r="B5" s="335"/>
       <c r="C5" s="74" t="s">
         <v>126</v>
       </c>
@@ -22332,30 +21904,30 @@
       </c>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="341" t="s">
+      <c r="B25" s="337" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="341"/>
-      <c r="D25" s="341"/>
-      <c r="E25" s="341"/>
-      <c r="F25" s="341"/>
-      <c r="G25" s="341"/>
-      <c r="H25" s="341"/>
-      <c r="I25" s="341"/>
-      <c r="J25" s="341"/>
-      <c r="K25" s="341"/>
-      <c r="L25" s="341"/>
-      <c r="M25" s="341"/>
-      <c r="N25" s="341"/>
-      <c r="O25" s="341"/>
-      <c r="P25" s="341"/>
-      <c r="Q25" s="341"/>
-      <c r="R25" s="341"/>
-      <c r="S25" s="341"/>
-      <c r="T25" s="341"/>
-      <c r="U25" s="341"/>
-      <c r="V25" s="341"/>
-      <c r="W25" s="341"/>
+      <c r="C25" s="337"/>
+      <c r="D25" s="337"/>
+      <c r="E25" s="337"/>
+      <c r="F25" s="337"/>
+      <c r="G25" s="337"/>
+      <c r="H25" s="337"/>
+      <c r="I25" s="337"/>
+      <c r="J25" s="337"/>
+      <c r="K25" s="337"/>
+      <c r="L25" s="337"/>
+      <c r="M25" s="337"/>
+      <c r="N25" s="337"/>
+      <c r="O25" s="337"/>
+      <c r="P25" s="337"/>
+      <c r="Q25" s="337"/>
+      <c r="R25" s="337"/>
+      <c r="S25" s="337"/>
+      <c r="T25" s="337"/>
+      <c r="U25" s="337"/>
+      <c r="V25" s="337"/>
+      <c r="W25" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22394,7 +21966,7 @@
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="21">
       <c r="B2" s="14" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
@@ -22409,17 +21981,17 @@
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="338" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="338" t="s">
+      <c r="B4" s="334" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="334" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="340" t="s">
-        <v>468</v>
-      </c>
-      <c r="E4" s="340"/>
-      <c r="F4" s="340"/>
+      <c r="D4" s="336" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -22436,8 +22008,8 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="13"/>
-      <c r="B5" s="339"/>
-      <c r="C5" s="339"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="335"/>
       <c r="D5" s="74" t="s">
         <v>88</v>
       </c>
@@ -22462,10 +22034,10 @@
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="316" t="s">
+      <c r="B6" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="313" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="187">
@@ -22480,7 +22052,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>156</v>
@@ -22500,7 +22072,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>156</v>
@@ -22520,7 +22092,7 @@
     </row>
     <row r="9" spans="1:19" ht="23.25">
       <c r="B9" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>156</v>
@@ -22539,10 +22111,10 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="316" t="s">
+      <c r="B10" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="313" t="s">
         <v>159</v>
       </c>
       <c r="D10" s="187"/>
@@ -22551,7 +22123,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>159</v>
@@ -22571,7 +22143,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>159</v>
@@ -22591,7 +22163,7 @@
     </row>
     <row r="13" spans="1:19" ht="23.25">
       <c r="B13" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>159</v>
@@ -22610,10 +22182,10 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="316" t="s">
+      <c r="B14" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="313" t="s">
         <v>164</v>
       </c>
       <c r="D14" s="187">
@@ -22628,7 +22200,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>164</v>
@@ -22648,7 +22220,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>164</v>
@@ -22668,7 +22240,7 @@
     </row>
     <row r="17" spans="2:6" ht="23.25">
       <c r="B17" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>164</v>
@@ -22687,10 +22259,10 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="316" t="s">
+      <c r="B18" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="313" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="187"/>
@@ -22699,7 +22271,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>167</v>
@@ -22719,7 +22291,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>167</v>
@@ -22739,7 +22311,7 @@
     </row>
     <row r="21" spans="2:6" ht="23.25">
       <c r="B21" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>167</v>
@@ -22758,10 +22330,10 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C22" s="316" t="s">
+      <c r="B22" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="313" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="187">
@@ -22776,7 +22348,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>172</v>
@@ -22796,7 +22368,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>172</v>
@@ -22816,7 +22388,7 @@
     </row>
     <row r="25" spans="2:6" ht="23.25">
       <c r="B25" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>172</v>
@@ -22835,10 +22407,10 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="316" t="s">
+      <c r="B26" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="313" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="187">
@@ -22853,7 +22425,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>175</v>
@@ -22873,7 +22445,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>175</v>
@@ -22893,7 +22465,7 @@
     </row>
     <row r="29" spans="2:6" ht="23.25">
       <c r="B29" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>175</v>
@@ -22912,10 +22484,10 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C30" s="316" t="s">
+      <c r="B30" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="313" t="s">
         <v>178</v>
       </c>
       <c r="D30" s="187"/>
@@ -22924,7 +22496,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>178</v>
@@ -22944,7 +22516,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>178</v>
@@ -22964,7 +22536,7 @@
     </row>
     <row r="33" spans="2:6" ht="23.25">
       <c r="B33" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>178</v>
@@ -22983,10 +22555,10 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C34" s="316" t="s">
+      <c r="B34" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="313" t="s">
         <v>179</v>
       </c>
       <c r="D34" s="187">
@@ -23001,7 +22573,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>179</v>
@@ -23021,7 +22593,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>179</v>
@@ -23041,7 +22613,7 @@
     </row>
     <row r="37" spans="2:6" ht="23.25">
       <c r="B37" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>179</v>
@@ -23060,10 +22632,10 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C38" s="316" t="s">
+      <c r="B38" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="313" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="187">
@@ -23078,7 +22650,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>184</v>
@@ -23098,7 +22670,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>184</v>
@@ -23118,7 +22690,7 @@
     </row>
     <row r="41" spans="2:6" ht="23.25">
       <c r="B41" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>184</v>
@@ -23137,10 +22709,10 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C42" s="316" t="s">
+      <c r="B42" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="313" t="s">
         <v>187</v>
       </c>
       <c r="D42" s="187">
@@ -23155,7 +22727,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>187</v>
@@ -23175,7 +22747,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>187</v>
@@ -23195,7 +22767,7 @@
     </row>
     <row r="45" spans="2:6" ht="23.25">
       <c r="B45" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>187</v>
@@ -23214,10 +22786,10 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" s="316" t="s">
+      <c r="B46" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="313" t="s">
         <v>189</v>
       </c>
       <c r="D46" s="187">
@@ -23232,7 +22804,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>189</v>
@@ -23252,7 +22824,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>189</v>
@@ -23272,7 +22844,7 @@
     </row>
     <row r="49" spans="2:6" ht="23.25">
       <c r="B49" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>189</v>
@@ -23291,10 +22863,10 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" s="316" t="s">
+      <c r="B50" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="313" t="s">
         <v>194</v>
       </c>
       <c r="D50" s="187">
@@ -23309,7 +22881,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>194</v>
@@ -23329,7 +22901,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>194</v>
@@ -23349,7 +22921,7 @@
     </row>
     <row r="53" spans="2:6" ht="23.25">
       <c r="B53" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>194</v>
@@ -23368,10 +22940,10 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C54" s="316" t="s">
+      <c r="B54" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="313" t="s">
         <v>197</v>
       </c>
       <c r="D54" s="187">
@@ -23386,7 +22958,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>197</v>
@@ -23406,7 +22978,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>197</v>
@@ -23426,7 +22998,7 @@
     </row>
     <row r="57" spans="2:6" ht="23.25">
       <c r="B57" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>197</v>
@@ -23445,10 +23017,10 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" s="316" t="s">
+      <c r="B58" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="313" t="s">
         <v>252</v>
       </c>
       <c r="D58" s="187">
@@ -23463,7 +23035,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>252</v>
@@ -23483,7 +23055,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>252</v>
@@ -23503,7 +23075,7 @@
     </row>
     <row r="61" spans="2:6" ht="23.25">
       <c r="B61" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>252</v>
@@ -23522,10 +23094,10 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="23.25">
-      <c r="B62" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="316" t="s">
+      <c r="B62" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="313" t="s">
         <v>255</v>
       </c>
       <c r="D62" s="187">
@@ -23540,7 +23112,7 @@
     </row>
     <row r="63" spans="2:6" ht="23.25">
       <c r="B63" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>255</v>
@@ -23560,7 +23132,7 @@
     </row>
     <row r="64" spans="2:6" ht="23.25">
       <c r="B64" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>255</v>
@@ -23580,7 +23152,7 @@
     </row>
     <row r="65" spans="2:6" ht="23.25">
       <c r="B65" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>255</v>
@@ -23599,10 +23171,10 @@
       </c>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C66" s="316" t="s">
+      <c r="B66" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" s="313" t="s">
         <v>203</v>
       </c>
       <c r="D66" s="187">
@@ -23617,7 +23189,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>203</v>
@@ -23637,7 +23209,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>203</v>
@@ -23657,7 +23229,7 @@
     </row>
     <row r="69" spans="2:6" ht="23.25">
       <c r="B69" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>203</v>
@@ -23676,10 +23248,10 @@
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C70" s="316" t="s">
+      <c r="B70" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C70" s="313" t="s">
         <v>208</v>
       </c>
       <c r="D70" s="187"/>
@@ -23688,7 +23260,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>208</v>
@@ -23708,7 +23280,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>208</v>
@@ -23728,7 +23300,7 @@
     </row>
     <row r="73" spans="2:6" ht="23.25">
       <c r="B73" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>208</v>
@@ -23747,10 +23319,10 @@
       </c>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C74" s="316" t="s">
+      <c r="B74" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" s="313" t="s">
         <v>207</v>
       </c>
       <c r="D74" s="187">
@@ -23765,7 +23337,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>207</v>
@@ -23785,7 +23357,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>207</v>
@@ -23805,7 +23377,7 @@
     </row>
     <row r="77" spans="2:6" ht="23.25">
       <c r="B77" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>207</v>
@@ -23824,10 +23396,10 @@
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="316" t="s">
-        <v>463</v>
-      </c>
-      <c r="C78" s="316" t="s">
+      <c r="B78" s="313" t="s">
+        <v>439</v>
+      </c>
+      <c r="C78" s="313" t="s">
         <v>211</v>
       </c>
       <c r="D78" s="187">
@@ -23842,7 +23414,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="22" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>211</v>
@@ -23862,7 +23434,7 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="22" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>211</v>
@@ -23882,7 +23454,7 @@
     </row>
     <row r="81" spans="2:6" ht="23.25">
       <c r="B81" s="22" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>211</v>
@@ -23901,12 +23473,12 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="C83" s="315" t="s">
+      <c r="C83" s="312" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="315"/>
-      <c r="E83" s="315"/>
-      <c r="F83" s="315"/>
+      <c r="D83" s="312"/>
+      <c r="E83" s="312"/>
+      <c r="F83" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24122,7 +23694,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="280" t="s">
         <v>160</v>
       </c>
       <c r="B4" s="49">
@@ -24159,7 +23731,7 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="284" t="s">
+      <c r="A5" s="281" t="s">
         <v>165</v>
       </c>
       <c r="B5" s="49">
@@ -24195,7 +23767,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="284" t="s">
+      <c r="A6" s="281" t="s">
         <v>168</v>
       </c>
       <c r="B6" s="49">
@@ -24267,7 +23839,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="283" t="s">
+      <c r="A8" s="280" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="49">
@@ -24303,7 +23875,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="284" t="s">
+      <c r="A9" s="281" t="s">
         <v>180</v>
       </c>
       <c r="B9" s="49">
@@ -24339,7 +23911,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="285" t="s">
+      <c r="A10" s="282" t="s">
         <v>185</v>
       </c>
       <c r="B10" s="49">
@@ -24375,7 +23947,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="284" t="s">
+      <c r="A11" s="281" t="s">
         <v>188</v>
       </c>
       <c r="B11" s="49">
@@ -24411,7 +23983,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="280" t="s">
         <v>190</v>
       </c>
       <c r="B12" s="49">
@@ -24447,7 +24019,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="285" t="s">
+      <c r="A13" s="282" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="49">
@@ -24483,7 +24055,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="284" t="s">
+      <c r="A14" s="281" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="49">
@@ -24519,7 +24091,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="283" t="s">
+      <c r="A15" s="280" t="s">
         <v>204</v>
       </c>
       <c r="B15" s="49">
@@ -24555,7 +24127,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="283"/>
+      <c r="A16" s="280"/>
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -24860,11 +24432,11 @@
         <f>F47/1000</f>
         <v>0</v>
       </c>
-      <c r="H5" s="346" t="s">
+      <c r="H5" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="347"/>
-      <c r="J5" s="347"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -24889,7 +24461,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="161" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="13"/>
@@ -24900,11 +24472,11 @@
         <f>F48</f>
         <v>0</v>
       </c>
-      <c r="H6" s="346" t="s">
+      <c r="H6" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="347"/>
-      <c r="J6" s="347"/>
+      <c r="I6" s="339"/>
+      <c r="J6" s="339"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -24928,8 +24500,8 @@
       <c r="AE6" s="13"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1">
-      <c r="A7" s="266" t="s">
-        <v>446</v>
+      <c r="A7" s="263" t="s">
+        <v>428</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -24940,11 +24512,11 @@
         <f>F49/1000</f>
         <v>0</v>
       </c>
-      <c r="H7" s="346" t="s">
+      <c r="H7" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="347"/>
-      <c r="J7" s="347"/>
+      <c r="I7" s="339"/>
+      <c r="J7" s="339"/>
       <c r="K7" s="65"/>
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
@@ -24968,7 +24540,7 @@
       <c r="AE7" s="13"/>
     </row>
     <row r="8" spans="1:31" ht="15" customHeight="1">
-      <c r="A8" s="266"/>
+      <c r="A8" s="263"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -25001,31 +24573,31 @@
       <c r="AE8" s="13"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="341" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="349"/>
-      <c r="C9" s="345" t="s">
+      <c r="B9" s="341"/>
+      <c r="C9" s="343" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="345"/>
-      <c r="E9" s="345"/>
-      <c r="F9" s="345"/>
-      <c r="G9" s="345"/>
+      <c r="D9" s="343"/>
+      <c r="E9" s="343"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="343"/>
       <c r="H9" s="155"/>
-      <c r="I9" s="348" t="s">
+      <c r="I9" s="340" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="348"/>
-      <c r="O9" s="348"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="348"/>
-      <c r="R9" s="348"/>
-      <c r="S9" s="348"/>
+      <c r="J9" s="340"/>
+      <c r="K9" s="340"/>
+      <c r="L9" s="340"/>
+      <c r="M9" s="340"/>
+      <c r="N9" s="340"/>
+      <c r="O9" s="340"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="340"/>
+      <c r="R9" s="340"/>
+      <c r="S9" s="340"/>
       <c r="T9" s="114"/>
       <c r="U9" s="114"/>
       <c r="V9" s="114"/>
@@ -25040,47 +24612,47 @@
       <c r="AE9" s="13"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="343" t="s">
+      <c r="A10" s="342" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="343" t="s">
+      <c r="B10" s="342" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="344" t="s">
+      <c r="C10" s="345" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="343" t="s">
+      <c r="D10" s="342" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="344" t="s">
+      <c r="E10" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="344" t="s">
+      <c r="F10" s="345" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="343" t="s">
+      <c r="G10" s="342" t="s">
         <v>152</v>
       </c>
       <c r="H10" s="126"/>
-      <c r="I10" s="342" t="s">
+      <c r="I10" s="344" t="s">
         <v>266</v>
       </c>
-      <c r="J10" s="342"/>
+      <c r="J10" s="344"/>
       <c r="K10" s="131"/>
-      <c r="L10" s="342" t="s">
+      <c r="L10" s="344" t="s">
         <v>267</v>
       </c>
-      <c r="M10" s="342"/>
+      <c r="M10" s="344"/>
       <c r="N10" s="131"/>
-      <c r="O10" s="342" t="s">
+      <c r="O10" s="344" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="342"/>
+      <c r="P10" s="344"/>
       <c r="Q10" s="131"/>
-      <c r="R10" s="342" t="s">
+      <c r="R10" s="344" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="342"/>
+      <c r="S10" s="344"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -25090,13 +24662,13 @@
       <c r="AE10" s="13"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="343"/>
-      <c r="B11" s="343"/>
-      <c r="C11" s="344"/>
-      <c r="D11" s="343"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="343"/>
+      <c r="A11" s="342"/>
+      <c r="B11" s="342"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="342"/>
       <c r="H11" s="126"/>
       <c r="I11" s="130">
         <v>2018</v>
@@ -26716,7 +26288,7 @@
     <row r="43" spans="1:31">
       <c r="A43" s="119"/>
       <c r="B43" s="205" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C43" s="120" t="str">
         <f>IFERROR(AVERAGE(C40:C42),"")</f>
@@ -26917,7 +26489,7 @@
       <c r="D48" s="116"/>
       <c r="E48" s="117"/>
       <c r="F48" s="165"/>
-      <c r="G48" s="297">
+      <c r="G48" s="294">
         <f>G47/G46*100</f>
         <v>12.303149606299213</v>
       </c>
@@ -27253,16 +26825,6 @@
     <row r="83" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="I9:S9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B10:B11"/>
@@ -27270,6 +26832,16 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="I9:S9"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D25 L13:M25">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -27310,21 +26882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB6FBD5E95BAB542B810C32545CA4E3B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c88f4da8c98e9c6f14dc759bd92b3b9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f244dd4c-ee25-4b14-a7cd-a89d47e877b9" xmlns:ns4="7d5efbb1-7b5c-4600-961f-d0c91f173691" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11dd0c1a7b4f1799f1daf73497fb7c0" ns3:_="" ns4:_="">
     <xsd:import namespace="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
@@ -27535,32 +27092,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B491DB35-4E91-4B2D-816E-03001B21F1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27577,4 +27124,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5668EAE9-BE2F-449B-83FE-5638B2ED2DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C5798F-31D9-455C-A266-3CF2A88C6872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7d5efbb1-7b5c-4600-961f-d0c91f173691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f244dd4c-ee25-4b14-a7cd-a89d47e877b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>